--- a/public/data/project_list.xlsx
+++ b/public/data/project_list.xlsx
@@ -964,7 +964,7 @@
     <t>Scent of month</t>
   </si>
   <si>
-    <t>각각의 달에서의 느낄 수 있는 특징을 취합해 시각적으로 재해석한 달력 디자인이다.</t>
+    <t>우리는 달이 바뀌며 시간이 지나고 있다는 것을 시각적으로 느낀다. 하지만 시각 만이 달의 변화와 흐름을 나타내고 있지는 않는다. 달마다 다른 온도와 기온, 풀의 냄새나 공기의 흐름 등 우리는 달의 변화를 다양한 방면에서 느끼고 있다. 이러한 추상적이고 복합적인 요소를 시각화하며 달력의 레이아웃을 디자인했다.</t>
   </si>
   <si>
     <t>그래픽_scent of month_디테일</t>
@@ -976,7 +976,7 @@
     <t>Geometry of palace</t>
   </si>
   <si>
-    <t>한국 궁에서 볼 수 있는 풍경을 추상적이고 기하학적으로 표현한 모션그래픽 영상이다.</t>
+    <t>한국의 궁은 복잡하고 화려함과 동시에 기하학적이다. 이러한 궁의 특징과 한국 전통적인 요소를 더해 좀 더 추상적이고 기하학적인 한국 궁에 대한 영상을 만들고자 했다.</t>
   </si>
   <si>
     <t>https://www.youtube.com/embed/kDpS2r0w8oA?si=RGcqzf3conRMxvgt</t>

--- a/public/data/project_list.xlsx
+++ b/public/data/project_list.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="설문지 응답 시트1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'설문지 응답 시트1'!$B$1:$J$79</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'설문지 응답 시트1'!$B$1:$J$80</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="415">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -57,16 +57,16 @@
     <t>작품당 1개의 폼 제출 (팀 작업의 경우 대표자가 제출), 구글 드라이브 내 폴더에 이미지 제출 후 해당 폼 제출, 파일명 앞 분야의 경우 브랜딩 / 그래픽 / UXUI / 영상 으로 구분</t>
   </si>
   <si>
-    <t>영상</t>
-  </si>
-  <si>
-    <t>박채린, 서예지</t>
-  </si>
-  <si>
-    <t>Pale Blue Dot</t>
-  </si>
-  <si>
-    <t>천문학자 칼 세이건은 지구를 ‘창백한 푸른 점’으로 표현하였다. 이처럼 인간에게는 너무나 거대하게 느껴지는 지구도 멀리 떨어져서 보면 작은 점에 불과하다. 갓 사회를 마주할 청년들에게도 지금의 자신이 처한 상황, 불안한 감정이 너무나 크게 다가오곤 한다. 우리는 이 뮤직비디오를 통하여 청년들에게 ‘지금의 괴로운 시기는 찰나이며, 우주라는 거대한 무대에서 보면 우리의 문제도 아주 작은 먼지와 같다.‘는 메시지를 담아냄으로써 공감과 위로를 전하고자 한다.</t>
+    <t>그래픽</t>
+  </si>
+  <si>
+    <t>서예지</t>
+  </si>
+  <si>
+    <t>minimalism</t>
+  </si>
+  <si>
+    <t>「minimalism」은 예술, 디자인, 건축 등 미니멀리즘이 활용된 다양한 분야를 폭넓게 담아낸 ‘미니멀리즘 개념북’이다. 이 책의 기획 의도는 단순함에서 우러나는 미를 추구한 수많은 예술가 및 디자이너의 작업을 소개함으로써, 독자에게 ‘less is more (적은 것이 많은 것이다)’라는 미니멀리즘의 미학을 전하는 것이다. ‘불필요한 요소들을 제거하고 대상의 본질만 남긴다’는 미니멀리즘의 이념을 디자인 컨셉으로 삼아, 정돈된 편집 방식과 군더더기 없는 고딕 계열 서체를 사용하여 제작하였다.</t>
   </si>
   <si>
     <t>구글 드라이브 내 썸네일 업로드를 완료하였습니다.</t>
@@ -75,31 +75,10 @@
     <t>구글 드라이브 내 디테일 이미지 업로드를 완료하였습니다.</t>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/FtLj8Qxd1m8?si=k8wxQ14G4l7K_MSg</t>
-  </si>
-  <si>
-    <t>영상_Pale Blue Dot_디테일</t>
-  </si>
-  <si>
-    <t>영상_Pale Blue Dot_썸네일</t>
-  </si>
-  <si>
-    <t>그래픽</t>
-  </si>
-  <si>
-    <t>서예지</t>
-  </si>
-  <si>
-    <t>minimalism</t>
-  </si>
-  <si>
-    <t>「minimalism」은 예술, 디자인, 건축 등 미니멀리즘이 활용된 다양한 분야를 폭넓게 담아낸 ‘미니멀리즘 개념북’이다. 이 책의 기획 의도는 단순함에서 우러나는 미를 추구한 수많은 예술가 및 디자이너의 작업을 소개함으로써, 독자에게 ‘less is more (적은 것이 많은 것이다)’라는 미니멀리즘의 미학을 전하는 것이다. ‘불필요한 요소들을 제거하고 대상의 본질만 남긴다’는 미니멀리즘의 이념을 디자인 컨셉으로 삼아, 정돈된 편집 방식과 군더더기 없는 고딕 계열 서체를 사용하여 제작하였다.</t>
-  </si>
-  <si>
     <t>그래픽_minimalism_디테일_수정본</t>
   </si>
   <si>
-    <t>브랜딩_mini(mail)ism_썸네일</t>
+    <t>그래픽_minimalism_썸네일</t>
   </si>
   <si>
     <t>qkrcofls13@naver.com</t>
@@ -120,88 +99,22 @@
     <t>그래픽_겨울 지나 여름에게로_썸네일</t>
   </si>
   <si>
-    <t>kathleen141731@gmail.com</t>
-  </si>
-  <si>
-    <t>UXUI</t>
-  </si>
-  <si>
-    <t>우민하</t>
-  </si>
-  <si>
-    <t>마음미술관</t>
-  </si>
-  <si>
-    <t>전시 관람을 통해 치유적인 경험을 유도하는 애플리케이션이다. 명상의 방법으로 그림 명상을 제안한다. 미술치료 분야에서 미술을 감상하는 것만으로도 치유적인 효과가 있다고 연구되었다. 전시를 가이드에 따라 관람하고, 그 경험을 이미지와 텍스트로 기록하는 것이 치유적인 효과의 원리이다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/tP0k-02XaFk?si=u85391Z9YNZBXU_H</t>
-  </si>
-  <si>
-    <t>UXUI_마음미술관_디테일</t>
+    <t>03chim08@naver.com</t>
+  </si>
+  <si>
+    <t>최혜빈</t>
+  </si>
+  <si>
+    <t>독립프로젝트:무주택자99</t>
+  </si>
+  <si>
+    <t>99년생 무주택 청년들의 독립을 준비하는 과정기를 담은 그래픽 프로젝트로 무주택 청년들이 느끼는 현실의 불안정함과 우울함, 그리고 독립생활의 이상적인 꿈과 희망이 공존하는 이야기. 독립과정의 다양한 모습을 기록하고 무주택자 청년들의 사회문제를 표현하고자 한 아카이빙 프로젝트이기도 하다.</t>
+  </si>
+  <si>
+    <t>그래픽_독립프로젝트무주택자99_디테일</t>
   </si>
   <si>
     <t>UXUI_마음미술관_썸네일</t>
-  </si>
-  <si>
-    <t>03chim08@naver.com</t>
-  </si>
-  <si>
-    <t>최혜빈</t>
-  </si>
-  <si>
-    <t>독립프로젝트:무주택자99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99년생 무주택 청년들의 독립을 준비하는 과정기를 담은 프로젝로 무주택 청년들이 느끼는 현실의 우울함과 불안정함이 존재하지만 비슷한 시기의 독립과정에서 모두 한 번쯤은 겪을만한 문제들을 함께 공감하고 위로하며 외로운 독립생활을 극복해나가자는 의지를 담아낸 프로젝트이다. </t>
-  </si>
-  <si>
-    <t>영상 분야로 디테일 이미지를 별도로 제출하지 않습니다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/SKbhbOkFI9s?si=0roXrHY77zmLgFJm</t>
-  </si>
-  <si>
-    <t>그래픽_독립프로젝트무주택자99_디테일</t>
-  </si>
-  <si>
-    <t>99년생 무주택 청년들의 독립을 준비하는 과정기를 담은 그래픽 프로젝트로 무주택 청년들이 느끼는 현실의 불안정함과 우울함, 그리고 독립생활의 이상적인 꿈과 희망이 공존하는 이야기. 독립과정의 다양한 모습을 기록하고 무주택자 청년들의 사회문제를 표현하고자 한 아카이빙 프로젝트이기도 하다.</t>
-  </si>
-  <si>
-    <t>akuak0627@naver.com</t>
-  </si>
-  <si>
-    <t>브랜딩</t>
-  </si>
-  <si>
-    <t>임해서</t>
-  </si>
-  <si>
-    <t>파블스</t>
-  </si>
-  <si>
-    <t>파블스는 식용 곤충을 이용한 대체식품을 통해 영양가 있는 식품을 제공하고, 환경 보호에 기여하고자 하는 브랜드이다. 귀여운 캐릭터와 디자인을 통해 소비자들에게 친숙하게 다가가며, 다양한 맛과 포장의 제품을 제공한다. 파블스의 주요 캐릭터인 파비(귀뚜라미), 풍이(장수애), 고니(고소애)는 각기 다른 영양소의 장점을 대표한다. 또한, 파블스의 카카오톡 이모티콘을 통해 소비자들이 캐릭터와 더욱 친밀감을 느낄 수 있도록 하였다.</t>
-  </si>
-  <si>
-    <t>브랜딩_파블스_디테일</t>
-  </si>
-  <si>
-    <t>브랜딩_파블스_썸네일</t>
-  </si>
-  <si>
-    <t>이 레, 임해서</t>
-  </si>
-  <si>
-    <t>루나리움</t>
-  </si>
-  <si>
-    <t>루나리움은 현대인들이 자신의 감정을 보다 체계적으로 이해하고 관리할 수 있도록 돕는 유용한 어플리케이션이다. 감정 관리에 중점을 둔 루나리움은 사용자가 자신의 감정을 간편하게 기록하고 분석할 수 있는 다양한 기능을 제공한다. 매일의 감정을 선택하고 메모를 추가할 수 있으며, 루니와의 대화를 통해 감정 변화를 시각적으로 분석하고 피드백도 받을 수 있어 사용자가 꾸준히 감정을 기록하도록 도와준다. 직관적이고 감성적인 디자인 요소는 사용자 경험을 극대화하며, AI 친구 루니는 사용자 맞춤형 대화를 이어나가며 마음을 편안하게 해준다.</t>
-  </si>
-  <si>
-    <t>UXUI_루나리움_디테일</t>
-  </si>
-  <si>
-    <t>UXUI_루나리움_썸네일</t>
   </si>
   <si>
     <t>jayeom0727@gmail.com</t>
@@ -221,65 +134,6 @@
   </si>
   <si>
     <t>그래픽_숨바꼭질_썸네일</t>
-  </si>
-  <si>
-    <t>숨바꼭질 (AR 동화)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">우리는 모두 같은 사람이고 사랑받을 권리가 있다. 하지만 본인과 다른 모습, 생각, 행동, 그리고 (범죄) 피해 사실을 가지고 있어 이들을 사회적으로 배제 시키는 일들이 아직도 많이 남아 있다. 이들을 돕고 배려하지 않고 무시하기 바쁘다. 오늘날에도 이러한 문제가 우리도 모르는 사이에도 많이 일어나고 있다. 이러한 부분에 심각성을 인지하고 문제를 해결하고자 이 동화를 만들게 되었다. 더해 이는 보기 편한 200 X 200mm 사이즈에 크기와 양장 제본에 형태를 가졌고, 동화 중간중간에 열었다 닫았다 할 수 있는 재밌는 요소가 들어가 있다.
-더해, 동화 우측 하단에 QR 코드를 탑재해 '숨바꼭질-AR 버전'으로도 즐길 수 있다. 이 동화를 통해 이러한 문제들이 멈추고 이들에게 위로와 쉼터가 되기를 기대해 본다.
-</t>
-  </si>
-  <si>
-    <t>jinideepsea@gmail.com</t>
-  </si>
-  <si>
-    <t>최지수</t>
-  </si>
-  <si>
-    <t>Carly Rae Jepsen - I Really Like You (2024 MV)</t>
-  </si>
-  <si>
-    <t>짝사랑이라는 순수하고 열정적인 감정에 초점을 맞춘 뮤직비디오로, 주인공의 다양한 자아들이 각기 다른 모습으로 고백을 향해 달려나가는 스토리를 통해 대중의 공감을 이끌고 추억하게 한다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/ycBxLaivWYk?si=wmosxWyjFDweAIZS</t>
-  </si>
-  <si>
-    <t>jeonglily@naver.com</t>
-  </si>
-  <si>
-    <t>박다희, 정승연</t>
-  </si>
-  <si>
-    <t>Trip with you</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어디에 있든, 어떤 상황이든 자신감있는 모습으로 빛날 수 있다는 점을 여행가방에 빗대어 함께하는 파트너로써의 브랜드 이미지를 담은 프로모션 영상이다. </t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/WtKYjDRgOfM?si=MFGtj1WFOoOIC5GH</t>
-  </si>
-  <si>
-    <t>ny990108@gmail.com</t>
-  </si>
-  <si>
-    <t>김나양</t>
-  </si>
-  <si>
-    <t>반짝이는 워터멜론' 오프닝 타이틀</t>
-  </si>
-  <si>
-    <t>드라마 '반짝이는 워터멜론'은 주인공이 과거로 돌아가서 어린 시절의 부모님을 만나 함께 청춘을 보내며 가족에 대한 사랑과 소중함에 대한 이야기를 그린다. 본 영상은 18세의 아들이 타임슬립을 통해 자신과 동갑인 아버지를 만나 함께 하는 이야기를 담았으며 청춘의 향기를 표현하고자 했다. 색연필로 채색한 듯한 아트워크로 밝고 따듯한 느낌을 나타냈고 드라마 속 주인공들의 감정적인 결합을 강조하여 동화 같은 감성을 전달하고자 했다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/_LRZ5-z6myA?si=YvdfTWp--36ZX09h</t>
-  </si>
-  <si>
-    <t>영상_반짝이는 워터멜론 오프팅 타이틀_디테일</t>
-  </si>
-  <si>
-    <t>영상_반짝이는 워터멜론 오프닝 타이틀_썸네일</t>
   </si>
   <si>
     <t>konggkdus@naver.com</t>
@@ -330,46 +184,10 @@
 재미있게 풀어낸 동화책이다.</t>
   </si>
   <si>
-    <t>cowls042@naver.com</t>
-  </si>
-  <si>
-    <t>김수진</t>
-  </si>
-  <si>
-    <t>카지노-Title Sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ‘붉은 꽃’과 싸움 흔적을 통해 ‘권력이나 부귀영화는 오래가지 못한다’는 의미와 인물의 허무한 감정을 3D 공간을 구현해 보여준다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/L14_gfHzenY?si=oCXrLfLn5NjWlFkD</t>
-  </si>
-  <si>
-    <t>영상_카지노 Title Sequence_디테일</t>
-  </si>
-  <si>
-    <t>영상_카지노_Title Sequence_썸네일</t>
-  </si>
-  <si>
-    <t>dlfp6736@hanmail.net</t>
-  </si>
-  <si>
-    <t>이레</t>
-  </si>
-  <si>
-    <t>드라마 '소년심판' 타이틀 시퀀스</t>
-  </si>
-  <si>
-    <t>드라마 '소년심판' 타이틀 시퀀스이다. 드라마의 처음과 끝인 '백성우'의 범죄로 시작하여 다시 법정에 선 모습을 보여준다. 이것은 드라마에서 전달하는 메시지인 '법으로 제대로 처벌 받지 못한 소년범은 다시 범죄를 저지른다'라는 내용을 담고 있다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/MEns05yu39I?si=AHPdjBt1UqXfSrlF</t>
-  </si>
-  <si>
-    <t>영상_소년심판_디테일</t>
-  </si>
-  <si>
-    <t>영상_소년심판_썸네일</t>
+    <t>ny990108@gmail.com</t>
+  </si>
+  <si>
+    <t>김나양</t>
   </si>
   <si>
     <t>EmotionTraffic</t>
@@ -400,27 +218,6 @@
   </si>
   <si>
     <t>그래픽_줄서기_썸네일</t>
-  </si>
-  <si>
-    <t>kkmin99@naver.com</t>
-  </si>
-  <si>
-    <t>김겸민</t>
-  </si>
-  <si>
-    <t>남겨진 날</t>
-  </si>
-  <si>
-    <t>어린 시절, 언제나 함께 여서 행복했지만 시간이 흐르고 남겨진 날들 뿐인  강아지의 시선을 담았다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/QY_1h1KZ6oc?si=opu2XleSlgig99Os</t>
-  </si>
-  <si>
-    <t>영상_남겨진 날_디테일</t>
-  </si>
-  <si>
-    <t>영상_남겨진 날_썸네일</t>
   </si>
   <si>
     <t>qksqlcquf@naver.com</t>
@@ -442,6 +239,39 @@
     <t>그래픽_대비의 초상_썸네일</t>
   </si>
   <si>
+    <t>jinideepsea@gmail.com</t>
+  </si>
+  <si>
+    <t>영상</t>
+  </si>
+  <si>
+    <t>최지수</t>
+  </si>
+  <si>
+    <t>Carly Rae Jepsen - I Really Like You (2024 MV)</t>
+  </si>
+  <si>
+    <t>짝사랑이라는 순수하고 열정적인 감정에 초점을 맞춘 뮤직비디오로, 주인공의 다양한 자아들이 각기 다른 모습으로 고백을 향해 달려나가는 스토리를 통해 대중의 공감을 이끌고 추억하게 한다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ycBxLaivWYk?si=wmosxWyjFDweAIZS</t>
+  </si>
+  <si>
+    <t>jeonglily@naver.com</t>
+  </si>
+  <si>
+    <t>박다희, 정승연</t>
+  </si>
+  <si>
+    <t>Trip with you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어디에 있든, 어떤 상황이든 자신감있는 모습으로 빛날 수 있다는 점을 여행가방에 빗대어 함께하는 파트너로써의 브랜드 이미지를 담은 프로모션 영상이다. </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/WtKYjDRgOfM?si=MFGtj1WFOoOIC5GH</t>
+  </si>
+  <si>
     <t>20ybae@naver.com</t>
   </si>
   <si>
@@ -460,28 +290,6 @@
     <t>그래픽_GO WELL_썸네일</t>
   </si>
   <si>
-    <t>mini(mail)ism</t>
-  </si>
-  <si>
-    <t>어쩐지 클릭하기조차 두려운 정리되지 않은 메일함. 이렇게 쌓여있는 메일은 약 4g, 대용량 메일은 약 50g까지 이산화탄소를 낮밤 가리지 않고 배출한다. '매일 메일 정리하는 라이프'라는 슬로건의 미니메일리즘은 사용자의 전반적인 생활 안에 녹아들어 규칙적인 습관 형성을 돕는다. 메일을 정리해 생산적이고 정돈된 삶을 즐기며, 탄소 발자국을 줄이고, 결국 미니멀한 삶을 추구한다는 메시지의 라이프 브랜드.</t>
-  </si>
-  <si>
-    <t>브랜딩_mini(mail)ism_디테일</t>
-  </si>
-  <si>
-    <t>MONTHLY STUDIO</t>
-  </si>
-  <si>
-    <t>다양한 관점이 요구되며 살아가는 세상에서 바라보는 전통은 어떠한지 고민하고
-독창성과 복고풍의 매력을 결합하여, 독특한 레트로 감성을 불어넣어 젊은 세대와 디지털 아트를 즐기는 사람들에게 새로운 매력을 선사한다. 그리고 디지털 시대의 연결성을 강조하며, 전통적인 화투 게임을 현대적인 플랫폼으로 끌어들여 신선한 경험을 제공하고자하는 브랜드이다.</t>
-  </si>
-  <si>
-    <t>브랜딩_MONTHLY STUDIO_디테일</t>
-  </si>
-  <si>
-    <t>브랜딩_MONTHLY STUDIO_썸네일</t>
-  </si>
-  <si>
     <t>hdh02y35@gmail.com</t>
   </si>
   <si>
@@ -500,124 +308,12 @@
     <t>그래픽_타입모터스_썸네일</t>
   </si>
   <si>
-    <t>is458518@gmail.com</t>
-  </si>
-  <si>
-    <t>김채린/2021120113</t>
-  </si>
-  <si>
-    <t>구강케어 브랜드 4분의1</t>
-  </si>
-  <si>
-    <t>생태계를 지키고 구강건강도 지키는 구강케어 브랜드 4분의1이다. 생태계 교란종인 가시상추는 충치와 치주염 예방 효능을 가지고 있어 기능성 치약 개발에 활용될 수 있다. 이를 통해 구강 건강과 생태계 교란종의 개체 수 조절이라는 두 마리 토끼를 동시에 잡을 수 있다.</t>
-  </si>
-  <si>
-    <t>브랜딩_4분의1_디테일</t>
-  </si>
-  <si>
-    <t>가와사키 브랜드 필름</t>
-  </si>
-  <si>
-    <t>현존하는 이륜차 브랜드 중 가장 진취적인 바이크를 만드는 가와사키의 감성을 담은 브랜드 필름이다.
-단지 이동 수단이 아닌, 레저로서의 진정한 바이크를 즐길 수 있는 시간이 되길 바란다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/amPpWxNLngc?si=MPUw6f_5qZF2rGDm</t>
-  </si>
-  <si>
-    <t>영상_가와사키 브랜드 필름_썸네일</t>
-  </si>
-  <si>
-    <t>doobog@naver.com</t>
-  </si>
-  <si>
-    <t>문지예</t>
-  </si>
-  <si>
-    <t>mizmas</t>
-  </si>
-  <si>
-    <t>미즈마스는 여성 친화적인 섹슈얼 웰니스 브랜드로 '태초의 즐거움'이라는 슬로건을 가지고 여성의 성욕이 사람들에게 자연스럽게 받아들여지는 것을 목표로 한다.
-성에 대한 왜곡된 시선으로 만들어졌거나 부담스러움을 느끼게 하는 기존의 성인 용품 패키지와 반대로 자연으로부터 영감을 받은 색감과 여성의 자연스러운 움직임을 담은 일러스트를 사용하여 건강한 성욕을 표현했다.
-21세기인 지금까지도 존재하는 여성의 성욕을 터부시하는 문화를 개선하는 것을 노력하며 여성의 건강하고 다양한 성적 경험을 이야기하고자 한다.</t>
-  </si>
-  <si>
-    <t>브랜딩_mizmas_디테일</t>
-  </si>
-  <si>
-    <t>브랜딩_mizmas_썸네일</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 어쩐지 클릭하기조차 두려운 정리되지 않은 메일함. 쌓여있는 메일은 약 4g, 대용량 메일은 약 50g까지 이산화탄소를 끊임없이 만들어낸다. 미니메일리즘은 '매일 메일 정리하는 라이프'라는 슬로건과 함께 사용자의 전반적인 생활 안에 녹아들어 규칙적인 습관 형성을 돕는다. 메일을 정리해 생산적이고 정돈된 삶을 즐기며, 탄소 발자국을 줄이고, 결국 미니멀한 삶을 추구하자는 메시지의 라이프 스타일 브랜드이다.</t>
-  </si>
-  <si>
-    <t>Human Life</t>
-  </si>
-  <si>
-    <t>인공지능이 발달됨에 따라 인간의 직업이 Ai로 대체되는 것을 걱정하게 되었다. 현재 인공지능의 발전을 막을 수 있는 방법은 없고 그저 보고만 있을 수밖에 없는 것이 현실이다. Human Life는 극 상류층 일부를 제외한 인간의 대부분이 고도로 발달된 인공지능에 의해 일자리가 대체되어 개인이 사회와 단절된 미래를 그린 그래픽 노블이다.</t>
-  </si>
-  <si>
-    <t>영상_Human Life_디테일</t>
-  </si>
-  <si>
-    <t>영상_Human Life_썸네일</t>
-  </si>
-  <si>
-    <t>김채린</t>
-  </si>
-  <si>
-    <t>생태계를 지키고 구강건강도 지키는 구강케어 브랜드 "4분의1"이다. 생태계 교란종인 가시상추는 충치와 치주염 예방 효능을 가지고 있어 기능성 치약 개발에 활용될 수 있다. 이를 통해 구강건강과 생태계 교란종 개체 수 조절의 두 마리 토끼를 동시에 잡을 수 있다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/EQgB3YfuJJQ?si=m69bRcRuB3JckN6r</t>
-  </si>
-  <si>
-    <t>브랜딩_4분의1_썸네일</t>
-  </si>
-  <si>
-    <t>3D 공간을 구현해 상징적 요소인‘붉은 꽃’과 싸움 흔적을 통해 인간의 욕망이 초래하는 허무한 결과를 보여줘 ‘권력이나 부귀영화는 오래가지 못한다’는 의미를 나타내는 타이틀 시퀀스이다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/EaGNSwbz3Ek?si=YgmIHR5LbJD3xMK_</t>
-  </si>
-  <si>
-    <t>dnaue0130@naver.com</t>
-  </si>
-  <si>
-    <t>강다은, 정의연</t>
-  </si>
-  <si>
-    <t>frup</t>
-  </si>
-  <si>
-    <t>frup은 과일껍질로 만든 팩&amp;스크럽 전문 브랜드이다. 풀무원의 주스 브랜드 아임리얼의 자매브랜드로, 아임리얼주스를 착즙한 후 발생한 과일껍질을 활용한다. 
-과육보다 좋은 성분을 가지고 있지만 사용되지 않는 껍질을 업사이클링하여, 성분 좋고 친환경적인 제품을 만드는 것을 목적으로 한다.</t>
-  </si>
-  <si>
-    <t>브랜딩_frup_디테일</t>
-  </si>
-  <si>
-    <t>브랜딩_frup_썸네일</t>
-  </si>
-  <si>
     <t>chaerin9892@naver.com</t>
   </si>
   <si>
     <t>이채린</t>
   </si>
   <si>
-    <t>출출나잇</t>
-  </si>
-  <si>
-    <t>출출나잇은 대체육으로 만든 건강한 야식 프로젝트이다. 친근한 캐릭터로 따듯한 심야식당 컨셉의 야식 브랜드이다.</t>
-  </si>
-  <si>
-    <t>브랜딩_출출나잇_디테일</t>
-  </si>
-  <si>
-    <t>브랜딩_출출나잇_썸네일</t>
-  </si>
-  <si>
     <t>맛타입</t>
   </si>
   <si>
@@ -630,51 +326,6 @@
     <t>그래픽_맛타입_썸네일</t>
   </si>
   <si>
-    <t>je0323235179@gmail.com</t>
-  </si>
-  <si>
-    <t>이지은 2020111557</t>
-  </si>
-  <si>
-    <t>사람은 사람의 외면 때문에 상처 입고 또 사람의 온기로 치유 받는다. 결핍과 상처투성이인 주인공들이 서로의 온기로 치유되고 성장하는 과정을 바라보며 부디 당신이 위안받을 수 있기를.
-‘당신은 당신으로 충분히 괜찮습니다.’
-드라마 ‘사이코지만 괜찮아’의 타이틀 시퀀스. 3명의 주인공들이 가진 내면의 상처와 그들이 만들어 갈 이야기를 상징적 소재로 표현하였다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/ulFDk7mPimY?si=hB4uofzKiH0Gpt4v</t>
-  </si>
-  <si>
-    <t>영상_사이코지만 괜찮아_디테일</t>
-  </si>
-  <si>
-    <t>영상_사이코지만 괜찮아_썸네일</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/D8QqHn7yqjU?si=LwoqJ0C2uKaJSVs0</t>
-  </si>
-  <si>
-    <t>younjisoo00@gmail.com</t>
-  </si>
-  <si>
-    <t>윤지수</t>
-  </si>
-  <si>
-    <t>Save the earth</t>
-  </si>
-  <si>
-    <t>이 작품은 플라스틱 사용의 위험성을 시각적으로 극대화해 보여주는 게임 형태의 영상물로 제작됐다. 이 작품은 총 세 개의 라운드로 나누어져 있으며, 각 라운드는 플라스틱 오염의 심각성과 그 결과를 단계적으로 보여준다.
-작품의 첫 번째 라운드는 자연 풍경 속에서 시작된다. 플레이어는 마우스 커서를 이용해 쉽게 눈에 띄는 플라스틱 쓰레기들을 찾는다. 플라스틱 병과 같은 일상에서 흔히 볼 수 있는 쓰레기들을 클릭하여 점수를 얻고, 쓰레기 수거함에 불을 전부 키며 첫 번째 라운드는 마무리된다. 이 과정은 우리가 무심코 버리는 플라스틱 쓰레기의 문제를 인식하게 만든다.
-두 번째 라운드는 보다 정교하게 배경 속에 숨겨진 플라스틱 쓰레기를 찾는 과정이다. 모든 쓰레기를 주운 후에도 쓰레기 수거함에 한 개의 불이 비어있어 당황한 플레이어의 커서가 보인다. 플레이어는 배경을 이곳저곳 클릭하다가 과일을 클릭하게 되고 과일에서 미세 플라스틱이 검출된다. 이를 통해 우리가 먹는 음식에도 미세 플라스틱이 포함될 수 있다는 사실을 전달한다.
-세 번째 라운드는 이전 라운드의 경험을 바탕으로 음식 속에 숨겨진 미세 플라스틱을 찾는 과정이다. 플레이어는 다양한 음식을 클릭하며 미세 플라스틱을 검출해낸다. 모든 음식을 클릭한 후에도 여전히 쓰레기 수거함에 한 개의 불이 켜지지 않는다. 마지막으로 플레이어는 화면 속 사람을 클릭하게 되고, 이로써 플라스틱 오염이 결국 인간에게까지 영향을 미친다는 메시지를 전달한다.
-작품은 무심코 버려진 플라스틱 쓰레기들이 식물과 동물을 거쳐 결국 인간에게 돌아온다는 사실을 시청자에게 인식시키며 플라스틱 사용을 줄이고 재활용에 동참해야 한다는 메시지를 전달한다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/oW4KkWGKHFo?si=PbdZRh8a6i7Q_QtT</t>
-  </si>
-  <si>
-    <t>영상_Save the earth_썸네일</t>
-  </si>
-  <si>
     <t>dahyk71@gmail.com</t>
   </si>
   <si>
@@ -699,23 +350,6 @@
     <t>김예원</t>
   </si>
   <si>
-    <t>PUFF, the Homeless</t>
-  </si>
-  <si>
-    <t>&lt;PUFF, the Homeless&gt;는 산호초 백화현상으로 인해 황폐화된 산호초 동네를 배경으로 한 단편 3D 애니메이션이다. 환경 오염으로 인한 캐릭터들의 설정과 유머러스한 대사로 관객인 인간에게 풍자적 메세지를 던진다.
-계속되는 지구 온난화로 인한 해수 온도 상승과 해양 쓰레기들 때문에 백화되어가고 있는 산호초 '코', 백화현상으로 인해 집을 잃은 청복어 '퍼프', 호두크기의 작은 산호초 '월넛', '월넛'의 엉덩이에 구멍을 뚫어 살고 있는 땅콩벌레 '피넛', 이렇게 4마리의 해양생물이 등장한다.
-인스타그램 인플루언서가 되고 싶은 산호초 '코'는 하얗게 변해버린 자신의 머리를 염색하는 릴스를 찍어 인스타에 올린다. 이 영상은 백화 현상 때문에 집이 없어져서 화가 난 청복어 '퍼프'가 평소처럼 릴스 영상을 찍고 있는 '코'의 카메라 앞으로 난입하면서 일어난 비하인드를 보여준다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/USehYHb4eCs?si=1Dah3Rmfx2kHf66i</t>
-  </si>
-  <si>
-    <t>영상_PUFF, the Homeless_디테일</t>
-  </si>
-  <si>
-    <t>영상_PUFF, the Homeless_썸네일</t>
-  </si>
-  <si>
     <t>BLEACHING</t>
   </si>
   <si>
@@ -725,26 +359,13 @@
     <t>그래픽_BLEACHING_디테일</t>
   </si>
   <si>
-    <t>그래픽_BLEACHING_썸네일</t>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_BLEACHING_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>wjddusdlrj12@naver.com</t>
   </si>
   <si>
     <t>이정연</t>
-  </si>
-  <si>
-    <t>COSMO</t>
-  </si>
-  <si>
-    <t>&lt;COSMO&gt;는 서브컬처 IP 의상을 일상복으로 손쉽게 찾는 가상 피팅을 활용한 패션 플랫폼이다. 
-간편하게 이미지로 원하는 컨셉과 자신의 패션 스타일이 합쳐진 스타일링을 찾고 가상 피팅을 통해 원하는 추구미를 실현시킬 수 있도록 서포트 해준다.</t>
-  </si>
-  <si>
-    <t>UXUI_COSMO_디테일</t>
-  </si>
-  <si>
-    <t>UXUI_COSMO_썸네일</t>
   </si>
   <si>
     <t>Sports Biomechanics</t>
@@ -757,28 +378,13 @@
     <t>그래픽_sports biomechanics_디테일</t>
   </si>
   <si>
-    <t>그래픽_Sports biomechanics_썸네일</t>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_Sports+biomechanics_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>xxsianxx2000xxx@gmail.com</t>
   </si>
   <si>
     <t>정시안</t>
-  </si>
-  <si>
-    <t>빛이 세상의 모든 틈을 메운다</t>
-  </si>
-  <si>
-    <t>닭장 같은 공동주택, 각종 상업시설, 빡빡한 사람들의 틈바구니 사이에서 노을빛이 침투하는 묘한 순간을 담는다. 해질녘,빛이 그려내는 환상적인 순간을 함께 하는 인간군상을 영상에 담아 혼자인 동시에 함께이기도 한 도시의 생활을 표현했다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/MoDFdaTK1qI?si=3CGDl1MmGKKfuby4</t>
-  </si>
-  <si>
-    <t>영상_빛이 세상의 모든 틈을 메운다_디테일</t>
-  </si>
-  <si>
-    <t>영상_빛이세상의모든틈을메운다_썸네일</t>
   </si>
   <si>
     <t>한글메탈글자연구</t>
@@ -794,80 +400,7 @@
     <t>그래픽_한글메탈글자연구_디테일</t>
   </si>
   <si>
-    <t>그래픽_한글메탈글자연구_썸네일</t>
-  </si>
-  <si>
-    <t>kimna0101@naver.com</t>
-  </si>
-  <si>
-    <t>김나영</t>
-  </si>
-  <si>
-    <t>yumlikethis</t>
-  </si>
-  <si>
-    <t>YumLikeThis는 사용자의 기분과 맛을 반영한 맞춤 메뉴 추천 애플리케이션이다.
-YumLikeThis는 사용자의 기분, 선호하는 맛, 식감 등을 분석하여 최적의 메뉴를 추천해 준다. 정교한 추천 알고리즘을 통해 사용자에게 맞춤형 메뉴 추천 서비스를 제공한다.
-또한, 추천된 메뉴를 제공하는 식당의 위치, 시간, 별점 등의 정보를 상세히 제공하여 손쉽게 예약하거나 포장 주문을 할 수 있도록 돕는다. YumLikeThis를 통해 사용자는 매일 새로운 미식 경험을 즐길 수 있다.</t>
-  </si>
-  <si>
-    <t>UXUI_yumlikethis_디테일</t>
-  </si>
-  <si>
-    <t>UXUI_yumlikethis_썸네일</t>
-  </si>
-  <si>
-    <t>‘Trip with you’는 어디에 있든 자신감있는 모습으로 빛날 수 있도록 돕는다는 메시지를 담은 화장품 브랜드 '페리페라'의 프로모션 영상이다. 매일의 모든 순간을 어떤 상황에서도 특별하게 만들어준다는 의미를 담아, 일상을 함께하는 파트너를 여행가방으로 나타내었다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/WtKYjDRgOfM?si=I2ZGGep8jAWme6m3</t>
-  </si>
-  <si>
-    <t>영상_Trip with you_디테일</t>
-  </si>
-  <si>
-    <t>영상_Trip with you_썸네일</t>
-  </si>
-  <si>
-    <t>swu.yujin@gmail.com</t>
-  </si>
-  <si>
-    <t>홍유진</t>
-  </si>
-  <si>
-    <t>Telephobia</t>
-  </si>
-  <si>
-    <t>전화 공포증을 겪고 있는 주인공이 걸려온 전화를 받기 전까지 느끼는 다양한 심리 상태를 보여주는 단편 애니메이션.
-‘전화 공포증’이라고도 불리는 Telephobia는 불안장애의 일종으로, 타인과 전화를 이용해 육성으로 통화하는 것을 두려워하는 현상을 의미한다. 최근 MZ세대에서 많이 나타나고 있는 증상으로, 전화 통화가 불편함을 넘어 회피의 대상으로 자리잡은 상황을 말한다.
-누구나 한 번 쯤은 겪어본, 또는 누군가는 지금도 겪고 있는 전화 공포증이 나에게만 있는 일이 아니라 많은 사람들이 겪고 있는 증상이라는 것을 알고 불안함을 조금씩 내려놓으면서 이겨내다보면 점차 극복할 수 있을 것이라는 긍정적인 메세지를 전하고 싶다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/-peVmS8vmdA?si=th8J_kt_GX_zJ26l</t>
-  </si>
-  <si>
-    <t>영상_Telephobia_디테일</t>
-  </si>
-  <si>
-    <t>영상_Telephobia_썸네일</t>
-  </si>
-  <si>
-    <t>yoonheesun1097@gmail.com</t>
-  </si>
-  <si>
-    <t>윤희선</t>
-  </si>
-  <si>
-    <t>Fairy Tale</t>
-  </si>
-  <si>
-    <t>꿈을 찾아 이루고 싶은 아이의 꿈을 향해 떠나면서 생기는 이야기로 여정을 하며 만나는 사람과의 우정을 그린 뮤직비디오이다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/ewprERxLWTc?si=PUCFF2sAu2rQ1288</t>
-  </si>
-  <si>
-    <t>영상_fairy tale</t>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%92%E1%85%A1%E1%86%AB%E1%84%80%E1%85%B3%E1%86%AF%E1%84%86%E1%85%A6%E1%84%90%E1%85%A1%E1%86%AF%E1%84%80%E1%85%B3%E1%86%AF%E1%84%8C%E1%85%A1%E1%84%8B%E1%85%A7%E1%86%AB%E1%84%80%E1%85%AE_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>wide1543@naver.com</t>
@@ -888,119 +421,28 @@
     <t>그래픽_의식낚시_썸네일</t>
   </si>
   <si>
-    <t>앙베리</t>
-  </si>
-  <si>
-    <t>경주 농부가 직접 키우고 만든 수제 팥타르트 전문점 앙베리. 
-시그니처 메뉴는 팥앙금 위에 각각 블루베리, 딸기, 체리, 샤인머스캣 네 가지 과일이 올라간 팥앙금 타르트이다. 앙베리는 소인국을 컨셉으로 한 패키지 디자인과 함께 투박하지만 직접 기르고 만든 건강하고 정성 가득한 팥타르트를 선보인다.</t>
-  </si>
-  <si>
-    <t>브랜딩_앙베리_디테일</t>
-  </si>
-  <si>
-    <t>브랜딩_앙베리_썸네일</t>
-  </si>
-  <si>
-    <t xml:space="preserve">틱 틱 붐! </t>
-  </si>
-  <si>
-    <t>소리의 정체에 대해 추측하던 장난감들은 그 소리가 시한폭탄의 소리잉 것이라 의심하는 지경에 이른다.
-과연 장난감들은 낯선 것을 어떻게 그들만의 방식으로 받아들일까?</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/f4mznmFSe7w?si=cs9NCogTdUoV11z_</t>
-  </si>
-  <si>
-    <t>영상_TicTicBoom_디테일-01-01</t>
-  </si>
-  <si>
-    <t>영상_ticticboom_썸네일-01</t>
-  </si>
-  <si>
-    <t>강다은</t>
-  </si>
-  <si>
-    <t>NO PAIN</t>
-  </si>
-  <si>
-    <t>"No Pain, No Fail 음악 없는 세상
- No Cap, No Cry 이미 죽은 사람 아냐 사실"
-실리카겔의 곡 &lt;NO PAIN&gt;은 삶에는 고통이 따를 수밖에 없지만, 그럼에도 함께 모여 노래하며 살아가자는 메시지를 담고 있다.
-고통이 찾아와도 굴하지 않고 악기를 연주하는 캐릭터 밴드의 스토리를 통해 이러한 곡의 메시지를 표현했다.
-세 캐릭터가 처한 상황은 각각 버거운 삶의 무게(바위), 평안 속에 도사리는 불안(악어), 잠식하는 우울(비)을 상징한다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/_mvlaqbs_jY?si=xYu84BPxfglaumGA</t>
-  </si>
-  <si>
-    <t>영상_NO PAIN_썸네일</t>
+    <t>ksiyeon2001@gmail.com</t>
+  </si>
+  <si>
+    <t>강시연</t>
+  </si>
+  <si>
+    <t>Scent of month</t>
+  </si>
+  <si>
+    <t>우리는 달이 바뀌며 시간이 지나고 있다는 것을 시각적으로 느낀다. 하지만 시각 만이 달의 변화와 흐름을 나타내고 있지는 않는다. 달마다 다른 온도와 기온, 풀의 냄새나 공기의 흐름 등 우리는 달의 변화를 다양한 방면에서 느끼고 있다. 이러한 추상적이고 복합적인 요소를 시각화하며 달력의 레이아웃을 디자인했다.</t>
+  </si>
+  <si>
+    <t>그래픽_scent of month_디테일</t>
+  </si>
+  <si>
+    <t>그래픽_scent of month_썸네일</t>
   </si>
   <si>
     <t>2garden34@gmail.com</t>
   </si>
   <si>
     <t>이정원</t>
-  </si>
-  <si>
-    <t>추억쪽지</t>
-  </si>
-  <si>
-    <t>우리의 기억은 시간이 지날수록 잊히지만 그럼에도 잊히지 않는 어떤 과거에 대한 기억과 그리움, 감정 등이 각자 있을 것이다. 과거에 내가 좋아했고 추억하는 기억들을 공유하고 이러한 것들을 향수를 일으키는 요소를 통해 시청자들이 각자 어떤 과거를 떠올리는지 생각해볼 수 있는 
-기회를 만들고자 한다. 닌텐도 게임 &amp;lt;놀러와요 동물의 숲&amp;gt;BGM과 환경 음과 어린 시절에만 할 수 있는 것들, 현재에는 사라지거나 희소해진 것 등 이러한 요소들을 꼬리물기 형식으로 보여준다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/4GMf3cH-Glw?si=NRXJfNJj6aKu-fuU</t>
-  </si>
-  <si>
-    <t>영상_추억쪽지_썸네일</t>
-  </si>
-  <si>
-    <t>ksiyeon2001@gmail.com</t>
-  </si>
-  <si>
-    <t>강시연</t>
-  </si>
-  <si>
-    <t>Scent of month</t>
-  </si>
-  <si>
-    <t>우리는 달이 바뀌며 시간이 지나고 있다는 것을 시각적으로 느낀다. 하지만 시각 만이 달의 변화와 흐름을 나타내고 있지는 않는다. 달마다 다른 온도와 기온, 풀의 냄새나 공기의 흐름 등 우리는 달의 변화를 다양한 방면에서 느끼고 있다. 이러한 추상적이고 복합적인 요소를 시각화하며 달력의 레이아웃을 디자인했다.</t>
-  </si>
-  <si>
-    <t>그래픽_scent of month_디테일</t>
-  </si>
-  <si>
-    <t>그래픽_scent of month_썸네일</t>
-  </si>
-  <si>
-    <t>Geometry of palace</t>
-  </si>
-  <si>
-    <t>한국의 궁은 복잡하고 화려함과 동시에 기하학적이다. 이러한 궁의 특징과 한국 전통적인 요소를 더해 좀 더 추상적이고 기하학적인 한국 궁에 대한 영상을 만들고자 했다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/kDpS2r0w8oA?si=RGcqzf3conRMxvgt</t>
-  </si>
-  <si>
-    <t>영상_geometry of palace_디테일</t>
-  </si>
-  <si>
-    <t>영상_Geometry of palace_썸네일</t>
-  </si>
-  <si>
-    <t>Carly Rae Jepsen - I Really Like You (2024)</t>
-  </si>
-  <si>
-    <t>짝사랑의 순수하고 열정적인 모습에 초점을 맞춘 뮤직비디오로, 주인공의 다양한 자아들이 각기 다른 모습으로 고백을 향해 달려나가는 스토리를 통해 대중의 공감을 이끌고 추억하게 한다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/ycBxLaivWYk?si=FrkKB4nBxBvpwzpJ</t>
-  </si>
-  <si>
-    <t>영상_I Really Like YOu MV_디테일</t>
-  </si>
-  <si>
-    <t>영상_I Really Like You MV_썸네일</t>
   </si>
   <si>
     <t>SCALE</t>
@@ -1015,19 +457,269 @@
     <t>그래픽_SCALE_디테일</t>
   </si>
   <si>
-    <t>그래픽_SCALE_썸네일</t>
-  </si>
-  <si>
-    <t>Nepenthes</t>
-  </si>
-  <si>
-    <t>괴식물이 지상을 뒤덮은 아포칼립스 세상 속에서 잃어버린 연인을 찾아 떠도는 주인공의 이야기를 담은 2D 애니메이션. 인간에게 환각을 보여주어 양분을 빼앗는 위험한 괴식물들 사이로 잃어버린 연인을 찾기 위해 헤매는 주인공의 이야기를 그려냈다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/XeSycNPNkJc?si=MBphJk_MTBp-nj_A</t>
-  </si>
-  <si>
-    <t>영상_Nepenthes_썸네일</t>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_SCALE_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>eunwoul5509@naver.com</t>
+  </si>
+  <si>
+    <t>김민솔</t>
+  </si>
+  <si>
+    <t>생각하는 공간: 사유(思惟)의 사유(私有)지</t>
+  </si>
+  <si>
+    <t>개개인의 사색의 장소를 종이를 이용한 팝업북으로 나타내는 프로젝트이다.
+사람은 매일 생각을 한다. 그 장소는 개인의 나이, 성격, 생활 패턴, 생활 반경에 따라 욕실이 될 수도 있고, 서재가 될 수도 있고, 침대 위나 책상 앞, 캔버스 앞 또는 TV 앞이 될 수도 있다. 이처럼 생각하는 공간이란 개인의 가장 사생활적인 부분이며, 그의 성향을 유추할 수 있는 가장 내밀하고 개인적인 장소라고 할 수 있다. 우리는 모두 각자만의 공간이 필요하다. 생각에 잠긴 우리들의 일상 속 한 페이지를 팝업북을 통해 입체적으로 나타낸다.</t>
+  </si>
+  <si>
+    <t>그래픽_생각하는_공간_디테일</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%89%E1%85%A2%E1%86%BC%E1%84%80%E1%85%A1%E1%86%A8%E1%84%92%E1%85%A1%E1%84%82%E1%85%B3%E1%86%AB%E1%84%80%E1%85%A9%E1%86%BC%E1%84%80%E1%85%A1%E1%86%AB_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>브랜딩</t>
+  </si>
+  <si>
+    <t>mini(mail)ism</t>
+  </si>
+  <si>
+    <t>어쩐지 클릭하기조차 두려운 정리되지 않은 메일함. 이렇게 쌓여있는 메일은 약 4g, 대용량 메일은 약 50g까지 이산화탄소를 낮밤 가리지 않고 배출한다. '매일 메일 정리하는 라이프'라는 슬로건의 미니메일리즘은 사용자의 전반적인 생활 안에 녹아들어 규칙적인 습관 형성을 돕는다. 메일을 정리해 생산적이고 정돈된 삶을 즐기며, 탄소 발자국을 줄이고, 결국 미니멀한 삶을 추구한다는 메시지의 라이프 브랜드.</t>
+  </si>
+  <si>
+    <t>브랜딩_mini(mail)ism_디테일</t>
+  </si>
+  <si>
+    <t>ytojin52@naver.com</t>
+  </si>
+  <si>
+    <t>이유진</t>
+  </si>
+  <si>
+    <t>Vertigul</t>
+  </si>
+  <si>
+    <t>Vertigul은 영문 세로 쓰기를 위해 개발된 폰트 패밀리 3종이다. Vertigul은 Vertical + Hangul의 합성어로, 세로 쓰기 된 한글과 병행하여 영문을 표기하였을 때에도, 사람들이 어색함을 느끼지 않고 영어를 자연스럽게 세로로 읽고 쓸 수 있는 폰트가 되길 바라는 마음을 담았다. Original, Sans-serif, Pixelized 3종의 패밀리로 원하는 어떤 영문이든 세로로 읽고 써 보세요!</t>
+  </si>
+  <si>
+    <t>그래픽_VERTIGUL_디테일</t>
+  </si>
+  <si>
+    <t>그래픽_VERTIGUL_썸네일</t>
+  </si>
+  <si>
+    <t>yoonheesun1097@gmail.com</t>
+  </si>
+  <si>
+    <t>윤희선</t>
+  </si>
+  <si>
+    <t>typing duel</t>
+  </si>
+  <si>
+    <t>살면서 한 번씩 누군가와 싸워본 적이 있을 것이다. 시대가 바뀌며 대면 싸움보단
+온라인에서 싸우는 일이 많아졌고 키보드 배틀과 키보드워리어라는 단어가 생겨났다.
+해서 게임, 직장, 학교 등 살면서 일어나는 다양한 키보드 배틀을 그래픽적으로 해석해
+표현한 그래픽 포스터이다.</t>
+  </si>
+  <si>
+    <t>그래픽_typing duel_디테일</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_typing+duel</t>
+  </si>
+  <si>
+    <t>is458518@gmail.com</t>
+  </si>
+  <si>
+    <t>김채린/2021120113</t>
+  </si>
+  <si>
+    <t>구강케어 브랜드 4분의1</t>
+  </si>
+  <si>
+    <t>생태계를 지키고 구강건강도 지키는 구강케어 브랜드 4분의1이다. 생태계 교란종인 가시상추는 충치와 치주염 예방 효능을 가지고 있어 기능성 치약 개발에 활용될 수 있다. 이를 통해 구강 건강과 생태계 교란종의 개체 수 조절이라는 두 마리 토끼를 동시에 잡을 수 있다.</t>
+  </si>
+  <si>
+    <t>브랜딩_4분의1_디테일</t>
+  </si>
+  <si>
+    <t>katie50883@gmail.com</t>
+  </si>
+  <si>
+    <t>이지은</t>
+  </si>
+  <si>
+    <t>sticker</t>
+  </si>
+  <si>
+    <t>유연하게 변화하며 존재하는 스티커에 재미를 느껴, 기존 스티커를 변형하는 시각 실험을 진행했다.</t>
+  </si>
+  <si>
+    <t>그래픽_sticker_디테일</t>
+  </si>
+  <si>
+    <t>그래픽_sticker_썸네일</t>
+  </si>
+  <si>
+    <t>hanqomi@gmail.com</t>
+  </si>
+  <si>
+    <t>한고은</t>
+  </si>
+  <si>
+    <t>물의 형에서 자로의 변조</t>
+  </si>
+  <si>
+    <t>물의 형에서 자로의 변조는 물의 자유롭고 유동적인 형태에서 우연히 발견된 글자들을 재구성하고 활용하여 물을 설명하는 다양한 단어를 시각화하는 프로젝트이다. 직접 촬영하여 발견한 글자들은 물의 흐름, 파도, 물방울 등 다양한 상태와 움직임 속에서 포착한 것으로 이러한 물의 자연스러운 표정 속에서 찾아낸
+글자들을 새롭게 조합하고 재구성하는 작업을 통해 다양한 포스터로 제작되었다.이 과정을 통해 물의 우연한 모습과 그 속에 담긴 이야기를 시각적으로 전달하고자 한다.</t>
+  </si>
+  <si>
+    <t>영상 분야로 디테일 이미지를 별도로 제출하지 않습니다.</t>
+  </si>
+  <si>
+    <t>그래픽_물의 형에서 자로의 변조_디테일</t>
+  </si>
+  <si>
+    <t>그래픽_물의 형에서 자로의 변조_썸네일</t>
+  </si>
+  <si>
+    <t>mzmzkim@naver.com</t>
+  </si>
+  <si>
+    <t>김민지</t>
+  </si>
+  <si>
+    <t>분신술doppelganger</t>
+  </si>
+  <si>
+    <t>우리를 알게모르게 둘러싼 복제현상들은 마치 분신술 같다. 제임스별에서 온 복제의 귀재 '카피정'도 놀란 이 지구의 다양한 분신술을 재미있게 탐험하는 시간을 가져보았다.</t>
+  </si>
+  <si>
+    <t>그래픽_분신술doppelganger_디테일</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%87%E1%85%AE%E1%86%AB%E1%84%89%E1%85%B5%E1%86%AB%E1%84%89%E1%85%AE%E1%86%AFdoppelganger_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>akuak0627@naver.com</t>
+  </si>
+  <si>
+    <t>임해서</t>
+  </si>
+  <si>
+    <t>파블스</t>
+  </si>
+  <si>
+    <t>파블스는 식용 곤충을 이용한 대체식품을 통해 영양가 있는 식품을 제공하고, 환경 보호에 기여하고자 하는 브랜드이다. 귀여운 캐릭터와 디자인을 통해 소비자들에게 친숙하게 다가가며, 다양한 맛과 포장의 제품을 제공한다. 파블스의 주요 캐릭터인 파비(귀뚜라미), 풍이(장수애), 고니(고소애)는 각기 다른 영양소의 장점을 대표한다. 또한, 파블스의 카카오톡 이모티콘을 통해 소비자들이 캐릭터와 더욱 친밀감을 느낄 수 있도록 하였다.</t>
+  </si>
+  <si>
+    <t>브랜딩_파블스_디테일</t>
+  </si>
+  <si>
+    <t>브랜딩_파블스_썸네일</t>
+  </si>
+  <si>
+    <t>MONTHLY STUDIO</t>
+  </si>
+  <si>
+    <t>다양한 관점이 요구되며 살아가는 세상에서 바라보는 전통은 어떠한지 고민하고
+독창성과 복고풍의 매력을 결합하여, 독특한 레트로 감성을 불어넣어 젊은 세대와 디지털 아트를 즐기는 사람들에게 새로운 매력을 선사한다. 그리고 디지털 시대의 연결성을 강조하며, 전통적인 화투 게임을 현대적인 플랫폼으로 끌어들여 신선한 경험을 제공하고자하는 브랜드이다.</t>
+  </si>
+  <si>
+    <t>브랜딩_MONTHLY STUDIO_디테일</t>
+  </si>
+  <si>
+    <t>브랜딩_MONTHLY STUDIO_썸네일</t>
+  </si>
+  <si>
+    <t>doobog@naver.com</t>
+  </si>
+  <si>
+    <t>문지예</t>
+  </si>
+  <si>
+    <t>mizmas</t>
+  </si>
+  <si>
+    <t>미즈마스는 여성 친화적인 섹슈얼 웰니스 브랜드로 '태초의 즐거움'이라는 슬로건을 가지고 여성의 성욕이 사람들에게 자연스럽게 받아들여지는 것을 목표로 한다.
+성에 대한 왜곡된 시선으로 만들어졌거나 부담스러움을 느끼게 하는 기존의 성인 용품 패키지와 반대로 자연으로부터 영감을 받은 색감과 여성의 자연스러운 움직임을 담은 일러스트를 사용하여 건강한 성욕을 표현했다.
+21세기인 지금까지도 존재하는 여성의 성욕을 터부시하는 문화를 개선하는 것을 노력하며 여성의 건강하고 다양한 성적 경험을 이야기하고자 한다.</t>
+  </si>
+  <si>
+    <t>브랜딩_mizmas_디테일</t>
+  </si>
+  <si>
+    <t>브랜딩_mizmas_썸네일</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 어쩐지 클릭하기조차 두려운 정리되지 않은 메일함. 쌓여있는 메일은 약 4g, 대용량 메일은 약 50g까지 이산화탄소를 끊임없이 만들어낸다. 미니메일리즘은 '매일 메일 정리하는 라이프'라는 슬로건과 함께 사용자의 전반적인 생활 안에 녹아들어 규칙적인 습관 형성을 돕는다. 메일을 정리해 생산적이고 정돈된 삶을 즐기며, 탄소 발자국을 줄이고, 결국 미니멀한 삶을 추구하자는 메시지의 라이프 스타일 브랜드이다.</t>
+  </si>
+  <si>
+    <t>브랜딩_mini(mail)ism_썸네일</t>
+  </si>
+  <si>
+    <t>김채린</t>
+  </si>
+  <si>
+    <t>생태계를 지키고 구강건강도 지키는 구강케어 브랜드 "4분의1"이다. 생태계 교란종인 가시상추는 충치와 치주염 예방 효능을 가지고 있어 기능성 치약 개발에 활용될 수 있다. 이를 통해 구강건강과 생태계 교란종 개체 수 조절의 두 마리 토끼를 동시에 잡을 수 있다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/EQgB3YfuJJQ?si=m69bRcRuB3JckN6r</t>
+  </si>
+  <si>
+    <t>브랜딩_4분의1_썸네일</t>
+  </si>
+  <si>
+    <t>dnaue0130@naver.com</t>
+  </si>
+  <si>
+    <t>강다은, 정의연</t>
+  </si>
+  <si>
+    <t>frup</t>
+  </si>
+  <si>
+    <t>frup은 과일껍질로 만든 팩&amp;스크럽 전문 브랜드이다. 풀무원의 주스 브랜드 아임리얼의 자매브랜드로, 아임리얼주스를 착즙한 후 발생한 과일껍질을 활용한다. 
+과육보다 좋은 성분을 가지고 있지만 사용되지 않는 껍질을 업사이클링하여, 성분 좋고 친환경적인 제품을 만드는 것을 목적으로 한다.</t>
+  </si>
+  <si>
+    <t>브랜딩_frup_디테일</t>
+  </si>
+  <si>
+    <t>브랜딩_frup_썸네일</t>
+  </si>
+  <si>
+    <t>출출나잇</t>
+  </si>
+  <si>
+    <t>출출나잇은 대체육으로 만든 건강한 야식 프로젝트이다. 친근한 캐릭터로 따듯한 심야식당 컨셉의 야식 브랜드이다.</t>
+  </si>
+  <si>
+    <t>브랜딩_출출나잇_디테일</t>
+  </si>
+  <si>
+    <t>브랜딩_출출나잇_썸네일</t>
+  </si>
+  <si>
+    <t>swu.yujin@gmail.com</t>
+  </si>
+  <si>
+    <t>홍유진</t>
+  </si>
+  <si>
+    <t>앙베리</t>
+  </si>
+  <si>
+    <t>경주 농부가 직접 키우고 만든 수제 팥타르트 전문점 앙베리. 
+시그니처 메뉴는 팥앙금 위에 각각 블루베리, 딸기, 체리, 샤인머스캣 네 가지 과일이 올라간 팥앙금 타르트이다. 앙베리는 소인국을 컨셉으로 한 패키지 디자인과 함께 투박하지만 직접 기르고 만든 건강하고 정성 가득한 팥타르트를 선보인다.</t>
+  </si>
+  <si>
+    <t>브랜딩_앙베리_디테일</t>
+  </si>
+  <si>
+    <t>브랜딩_앙베리_썸네일</t>
   </si>
   <si>
     <t>wonjh0325@naver.com</t>
@@ -1050,32 +742,7 @@
     <t>브랜딩_COOKIMOND_썸네일</t>
   </si>
   <si>
-    <t>eunwoul5509@naver.com</t>
-  </si>
-  <si>
-    <t>김민솔</t>
-  </si>
-  <si>
-    <t>생각하는 공간: 사유(思惟)의 사유(私有)지</t>
-  </si>
-  <si>
-    <t>개개인의 사색의 장소를 종이를 이용한 팝업북으로 나타내는 프로젝트이다.
-사람은 매일 생각을 한다. 그 장소는 개인의 나이, 성격, 생활 패턴, 생활 반경에 따라 욕실이 될 수도 있고, 서재가 될 수도 있고, 침대 위나 책상 앞, 캔버스 앞 또는 TV 앞이 될 수도 있다. 이처럼 생각하는 공간이란 개인의 가장 사생활적인 부분이며, 그의 성향을 유추할 수 있는 가장 내밀하고 개인적인 장소라고 할 수 있다. 우리는 모두 각자만의 공간이 필요하다. 생각에 잠긴 우리들의 일상 속 한 페이지를 팝업북을 통해 입체적으로 나타낸다.</t>
-  </si>
-  <si>
-    <t>그래픽_생각하는_공간_디테일</t>
-  </si>
-  <si>
-    <t>그래픽_생각하는공간_썸네일</t>
-  </si>
-  <si>
-    <t>lost and found _ millennium parade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">내가 죽어도 나를 잊지 말라달라는 가사의 마음을 시스투스 꽃의 일생에 의인화하여 감정을 뮤직비디오를 통하여 표현한 것이다. </t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/xa_Nh6_weZM?si=WpMSvaDi-9K5sCa6</t>
+    <t>cowls042@naver.com</t>
   </si>
   <si>
     <t>김수진, 윤지수</t>
@@ -1114,80 +781,7 @@
     <t>브랜딩_허머피커_디테일</t>
   </si>
   <si>
-    <t>브랜딩_허머피커_썸네일</t>
-  </si>
-  <si>
-    <t>원종혜, 정자호</t>
-  </si>
-  <si>
-    <t>공부하는 중입니다만</t>
-  </si>
-  <si>
-    <t>내일 당장 시험을 앞둔 승식이가 부랴부랴 공부를 시작한다..</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/sOyk4LM7xXw?si=ZuEK3V7kt8umrkKd</t>
-  </si>
-  <si>
-    <t>영상_공부하는 중 입니다만_썸네일</t>
-  </si>
-  <si>
-    <t>한국 패션의 변천사</t>
-  </si>
-  <si>
-    <t>1950년대부터 2020년대까지 한국의 패션 변천사를 디지털 잡지 형식으로 보여 주는 프로젝트이다.
-한 시대의 유행이란 단지 옷에 관한 것이 아니라 당대의 시대정서, 사회 현상 등을 반영하는 중요한 흔적이다. 1950년대부터 2020년대까지 10년 단위로 한국 패션의 변화를 분석하여 세대 간의 이해를 돕는다.</t>
-  </si>
-  <si>
-    <t>영상_한국패션의변천사_디테일</t>
-  </si>
-  <si>
-    <t>영상_한국패션의변천사_썸네일</t>
-  </si>
-  <si>
-    <t>ytojin52@naver.com</t>
-  </si>
-  <si>
-    <t>이유진</t>
-  </si>
-  <si>
-    <t>BOWLINER</t>
-  </si>
-  <si>
-    <t>BOWLINER은 프리미엄 볼링장 연합 이용자들을 위한 어플리케이션이다. 볼링장 이용 전 이용 현황 점검 및 예약부터, 방문 중 실시간 자세 분석과 Ai 볼링 코치, 방문 후 볼링 커뮤니티 활동 지원까지- 볼링장에서 경험할 수 있는 최적의 환경을 조성하고 서비스를 제공한다. 주변 볼러들을 탐색하여 번개를 개최하거나 동아리에 가입하면서도, 혼자서 볼링을 연습하면서도, 누구나 더 즐겁게, 더 향상된 실력으로 볼링을 즐길 수 있도록.</t>
-  </si>
-  <si>
-    <t>UXUI_BOWLINER_디테일</t>
-  </si>
-  <si>
-    <t>UXUI_BOWLINER_썸네일</t>
-  </si>
-  <si>
-    <t>Vertigul</t>
-  </si>
-  <si>
-    <t>Vertigul은 영문 세로 쓰기를 위해 개발된 폰트 패밀리 3종이다. Vertigul은 Vertical + Hangul의 합성어로, 세로 쓰기 된 한글과 병행하여 영문을 표기하였을 때에도, 사람들이 어색함을 느끼지 않고 영어를 자연스럽게 세로로 읽고 쓸 수 있는 폰트가 되길 바라는 마음을 담았다. Original, Sans-serif, Pixelized 3종의 패밀리로 원하는 어떤 영문이든 세로로 읽고 써 보세요!</t>
-  </si>
-  <si>
-    <t>그래픽_VERTIGUL_디테일</t>
-  </si>
-  <si>
-    <t>그래픽_VERTIGUL_썸네일</t>
-  </si>
-  <si>
-    <t>typing duel</t>
-  </si>
-  <si>
-    <t>살면서 한 번씩 누군가와 싸워본 적이 있을 것이다. 시대가 바뀌며 대면 싸움보단
-온라인에서 싸우는 일이 많아졌고 키보드 배틀과 키보드워리어라는 단어가 생겨났다.
-해서 게임, 직장, 학교 등 살면서 일어나는 다양한 키보드 배틀을 그래픽적으로 해석해
-표현한 그래픽 포스터이다.</t>
-  </si>
-  <si>
-    <t>그래픽_typing duel_디테일</t>
-  </si>
-  <si>
-    <t>그래픽_typing duel</t>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%92%E1%85%A5%E1%84%86%E1%85%A5%E1%84%91%E1%85%B5%E1%84%8F%E1%85%A5_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>수더분 (SOOTHEBOON)</t>
@@ -1200,40 +794,7 @@
     <t>브랜딩_수더분(SOOTHEBOON)_디테일</t>
   </si>
   <si>
-    <t>브랜딩_수더분(SOOTHEBOON)_썸네일</t>
-  </si>
-  <si>
-    <t>katie50883@gmail.com</t>
-  </si>
-  <si>
-    <t>작품당 1개의 폼 제출 (팀 작업의 경우 대표자가 제출)</t>
-  </si>
-  <si>
-    <t>이지은</t>
-  </si>
-  <si>
-    <t>Let's Dance!</t>
-  </si>
-  <si>
-    <t>유라-춤 뮤직비디오이다. 고민과 괴로운 마음을 날려버리고, 하고 싶은 것을 하자는 내용을 담았다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/ag6KEV53qgc?si=Ys4tbUGiMUUy3ZlU</t>
-  </si>
-  <si>
-    <t>영상_Lets Dance!_썸네일</t>
-  </si>
-  <si>
-    <t>sticker</t>
-  </si>
-  <si>
-    <t>유연하게 변화하며 존재하는 스티커에 재미를 느껴, 기존 스티커를 변형하는 시각 실험을 진행했다.</t>
-  </si>
-  <si>
-    <t>그래픽_sticker_디테일</t>
-  </si>
-  <si>
-    <t>그래픽_sticker_썸네일</t>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%89%E1%85%AE%E1%84%83%E1%85%A5%E1%84%87%E1%85%AE%E1%86%AB(SOOTHEBOON)_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>김다현 / 김보민</t>
@@ -1245,7 +806,7 @@
     <t xml:space="preserve"> 녹진은 한국의 식재료를 사용해 이탈리아 전통 방식으로 만든 페스토를 선보이는 브랜드이다.</t>
   </si>
   <si>
-    <t>hanqomi@gmail.com</t>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%82%E1%85%A9%E1%86%A8%E1%84%8C%E1%85%B5%E1%86%AB_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>한고은, 최하영</t>
@@ -1265,40 +826,6 @@
     <t>브랜딩_포에_썸네일</t>
   </si>
   <si>
-    <t>한고은</t>
-  </si>
-  <si>
-    <t>물의 형에서 자로의 변조</t>
-  </si>
-  <si>
-    <t>물의 형에서 자로의 변조는 물의 자유롭고 유동적인 형태에서 우연히 발견된 글자들을 재구성하고 활용하여 물을 설명하는 다양한 단어를 시각화하는 프로젝트이다. 직접 촬영하여 발견한 글자들은 물의 흐름, 파도, 물방울 등 다양한 상태와 움직임 속에서 포착한 것으로 이러한 물의 자연스러운 표정 속에서 찾아낸
-글자들을 새롭게 조합하고 재구성하는 작업을 통해 다양한 포스터로 제작되었다.이 과정을 통해 물의 우연한 모습과 그 속에 담긴 이야기를 시각적으로 전달하고자 한다.</t>
-  </si>
-  <si>
-    <t>그래픽_물의 형에서 자로의 변조_디테일</t>
-  </si>
-  <si>
-    <t>그래픽_물의 형에서 자로의 변조_썸네일</t>
-  </si>
-  <si>
-    <t>mzmzkim@naver.com</t>
-  </si>
-  <si>
-    <t>김민지</t>
-  </si>
-  <si>
-    <t>분신술doppelganger</t>
-  </si>
-  <si>
-    <t>우리를 알게모르게 둘러싼 복제현상들은 마치 분신술 같다. 제임스별에서 온 복제의 귀재 '카피정'도 놀란 이 지구의 다양한 분신술을 재미있게 탐험하는 시간을 가져보았다.</t>
-  </si>
-  <si>
-    <t>그래픽_분신술doppelganger_디테일</t>
-  </si>
-  <si>
-    <t>그래픽_분신술doppelganger_썸네일</t>
-  </si>
-  <si>
     <t xml:space="preserve">다이노심포니 </t>
   </si>
   <si>
@@ -1308,7 +835,495 @@
     <t>브랜딩_다이노심포니_디테일</t>
   </si>
   <si>
-    <t>브랜딩_다이노심포니__썸네일</t>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%83%E1%85%A1%E1%84%8B%E1%85%B5%E1%84%82%E1%85%A9%E1%84%89%E1%85%B5%E1%86%B7%E1%84%91%E1%85%A9%E1%84%82%E1%85%B5__%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>박채린, 서예지</t>
+  </si>
+  <si>
+    <t>Pale Blue Dot</t>
+  </si>
+  <si>
+    <t>천문학자 칼 세이건은 지구를 ‘창백한 푸른 점’으로 표현하였다. 이처럼 인간에게는 너무나 거대하게 느껴지는 지구도 멀리 떨어져서 보면 작은 점에 불과하다. 갓 사회를 마주할 청년들에게도 지금의 자신이 처한 상황, 불안한 감정이 너무나 크게 다가오곤 한다. 우리는 이 뮤직비디오를 통하여 청년들에게 ‘지금의 괴로운 시기는 찰나이며, 우주라는 거대한 무대에서 보면 우리의 문제도 아주 작은 먼지와 같다.‘는 메시지를 담아냄으로써 공감과 위로를 전하고자 한다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/FtLj8Qxd1m8?si=k8wxQ14G4l7K_MSg</t>
+  </si>
+  <si>
+    <t>영상_Pale Blue Dot_디테일</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Pale+Blue+Dot_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99년생 무주택 청년들의 독립을 준비하는 과정기를 담은 프로젝로 무주택 청년들이 느끼는 현실의 우울함과 불안정함이 존재하지만 비슷한 시기의 독립과정에서 모두 한 번쯤은 겪을만한 문제들을 함께 공감하고 위로하며 외로운 독립생활을 극복해나가자는 의지를 담아낸 프로젝트이다. </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/SKbhbOkFI9s?si=0roXrHY77zmLgFJm</t>
+  </si>
+  <si>
+    <t>숨바꼭질 (AR 동화)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">우리는 모두 같은 사람이고 사랑받을 권리가 있다. 하지만 본인과 다른 모습, 생각, 행동, 그리고 (범죄) 피해 사실을 가지고 있어 이들을 사회적으로 배제 시키는 일들이 아직도 많이 남아 있다. 이들을 돕고 배려하지 않고 무시하기 바쁘다. 오늘날에도 이러한 문제가 우리도 모르는 사이에도 많이 일어나고 있다. 이러한 부분에 심각성을 인지하고 문제를 해결하고자 이 동화를 만들게 되었다. 더해 이는 보기 편한 200 X 200mm 사이즈에 크기와 양장 제본에 형태를 가졌고, 동화 중간중간에 열었다 닫았다 할 수 있는 재밌는 요소가 들어가 있다.
+더해, 동화 우측 하단에 QR 코드를 탑재해 '숨바꼭질-AR 버전'으로도 즐길 수 있다. 이 동화를 통해 이러한 문제들이 멈추고 이들에게 위로와 쉼터가 되기를 기대해 본다.
+</t>
+  </si>
+  <si>
+    <t>반짝이는 워터멜론' 오프닝 타이틀</t>
+  </si>
+  <si>
+    <t>드라마 '반짝이는 워터멜론'은 주인공이 과거로 돌아가서 어린 시절의 부모님을 만나 함께 청춘을 보내며 가족에 대한 사랑과 소중함에 대한 이야기를 그린다. 본 영상은 18세의 아들이 타임슬립을 통해 자신과 동갑인 아버지를 만나 함께 하는 이야기를 담았으며 청춘의 향기를 표현하고자 했다. 색연필로 채색한 듯한 아트워크로 밝고 따듯한 느낌을 나타냈고 드라마 속 주인공들의 감정적인 결합을 강조하여 동화 같은 감성을 전달하고자 했다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/_LRZ5-z6myA?si=YvdfTWp--36ZX09h</t>
+  </si>
+  <si>
+    <t>영상_반짝이는 워터멜론 오프팅 타이틀_디테일</t>
+  </si>
+  <si>
+    <t>영상_반짝이는 워터멜론 오프닝 타이틀_썸네일</t>
+  </si>
+  <si>
+    <t>김수진</t>
+  </si>
+  <si>
+    <t>카지노-Title Sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ‘붉은 꽃’과 싸움 흔적을 통해 ‘권력이나 부귀영화는 오래가지 못한다’는 의미와 인물의 허무한 감정을 3D 공간을 구현해 보여준다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/L14_gfHzenY?si=oCXrLfLn5NjWlFkD</t>
+  </si>
+  <si>
+    <t>영상_카지노 Title Sequence_디테일</t>
+  </si>
+  <si>
+    <t>영상_카지노_Title Sequence_썸네일</t>
+  </si>
+  <si>
+    <t>dlfp6736@hanmail.net</t>
+  </si>
+  <si>
+    <t>이레</t>
+  </si>
+  <si>
+    <t>드라마 '소년심판' 타이틀 시퀀스</t>
+  </si>
+  <si>
+    <t>드라마 '소년심판' 타이틀 시퀀스이다. 드라마의 처음과 끝인 '백성우'의 범죄로 시작하여 다시 법정에 선 모습을 보여준다. 이것은 드라마에서 전달하는 메시지인 '법으로 제대로 처벌 받지 못한 소년범은 다시 범죄를 저지른다'라는 내용을 담고 있다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/MEns05yu39I?si=AHPdjBt1UqXfSrlF</t>
+  </si>
+  <si>
+    <t>영상_소년심판_디테일</t>
+  </si>
+  <si>
+    <t>영상_소년심판_썸네일</t>
+  </si>
+  <si>
+    <t>kkmin99@naver.com</t>
+  </si>
+  <si>
+    <t>김겸민</t>
+  </si>
+  <si>
+    <t>남겨진 날</t>
+  </si>
+  <si>
+    <t>어린 시절, 언제나 함께 여서 행복했지만 시간이 흐르고 남겨진 날들 뿐인  강아지의 시선을 담았다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/QY_1h1KZ6oc?si=opu2XleSlgig99Os</t>
+  </si>
+  <si>
+    <t>영상_남겨진 날_디테일</t>
+  </si>
+  <si>
+    <t>영상_남겨진 날_썸네일</t>
+  </si>
+  <si>
+    <t>가와사키 브랜드 필름</t>
+  </si>
+  <si>
+    <t>현존하는 이륜차 브랜드 중 가장 진취적인 바이크를 만드는 가와사키의 감성을 담은 브랜드 필름이다.
+단지 이동 수단이 아닌, 레저로서의 진정한 바이크를 즐길 수 있는 시간이 되길 바란다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/amPpWxNLngc?si=MPUw6f_5qZF2rGDm</t>
+  </si>
+  <si>
+    <t>영상_가와사키 브랜드 필름_썸네일</t>
+  </si>
+  <si>
+    <t>Human Life</t>
+  </si>
+  <si>
+    <t>인공지능이 발달됨에 따라 인간의 직업이 Ai로 대체되는 것을 걱정하게 되었다. 현재 인공지능의 발전을 막을 수 있는 방법은 없고 그저 보고만 있을 수밖에 없는 것이 현실이다. Human Life는 극 상류층 일부를 제외한 인간의 대부분이 고도로 발달된 인공지능에 의해 일자리가 대체되어 개인이 사회와 단절된 미래를 그린 그래픽 노블이다.</t>
+  </si>
+  <si>
+    <t>영상_Human Life_디테일</t>
+  </si>
+  <si>
+    <t>영상_Human Life_썸네일</t>
+  </si>
+  <si>
+    <t>3D 공간을 구현해 상징적 요소인‘붉은 꽃’과 싸움 흔적을 통해 인간의 욕망이 초래하는 허무한 결과를 보여줘 ‘권력이나 부귀영화는 오래가지 못한다’는 의미를 나타내는 타이틀 시퀀스이다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/EaGNSwbz3Ek?si=YgmIHR5LbJD3xMK_</t>
+  </si>
+  <si>
+    <t>je0323235179@gmail.com</t>
+  </si>
+  <si>
+    <t>이지은 2020111557</t>
+  </si>
+  <si>
+    <t>사람은 사람의 외면 때문에 상처 입고 또 사람의 온기로 치유 받는다. 결핍과 상처투성이인 주인공들이 서로의 온기로 치유되고 성장하는 과정을 바라보며 부디 당신이 위안받을 수 있기를.
+‘당신은 당신으로 충분히 괜찮습니다.’
+드라마 ‘사이코지만 괜찮아’의 타이틀 시퀀스. 3명의 주인공들이 가진 내면의 상처와 그들이 만들어 갈 이야기를 상징적 소재로 표현하였다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ulFDk7mPimY?si=hB4uofzKiH0Gpt4v</t>
+  </si>
+  <si>
+    <t>영상_사이코지만 괜찮아_디테일</t>
+  </si>
+  <si>
+    <t>영상_사이코지만 괜찮아_썸네일</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/D8QqHn7yqjU?si=LwoqJ0C2uKaJSVs0</t>
+  </si>
+  <si>
+    <t>younjisoo00@gmail.com</t>
+  </si>
+  <si>
+    <t>윤지수</t>
+  </si>
+  <si>
+    <t>Save the earth</t>
+  </si>
+  <si>
+    <t>이 작품은 플라스틱 사용의 위험성을 시각적으로 극대화해 보여주는 게임 형태의 영상물로 제작됐다. 이 작품은 총 세 개의 라운드로 나누어져 있으며, 각 라운드는 플라스틱 오염의 심각성과 그 결과를 단계적으로 보여준다.
+작품의 첫 번째 라운드는 자연 풍경 속에서 시작된다. 플레이어는 마우스 커서를 이용해 쉽게 눈에 띄는 플라스틱 쓰레기들을 찾는다. 플라스틱 병과 같은 일상에서 흔히 볼 수 있는 쓰레기들을 클릭하여 점수를 얻고, 쓰레기 수거함에 불을 전부 키며 첫 번째 라운드는 마무리된다. 이 과정은 우리가 무심코 버리는 플라스틱 쓰레기의 문제를 인식하게 만든다.
+두 번째 라운드는 보다 정교하게 배경 속에 숨겨진 플라스틱 쓰레기를 찾는 과정이다. 모든 쓰레기를 주운 후에도 쓰레기 수거함에 한 개의 불이 비어있어 당황한 플레이어의 커서가 보인다. 플레이어는 배경을 이곳저곳 클릭하다가 과일을 클릭하게 되고 과일에서 미세 플라스틱이 검출된다. 이를 통해 우리가 먹는 음식에도 미세 플라스틱이 포함될 수 있다는 사실을 전달한다.
+세 번째 라운드는 이전 라운드의 경험을 바탕으로 음식 속에 숨겨진 미세 플라스틱을 찾는 과정이다. 플레이어는 다양한 음식을 클릭하며 미세 플라스틱을 검출해낸다. 모든 음식을 클릭한 후에도 여전히 쓰레기 수거함에 한 개의 불이 켜지지 않는다. 마지막으로 플레이어는 화면 속 사람을 클릭하게 되고, 이로써 플라스틱 오염이 결국 인간에게까지 영향을 미친다는 메시지를 전달한다.
+작품은 무심코 버려진 플라스틱 쓰레기들이 식물과 동물을 거쳐 결국 인간에게 돌아온다는 사실을 시청자에게 인식시키며 플라스틱 사용을 줄이고 재활용에 동참해야 한다는 메시지를 전달한다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/oW4KkWGKHFo?si=PbdZRh8a6i7Q_QtT</t>
+  </si>
+  <si>
+    <t>영상_Save the earth_썸네일</t>
+  </si>
+  <si>
+    <t>PUFF, the Homeless</t>
+  </si>
+  <si>
+    <t>&lt;PUFF, the Homeless&gt;는 산호초 백화현상으로 인해 황폐화된 산호초 동네를 배경으로 한 단편 3D 애니메이션이다. 환경 오염으로 인한 캐릭터들의 설정과 유머러스한 대사로 관객인 인간에게 풍자적 메세지를 던진다.
+계속되는 지구 온난화로 인한 해수 온도 상승과 해양 쓰레기들 때문에 백화되어가고 있는 산호초 '코', 백화현상으로 인해 집을 잃은 청복어 '퍼프', 호두크기의 작은 산호초 '월넛', '월넛'의 엉덩이에 구멍을 뚫어 살고 있는 땅콩벌레 '피넛', 이렇게 4마리의 해양생물이 등장한다.
+인스타그램 인플루언서가 되고 싶은 산호초 '코'는 하얗게 변해버린 자신의 머리를 염색하는 릴스를 찍어 인스타에 올린다. 이 영상은 백화 현상 때문에 집이 없어져서 화가 난 청복어 '퍼프'가 평소처럼 릴스 영상을 찍고 있는 '코'의 카메라 앞으로 난입하면서 일어난 비하인드를 보여준다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/USehYHb4eCs?si=1Dah3Rmfx2kHf66i</t>
+  </si>
+  <si>
+    <t>영상_PUFF, the Homeless_디테일</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_PUFF%2C+the+Homeless_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>빛이 세상의 모든 틈을 메운다</t>
+  </si>
+  <si>
+    <t>닭장 같은 공동주택, 각종 상업시설, 빡빡한 사람들의 틈바구니 사이에서 노을빛이 침투하는 묘한 순간을 담는다. 해질녘,빛이 그려내는 환상적인 순간을 함께 하는 인간군상을 영상에 담아 혼자인 동시에 함께이기도 한 도시의 생활을 표현했다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/MoDFdaTK1qI?si=3CGDl1MmGKKfuby4</t>
+  </si>
+  <si>
+    <t>영상_빛이 세상의 모든 틈을 메운다_디테일</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%87%E1%85%B5%E1%86%BE%E1%84%8B%E1%85%B5%E1%84%89%E1%85%A6%E1%84%89%E1%85%A1%E1%86%BC%E1%84%8B%E1%85%B4%E1%84%86%E1%85%A9%E1%84%83%E1%85%B3%E1%86%AB%E1%84%90%E1%85%B3%E1%86%B7%E1%84%8B%E1%85%B3%E1%86%AF%E1%84%86%E1%85%A6%E1%84%8B%E1%85%AE%E1%86%AB%E1%84%83%E1%85%A1_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>‘Trip with you’는 어디에 있든 자신감있는 모습으로 빛날 수 있도록 돕는다는 메시지를 담은 화장품 브랜드 '페리페라'의 프로모션 영상이다. 매일의 모든 순간을 어떤 상황에서도 특별하게 만들어준다는 의미를 담아, 일상을 함께하는 파트너를 여행가방으로 나타내었다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/WtKYjDRgOfM?si=I2ZGGep8jAWme6m3</t>
+  </si>
+  <si>
+    <t>영상_Trip with you_디테일</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Trip+with+you_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>Telephobia</t>
+  </si>
+  <si>
+    <t>전화 공포증을 겪고 있는 주인공이 걸려온 전화를 받기 전까지 느끼는 다양한 심리 상태를 보여주는 단편 애니메이션.
+‘전화 공포증’이라고도 불리는 Telephobia는 불안장애의 일종으로, 타인과 전화를 이용해 육성으로 통화하는 것을 두려워하는 현상을 의미한다. 최근 MZ세대에서 많이 나타나고 있는 증상으로, 전화 통화가 불편함을 넘어 회피의 대상으로 자리잡은 상황을 말한다.
+누구나 한 번 쯤은 겪어본, 또는 누군가는 지금도 겪고 있는 전화 공포증이 나에게만 있는 일이 아니라 많은 사람들이 겪고 있는 증상이라는 것을 알고 불안함을 조금씩 내려놓으면서 이겨내다보면 점차 극복할 수 있을 것이라는 긍정적인 메세지를 전하고 싶다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/-peVmS8vmdA?si=th8J_kt_GX_zJ26l</t>
+  </si>
+  <si>
+    <t>영상_Telephobia_디테일</t>
+  </si>
+  <si>
+    <t>영상_Telephobia_썸네일</t>
+  </si>
+  <si>
+    <t>Fairy Tale</t>
+  </si>
+  <si>
+    <t>꿈을 찾아 이루고 싶은 아이의 꿈을 향해 떠나면서 생기는 이야기로 여정을 하며 만나는 사람과의 우정을 그린 뮤직비디오이다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ewprERxLWTc?si=PUCFF2sAu2rQ1288</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_fairy+tale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">틱 틱 붐! </t>
+  </si>
+  <si>
+    <t>소리의 정체에 대해 추측하던 장난감들은 그 소리가 시한폭탄의 소리잉 것이라 의심하는 지경에 이른다.
+과연 장난감들은 낯선 것을 어떻게 그들만의 방식으로 받아들일까?</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/f4mznmFSe7w?si=cs9NCogTdUoV11z_</t>
+  </si>
+  <si>
+    <t>영상_TicTicBoom_디테일-01-01</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_ticticboom_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF-01</t>
+  </si>
+  <si>
+    <t>강다은</t>
+  </si>
+  <si>
+    <t>NO PAIN</t>
+  </si>
+  <si>
+    <t>"No Pain, No Fail 음악 없는 세상
+ No Cap, No Cry 이미 죽은 사람 아냐 사실"
+실리카겔의 곡 &lt;NO PAIN&gt;은 삶에는 고통이 따를 수밖에 없지만, 그럼에도 함께 모여 노래하며 살아가자는 메시지를 담고 있다.
+고통이 찾아와도 굴하지 않고 악기를 연주하는 캐릭터 밴드의 스토리를 통해 이러한 곡의 메시지를 표현했다.
+세 캐릭터가 처한 상황은 각각 버거운 삶의 무게(바위), 평안 속에 도사리는 불안(악어), 잠식하는 우울(비)을 상징한다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/_mvlaqbs_jY?si=xYu84BPxfglaumGA</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_NO+PAIN_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>추억쪽지</t>
+  </si>
+  <si>
+    <t>우리의 기억은 시간이 지날수록 잊히지만 그럼에도 잊히지 않는 어떤 과거에 대한 기억과 그리움, 감정 등이 각자 있을 것이다. 과거에 내가 좋아했고 추억하는 기억들을 공유하고 이러한 것들을 향수를 일으키는 요소를 통해 시청자들이 각자 어떤 과거를 떠올리는지 생각해볼 수 있는 
+기회를 만들고자 한다. 닌텐도 게임 &amp;lt;놀러와요 동물의 숲&amp;gt;BGM과 환경 음과 어린 시절에만 할 수 있는 것들, 현재에는 사라지거나 희소해진 것 등 이러한 요소들을 꼬리물기 형식으로 보여준다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/4GMf3cH-Glw?si=NRXJfNJj6aKu-fuU</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%8E%E1%85%AE%E1%84%8B%E1%85%A5%E1%86%A8%E1%84%8D%E1%85%A9%E1%86%A8%E1%84%8C%E1%85%B5_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>Geometry of palace</t>
+  </si>
+  <si>
+    <t>한국의 궁은 복잡하고 화려함과 동시에 기하학적이다. 이러한 궁의 특징과 한국 전통적인 요소를 더해 좀 더 추상적이고 기하학적인 한국 궁에 대한 영상을 만들고자 했다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/kDpS2r0w8oA?si=RGcqzf3conRMxvgt</t>
+  </si>
+  <si>
+    <t>영상_geometry of palace_디테일</t>
+  </si>
+  <si>
+    <t>영상_Geometry of palace_썸네일</t>
+  </si>
+  <si>
+    <t>Carly Rae Jepsen - I Really Like You (2024)</t>
+  </si>
+  <si>
+    <t>짝사랑의 순수하고 열정적인 모습에 초점을 맞춘 뮤직비디오로, 주인공의 다양한 자아들이 각기 다른 모습으로 고백을 향해 달려나가는 스토리를 통해 대중의 공감을 이끌고 추억하게 한다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ycBxLaivWYk?si=FrkKB4nBxBvpwzpJ</t>
+  </si>
+  <si>
+    <t>영상_I Really Like YOu MV_디테일</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_I+Really+Like+You+MV_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>Nepenthes</t>
+  </si>
+  <si>
+    <t>괴식물이 지상을 뒤덮은 아포칼립스 세상 속에서 잃어버린 연인을 찾아 떠도는 주인공의 이야기를 담은 2D 애니메이션. 인간에게 환각을 보여주어 양분을 빼앗는 위험한 괴식물들 사이로 잃어버린 연인을 찾기 위해 헤매는 주인공의 이야기를 그려냈다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/XeSycNPNkJc?si=MBphJk_MTBp-nj_A</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Nepenthes_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>lost and found _ millennium parade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">내가 죽어도 나를 잊지 말라달라는 가사의 마음을 시스투스 꽃의 일생에 의인화하여 감정을 뮤직비디오를 통하여 표현한 것이다. </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/xa_Nh6_weZM?si=WpMSvaDi-9K5sCa6</t>
+  </si>
+  <si>
+    <t>원종혜, 정자호</t>
+  </si>
+  <si>
+    <t>공부하는 중입니다만</t>
+  </si>
+  <si>
+    <t>내일 당장 시험을 앞둔 승식이가 부랴부랴 공부를 시작한다..</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/sOyk4LM7xXw?si=ZuEK3V7kt8umrkKd</t>
+  </si>
+  <si>
+    <t>영상_공부하는 중 입니다만_썸네일</t>
+  </si>
+  <si>
+    <t>한국 패션의 변천사</t>
+  </si>
+  <si>
+    <t>1950년대부터 2020년대까지 한국의 패션 변천사를 디지털 잡지 형식으로 보여 주는 프로젝트이다.
+한 시대의 유행이란 단지 옷에 관한 것이 아니라 당대의 시대정서, 사회 현상 등을 반영하는 중요한 흔적이다. 1950년대부터 2020년대까지 10년 단위로 한국 패션의 변화를 분석하여 세대 간의 이해를 돕는다.</t>
+  </si>
+  <si>
+    <t>영상_한국패션의변천사_디테일</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%92%E1%85%A1%E1%86%AB%E1%84%80%E1%85%AE%E1%86%A8%E1%84%91%E1%85%A2%E1%84%89%E1%85%A7%E1%86%AB%E1%84%8B%E1%85%B4%E1%84%87%E1%85%A7%E1%86%AB%E1%84%8E%E1%85%A5%E1%86%AB%E1%84%89%E1%85%A1_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>작품당 1개의 폼 제출 (팀 작업의 경우 대표자가 제출)</t>
+  </si>
+  <si>
+    <t>Let's Dance!</t>
+  </si>
+  <si>
+    <t>유라-춤 뮤직비디오이다. 고민과 괴로운 마음을 날려버리고, 하고 싶은 것을 하자는 내용을 담았다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ag6KEV53qgc?si=Ys4tbUGiMUUy3ZlU</t>
+  </si>
+  <si>
+    <t>영상_Lets Dance!_썸네일</t>
+  </si>
+  <si>
+    <t>kathleen141731@gmail.com</t>
+  </si>
+  <si>
+    <t>UXUI</t>
+  </si>
+  <si>
+    <t>우민하</t>
+  </si>
+  <si>
+    <t>마음미술관</t>
+  </si>
+  <si>
+    <t>전시 관람을 통해 치유적인 경험을 유도하는 애플리케이션이다. 명상의 방법으로 그림 명상을 제안한다. 미술치료 분야에서 미술을 감상하는 것만으로도 치유적인 효과가 있다고 연구되었다. 전시를 가이드에 따라 관람하고, 그 경험을 이미지와 텍스트로 기록하는 것이 치유적인 효과의 원리이다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/tP0k-02XaFk?si=u85391Z9YNZBXU_H</t>
+  </si>
+  <si>
+    <t>UXUI_마음미술관_디테일</t>
+  </si>
+  <si>
+    <t>이 레, 임해서</t>
+  </si>
+  <si>
+    <t>루나리움</t>
+  </si>
+  <si>
+    <t>루나리움은 현대인들이 자신의 감정을 보다 체계적으로 이해하고 관리할 수 있도록 돕는 유용한 어플리케이션이다. 감정 관리에 중점을 둔 루나리움은 사용자가 자신의 감정을 간편하게 기록하고 분석할 수 있는 다양한 기능을 제공한다. 매일의 감정을 선택하고 메모를 추가할 수 있으며, 루니와의 대화를 통해 감정 변화를 시각적으로 분석하고 피드백도 받을 수 있어 사용자가 꾸준히 감정을 기록하도록 도와준다. 직관적이고 감성적인 디자인 요소는 사용자 경험을 극대화하며, AI 친구 루니는 사용자 맞춤형 대화를 이어나가며 마음을 편안하게 해준다.</t>
+  </si>
+  <si>
+    <t>UXUI_루나리움_디테일</t>
+  </si>
+  <si>
+    <t>UXUI_루나리움_썸네일</t>
+  </si>
+  <si>
+    <t>COSMO</t>
+  </si>
+  <si>
+    <t>&lt;COSMO&gt;는 서브컬처 IP 의상을 일상복으로 손쉽게 찾는 가상 피팅을 활용한 패션 플랫폼이다. 
+간편하게 이미지로 원하는 컨셉과 자신의 패션 스타일이 합쳐진 스타일링을 찾고 가상 피팅을 통해 원하는 추구미를 실현시킬 수 있도록 서포트 해준다.</t>
+  </si>
+  <si>
+    <t>UXUI_COSMO_디테일</t>
+  </si>
+  <si>
+    <t>UXUI_COSMO_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>kimna0101@naver.com</t>
+  </si>
+  <si>
+    <t>김나영</t>
+  </si>
+  <si>
+    <t>yumlikethis</t>
+  </si>
+  <si>
+    <t>YumLikeThis는 사용자의 기분과 맛을 반영한 맞춤 메뉴 추천 애플리케이션이다.
+YumLikeThis는 사용자의 기분, 선호하는 맛, 식감 등을 분석하여 최적의 메뉴를 추천해 준다. 정교한 추천 알고리즘을 통해 사용자에게 맞춤형 메뉴 추천 서비스를 제공한다.
+또한, 추천된 메뉴를 제공하는 식당의 위치, 시간, 별점 등의 정보를 상세히 제공하여 손쉽게 예약하거나 포장 주문을 할 수 있도록 돕는다. YumLikeThis를 통해 사용자는 매일 새로운 미식 경험을 즐길 수 있다.</t>
+  </si>
+  <si>
+    <t>UXUI_yumlikethis_디테일</t>
+  </si>
+  <si>
+    <t>UXUI_yumlikethis_썸네일</t>
+  </si>
+  <si>
+    <t>BOWLINER</t>
+  </si>
+  <si>
+    <t>BOWLINER은 프리미엄 볼링장 연합 이용자들을 위한 어플리케이션이다. 볼링장 이용 전 이용 현황 점검 및 예약부터, 방문 중 실시간 자세 분석과 Ai 볼링 코치, 방문 후 볼링 커뮤니티 활동 지원까지- 볼링장에서 경험할 수 있는 최적의 환경을 조성하고 서비스를 제공한다. 주변 볼러들을 탐색하여 번개를 개최하거나 동아리에 가입하면서도, 혼자서 볼링을 연습하면서도, 누구나 더 즐겁게, 더 향상된 실력으로 볼링을 즐길 수 있도록.</t>
+  </si>
+  <si>
+    <t>UXUI_BOWLINER_디테일</t>
+  </si>
+  <si>
+    <t>UXUI_BOWLINER_썸네일</t>
+  </si>
+  <si>
+    <t>ADIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADIAN은 호신용품을 패션 악세사리로 승화시킨 여성 호신용품 패션 브랜드이다.
+지혜와 전쟁의 여신 아테나의 이미지를 결합하여 두려움이 아닌 지혜와 용기있는 여성으로서 준비한다는 메세지를 담고 있다. 또한 기존의 투박한 이미지의 호신용품을 스타일리시한 패션 아이템으로 재해석하여 일상 속에서도 안전과 패션을 모두 즐길 수 있게끔 한다. 
+이러한 하이브리드 브랜드 ADIAN은 호신용품 브랜드 뿐만 아니라 나아가 여성의 용기와 성장을 지지한다.
+</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1368,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1372,15 +1387,22 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1652,7 +1674,7 @@
     </row>
     <row r="2">
       <c r="A2" s="5">
-        <v>45477.59296954861</v>
+        <v>45478.70120766204</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -1678,14 +1700,12 @@
       <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -1694,25 +1714,25 @@
     </row>
     <row r="3">
       <c r="A3" s="5">
-        <v>45478.70120766204</v>
+        <v>45481.84283987268</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>18</v>
@@ -1720,12 +1740,12 @@
       <c r="I3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -1734,25 +1754,25 @@
     </row>
     <row r="4">
       <c r="A4" s="5">
-        <v>45481.84283987268</v>
+        <v>45482.3449266088</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>18</v>
@@ -1762,10 +1782,10 @@
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -1774,25 +1794,25 @@
     </row>
     <row r="5">
       <c r="A5" s="5">
-        <v>45481.94270072917</v>
+        <v>45482.62712614583</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>18</v>
@@ -1800,14 +1820,12 @@
       <c r="I5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="J5" s="4"/>
       <c r="K5" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1816,10 +1834,10 @@
     </row>
     <row r="6">
       <c r="A6" s="5">
-        <v>45482.27508898148</v>
+        <v>45482.93384965278</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
@@ -1828,28 +1846,26 @@
         <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1858,25 +1874,25 @@
     </row>
     <row r="7">
       <c r="A7" s="5">
-        <v>45482.3449266088</v>
+        <v>45482.93456662037</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>18</v>
@@ -1886,10 +1902,10 @@
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1898,25 +1914,25 @@
     </row>
     <row r="8">
       <c r="A8" s="5">
-        <v>45482.473479374996</v>
+        <v>45482.94469480324</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>18</v>
@@ -1926,10 +1942,10 @@
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -1938,25 +1954,25 @@
     </row>
     <row r="9">
       <c r="A9" s="5">
-        <v>45482.49447282407</v>
+        <v>45482.94918239584</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>18</v>
@@ -1966,10 +1982,10 @@
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1978,25 +1994,25 @@
     </row>
     <row r="10">
       <c r="A10" s="5">
-        <v>45482.62712614583</v>
+        <v>45482.951767604165</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>18</v>
@@ -2006,10 +2022,10 @@
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -2018,10 +2034,10 @@
     </row>
     <row r="11">
       <c r="A11" s="5">
-        <v>45482.62867666667</v>
+        <v>45482.96532185185</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -2030,13 +2046,13 @@
         <v>14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>18</v>
@@ -2045,8 +2061,12 @@
         <v>19</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="K11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -2063,16 +2083,16 @@
         <v>13</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>18</v>
@@ -2080,8 +2100,8 @@
       <c r="I12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>75</v>
+      <c r="J12" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2095,22 +2115,22 @@
         <v>45482.8288325</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>18</v>
@@ -2118,8 +2138,8 @@
       <c r="I13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>80</v>
+      <c r="J13" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2130,10 +2150,10 @@
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <v>45482.90850524306</v>
+        <v>45482.96540894676</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>13</v>
@@ -2142,13 +2162,13 @@
         <v>14</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="7" t="s">
         <v>83</v>
       </c>
+      <c r="F14" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="G14" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>18</v>
@@ -2156,9 +2176,7 @@
       <c r="I14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>85</v>
-      </c>
+      <c r="J14" s="4"/>
       <c r="K14" s="3" t="s">
         <v>86</v>
       </c>
@@ -2172,7 +2190,7 @@
     </row>
     <row r="15">
       <c r="A15" s="5">
-        <v>45482.93384965278</v>
+        <v>45482.98076421296</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>88</v>
@@ -2181,7 +2199,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>89</v>
@@ -2212,7 +2230,7 @@
     </row>
     <row r="16">
       <c r="A16" s="5">
-        <v>45482.93456662037</v>
+        <v>45483.09886990741</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>94</v>
@@ -2221,7 +2239,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>95</v>
@@ -2252,25 +2270,25 @@
     </row>
     <row r="17">
       <c r="A17" s="5">
-        <v>45482.94469480324</v>
+        <v>45483.29734204861</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>18</v>
@@ -2280,10 +2298,10 @@
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="3" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -2292,10 +2310,10 @@
     </row>
     <row r="18">
       <c r="A18" s="5">
-        <v>45482.94517395833</v>
+        <v>45483.38515827546</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>13</v>
@@ -2304,28 +2322,26 @@
         <v>14</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>105</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J18" s="4"/>
       <c r="K18" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -2334,10 +2350,10 @@
     </row>
     <row r="19">
       <c r="A19" s="5">
-        <v>45482.94777834491</v>
+        <v>45483.41871167824</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -2346,13 +2362,13 @@
         <v>14</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>18</v>
@@ -2360,14 +2376,12 @@
       <c r="I19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>112</v>
-      </c>
+      <c r="J19" s="4"/>
       <c r="K19" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -2376,25 +2390,25 @@
     </row>
     <row r="20">
       <c r="A20" s="5">
-        <v>45482.94918239584</v>
+        <v>45483.64825532408</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>18</v>
@@ -2404,10 +2418,10 @@
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -2416,25 +2430,25 @@
     </row>
     <row r="21">
       <c r="A21" s="5">
-        <v>45482.951767604165</v>
+        <v>45483.66850667824</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>18</v>
@@ -2444,10 +2458,10 @@
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -2456,10 +2470,10 @@
     </row>
     <row r="22">
       <c r="A22" s="5">
-        <v>45482.95580094907</v>
+        <v>45483.68916679398</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>13</v>
@@ -2468,13 +2482,13 @@
         <v>14</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>18</v>
@@ -2482,14 +2496,12 @@
       <c r="I22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="J22" s="4"/>
       <c r="K22" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -2498,25 +2510,25 @@
     </row>
     <row r="23">
       <c r="A23" s="5">
-        <v>45482.96532185185</v>
+        <v>45483.698849953704</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>18</v>
@@ -2526,10 +2538,10 @@
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -2538,25 +2550,25 @@
     </row>
     <row r="24">
       <c r="A24" s="5">
-        <v>45482.96540894676</v>
+        <v>45483.703790914355</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>18</v>
@@ -2566,10 +2578,10 @@
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -2587,16 +2599,16 @@
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>18</v>
@@ -2606,7 +2618,7 @@
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -2616,25 +2628,25 @@
     </row>
     <row r="26">
       <c r="A26" s="5">
-        <v>45482.97205684028</v>
+        <v>45483.735019837965</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>18</v>
@@ -2644,10 +2656,10 @@
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -2656,25 +2668,25 @@
     </row>
     <row r="27">
       <c r="A27" s="5">
-        <v>45482.98076421296</v>
+        <v>45483.79103490741</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>18</v>
@@ -2684,10 +2696,10 @@
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -2699,22 +2711,22 @@
         <v>45482.98098891204</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>18</v>
@@ -2724,7 +2736,7 @@
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -2734,10 +2746,10 @@
     </row>
     <row r="29">
       <c r="A29" s="5">
-        <v>45482.983186655096</v>
+        <v>45483.90874677083</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>13</v>
@@ -2746,26 +2758,26 @@
         <v>14</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="K29" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="L29" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -2774,38 +2786,38 @@
     </row>
     <row r="30">
       <c r="A30" s="5">
-        <v>45482.98327019676</v>
+        <v>45483.920652939814</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="3" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -2814,25 +2826,25 @@
     </row>
     <row r="31">
       <c r="A31" s="5">
-        <v>45482.98677101852</v>
+        <v>45483.93423116898</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>72</v>
+        <v>183</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>18</v>
@@ -2840,12 +2852,12 @@
       <c r="I31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="4"/>
+      <c r="J31" s="3"/>
       <c r="K31" s="3" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -2854,25 +2866,25 @@
     </row>
     <row r="32">
       <c r="A32" s="5">
-        <v>45482.9905725</v>
+        <v>45482.473479374996</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>18</v>
@@ -2882,10 +2894,10 @@
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="3" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -2894,40 +2906,38 @@
     </row>
     <row r="33">
       <c r="A33" s="5">
-        <v>45482.99329047454</v>
+        <v>45482.97205684028</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>179</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J33" s="4"/>
       <c r="K33" s="3" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -2936,25 +2946,25 @@
     </row>
     <row r="34">
       <c r="A34" s="5">
-        <v>45482.998770949074</v>
+        <v>45482.98327019676</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>102</v>
+        <v>199</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>18</v>
@@ -2962,12 +2972,12 @@
       <c r="I34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="K34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="L34" s="3" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -2976,25 +2986,25 @@
     </row>
     <row r="35">
       <c r="A35" s="5">
-        <v>45483.06046545139</v>
+        <v>45482.98677101852</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>183</v>
+        <v>71</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>18</v>
@@ -3004,10 +3014,10 @@
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="3" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -3016,38 +3026,40 @@
     </row>
     <row r="36">
       <c r="A36" s="5">
-        <v>45483.09800518518</v>
+        <v>45482.99329047454</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="4"/>
+        <v>179</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>208</v>
+      </c>
       <c r="K36" s="3" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -3056,25 +3068,25 @@
     </row>
     <row r="37">
       <c r="A37" s="5">
-        <v>45483.09886990741</v>
+        <v>45483.06046545139</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>18</v>
@@ -3084,10 +3096,10 @@
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="3" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -3096,25 +3108,25 @@
     </row>
     <row r="38">
       <c r="A38" s="5">
-        <v>45483.14124835648</v>
+        <v>45483.09800518518</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>199</v>
+        <v>94</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>18</v>
@@ -3122,14 +3134,12 @@
       <c r="I38" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J38" s="8" t="s">
-        <v>202</v>
-      </c>
+      <c r="J38" s="4"/>
       <c r="K38" s="3" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -3138,38 +3148,38 @@
     </row>
     <row r="39">
       <c r="A39" s="5">
-        <v>45483.153701435185</v>
+        <v>45483.66984074074</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="K39" s="4"/>
+        <v>179</v>
+      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="3" t="s">
+        <v>224</v>
+      </c>
       <c r="L39" s="3" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -3178,38 +3188,38 @@
     </row>
     <row r="40">
       <c r="A40" s="5">
-        <v>45483.15944966435</v>
+        <v>45483.702257083336</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="K40" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="J40" s="4"/>
+      <c r="K40" s="3" t="s">
+        <v>230</v>
+      </c>
       <c r="L40" s="3" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -3218,25 +3228,25 @@
     </row>
     <row r="41">
       <c r="A41" s="5">
-        <v>45483.29734204861</v>
+        <v>45483.705789189815</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>18</v>
@@ -3246,10 +3256,10 @@
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -3258,25 +3268,25 @@
     </row>
     <row r="42">
       <c r="A42" s="5">
-        <v>45483.36342819444</v>
+        <v>45483.70796046296</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>18</v>
@@ -3284,14 +3294,12 @@
       <c r="I42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J42" s="6" t="s">
-        <v>222</v>
-      </c>
+      <c r="J42" s="4"/>
       <c r="K42" s="3" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -3300,25 +3308,23 @@
     </row>
     <row r="43">
       <c r="A43" s="5">
-        <v>45483.38515827546</v>
+        <v>45483.81360550926</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C43" s="4"/>
       <c r="D43" s="3" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>18</v>
@@ -3328,10 +3334,10 @@
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="3" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -3340,25 +3346,25 @@
     </row>
     <row r="44">
       <c r="A44" s="5">
-        <v>45483.41264692129</v>
+        <v>45483.915772673616</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>229</v>
+        <v>59</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>18</v>
@@ -3367,11 +3373,9 @@
         <v>19</v>
       </c>
       <c r="J44" s="4"/>
-      <c r="K44" s="3" t="s">
-        <v>233</v>
-      </c>
+      <c r="K44" s="4"/>
       <c r="L44" s="3" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
@@ -3380,25 +3384,25 @@
     </row>
     <row r="45">
       <c r="A45" s="5">
-        <v>45483.41871167824</v>
+        <v>45483.91921710648</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>18</v>
@@ -3408,10 +3412,10 @@
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="3" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
@@ -3420,25 +3424,25 @@
     </row>
     <row r="46">
       <c r="A46" s="5">
-        <v>45483.64586524306</v>
+        <v>45483.95687274306</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>18</v>
@@ -3446,14 +3450,12 @@
       <c r="I46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J46" s="8" t="s">
-        <v>243</v>
-      </c>
+      <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
@@ -3462,25 +3464,25 @@
     </row>
     <row r="47">
       <c r="A47" s="5">
-        <v>45483.64825532408</v>
+        <v>45477.59296954861</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>18</v>
@@ -3488,12 +3490,14 @@
       <c r="I47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J47" s="4"/>
+      <c r="J47" s="7" t="s">
+        <v>264</v>
+      </c>
       <c r="K47" s="3" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
@@ -3502,38 +3506,40 @@
     </row>
     <row r="48">
       <c r="A48" s="5">
-        <v>45483.65972041667</v>
+        <v>45482.27508898148</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>251</v>
+        <v>29</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J48" s="3"/>
+        <v>179</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>268</v>
+      </c>
       <c r="K48" s="3" t="s">
-        <v>254</v>
+        <v>32</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>255</v>
+        <v>33</v>
       </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
@@ -3542,25 +3548,25 @@
     </row>
     <row r="49">
       <c r="A49" s="5">
-        <v>45483.66248461806</v>
+        <v>45482.62867666667</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>18</v>
@@ -3568,15 +3574,9 @@
       <c r="I49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J49" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>259</v>
-      </c>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
@@ -3584,25 +3584,25 @@
     </row>
     <row r="50">
       <c r="A50" s="5">
-        <v>45483.66513658565</v>
+        <v>45482.90850524306</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>260</v>
+        <v>53</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>262</v>
+        <v>54</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>18</v>
@@ -3610,14 +3610,14 @@
       <c r="I50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J50" s="6" t="s">
-        <v>264</v>
+      <c r="J50" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
@@ -3626,38 +3626,40 @@
     </row>
     <row r="51">
       <c r="A51" s="5">
-        <v>45483.66527428241</v>
+        <v>45482.94517395833</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="K51" s="3"/>
+        <v>179</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>280</v>
+      </c>
       <c r="L51" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
@@ -3666,25 +3668,25 @@
     </row>
     <row r="52">
       <c r="A52" s="5">
-        <v>45483.66850667824</v>
+        <v>45482.94777834491</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>18</v>
@@ -3692,12 +3694,14 @@
       <c r="I52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="4"/>
+      <c r="J52" s="7" t="s">
+        <v>286</v>
+      </c>
       <c r="K52" s="3" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
@@ -3706,38 +3710,40 @@
     </row>
     <row r="53">
       <c r="A53" s="5">
-        <v>45483.66984074074</v>
+        <v>45482.95580094907</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J53" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>293</v>
+      </c>
       <c r="K53" s="3" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
@@ -3746,40 +3752,38 @@
     </row>
     <row r="54">
       <c r="A54" s="5">
-        <v>45483.67178862268</v>
+        <v>45482.983186655096</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>286</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K54" s="4"/>
       <c r="L54" s="3" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
@@ -3788,38 +3792,38 @@
     </row>
     <row r="55">
       <c r="A55" s="5">
-        <v>45483.68189813657</v>
+        <v>45482.9905725</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>288</v>
+        <v>199</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="K55" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="J55" s="4"/>
+      <c r="K55" s="3" t="s">
+        <v>302</v>
+      </c>
       <c r="L55" s="3" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
@@ -3828,38 +3832,38 @@
     </row>
     <row r="56">
       <c r="A56" s="5">
-        <v>45483.6884422338</v>
+        <v>45482.998770949074</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>293</v>
+        <v>232</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J56" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="K56" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K56" s="4"/>
       <c r="L56" s="3" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
@@ -3868,25 +3872,25 @@
     </row>
     <row r="57">
       <c r="A57" s="5">
-        <v>45483.68916679398</v>
+        <v>45483.14124835648</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>18</v>
@@ -3894,12 +3898,14 @@
       <c r="I57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J57" s="4"/>
+      <c r="J57" s="8" t="s">
+        <v>309</v>
+      </c>
       <c r="K57" s="3" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
@@ -3908,40 +3914,38 @@
     </row>
     <row r="58">
       <c r="A58" s="5">
-        <v>45483.69236240741</v>
+        <v>45483.153701435185</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K58" s="4"/>
+      <c r="L58" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
@@ -3950,40 +3954,38 @@
     </row>
     <row r="59">
       <c r="A59" s="5">
-        <v>45483.697355729164</v>
+        <v>45483.15944966435</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>71</v>
+        <v>313</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>72</v>
+        <v>314</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>313</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K59" s="4"/>
       <c r="L59" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
@@ -3992,25 +3994,25 @@
     </row>
     <row r="60">
       <c r="A60" s="5">
-        <v>45483.698849953704</v>
+        <v>45483.36342819444</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>293</v>
+        <v>106</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>294</v>
+        <v>107</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>18</v>
@@ -4018,12 +4020,14 @@
       <c r="I60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J60" s="4"/>
+      <c r="J60" s="7" t="s">
+        <v>321</v>
+      </c>
       <c r="K60" s="3" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
@@ -4032,38 +4036,40 @@
     </row>
     <row r="61">
       <c r="A61" s="5">
-        <v>45483.69962803241</v>
+        <v>45483.64586524306</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="K61" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>327</v>
+      </c>
       <c r="L61" s="3" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
@@ -4072,25 +4078,25 @@
     </row>
     <row r="62">
       <c r="A62" s="5">
-        <v>45483.702257083336</v>
+        <v>45483.66248461806</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>324</v>
+        <v>78</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>18</v>
@@ -4098,12 +4104,14 @@
       <c r="I62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J62" s="4"/>
+      <c r="J62" s="7" t="s">
+        <v>330</v>
+      </c>
       <c r="K62" s="3" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
@@ -4112,25 +4120,25 @@
     </row>
     <row r="63">
       <c r="A63" s="5">
-        <v>45483.703790914355</v>
+        <v>45483.66513658565</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>329</v>
+        <v>220</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>330</v>
+        <v>221</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>18</v>
@@ -4138,12 +4146,14 @@
       <c r="I63" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J63" s="4"/>
+      <c r="J63" s="7" t="s">
+        <v>335</v>
+      </c>
       <c r="K63" s="3" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
@@ -4152,37 +4162,39 @@
     </row>
     <row r="64">
       <c r="A64" s="5">
-        <v>45483.70411417824</v>
+        <v>45483.66527428241</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>273</v>
+        <v>158</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>274</v>
+        <v>159</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
+        <v>179</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3" t="s">
+        <v>341</v>
+      </c>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
@@ -4190,25 +4202,25 @@
     </row>
     <row r="65">
       <c r="A65" s="5">
-        <v>45483.705789189815</v>
+        <v>45483.67178862268</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>338</v>
+        <v>66</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>18</v>
@@ -4216,12 +4228,14 @@
       <c r="I65" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J65" s="4"/>
+      <c r="J65" s="8" t="s">
+        <v>344</v>
+      </c>
       <c r="K65" s="3" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
@@ -4230,38 +4244,38 @@
     </row>
     <row r="66">
       <c r="A66" s="5">
-        <v>45483.70796046296</v>
+        <v>45483.68189813657</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>343</v>
+        <v>210</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J66" s="4"/>
-      <c r="K66" s="3" t="s">
-        <v>347</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K66" s="4"/>
       <c r="L66" s="3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
@@ -4270,38 +4284,38 @@
     </row>
     <row r="67">
       <c r="A67" s="5">
-        <v>45483.710486157404</v>
+        <v>45483.6884422338</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>323</v>
+        <v>136</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>349</v>
+        <v>137</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="K67" s="4"/>
+        <v>179</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="K67" s="3"/>
       <c r="L67" s="3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
@@ -4310,25 +4324,25 @@
     </row>
     <row r="68">
       <c r="A68" s="5">
-        <v>45483.720720474535</v>
+        <v>45483.69236240741</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>329</v>
+        <v>130</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>330</v>
+        <v>131</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>18</v>
@@ -4336,12 +4350,14 @@
       <c r="I68" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J68" s="3"/>
+      <c r="J68" s="7" t="s">
+        <v>358</v>
+      </c>
       <c r="K68" s="3" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
@@ -4350,38 +4366,40 @@
     </row>
     <row r="69">
       <c r="A69" s="5">
-        <v>45483.7318767824</v>
+        <v>45483.697355729164</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>358</v>
+        <v>71</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>359</v>
+        <v>73</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J69" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>363</v>
+      </c>
       <c r="K69" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
@@ -4390,38 +4408,38 @@
     </row>
     <row r="70">
       <c r="A70" s="5">
-        <v>45483.735019837965</v>
+        <v>45483.69962803241</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>358</v>
+        <v>46</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>359</v>
+        <v>47</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J70" s="4"/>
-      <c r="K70" s="3" t="s">
-        <v>366</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K70" s="4"/>
       <c r="L70" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
@@ -4430,39 +4448,37 @@
     </row>
     <row r="71">
       <c r="A71" s="5">
-        <v>45483.79103490741</v>
+        <v>45483.70411417824</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>267</v>
+        <v>124</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>268</v>
+        <v>125</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J71" s="4"/>
-      <c r="K71" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>371</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
@@ -4470,36 +4486,38 @@
     </row>
     <row r="72">
       <c r="A72" s="5">
-        <v>45483.81360550926</v>
+        <v>45483.710486157404</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" s="4"/>
+        <v>226</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D72" s="3" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>89</v>
+        <v>373</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J72" s="4"/>
-      <c r="K72" s="3" t="s">
-        <v>374</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K72" s="4"/>
       <c r="L72" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
@@ -4508,38 +4526,38 @@
     </row>
     <row r="73">
       <c r="A73" s="5">
-        <v>45483.9014703125</v>
+        <v>45483.720720474535</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>377</v>
+        <v>13</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E73" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="G73" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="H73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="H73" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J73" s="6" t="s">
+      <c r="L73" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="K73" s="4"/>
-      <c r="L73" s="3" t="s">
-        <v>382</v>
       </c>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
@@ -4548,19 +4566,19 @@
     </row>
     <row r="74">
       <c r="A74" s="5">
-        <v>45483.90874677083</v>
+        <v>45483.9014703125</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>376</v>
+        <v>169</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>13</v>
+        <v>382</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>378</v>
+        <v>170</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>383</v>
@@ -4572,12 +4590,12 @@
         <v>18</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J74" s="4"/>
-      <c r="K74" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J74" s="7" t="s">
         <v>385</v>
       </c>
+      <c r="K74" s="4"/>
       <c r="L74" s="3" t="s">
         <v>386</v>
       </c>
@@ -4588,25 +4606,25 @@
     </row>
     <row r="75">
       <c r="A75" s="5">
-        <v>45483.915772673616</v>
+        <v>45481.94270072917</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>119</v>
+        <v>387</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>52</v>
+        <v>388</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>18</v>
@@ -4614,9 +4632,15 @@
       <c r="I75" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
+      <c r="J75" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
@@ -4624,25 +4648,25 @@
     </row>
     <row r="76">
       <c r="A76" s="5">
-        <v>45483.91921710648</v>
+        <v>45482.49447282407</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>390</v>
+        <v>188</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>52</v>
+        <v>388</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>18</v>
@@ -4652,10 +4676,10 @@
       </c>
       <c r="J76" s="4"/>
       <c r="K76" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
@@ -4664,38 +4688,38 @@
     </row>
     <row r="77">
       <c r="A77" s="5">
-        <v>45483.920652939814</v>
+        <v>45483.41264692129</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>390</v>
+        <v>112</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>23</v>
+        <v>388</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>396</v>
+        <v>113</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J77" s="4"/>
       <c r="K77" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
@@ -4704,25 +4728,25 @@
     </row>
     <row r="78">
       <c r="A78" s="5">
-        <v>45483.93423116898</v>
+        <v>45483.65972041667</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>23</v>
+        <v>388</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>18</v>
@@ -4732,10 +4756,10 @@
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
@@ -4744,38 +4768,38 @@
     </row>
     <row r="79">
       <c r="A79" s="5">
-        <v>45483.95687274306</v>
+        <v>45483.7318767824</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>401</v>
+        <v>152</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>52</v>
+        <v>388</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>402</v>
+        <v>153</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J79" s="3"/>
+        <v>179</v>
+      </c>
+      <c r="J79" s="4"/>
       <c r="K79" s="3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
@@ -4783,22 +4807,31 @@
       <c r="P79" s="4"/>
     </row>
     <row r="80">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
+      <c r="A80" s="9">
+        <v>45484.02054478009</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="11"/>
+      <c r="E80" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="4"/>
@@ -6582,46 +6615,64 @@
       <c r="O179" s="4"/>
       <c r="P179" s="4"/>
     </row>
+    <row r="180">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4"/>
+      <c r="J180" s="4"/>
+      <c r="K180" s="4"/>
+      <c r="L180" s="4"/>
+      <c r="M180" s="4"/>
+      <c r="N180" s="4"/>
+      <c r="O180" s="4"/>
+      <c r="P180" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$B$1:$J$79"/>
+  <autoFilter ref="$B$1:$J$80"/>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D1">
       <formula1>"분야"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D79">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D80">
       <formula1>"브랜딩,그래픽,UXUI,영상"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="J2"/>
-    <hyperlink r:id="rId2" ref="J5"/>
-    <hyperlink r:id="rId3" ref="J6"/>
-    <hyperlink r:id="rId4" ref="J12"/>
-    <hyperlink r:id="rId5" ref="J13"/>
-    <hyperlink r:id="rId6" ref="J14"/>
-    <hyperlink r:id="rId7" ref="J18"/>
-    <hyperlink r:id="rId8" ref="J19"/>
-    <hyperlink r:id="rId9" ref="J22"/>
-    <hyperlink r:id="rId10" ref="J29"/>
-    <hyperlink r:id="rId11" ref="J33"/>
-    <hyperlink r:id="rId12" ref="J34"/>
-    <hyperlink r:id="rId13" ref="J38"/>
-    <hyperlink r:id="rId14" ref="J39"/>
-    <hyperlink r:id="rId15" ref="J40"/>
-    <hyperlink r:id="rId16" ref="J42"/>
-    <hyperlink r:id="rId17" ref="J46"/>
-    <hyperlink r:id="rId18" ref="J49"/>
-    <hyperlink r:id="rId19" ref="J50"/>
-    <hyperlink r:id="rId20" ref="J51"/>
-    <hyperlink r:id="rId21" ref="J54"/>
-    <hyperlink r:id="rId22" ref="J55"/>
-    <hyperlink r:id="rId23" ref="J56"/>
-    <hyperlink r:id="rId24" ref="J58"/>
-    <hyperlink r:id="rId25" ref="J59"/>
-    <hyperlink r:id="rId26" ref="J61"/>
-    <hyperlink r:id="rId27" ref="J64"/>
-    <hyperlink r:id="rId28" ref="J67"/>
-    <hyperlink r:id="rId29" ref="J73"/>
+    <hyperlink r:id="rId1" ref="J12"/>
+    <hyperlink r:id="rId2" ref="J13"/>
+    <hyperlink r:id="rId3" ref="J36"/>
+    <hyperlink r:id="rId4" ref="J47"/>
+    <hyperlink r:id="rId5" ref="J48"/>
+    <hyperlink r:id="rId6" ref="J50"/>
+    <hyperlink r:id="rId7" ref="J51"/>
+    <hyperlink r:id="rId8" ref="J52"/>
+    <hyperlink r:id="rId9" ref="J53"/>
+    <hyperlink r:id="rId10" ref="J54"/>
+    <hyperlink r:id="rId11" ref="J56"/>
+    <hyperlink r:id="rId12" ref="J57"/>
+    <hyperlink r:id="rId13" ref="J58"/>
+    <hyperlink r:id="rId14" ref="J59"/>
+    <hyperlink r:id="rId15" ref="J60"/>
+    <hyperlink r:id="rId16" ref="J61"/>
+    <hyperlink r:id="rId17" ref="J62"/>
+    <hyperlink r:id="rId18" ref="J63"/>
+    <hyperlink r:id="rId19" ref="J64"/>
+    <hyperlink r:id="rId20" ref="J65"/>
+    <hyperlink r:id="rId21" ref="J66"/>
+    <hyperlink r:id="rId22" ref="J67"/>
+    <hyperlink r:id="rId23" ref="J68"/>
+    <hyperlink r:id="rId24" ref="J69"/>
+    <hyperlink r:id="rId25" ref="J70"/>
+    <hyperlink r:id="rId26" ref="J71"/>
+    <hyperlink r:id="rId27" ref="J72"/>
+    <hyperlink r:id="rId28" ref="J74"/>
+    <hyperlink r:id="rId29" ref="J75"/>
   </hyperlinks>
   <drawing r:id="rId30"/>
 </worksheet>

--- a/public/data/project_list.xlsx
+++ b/public/data/project_list.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="설문지 응답 시트1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'설문지 응답 시트1'!$B$1:$J$80</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'설문지 응답 시트1'!$B$1:$J$81</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="418">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -356,7 +356,7 @@
     <t>이 프로젝트의 주요 키워드인 'BLEACHING'은 산호초 백화현상’을 뜻하는 영어 단어 ’Coral Bleaching’에서 가져왔다. ‘Bleach’는 원래 ‘표백하다’라는 뜻인데, 산호초가 죽어가며 하얗게 변해가는 현상에 ‘표백되었다’는 표현을 쓴 것이다. 이 프로젝트는 사람들의 환경 보호에 대한 희미한 무관심 속에서 점점 잊혀 원래 모습이 바래져가는 산호초의 이야기에서 시작했다. 그리고 ‘해조류가 사라지고 흰색의 석회 조류가 달라붙어 암반 지역이 흰색으로 변하는 것’을 뜻하는 '백화'의 의미를 '하얗게 잊히고 바래지고 희미해지는 것'으로 확장하고, 새롭게 정의한 ‘백화’의 의미를 다양한 관점에 이입시켜 3종의 책으로 시각화했다. 각각의 책은 산호초의 백화, 기억의 백화, 기다림의 백화에 대한 이야기를 담고 있고, 인화한 사진을 표백제로 표백시켰을 때 나타나는 현상을 포착한 이미지를 주요 그래픽 소스로 활용했다.</t>
   </si>
   <si>
-    <t>그래픽_BLEACHING_디테일</t>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_BLEACHING_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_BLEACHING_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
@@ -375,7 +375,7 @@
 아카이빙한 정보를 기반으로 경기력 향상, 스포츠 상해 최소화 목적으로 정보를 제공한다.</t>
   </si>
   <si>
-    <t>그래픽_sports biomechanics_디테일</t>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_sports+biomechanics_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_Sports+biomechanics_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
@@ -397,7 +397,7 @@
 주류 문화와 서브 컬처는 서로 영향을 주고 받으며 하나의 문화를 구성한다. 서브 컬처가 발달한 국가에서는 해당 문화를 기반으로 한 독특한 타이포그래피 스타일이 탄생하기도 하는데, 한글 디자인에서도 이와 비슷한 다양한 시도가 있었으면 좋겠다. 이 연구를 통해 독특한 한글 글자를 선보이고 이것이 영감을 줄 수 있었으면 좋겠다.</t>
   </si>
   <si>
-    <t>그래픽_한글메탈글자연구_디테일</t>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%92%E1%85%A1%E1%86%AB%E1%84%80%E1%85%B3%E1%86%AF%E1%84%86%E1%85%A6%E1%84%90%E1%85%A1%E1%86%AF%E1%84%80%E1%85%B3%E1%86%AF%E1%84%8C%E1%85%A1%E1%84%8B%E1%85%A7%E1%86%AB%E1%84%80%E1%85%AE_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%92%E1%85%A1%E1%86%AB%E1%84%80%E1%85%B3%E1%86%AF%E1%84%86%E1%85%A6%E1%84%90%E1%85%A1%E1%86%AF%E1%84%80%E1%85%B3%E1%86%AF%E1%84%8C%E1%85%A1%E1%84%8B%E1%85%A7%E1%86%AB%E1%84%80%E1%85%AE_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
@@ -454,7 +454,7 @@
 우리의 주변에는 인형옷, 어린이옷, 빅사이즈 옷처럼 같은 기능을 하면서 크기에 따라 쓰임이 달라지는 것들이 있으며 큰 것에는 큰 것대로, 작은 것에는 작은 것대로 각자의 역할이 있다는 것을 표현하고자 한다. 그리고 이러한 요소들을 찾아 아카이빙 하여 크기에 따른 쓰임의 변화와 의미를 인포그래픽의 형태로 보여준다.</t>
   </si>
   <si>
-    <t>그래픽_SCALE_디테일</t>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_SCALE_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_SCALE_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
@@ -473,7 +473,7 @@
 사람은 매일 생각을 한다. 그 장소는 개인의 나이, 성격, 생활 패턴, 생활 반경에 따라 욕실이 될 수도 있고, 서재가 될 수도 있고, 침대 위나 책상 앞, 캔버스 앞 또는 TV 앞이 될 수도 있다. 이처럼 생각하는 공간이란 개인의 가장 사생활적인 부분이며, 그의 성향을 유추할 수 있는 가장 내밀하고 개인적인 장소라고 할 수 있다. 우리는 모두 각자만의 공간이 필요하다. 생각에 잠긴 우리들의 일상 속 한 페이지를 팝업북을 통해 입체적으로 나타낸다.</t>
   </si>
   <si>
-    <t>그래픽_생각하는_공간_디테일</t>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%89%E1%85%A2%E1%86%BC%E1%84%80%E1%85%A1%E1%86%A8%E1%84%92%E1%85%A1%E1%84%82%E1%85%B3%E1%86%AB_%E1%84%80%E1%85%A9%E1%86%BC%E1%84%80%E1%85%A1%E1%86%AB_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%89%E1%85%A2%E1%86%BC%E1%84%80%E1%85%A1%E1%86%A8%E1%84%92%E1%85%A1%E1%84%82%E1%85%B3%E1%86%AB%E1%84%80%E1%85%A9%E1%86%BC%E1%84%80%E1%85%A1%E1%86%AB_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
@@ -524,7 +524,7 @@
 표현한 그래픽 포스터이다.</t>
   </si>
   <si>
-    <t>그래픽_typing duel_디테일</t>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_typing+duel_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_typing+duel</t>
@@ -597,7 +597,7 @@
     <t>우리를 알게모르게 둘러싼 복제현상들은 마치 분신술 같다. 제임스별에서 온 복제의 귀재 '카피정'도 놀란 이 지구의 다양한 분신술을 재미있게 탐험하는 시간을 가져보았다.</t>
   </si>
   <si>
-    <t>그래픽_분신술doppelganger_디테일</t>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%87%E1%85%AE%E1%86%AB%E1%84%89%E1%85%B5%E1%86%AB%E1%84%89%E1%85%AE%E1%86%AFdoppelganger_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%87%E1%85%AE%E1%86%AB%E1%84%89%E1%85%B5%E1%86%AB%E1%84%89%E1%85%AE%E1%86%AFdoppelganger_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
@@ -778,7 +778,7 @@
 </t>
   </si>
   <si>
-    <t>브랜딩_허머피커_디테일</t>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%92%E1%85%A5%E1%84%86%E1%85%A5%E1%84%91%E1%85%B5%E1%84%8F%E1%85%A5_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%92%E1%85%A5%E1%84%86%E1%85%A5%E1%84%91%E1%85%B5%E1%84%8F%E1%85%A5_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
@@ -791,7 +791,7 @@
 단순히 외모를 예쁘게 가꾸기 위함이 아닌 건강한 피부를 위한 스킨케어를 통해 피부 트러블, 마음에 있는 트러블까지 케어하며 진정한 내면의 아름다움을 가꾸게 해준다.</t>
   </si>
   <si>
-    <t>브랜딩_수더분(SOOTHEBOON)_디테일</t>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%89%E1%85%AE%E1%84%83%E1%85%A5%E1%84%87%E1%85%AE%E1%86%AB(SOOTHEBOON)_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%89%E1%85%AE%E1%84%83%E1%85%A5%E1%84%87%E1%85%AE%E1%86%AB(SOOTHEBOON)_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
@@ -832,7 +832,7 @@
     <t xml:space="preserve">다이노심포니는 유·아동을 대상으로 한 음악교육놀이 브랜드로 유·아동 아이들이 아기공룡음악대 친구들과 함께 클래식으로 놀면서 클래식과 친해지도록 도와준다. </t>
   </si>
   <si>
-    <t>브랜딩_다이노심포니_디테일</t>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%83%E1%85%A1%E1%84%8B%E1%85%B5%E1%84%82%E1%85%A9%E1%84%89%E1%85%B5%E1%86%B7%E1%84%91%E1%85%A9%E1%84%82%E1%85%B5_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%83%E1%85%A1%E1%84%8B%E1%85%B5%E1%84%82%E1%85%A9%E1%84%89%E1%85%B5%E1%86%B7%E1%84%91%E1%85%A9%E1%84%82%E1%85%B5__%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
@@ -850,7 +850,7 @@
     <t>https://www.youtube.com/embed/FtLj8Qxd1m8?si=k8wxQ14G4l7K_MSg</t>
   </si>
   <si>
-    <t>영상_Pale Blue Dot_디테일</t>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Pale+Blue+Dot_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Pale+Blue+Dot_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
@@ -1032,7 +1032,7 @@
     <t>https://www.youtube.com/embed/USehYHb4eCs?si=1Dah3Rmfx2kHf66i</t>
   </si>
   <si>
-    <t>영상_PUFF, the Homeless_디테일</t>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_PUFF%2C+the+Homeless_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_PUFF%2C+the+Homeless_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
@@ -1047,7 +1047,7 @@
     <t>https://www.youtube.com/embed/MoDFdaTK1qI?si=3CGDl1MmGKKfuby4</t>
   </si>
   <si>
-    <t>영상_빛이 세상의 모든 틈을 메운다_디테일</t>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%87%E1%85%B5%E1%86%BE%E1%84%8B%E1%85%B5+%E1%84%89%E1%85%A6%E1%84%89%E1%85%A1%E1%86%BC%E1%84%8B%E1%85%B4+%E1%84%86%E1%85%A9%E1%84%83%E1%85%B3%E1%86%AB+%E1%84%90%E1%85%B3%E1%86%B7%E1%84%8B%E1%85%B3%E1%86%AF+%E1%84%86%E1%85%A6%E1%84%8B%E1%85%AE%E1%86%AB%E1%84%83%E1%85%A1_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%87%E1%85%B5%E1%86%BE%E1%84%8B%E1%85%B5%E1%84%89%E1%85%A6%E1%84%89%E1%85%A1%E1%86%BC%E1%84%8B%E1%85%B4%E1%84%86%E1%85%A9%E1%84%83%E1%85%B3%E1%86%AB%E1%84%90%E1%85%B3%E1%86%B7%E1%84%8B%E1%85%B3%E1%86%AF%E1%84%86%E1%85%A6%E1%84%8B%E1%85%AE%E1%86%AB%E1%84%83%E1%85%A1_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
@@ -1059,7 +1059,7 @@
     <t>https://www.youtube.com/embed/WtKYjDRgOfM?si=I2ZGGep8jAWme6m3</t>
   </si>
   <si>
-    <t>영상_Trip with you_디테일</t>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Trip+with+you_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Trip+with+you_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
@@ -1104,7 +1104,7 @@
     <t>https://www.youtube.com/embed/f4mznmFSe7w?si=cs9NCogTdUoV11z_</t>
   </si>
   <si>
-    <t>영상_TicTicBoom_디테일-01-01</t>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_TicTicBoom_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF-01-01</t>
   </si>
   <si>
     <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_ticticboom_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF-01</t>
@@ -1166,7 +1166,7 @@
     <t>https://www.youtube.com/embed/ycBxLaivWYk?si=FrkKB4nBxBvpwzpJ</t>
   </si>
   <si>
-    <t>영상_I Really Like YOu MV_디테일</t>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_I+Really+Like+You+MV_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_I+Really+Like+You+MV_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
@@ -1215,7 +1215,7 @@
 한 시대의 유행이란 단지 옷에 관한 것이 아니라 당대의 시대정서, 사회 현상 등을 반영하는 중요한 흔적이다. 1950년대부터 2020년대까지 10년 단위로 한국 패션의 변화를 분석하여 세대 간의 이해를 돕는다.</t>
   </si>
   <si>
-    <t>영상_한국패션의변천사_디테일</t>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%92%E1%85%A1%E1%86%AB%E1%84%80%E1%85%AE%E1%86%A8%E1%84%91%E1%85%A2%E1%84%89%E1%85%A7%E1%86%AB%E1%84%8B%E1%85%B4%E1%84%87%E1%85%A7%E1%86%AB%E1%84%8E%E1%85%A5%E1%86%AB%E1%84%89%E1%85%A1_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%92%E1%85%A1%E1%86%AB%E1%84%80%E1%85%AE%E1%86%A8%E1%84%91%E1%85%A2%E1%84%89%E1%85%A7%E1%86%AB%E1%84%8B%E1%85%B4%E1%84%87%E1%85%A7%E1%86%AB%E1%84%8E%E1%85%A5%E1%86%AB%E1%84%89%E1%85%A1_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
@@ -1324,6 +1324,18 @@
 지혜와 전쟁의 여신 아테나의 이미지를 결합하여 두려움이 아닌 지혜와 용기있는 여성으로서 준비한다는 메세지를 담고 있다. 또한 기존의 투박한 이미지의 호신용품을 스타일리시한 패션 아이템으로 재해석하여 일상 속에서도 안전과 패션을 모두 즐길 수 있게끔 한다. 
 이러한 하이브리드 브랜드 ADIAN은 호신용품 브랜드 뿐만 아니라 나아가 여성의 용기와 성장을 지지한다.
 </t>
+  </si>
+  <si>
+    <t>틱 틱 붐!</t>
+  </si>
+  <si>
+    <t>이거 설마... 시한폭탄 아니야?
+틱 틱 낯선 소리를 내는 장난감이 새로 들어온다.
+소리의 정체에 대해 추측하던 장난감들은 그 소리가 시한폭탄의 소리일 것이라 의심하는 지경에 이른다.
+과연 장난감들은 낯선 것을 어떻게 그들만의 방식으로 받아들일까?</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/UZRBmiJCQeg?si=tS74VrmTPufgytk5</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1345,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1344,6 +1356,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
@@ -1368,7 +1384,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1403,6 +1419,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -4823,7 +4845,7 @@
       <c r="F80" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="G80" s="10" t="s">
+      <c r="G80" s="12" t="s">
         <v>414</v>
       </c>
       <c r="H80" s="10" t="s">
@@ -4834,22 +4856,34 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
+      <c r="A81" s="9">
+        <v>45484.06275363426</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="11"/>
+      <c r="E81" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J81" s="13" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="4"/>
@@ -6633,13 +6667,31 @@
       <c r="O180" s="4"/>
       <c r="P180" s="4"/>
     </row>
+    <row r="181">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
+      <c r="I181" s="4"/>
+      <c r="J181" s="4"/>
+      <c r="K181" s="4"/>
+      <c r="L181" s="4"/>
+      <c r="M181" s="4"/>
+      <c r="N181" s="4"/>
+      <c r="O181" s="4"/>
+      <c r="P181" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$B$1:$J$80"/>
+  <autoFilter ref="$B$1:$J$81"/>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D1">
       <formula1>"분야"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D80">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D81">
       <formula1>"브랜딩,그래픽,UXUI,영상"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6673,7 +6725,8 @@
     <hyperlink r:id="rId27" ref="J72"/>
     <hyperlink r:id="rId28" ref="J74"/>
     <hyperlink r:id="rId29" ref="J75"/>
+    <hyperlink r:id="rId30" ref="J81"/>
   </hyperlinks>
-  <drawing r:id="rId30"/>
+  <drawing r:id="rId31"/>
 </worksheet>
 </file>
--- a/public/data/project_list.xlsx
+++ b/public/data/project_list.xlsx
@@ -4,16 +4,17 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="설문지 응답 시트1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="시트1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'설문지 응답 시트1'!$B$1:$J$81</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'설문지 응답 시트1'!$B$1:$J$78</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="424">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -239,39 +240,6 @@
     <t>그래픽_대비의 초상_썸네일</t>
   </si>
   <si>
-    <t>jinideepsea@gmail.com</t>
-  </si>
-  <si>
-    <t>영상</t>
-  </si>
-  <si>
-    <t>최지수</t>
-  </si>
-  <si>
-    <t>Carly Rae Jepsen - I Really Like You (2024 MV)</t>
-  </si>
-  <si>
-    <t>짝사랑이라는 순수하고 열정적인 감정에 초점을 맞춘 뮤직비디오로, 주인공의 다양한 자아들이 각기 다른 모습으로 고백을 향해 달려나가는 스토리를 통해 대중의 공감을 이끌고 추억하게 한다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/ycBxLaivWYk?si=wmosxWyjFDweAIZS</t>
-  </si>
-  <si>
-    <t>jeonglily@naver.com</t>
-  </si>
-  <si>
-    <t>박다희, 정승연</t>
-  </si>
-  <si>
-    <t>Trip with you</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어디에 있든, 어떤 상황이든 자신감있는 모습으로 빛날 수 있다는 점을 여행가방에 빗대어 함께하는 파트너로써의 브랜드 이미지를 담은 프로모션 영상이다. </t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/WtKYjDRgOfM?si=MFGtj1WFOoOIC5GH</t>
-  </si>
-  <si>
     <t>20ybae@naver.com</t>
   </si>
   <si>
@@ -479,18 +447,6 @@
     <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%89%E1%85%A2%E1%86%BC%E1%84%80%E1%85%A1%E1%86%A8%E1%84%92%E1%85%A1%E1%84%82%E1%85%B3%E1%86%AB%E1%84%80%E1%85%A9%E1%86%BC%E1%84%80%E1%85%A1%E1%86%AB_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
-    <t>브랜딩</t>
-  </si>
-  <si>
-    <t>mini(mail)ism</t>
-  </si>
-  <si>
-    <t>어쩐지 클릭하기조차 두려운 정리되지 않은 메일함. 이렇게 쌓여있는 메일은 약 4g, 대용량 메일은 약 50g까지 이산화탄소를 낮밤 가리지 않고 배출한다. '매일 메일 정리하는 라이프'라는 슬로건의 미니메일리즘은 사용자의 전반적인 생활 안에 녹아들어 규칙적인 습관 형성을 돕는다. 메일을 정리해 생산적이고 정돈된 삶을 즐기며, 탄소 발자국을 줄이고, 결국 미니멀한 삶을 추구한다는 메시지의 라이프 브랜드.</t>
-  </si>
-  <si>
-    <t>브랜딩_mini(mail)ism_디테일</t>
-  </si>
-  <si>
     <t>ytojin52@naver.com</t>
   </si>
   <si>
@@ -530,21 +486,6 @@
     <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_typing+duel</t>
   </si>
   <si>
-    <t>is458518@gmail.com</t>
-  </si>
-  <si>
-    <t>김채린/2021120113</t>
-  </si>
-  <si>
-    <t>구강케어 브랜드 4분의1</t>
-  </si>
-  <si>
-    <t>생태계를 지키고 구강건강도 지키는 구강케어 브랜드 4분의1이다. 생태계 교란종인 가시상추는 충치와 치주염 예방 효능을 가지고 있어 기능성 치약 개발에 활용될 수 있다. 이를 통해 구강 건강과 생태계 교란종의 개체 수 조절이라는 두 마리 토끼를 동시에 잡을 수 있다.</t>
-  </si>
-  <si>
-    <t>브랜딩_4분의1_디테일</t>
-  </si>
-  <si>
     <t>katie50883@gmail.com</t>
   </si>
   <si>
@@ -604,6 +545,9 @@
   </si>
   <si>
     <t>akuak0627@naver.com</t>
+  </si>
+  <si>
+    <t>브랜딩</t>
   </si>
   <si>
     <t>임해서</t>
@@ -654,19 +598,40 @@
     <t>브랜딩_mizmas_썸네일</t>
   </si>
   <si>
+    <t>jinideepsea@gmail.com</t>
+  </si>
+  <si>
+    <t>최지수</t>
+  </si>
+  <si>
+    <t>mini(mail)ism</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 어쩐지 클릭하기조차 두려운 정리되지 않은 메일함. 쌓여있는 메일은 약 4g, 대용량 메일은 약 50g까지 이산화탄소를 끊임없이 만들어낸다. 미니메일리즘은 '매일 메일 정리하는 라이프'라는 슬로건과 함께 사용자의 전반적인 생활 안에 녹아들어 규칙적인 습관 형성을 돕는다. 메일을 정리해 생산적이고 정돈된 삶을 즐기며, 탄소 발자국을 줄이고, 결국 미니멀한 삶을 추구하자는 메시지의 라이프 스타일 브랜드이다.</t>
   </si>
   <si>
+    <t>브랜딩_mini(mail)ism_디테일</t>
+  </si>
+  <si>
     <t>브랜딩_mini(mail)ism_썸네일</t>
   </si>
   <si>
+    <t>is458518@gmail.com</t>
+  </si>
+  <si>
     <t>김채린</t>
   </si>
   <si>
+    <t>구강케어 브랜드 4분의1</t>
+  </si>
+  <si>
     <t>생태계를 지키고 구강건강도 지키는 구강케어 브랜드 "4분의1"이다. 생태계 교란종인 가시상추는 충치와 치주염 예방 효능을 가지고 있어 기능성 치약 개발에 활용될 수 있다. 이를 통해 구강건강과 생태계 교란종 개체 수 조절의 두 마리 토끼를 동시에 잡을 수 있다.</t>
   </si>
   <si>
     <t>https://www.youtube.com/embed/EQgB3YfuJJQ?si=m69bRcRuB3JckN6r</t>
+  </si>
+  <si>
+    <t>브랜딩_4분의1_디테일</t>
   </si>
   <si>
     <t>브랜딩_4분의1_썸네일</t>
@@ -838,6 +803,9 @@
     <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%83%E1%85%A1%E1%84%8B%E1%85%B5%E1%84%82%E1%85%A9%E1%84%89%E1%85%B5%E1%86%B7%E1%84%91%E1%85%A9%E1%84%82%E1%85%B5__%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
+    <t>영상</t>
+  </si>
+  <si>
     <t>박채린, 서예지</t>
   </si>
   <si>
@@ -1053,6 +1021,15 @@
     <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%87%E1%85%B5%E1%86%BE%E1%84%8B%E1%85%B5%E1%84%89%E1%85%A6%E1%84%89%E1%85%A1%E1%86%BC%E1%84%8B%E1%85%B4%E1%84%86%E1%85%A9%E1%84%83%E1%85%B3%E1%86%AB%E1%84%90%E1%85%B3%E1%86%B7%E1%84%8B%E1%85%B3%E1%86%AF%E1%84%86%E1%85%A6%E1%84%8B%E1%85%AE%E1%86%AB%E1%84%83%E1%85%A1_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
+    <t>jeonglily@naver.com</t>
+  </si>
+  <si>
+    <t>박다희, 정승연</t>
+  </si>
+  <si>
+    <t>Trip with you</t>
+  </si>
+  <si>
     <t>‘Trip with you’는 어디에 있든 자신감있는 모습으로 빛날 수 있도록 돕는다는 메시지를 담은 화장품 브랜드 '페리페라'의 프로모션 영상이다. 매일의 모든 순간을 어떤 상황에서도 특별하게 만들어준다는 의미를 담아, 일상을 함께하는 파트너를 여행가방으로 나타내었다.</t>
   </si>
   <si>
@@ -1092,22 +1069,6 @@
   </si>
   <si>
     <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_fairy+tale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">틱 틱 붐! </t>
-  </si>
-  <si>
-    <t>소리의 정체에 대해 추측하던 장난감들은 그 소리가 시한폭탄의 소리잉 것이라 의심하는 지경에 이른다.
-과연 장난감들은 낯선 것을 어떻게 그들만의 방식으로 받아들일까?</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/f4mznmFSe7w?si=cs9NCogTdUoV11z_</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_TicTicBoom_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF-01-01</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_ticticboom_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF-01</t>
   </si>
   <si>
     <t>강다은</t>
@@ -1336,6 +1297,64 @@
   </si>
   <si>
     <t>https://www.youtube.com/embed/UZRBmiJCQeg?si=tS74VrmTPufgytk5</t>
+  </si>
+  <si>
+    <t>joyunsuh020406@naver.com</t>
+  </si>
+  <si>
+    <t>조윤서</t>
+  </si>
+  <si>
+    <t>RETRO VIBE COLLECTION</t>
+  </si>
+  <si>
+    <t>20대 초반 여성을 타깃으로 한 1970년대 미국 레트로를 새롭고 신선하게 재해석한 패션 잡화 브랜드이다.</t>
+  </si>
+  <si>
+    <t>Card Post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">엽서의 다양한 요소를 활용한 콜라주 타이포그래피로, 한국 엽서의 유래와 역사를 알린다. </t>
+  </si>
+  <si>
+    <t>Carly Rae Jepsen - I Really Like You (2024 MV)</t>
+  </si>
+  <si>
+    <t>짝사랑이라는 순수하고 열정적인 감정에 초점을 맞춘 뮤직비디오로, 주인공의 다양한 자아들이 각기 다른 모습으로 고백을 향해 달려나가는 스토리를 통해 대중의 공감을 이끌고 추억하게 한다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ycBxLaivWYk?si=wmosxWyjFDweAIZS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어디에 있든, 어떤 상황이든 자신감있는 모습으로 빛날 수 있다는 점을 여행가방에 빗대어 함께하는 파트너로써의 브랜드 이미지를 담은 프로모션 영상이다. </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/WtKYjDRgOfM?si=MFGtj1WFOoOIC5GH</t>
+  </si>
+  <si>
+    <t>어쩐지 클릭하기조차 두려운 정리되지 않은 메일함. 이렇게 쌓여있는 메일은 약 4g, 대용량 메일은 약 50g까지 이산화탄소를 낮밤 가리지 않고 배출한다. '매일 메일 정리하는 라이프'라는 슬로건의 미니메일리즘은 사용자의 전반적인 생활 안에 녹아들어 규칙적인 습관 형성을 돕는다. 메일을 정리해 생산적이고 정돈된 삶을 즐기며, 탄소 발자국을 줄이고, 결국 미니멀한 삶을 추구한다는 메시지의 라이프 브랜드.</t>
+  </si>
+  <si>
+    <t>김채린/2021120113</t>
+  </si>
+  <si>
+    <t>생태계를 지키고 구강건강도 지키는 구강케어 브랜드 4분의1이다. 생태계 교란종인 가시상추는 충치와 치주염 예방 효능을 가지고 있어 기능성 치약 개발에 활용될 수 있다. 이를 통해 구강 건강과 생태계 교란종의 개체 수 조절이라는 두 마리 토끼를 동시에 잡을 수 있다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">틱 틱 붐! </t>
+  </si>
+  <si>
+    <t>소리의 정체에 대해 추측하던 장난감들은 그 소리가 시한폭탄의 소리잉 것이라 의심하는 지경에 이른다.
+과연 장난감들은 낯선 것을 어떻게 그들만의 방식으로 받아들일까?</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/f4mznmFSe7w?si=cs9NCogTdUoV11z_</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_TicTicBoom_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF-01-01</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_ticticboom_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF-01</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1364,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1369,6 +1388,15 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1384,7 +1412,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1418,13 +1446,22 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1434,6 +1471,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -2094,9 +2135,9 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" hidden="1">
+    <row r="12">
       <c r="A12" s="5">
-        <v>45482.79511872685</v>
+        <v>45482.96540894676</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>71</v>
@@ -2105,16 +2146,16 @@
         <v>13</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>18</v>
@@ -2122,19 +2163,21 @@
       <c r="I12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="4"/>
+      <c r="K12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" hidden="1">
+    <row r="13">
       <c r="A13" s="5">
-        <v>45482.8288325</v>
+        <v>45482.98076421296</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>77</v>
@@ -2143,7 +2186,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>78</v>
@@ -2160,11 +2203,13 @@
       <c r="I13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="4"/>
+      <c r="K13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="L13" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -2172,10 +2217,10 @@
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <v>45482.96540894676</v>
+        <v>45483.09886990741</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>13</v>
@@ -2184,13 +2229,13 @@
         <v>14</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>18</v>
@@ -2200,10 +2245,10 @@
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -2212,10 +2257,10 @@
     </row>
     <row r="15">
       <c r="A15" s="5">
-        <v>45482.98076421296</v>
+        <v>45483.29734204861</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -2224,13 +2269,13 @@
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>18</v>
@@ -2240,10 +2285,10 @@
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -2252,10 +2297,10 @@
     </row>
     <row r="16">
       <c r="A16" s="5">
-        <v>45483.09886990741</v>
+        <v>45483.38515827546</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>13</v>
@@ -2264,13 +2309,13 @@
         <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>18</v>
@@ -2280,10 +2325,10 @@
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -2292,10 +2337,10 @@
     </row>
     <row r="17">
       <c r="A17" s="5">
-        <v>45483.29734204861</v>
+        <v>45483.41871167824</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>13</v>
@@ -2304,13 +2349,13 @@
         <v>14</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>18</v>
@@ -2320,10 +2365,10 @@
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -2332,10 +2377,10 @@
     </row>
     <row r="18">
       <c r="A18" s="5">
-        <v>45483.38515827546</v>
+        <v>45483.64825532408</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>13</v>
@@ -2344,13 +2389,13 @@
         <v>14</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>18</v>
@@ -2360,10 +2405,10 @@
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -2372,10 +2417,10 @@
     </row>
     <row r="19">
       <c r="A19" s="5">
-        <v>45483.41871167824</v>
+        <v>45483.66850667824</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -2384,13 +2429,13 @@
         <v>14</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>18</v>
@@ -2400,10 +2445,10 @@
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -2412,10 +2457,10 @@
     </row>
     <row r="20">
       <c r="A20" s="5">
-        <v>45483.64825532408</v>
+        <v>45483.68916679398</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>13</v>
@@ -2424,13 +2469,13 @@
         <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>18</v>
@@ -2440,10 +2485,10 @@
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -2452,10 +2497,10 @@
     </row>
     <row r="21">
       <c r="A21" s="5">
-        <v>45483.66850667824</v>
+        <v>45483.698849953704</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>13</v>
@@ -2464,13 +2509,13 @@
         <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>18</v>
@@ -2480,10 +2525,10 @@
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -2492,10 +2537,10 @@
     </row>
     <row r="22">
       <c r="A22" s="5">
-        <v>45483.68916679398</v>
+        <v>45483.703790914355</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>13</v>
@@ -2504,13 +2549,13 @@
         <v>14</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>18</v>
@@ -2520,10 +2565,10 @@
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -2532,10 +2577,10 @@
     </row>
     <row r="23">
       <c r="A23" s="5">
-        <v>45483.698849953704</v>
+        <v>45483.735019837965</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>13</v>
@@ -2544,13 +2589,13 @@
         <v>14</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>18</v>
@@ -2560,10 +2605,10 @@
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -2572,10 +2617,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5">
-        <v>45483.703790914355</v>
+        <v>45483.79103490741</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>13</v>
@@ -2584,13 +2629,13 @@
         <v>14</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>18</v>
@@ -2600,37 +2645,37 @@
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
     </row>
-    <row r="25" hidden="1">
+    <row r="25">
       <c r="A25" s="5">
-        <v>45482.97025172454</v>
+        <v>45483.90874677083</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>18</v>
@@ -2640,9 +2685,11 @@
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="L25" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -2650,10 +2697,10 @@
     </row>
     <row r="26">
       <c r="A26" s="5">
-        <v>45483.735019837965</v>
+        <v>45483.920652939814</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>13</v>
@@ -2662,26 +2709,26 @@
         <v>14</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -2690,10 +2737,10 @@
     </row>
     <row r="27">
       <c r="A27" s="5">
-        <v>45483.79103490741</v>
+        <v>45483.93423116898</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>13</v>
@@ -2702,13 +2749,13 @@
         <v>14</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>18</v>
@@ -2716,39 +2763,39 @@
       <c r="I27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="4"/>
+      <c r="J27" s="3"/>
       <c r="K27" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" hidden="1">
+    <row r="28">
       <c r="A28" s="5">
-        <v>45482.98098891204</v>
+        <v>45482.473479374996</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>18</v>
@@ -2758,9 +2805,11 @@
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="4"/>
+        <v>173</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -2768,25 +2817,25 @@
     </row>
     <row r="29">
       <c r="A29" s="5">
-        <v>45483.90874677083</v>
+        <v>45482.97205684028</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E29" s="3" t="s">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>18</v>
@@ -2796,10 +2845,10 @@
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -2808,38 +2857,38 @@
     </row>
     <row r="30">
       <c r="A30" s="5">
-        <v>45483.920652939814</v>
+        <v>45482.98327019676</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -2848,25 +2897,25 @@
     </row>
     <row r="31">
       <c r="A31" s="5">
-        <v>45483.93423116898</v>
+        <v>45482.98677101852</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>18</v>
@@ -2874,12 +2923,12 @@
       <c r="I31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="3"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -2888,38 +2937,40 @@
     </row>
     <row r="32">
       <c r="A32" s="5">
-        <v>45482.473479374996</v>
+        <v>45482.99329047454</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="4"/>
+        <v>159</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>195</v>
+      </c>
       <c r="K32" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -2928,25 +2979,25 @@
     </row>
     <row r="33">
       <c r="A33" s="5">
-        <v>45482.97205684028</v>
+        <v>45483.06046545139</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>18</v>
@@ -2956,10 +3007,10 @@
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -2968,25 +3019,25 @@
     </row>
     <row r="34">
       <c r="A34" s="5">
-        <v>45482.98327019676</v>
+        <v>45483.09800518518</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>18</v>
@@ -2996,10 +3047,10 @@
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -3008,38 +3059,38 @@
     </row>
     <row r="35">
       <c r="A35" s="5">
-        <v>45482.98677101852</v>
+        <v>45483.66984074074</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="3" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -3048,40 +3099,38 @@
     </row>
     <row r="36">
       <c r="A36" s="5">
-        <v>45482.99329047454</v>
+        <v>45483.702257083336</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>208</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J36" s="4"/>
       <c r="K36" s="3" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -3090,25 +3139,25 @@
     </row>
     <row r="37">
       <c r="A37" s="5">
-        <v>45483.06046545139</v>
+        <v>45483.705789189815</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>18</v>
@@ -3118,10 +3167,10 @@
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="3" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -3130,25 +3179,25 @@
     </row>
     <row r="38">
       <c r="A38" s="5">
-        <v>45483.09800518518</v>
+        <v>45483.70796046296</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>18</v>
@@ -3158,10 +3207,10 @@
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="3" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -3170,38 +3219,36 @@
     </row>
     <row r="39">
       <c r="A39" s="5">
-        <v>45483.66984074074</v>
+        <v>45483.81360550926</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C39" s="4"/>
       <c r="D39" s="3" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="3" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -3210,25 +3257,25 @@
     </row>
     <row r="40">
       <c r="A40" s="5">
-        <v>45483.702257083336</v>
+        <v>45483.915772673616</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>226</v>
+        <v>59</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>18</v>
@@ -3237,11 +3284,9 @@
         <v>19</v>
       </c>
       <c r="J40" s="4"/>
-      <c r="K40" s="3" t="s">
-        <v>230</v>
-      </c>
+      <c r="K40" s="4"/>
       <c r="L40" s="3" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -3250,25 +3295,25 @@
     </row>
     <row r="41">
       <c r="A41" s="5">
-        <v>45483.705789189815</v>
+        <v>45483.91921710648</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>18</v>
@@ -3278,10 +3323,10 @@
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="3" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -3290,25 +3335,25 @@
     </row>
     <row r="42">
       <c r="A42" s="5">
-        <v>45483.70796046296</v>
+        <v>45483.95687274306</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>238</v>
+        <v>162</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>18</v>
@@ -3316,12 +3361,12 @@
       <c r="I42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J42" s="4"/>
+      <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -3330,23 +3375,25 @@
     </row>
     <row r="43">
       <c r="A43" s="5">
-        <v>45483.81360550926</v>
+        <v>45477.59296954861</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D43" s="3" t="s">
-        <v>148</v>
+        <v>249</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>18</v>
@@ -3354,12 +3401,14 @@
       <c r="I43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J43" s="4"/>
+      <c r="J43" s="7" t="s">
+        <v>253</v>
+      </c>
       <c r="K43" s="3" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -3368,36 +3417,40 @@
     </row>
     <row r="44">
       <c r="A44" s="5">
-        <v>45483.915772673616</v>
+        <v>45482.27508898148</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>148</v>
+        <v>249</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>248</v>
+        <v>29</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
+        <v>159</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="L44" s="3" t="s">
-        <v>251</v>
+        <v>33</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
@@ -3406,25 +3459,25 @@
     </row>
     <row r="45">
       <c r="A45" s="5">
-        <v>45483.91921710648</v>
+        <v>45482.62867666667</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>148</v>
+        <v>249</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>252</v>
+        <v>35</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>18</v>
@@ -3433,12 +3486,8 @@
         <v>19</v>
       </c>
       <c r="J45" s="4"/>
-      <c r="K45" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>256</v>
-      </c>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
@@ -3446,25 +3495,25 @@
     </row>
     <row r="46">
       <c r="A46" s="5">
-        <v>45483.95687274306</v>
+        <v>45482.90850524306</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>148</v>
+        <v>249</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>257</v>
+        <v>54</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>18</v>
@@ -3472,12 +3521,14 @@
       <c r="I46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J46" s="3"/>
+      <c r="J46" s="7" t="s">
+        <v>262</v>
+      </c>
       <c r="K46" s="3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
@@ -3486,40 +3537,40 @@
     </row>
     <row r="47">
       <c r="A47" s="5">
-        <v>45477.59296954861</v>
+        <v>45482.94517395833</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
@@ -3528,40 +3579,40 @@
     </row>
     <row r="48">
       <c r="A48" s="5">
-        <v>45482.27508898148</v>
+        <v>45482.94777834491</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>28</v>
+        <v>271</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>29</v>
+        <v>272</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>30</v>
+        <v>273</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>32</v>
+        <v>276</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>33</v>
+        <v>277</v>
       </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
@@ -3570,25 +3621,25 @@
     </row>
     <row r="49">
       <c r="A49" s="5">
-        <v>45482.62867666667</v>
+        <v>45482.95580094907</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>34</v>
+        <v>278</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>35</v>
+        <v>279</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>18</v>
@@ -3596,9 +3647,15 @@
       <c r="I49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
+      <c r="J49" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
@@ -3606,40 +3663,38 @@
     </row>
     <row r="50">
       <c r="A50" s="5">
-        <v>45482.90850524306</v>
+        <v>45482.983186655096</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>271</v>
+        <v>78</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>274</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="K50" s="4"/>
       <c r="L50" s="3" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
@@ -3648,40 +3703,38 @@
     </row>
     <row r="51">
       <c r="A51" s="5">
-        <v>45482.94517395833</v>
+        <v>45482.9905725</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>276</v>
+        <v>180</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>279</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J51" s="4"/>
       <c r="K51" s="3" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
@@ -3690,25 +3743,25 @@
     </row>
     <row r="52">
       <c r="A52" s="5">
-        <v>45482.94777834491</v>
+        <v>45482.998770949074</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>282</v>
+        <v>220</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>18</v>
@@ -3717,13 +3770,11 @@
         <v>19</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>287</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="K52" s="4"/>
       <c r="L52" s="3" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
@@ -3732,25 +3783,25 @@
     </row>
     <row r="53">
       <c r="A53" s="5">
-        <v>45482.95580094907</v>
+        <v>45483.14124835648</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>18</v>
@@ -3758,14 +3809,14 @@
       <c r="I53" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J53" s="7" t="s">
-        <v>293</v>
+      <c r="J53" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
@@ -3774,38 +3825,38 @@
     </row>
     <row r="54">
       <c r="A54" s="5">
-        <v>45482.983186655096</v>
+        <v>45483.153701435185</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="3" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
@@ -3814,38 +3865,38 @@
     </row>
     <row r="55">
       <c r="A55" s="5">
-        <v>45482.9905725</v>
+        <v>45483.15944966435</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>198</v>
+        <v>302</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>199</v>
+        <v>303</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J55" s="4"/>
-      <c r="K55" s="3" t="s">
-        <v>302</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K55" s="4"/>
       <c r="L55" s="3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
@@ -3854,25 +3905,25 @@
     </row>
     <row r="56">
       <c r="A56" s="5">
-        <v>45482.998770949074</v>
+        <v>45483.36342819444</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>232</v>
+        <v>95</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>276</v>
+        <v>96</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>18</v>
@@ -3881,11 +3932,13 @@
         <v>19</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="K56" s="4"/>
+        <v>310</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="L56" s="3" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
@@ -3894,25 +3947,25 @@
     </row>
     <row r="57">
       <c r="A57" s="5">
-        <v>45483.14124835648</v>
+        <v>45483.64586524306</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>306</v>
+        <v>107</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>307</v>
+        <v>108</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>18</v>
@@ -3921,13 +3974,13 @@
         <v>19</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
@@ -3936,38 +3989,40 @@
     </row>
     <row r="58">
       <c r="A58" s="5">
-        <v>45483.153701435185</v>
+        <v>45483.66248461806</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>88</v>
+        <v>318</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>89</v>
+        <v>319</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="K58" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>323</v>
+      </c>
       <c r="L58" s="3" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
@@ -3976,38 +4031,40 @@
     </row>
     <row r="59">
       <c r="A59" s="5">
-        <v>45483.15944966435</v>
+        <v>45483.66513658565</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>313</v>
+        <v>208</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>314</v>
+        <v>209</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K59" s="4"/>
+        <v>327</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>328</v>
+      </c>
       <c r="L59" s="3" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
@@ -4016,40 +4073,38 @@
     </row>
     <row r="60">
       <c r="A60" s="5">
-        <v>45483.36342819444</v>
+        <v>45483.66527428241</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>322</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="K60" s="3"/>
       <c r="L60" s="3" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
@@ -4058,40 +4113,38 @@
     </row>
     <row r="61">
       <c r="A61" s="5">
-        <v>45483.64586524306</v>
+        <v>45483.68189813657</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>119</v>
+        <v>334</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J61" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>327</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K61" s="4"/>
       <c r="L61" s="3" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
@@ -4100,40 +4153,38 @@
     </row>
     <row r="62">
       <c r="A62" s="5">
-        <v>45483.66248461806</v>
+        <v>45483.6884422338</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>331</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="K62" s="3"/>
       <c r="L62" s="3" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
@@ -4142,25 +4193,25 @@
     </row>
     <row r="63">
       <c r="A63" s="5">
-        <v>45483.66513658565</v>
+        <v>45483.69236240741</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>220</v>
+        <v>119</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>221</v>
+        <v>120</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>18</v>
@@ -4169,13 +4220,13 @@
         <v>19</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
@@ -4184,38 +4235,40 @@
     </row>
     <row r="64">
       <c r="A64" s="5">
-        <v>45483.66527428241</v>
+        <v>45483.697355729164</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="K64" s="3"/>
+        <v>350</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>351</v>
+      </c>
       <c r="L64" s="3" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
@@ -4224,40 +4277,38 @@
     </row>
     <row r="65">
       <c r="A65" s="5">
-        <v>45483.67178862268</v>
+        <v>45483.69962803241</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>345</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K65" s="4"/>
       <c r="L65" s="3" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
@@ -4266,39 +4317,37 @@
     </row>
     <row r="66">
       <c r="A66" s="5">
-        <v>45483.68189813657</v>
+        <v>45483.70411417824</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>210</v>
+        <v>113</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>347</v>
+        <v>114</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="K66" s="4"/>
-      <c r="L66" s="3" t="s">
-        <v>351</v>
-      </c>
+      <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
@@ -4306,38 +4355,38 @@
     </row>
     <row r="67">
       <c r="A67" s="5">
-        <v>45483.6884422338</v>
+        <v>45483.710486157404</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>137</v>
+        <v>360</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J67" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="K67" s="3"/>
+        <v>159</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K67" s="4"/>
       <c r="L67" s="3" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
@@ -4346,25 +4395,25 @@
     </row>
     <row r="68">
       <c r="A68" s="5">
-        <v>45483.69236240741</v>
+        <v>45483.720720474535</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>18</v>
@@ -4372,14 +4421,12 @@
       <c r="I68" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J68" s="7" t="s">
-        <v>358</v>
-      </c>
+      <c r="J68" s="3"/>
       <c r="K68" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
@@ -4388,40 +4435,38 @@
     </row>
     <row r="69">
       <c r="A69" s="5">
-        <v>45483.697355729164</v>
+        <v>45483.9014703125</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>13</v>
+        <v>369</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>364</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="K69" s="4"/>
       <c r="L69" s="3" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
@@ -4430,38 +4475,40 @@
     </row>
     <row r="70">
       <c r="A70" s="5">
-        <v>45483.69962803241</v>
+        <v>45481.94270072917</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>46</v>
+        <v>374</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>72</v>
+        <v>375</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>47</v>
+        <v>376</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="K70" s="4"/>
+        <v>379</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>380</v>
+      </c>
       <c r="L70" s="3" t="s">
-        <v>369</v>
+        <v>33</v>
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
@@ -4470,37 +4517,39 @@
     </row>
     <row r="71">
       <c r="A71" s="5">
-        <v>45483.70411417824</v>
+        <v>45482.49447282407</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>72</v>
+        <v>375</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>125</v>
+        <v>381</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="J71" s="4"/>
+      <c r="K71" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>385</v>
+      </c>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
@@ -4508,38 +4557,38 @@
     </row>
     <row r="72">
       <c r="A72" s="5">
-        <v>45483.710486157404</v>
+        <v>45483.41264692129</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>226</v>
+        <v>101</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>72</v>
+        <v>375</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>373</v>
+        <v>102</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="K72" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="J72" s="4"/>
+      <c r="K72" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="L72" s="3" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
@@ -4548,25 +4597,25 @@
     </row>
     <row r="73">
       <c r="A73" s="5">
-        <v>45483.720720474535</v>
+        <v>45483.65972041667</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>142</v>
+        <v>390</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>72</v>
+        <v>375</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>143</v>
+        <v>391</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>18</v>
@@ -4576,10 +4625,10 @@
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
@@ -4588,38 +4637,38 @@
     </row>
     <row r="74">
       <c r="A74" s="5">
-        <v>45483.9014703125</v>
+        <v>45483.7318767824</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>72</v>
+        <v>375</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="K74" s="4"/>
+        <v>159</v>
+      </c>
+      <c r="J74" s="4"/>
+      <c r="K74" s="3" t="s">
+        <v>398</v>
+      </c>
       <c r="L74" s="3" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
@@ -4627,263 +4676,177 @@
       <c r="P74" s="4"/>
     </row>
     <row r="75">
-      <c r="A75" s="5">
-        <v>45481.94270072917</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I75" s="3" t="s">
+      <c r="A75" s="9">
+        <v>45484.02054478009</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J75" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
     </row>
     <row r="76">
-      <c r="A76" s="5">
-        <v>45482.49447282407</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I76" s="3" t="s">
+      <c r="A76" s="9">
+        <v>45484.06275363426</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J76" s="4"/>
-      <c r="K76" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
+      <c r="J76" s="12" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="5">
-        <v>45483.41264692129</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I77" s="3" t="s">
+      <c r="A77" s="9">
+        <v>45484.07147298611</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J77" s="4"/>
-      <c r="K77" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
     </row>
     <row r="78">
-      <c r="A78" s="5">
-        <v>45483.65972041667</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="F78" s="3" t="s">
+      <c r="A78" s="9">
+        <v>45484.07277572917</v>
+      </c>
+      <c r="B78" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="C78" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="H78" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I78" s="3" t="s">
+      <c r="F78" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
     </row>
     <row r="79">
-      <c r="A79" s="5">
-        <v>45483.7318767824</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>412</v>
-      </c>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
     </row>
     <row r="80">
-      <c r="A80" s="9">
-        <v>45484.02054478009</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="11"/>
-      <c r="E80" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="G80" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="H80" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I80" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
     </row>
     <row r="81">
-      <c r="A81" s="9">
-        <v>45484.06275363426</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="11"/>
-      <c r="E81" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="H81" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I81" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J81" s="13" t="s">
-        <v>417</v>
-      </c>
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
     </row>
     <row r="82">
       <c r="A82" s="4"/>
@@ -6631,102 +6594,264 @@
       <c r="O178" s="4"/>
       <c r="P178" s="4"/>
     </row>
-    <row r="179">
-      <c r="A179" s="4"/>
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="4"/>
-      <c r="F179" s="4"/>
-      <c r="G179" s="4"/>
-      <c r="H179" s="4"/>
-      <c r="I179" s="4"/>
-      <c r="J179" s="4"/>
-      <c r="K179" s="4"/>
-      <c r="L179" s="4"/>
-      <c r="M179" s="4"/>
-      <c r="N179" s="4"/>
-      <c r="O179" s="4"/>
-      <c r="P179" s="4"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="4"/>
-      <c r="B180" s="4"/>
-      <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="4"/>
-      <c r="F180" s="4"/>
-      <c r="G180" s="4"/>
-      <c r="H180" s="4"/>
-      <c r="I180" s="4"/>
-      <c r="J180" s="4"/>
-      <c r="K180" s="4"/>
-      <c r="L180" s="4"/>
-      <c r="M180" s="4"/>
-      <c r="N180" s="4"/>
-      <c r="O180" s="4"/>
-      <c r="P180" s="4"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="4"/>
-      <c r="B181" s="4"/>
-      <c r="C181" s="4"/>
-      <c r="D181" s="4"/>
-      <c r="E181" s="4"/>
-      <c r="F181" s="4"/>
-      <c r="G181" s="4"/>
-      <c r="H181" s="4"/>
-      <c r="I181" s="4"/>
-      <c r="J181" s="4"/>
-      <c r="K181" s="4"/>
-      <c r="L181" s="4"/>
-      <c r="M181" s="4"/>
-      <c r="N181" s="4"/>
-      <c r="O181" s="4"/>
-      <c r="P181" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="$B$1:$J$81"/>
+  <autoFilter ref="$B$1:$J$78"/>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D1">
       <formula1>"분야"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D81">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D78">
       <formula1>"브랜딩,그래픽,UXUI,영상"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="J12"/>
-    <hyperlink r:id="rId2" ref="J13"/>
-    <hyperlink r:id="rId3" ref="J36"/>
-    <hyperlink r:id="rId4" ref="J47"/>
-    <hyperlink r:id="rId5" ref="J48"/>
-    <hyperlink r:id="rId6" ref="J50"/>
-    <hyperlink r:id="rId7" ref="J51"/>
-    <hyperlink r:id="rId8" ref="J52"/>
-    <hyperlink r:id="rId9" ref="J53"/>
-    <hyperlink r:id="rId10" ref="J54"/>
-    <hyperlink r:id="rId11" ref="J56"/>
-    <hyperlink r:id="rId12" ref="J57"/>
-    <hyperlink r:id="rId13" ref="J58"/>
-    <hyperlink r:id="rId14" ref="J59"/>
-    <hyperlink r:id="rId15" ref="J60"/>
-    <hyperlink r:id="rId16" ref="J61"/>
-    <hyperlink r:id="rId17" ref="J62"/>
-    <hyperlink r:id="rId18" ref="J63"/>
-    <hyperlink r:id="rId19" ref="J64"/>
-    <hyperlink r:id="rId20" ref="J65"/>
-    <hyperlink r:id="rId21" ref="J66"/>
-    <hyperlink r:id="rId22" ref="J67"/>
-    <hyperlink r:id="rId23" ref="J68"/>
-    <hyperlink r:id="rId24" ref="J69"/>
-    <hyperlink r:id="rId25" ref="J70"/>
-    <hyperlink r:id="rId26" ref="J71"/>
-    <hyperlink r:id="rId27" ref="J72"/>
-    <hyperlink r:id="rId28" ref="J74"/>
-    <hyperlink r:id="rId29" ref="J75"/>
-    <hyperlink r:id="rId30" ref="J81"/>
+    <hyperlink r:id="rId1" ref="J32"/>
+    <hyperlink r:id="rId2" ref="J43"/>
+    <hyperlink r:id="rId3" ref="J44"/>
+    <hyperlink r:id="rId4" ref="J46"/>
+    <hyperlink r:id="rId5" ref="J47"/>
+    <hyperlink r:id="rId6" ref="J48"/>
+    <hyperlink r:id="rId7" ref="J49"/>
+    <hyperlink r:id="rId8" ref="J50"/>
+    <hyperlink r:id="rId9" ref="J52"/>
+    <hyperlink r:id="rId10" ref="J53"/>
+    <hyperlink r:id="rId11" ref="J54"/>
+    <hyperlink r:id="rId12" ref="J55"/>
+    <hyperlink r:id="rId13" ref="J56"/>
+    <hyperlink r:id="rId14" ref="J57"/>
+    <hyperlink r:id="rId15" ref="J58"/>
+    <hyperlink r:id="rId16" ref="J59"/>
+    <hyperlink r:id="rId17" ref="J60"/>
+    <hyperlink r:id="rId18" ref="J61"/>
+    <hyperlink r:id="rId19" ref="J62"/>
+    <hyperlink r:id="rId20" ref="J63"/>
+    <hyperlink r:id="rId21" ref="J64"/>
+    <hyperlink r:id="rId22" ref="J65"/>
+    <hyperlink r:id="rId23" ref="J66"/>
+    <hyperlink r:id="rId24" ref="J67"/>
+    <hyperlink r:id="rId25" ref="J69"/>
+    <hyperlink r:id="rId26" ref="J70"/>
+    <hyperlink r:id="rId27" ref="J76"/>
   </hyperlinks>
-  <drawing r:id="rId31"/>
+  <drawing r:id="rId28"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5">
+        <v>45482.79511872685</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5">
+        <v>45482.8288325</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="5">
+        <v>45482.97025172454</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="5">
+        <v>45482.98098891204</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="13">
+        <v>45483.67178862268</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+    </row>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D1:D5">
+      <formula1>"브랜딩,그래픽,UXUI,영상"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="J1"/>
+    <hyperlink r:id="rId2" ref="J2"/>
+    <hyperlink r:id="rId3" ref="J5"/>
+  </hyperlinks>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/public/data/project_list.xlsx
+++ b/public/data/project_list.xlsx
@@ -7,14 +7,14 @@
     <sheet state="visible" name="시트1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'설문지 응답 시트1'!$B$1:$J$78</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'설문지 응답 시트1'!$B$1:$J$79</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="442">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -115,7 +115,7 @@
     <t>그래픽_독립프로젝트무주택자99_디테일</t>
   </si>
   <si>
-    <t>UXUI_마음미술관_썸네일</t>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%83%E1%85%A9%E1%86%A8%E1%84%85%E1%85%B5%E1%86%B8%E1%84%91%E1%85%B3%E1%84%85%E1%85%A9%E1%84%8C%E1%85%A6%E1%86%A8%E1%84%90%E1%85%B3%E1%84%86%E1%85%AE%E1%84%8C%E1%85%AE%E1%84%90%E1%85%A2%E1%86%A8%E1%84%8C%E1%85%A199_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>jayeom0727@gmail.com</t>
@@ -459,7 +459,7 @@
     <t>Vertigul은 영문 세로 쓰기를 위해 개발된 폰트 패밀리 3종이다. Vertigul은 Vertical + Hangul의 합성어로, 세로 쓰기 된 한글과 병행하여 영문을 표기하였을 때에도, 사람들이 어색함을 느끼지 않고 영어를 자연스럽게 세로로 읽고 쓸 수 있는 폰트가 되길 바라는 마음을 담았다. Original, Sans-serif, Pixelized 3종의 패밀리로 원하는 어떤 영문이든 세로로 읽고 써 보세요!</t>
   </si>
   <si>
-    <t>그래픽_VERTIGUL_디테일</t>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_VERTIGUL_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>그래픽_VERTIGUL_썸네일</t>
@@ -498,7 +498,7 @@
     <t>유연하게 변화하며 존재하는 스티커에 재미를 느껴, 기존 스티커를 변형하는 시각 실험을 진행했다.</t>
   </si>
   <si>
-    <t>그래픽_sticker_디테일</t>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_sticker_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>그래픽_sticker_썸네일</t>
@@ -559,7 +559,7 @@
     <t>파블스는 식용 곤충을 이용한 대체식품을 통해 영양가 있는 식품을 제공하고, 환경 보호에 기여하고자 하는 브랜드이다. 귀여운 캐릭터와 디자인을 통해 소비자들에게 친숙하게 다가가며, 다양한 맛과 포장의 제품을 제공한다. 파블스의 주요 캐릭터인 파비(귀뚜라미), 풍이(장수애), 고니(고소애)는 각기 다른 영양소의 장점을 대표한다. 또한, 파블스의 카카오톡 이모티콘을 통해 소비자들이 캐릭터와 더욱 친밀감을 느낄 수 있도록 하였다.</t>
   </si>
   <si>
-    <t>브랜딩_파블스_디테일</t>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%91%E1%85%A1%E1%84%87%E1%85%B3%E1%86%AF%E1%84%89%E1%85%B3_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>브랜딩_파블스_썸네일</t>
@@ -572,7 +572,7 @@
 독창성과 복고풍의 매력을 결합하여, 독특한 레트로 감성을 불어넣어 젊은 세대와 디지털 아트를 즐기는 사람들에게 새로운 매력을 선사한다. 그리고 디지털 시대의 연결성을 강조하며, 전통적인 화투 게임을 현대적인 플랫폼으로 끌어들여 신선한 경험을 제공하고자하는 브랜드이다.</t>
   </si>
   <si>
-    <t>브랜딩_MONTHLY STUDIO_디테일</t>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_MONTHLY+STUDIO_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>브랜딩_MONTHLY STUDIO_썸네일</t>
@@ -592,7 +592,7 @@
 21세기인 지금까지도 존재하는 여성의 성욕을 터부시하는 문화를 개선하는 것을 노력하며 여성의 건강하고 다양한 성적 경험을 이야기하고자 한다.</t>
   </si>
   <si>
-    <t>브랜딩_mizmas_디테일</t>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_mizmas_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>브랜딩_mizmas_썸네일</t>
@@ -610,7 +610,7 @@
     <t xml:space="preserve"> 어쩐지 클릭하기조차 두려운 정리되지 않은 메일함. 쌓여있는 메일은 약 4g, 대용량 메일은 약 50g까지 이산화탄소를 끊임없이 만들어낸다. 미니메일리즘은 '매일 메일 정리하는 라이프'라는 슬로건과 함께 사용자의 전반적인 생활 안에 녹아들어 규칙적인 습관 형성을 돕는다. 메일을 정리해 생산적이고 정돈된 삶을 즐기며, 탄소 발자국을 줄이고, 결국 미니멀한 삶을 추구하자는 메시지의 라이프 스타일 브랜드이다.</t>
   </si>
   <si>
-    <t>브랜딩_mini(mail)ism_디테일</t>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_mini(mail)ism_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>브랜딩_mini(mail)ism_썸네일</t>
@@ -631,7 +631,7 @@
     <t>https://www.youtube.com/embed/EQgB3YfuJJQ?si=m69bRcRuB3JckN6r</t>
   </si>
   <si>
-    <t>브랜딩_4분의1_디테일</t>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_4%E1%84%87%E1%85%AE%E1%86%AB%E1%84%8B%E1%85%B41_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>브랜딩_4분의1_썸네일</t>
@@ -650,7 +650,7 @@
 과육보다 좋은 성분을 가지고 있지만 사용되지 않는 껍질을 업사이클링하여, 성분 좋고 친환경적인 제품을 만드는 것을 목적으로 한다.</t>
   </si>
   <si>
-    <t>브랜딩_frup_디테일</t>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_frup_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>브랜딩_frup_썸네일</t>
@@ -681,7 +681,7 @@
 시그니처 메뉴는 팥앙금 위에 각각 블루베리, 딸기, 체리, 샤인머스캣 네 가지 과일이 올라간 팥앙금 타르트이다. 앙베리는 소인국을 컨셉으로 한 패키지 디자인과 함께 투박하지만 직접 기르고 만든 건강하고 정성 가득한 팥타르트를 선보인다.</t>
   </si>
   <si>
-    <t>브랜딩_앙베리_디테일</t>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%8B%E1%85%A1%E1%86%BC%E1%84%87%E1%85%A6%E1%84%85%E1%85%B5_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>브랜딩_앙베리_썸네일</t>
@@ -701,7 +701,7 @@
 전통 방식으로 재배한 고급 아몬드를 사용하여, 정성스럽게 만든 쿠키의 풍부한 맛과 향을 즐길 수 있다.</t>
   </si>
   <si>
-    <t>브랜딩_COOKIMOND_디테일</t>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_COOKIMOND_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>브랜딩_COOKIMOND_썸네일</t>
@@ -719,7 +719,7 @@
     <t>콩 캐릭터를 통해 아이들에게 흥미를 주어 식습관 개선을 도와준다. 메인 상품은 '콩버거, 완두콩 스낵, 파인애플 비타민 주스'이며, 그 외에 패키지 상자, 캐릭터 키링, 스티커, 모션 애니메이션 등을 기획하여 아이들이 즐겁고 건강하게 간식을 먹을 수 있도록 만든 브랜드이다.</t>
   </si>
   <si>
-    <t>브랜딩_두랑두랑_디테일</t>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%83%E1%85%AE%E1%84%85%E1%85%A1%E1%86%BC%E1%84%83%E1%85%AE%E1%84%85%E1%85%A1%E1%86%BC_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>브랜딩_두랑두랑_썸네일</t>
@@ -771,6 +771,9 @@
     <t xml:space="preserve"> 녹진은 한국의 식재료를 사용해 이탈리아 전통 방식으로 만든 페스토를 선보이는 브랜드이다.</t>
   </si>
   <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%82%E1%85%A9%E1%86%A8%E1%84%8C%E1%85%B5%E1%86%AB_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
     <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%82%E1%85%A9%E1%86%A8%E1%84%8C%E1%85%B5%E1%86%AB_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
@@ -785,7 +788,7 @@
 매끄럽고 빛나는 마블링 텍스처는 바다의 조화로운 아름다움을 시각적으로 표현하며, 바디케어의 새로운 경험을 선사한다. </t>
   </si>
   <si>
-    <t>브랜딩_포에_디테일</t>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%91%E1%85%A9%E1%84%8B%E1%85%A6_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>브랜딩_포에_썸네일</t>
@@ -828,6 +831,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/embed/SKbhbOkFI9s?si=0roXrHY77zmLgFJm</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%83%E1%85%A9%E1%86%A8%E1%84%85%E1%85%B5%E1%86%B8%E1%84%91%E1%85%B3%E1%84%85%E1%85%A9%E1%84%8C%E1%85%A6%E1%86%A8%E1%84%90%E1%85%B3%E1%84%86%E1%85%AE%E1%84%8C%E1%85%AE%E1%84%90%E1%85%A2%E1%86%A8%E1%84%8C%E1%85%A199_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF_</t>
   </si>
   <si>
     <t>숨바꼭질 (AR 동화)</t>
@@ -853,6 +859,9 @@
     <t>영상_반짝이는 워터멜론 오프닝 타이틀_썸네일</t>
   </si>
   <si>
+    <t>영상 안나옴</t>
+  </si>
+  <si>
     <t>김수진</t>
   </si>
   <si>
@@ -871,6 +880,9 @@
     <t>영상_카지노_Title Sequence_썸네일</t>
   </si>
   <si>
+    <t>중복</t>
+  </si>
+  <si>
     <t>dlfp6736@hanmail.net</t>
   </si>
   <si>
@@ -907,7 +919,7 @@
     <t>https://www.youtube.com/embed/QY_1h1KZ6oc?si=opu2XleSlgig99Os</t>
   </si>
   <si>
-    <t>영상_남겨진 날_디테일</t>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%82%E1%85%A1%E1%86%B7%E1%84%80%E1%85%A7%E1%84%8C%E1%85%B5%E1%86%AB+%E1%84%82%E1%85%A1%E1%86%AF_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>영상_남겨진 날_썸네일</t>
@@ -962,6 +974,9 @@
   </si>
   <si>
     <t>영상_사이코지만 괜찮아_썸네일</t>
+  </si>
+  <si>
+    <t>이름 및 작품명이 잘못된 것 같아요 영상 및 이미지는 잘나와욤</t>
   </si>
   <si>
     <t>https://www.youtube.com/embed/D8QqHn7yqjU?si=LwoqJ0C2uKaJSVs0</t>
@@ -1053,7 +1068,7 @@
     <t>https://www.youtube.com/embed/-peVmS8vmdA?si=th8J_kt_GX_zJ26l</t>
   </si>
   <si>
-    <t>영상_Telephobia_디테일</t>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Telephobia_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>영상_Telephobia_썸네일</t>
@@ -1112,7 +1127,7 @@
     <t>https://www.youtube.com/embed/kDpS2r0w8oA?si=RGcqzf3conRMxvgt</t>
   </si>
   <si>
-    <t>영상_geometry of palace_디테일</t>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_geometry+of+palace_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>영상_Geometry of palace_썸네일</t>
@@ -1218,6 +1233,9 @@
     <t>UXUI_마음미술관_디테일</t>
   </si>
   <si>
+    <t>UXUI_마음미술관_썸네일</t>
+  </si>
+  <si>
     <t>이 레, 임해서</t>
   </si>
   <si>
@@ -1227,7 +1245,7 @@
     <t>루나리움은 현대인들이 자신의 감정을 보다 체계적으로 이해하고 관리할 수 있도록 돕는 유용한 어플리케이션이다. 감정 관리에 중점을 둔 루나리움은 사용자가 자신의 감정을 간편하게 기록하고 분석할 수 있는 다양한 기능을 제공한다. 매일의 감정을 선택하고 메모를 추가할 수 있으며, 루니와의 대화를 통해 감정 변화를 시각적으로 분석하고 피드백도 받을 수 있어 사용자가 꾸준히 감정을 기록하도록 도와준다. 직관적이고 감성적인 디자인 요소는 사용자 경험을 극대화하며, AI 친구 루니는 사용자 맞춤형 대화를 이어나가며 마음을 편안하게 해준다.</t>
   </si>
   <si>
-    <t>UXUI_루나리움_디테일</t>
+    <t>UXUI_%E1%84%85%E1%85%AE%E1%84%82%E1%85%A1%E1%84%85%E1%85%B5%E1%84%8B%E1%85%AE%E1%86%B7_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>UXUI_루나리움_썸네일</t>
@@ -1240,7 +1258,7 @@
 간편하게 이미지로 원하는 컨셉과 자신의 패션 스타일이 합쳐진 스타일링을 찾고 가상 피팅을 통해 원하는 추구미를 실현시킬 수 있도록 서포트 해준다.</t>
   </si>
   <si>
-    <t>UXUI_COSMO_디테일</t>
+    <t>UXUI_COSMO_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>UXUI_COSMO_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
@@ -1260,7 +1278,7 @@
 또한, 추천된 메뉴를 제공하는 식당의 위치, 시간, 별점 등의 정보를 상세히 제공하여 손쉽게 예약하거나 포장 주문을 할 수 있도록 돕는다. YumLikeThis를 통해 사용자는 매일 새로운 미식 경험을 즐길 수 있다.</t>
   </si>
   <si>
-    <t>UXUI_yumlikethis_디테일</t>
+    <t>UXUI_yumlikethis_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>UXUI_yumlikethis_썸네일</t>
@@ -1287,6 +1305,12 @@
 </t>
   </si>
   <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_ADIAN_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_ADIAN_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
     <t>틱 틱 붐!</t>
   </si>
   <si>
@@ -1299,6 +1323,12 @@
     <t>https://www.youtube.com/embed/UZRBmiJCQeg?si=tS74VrmTPufgytk5</t>
   </si>
   <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_TicTicBoom_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF-01-01</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_ticticboom_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF-01</t>
+  </si>
+  <si>
     <t>joyunsuh020406@naver.com</t>
   </si>
   <si>
@@ -1311,12 +1341,38 @@
     <t>20대 초반 여성을 타깃으로 한 1970년대 미국 레트로를 새롭고 신선하게 재해석한 패션 잡화 브랜드이다.</t>
   </si>
   <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_RETRO+VIBE+COLLECTION_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_RETRO+VIBE+COLLECTION+_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
     <t>Card Post</t>
   </si>
   <si>
     <t xml:space="preserve">엽서의 다양한 요소를 활용한 콜라주 타이포그래피로, 한국 엽서의 유래와 역사를 알린다. </t>
   </si>
   <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_CARD+POST_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_CARD+POST_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>Bacha Coffee Brand Identity</t>
+  </si>
+  <si>
+    <t>바샤커피' 브랜드 아이덴티티를 2D 모션그래픽으로 표현한 영상이다.
+'바샤커피'는 싱가포르 프리미엄 커피 브랜드로 이국적이고 고급스러운 분위기가 특징이다. 바샤커피의 이국적인 분위기는 모로코 마라케시의 화려한 색감과 패턴을 모티브로 디자인되었다. 그래서 매장에 방문했을 때, 마치 다른 세계에 와 있는 듯한 경험을 하게 된다. 또한 매장에 방문하면 다양한 원두 선택지와 서비스도 경험할 수 있다.
+이러한 모로코 마라케시에서 모티브 된 비주얼과 매장 경험이 바샤커피의 브랜드 아이덴티티이다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/CJ7W1BuRMlM?si=OXvgWYnkfnLh8PXE</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Bacha+Coffee+Brand+Identity_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF+%E1%84%8B%E1%85%B5%E1%84%86%E1%85%B5%E1%84%8C%E1%85%B5</t>
+  </si>
+  <si>
     <t>Carly Rae Jepsen - I Really Like You (2024 MV)</t>
   </si>
   <si>
@@ -1335,10 +1391,16 @@
     <t>어쩐지 클릭하기조차 두려운 정리되지 않은 메일함. 이렇게 쌓여있는 메일은 약 4g, 대용량 메일은 약 50g까지 이산화탄소를 낮밤 가리지 않고 배출한다. '매일 메일 정리하는 라이프'라는 슬로건의 미니메일리즘은 사용자의 전반적인 생활 안에 녹아들어 규칙적인 습관 형성을 돕는다. 메일을 정리해 생산적이고 정돈된 삶을 즐기며, 탄소 발자국을 줄이고, 결국 미니멀한 삶을 추구한다는 메시지의 라이프 브랜드.</t>
   </si>
   <si>
+    <t>브랜딩_mini(mail)ism_디테일</t>
+  </si>
+  <si>
     <t>김채린/2021120113</t>
   </si>
   <si>
     <t>생태계를 지키고 구강건강도 지키는 구강케어 브랜드 4분의1이다. 생태계 교란종인 가시상추는 충치와 치주염 예방 효능을 가지고 있어 기능성 치약 개발에 활용될 수 있다. 이를 통해 구강 건강과 생태계 교란종의 개체 수 조절이라는 두 마리 토끼를 동시에 잡을 수 있다.</t>
+  </si>
+  <si>
+    <t>브랜딩_4분의1_디테일</t>
   </si>
   <si>
     <t xml:space="preserve">틱 틱 붐! </t>
@@ -1349,12 +1411,6 @@
   </si>
   <si>
     <t>https://www.youtube.com/embed/f4mznmFSe7w?si=cs9NCogTdUoV11z_</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_TicTicBoom_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF-01-01</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_ticticboom_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF-01</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1420,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1389,6 +1445,14 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -1398,12 +1462,24 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1412,7 +1488,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1431,37 +1507,58 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1745,29 +1842,29 @@
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M2" s="4"/>
@@ -1785,29 +1882,29 @@
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="M3" s="4"/>
@@ -1825,29 +1922,29 @@
       <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3" t="s">
+      <c r="J4" s="7"/>
+      <c r="K4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="6" t="s">
         <v>33</v>
       </c>
       <c r="M4" s="4"/>
@@ -1865,29 +1962,29 @@
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="3" t="s">
+      <c r="J5" s="7"/>
+      <c r="K5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="6" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="4"/>
@@ -1905,29 +2002,29 @@
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="3" t="s">
+      <c r="J6" s="7"/>
+      <c r="K6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M6" s="4"/>
@@ -1945,29 +2042,29 @@
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="3" t="s">
+      <c r="J7" s="7"/>
+      <c r="K7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="6" t="s">
         <v>51</v>
       </c>
       <c r="M7" s="4"/>
@@ -1985,29 +2082,29 @@
       <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="H8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3" t="s">
+      <c r="J8" s="7"/>
+      <c r="K8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M8" s="4"/>
@@ -2025,29 +2122,29 @@
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="H9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="3" t="s">
+      <c r="J9" s="7"/>
+      <c r="K9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="6" t="s">
         <v>58</v>
       </c>
       <c r="M9" s="4"/>
@@ -2065,29 +2162,29 @@
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="H10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="3" t="s">
+      <c r="J10" s="7"/>
+      <c r="K10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="6" t="s">
         <v>64</v>
       </c>
       <c r="M10" s="4"/>
@@ -2105,29 +2202,29 @@
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="H11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="3" t="s">
+      <c r="J11" s="7"/>
+      <c r="K11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="6" t="s">
         <v>70</v>
       </c>
       <c r="M11" s="4"/>
@@ -2145,29 +2242,29 @@
       <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="H12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="3" t="s">
+      <c r="J12" s="7"/>
+      <c r="K12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="6" t="s">
         <v>76</v>
       </c>
       <c r="M12" s="4"/>
@@ -2185,29 +2282,29 @@
       <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="H13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="3" t="s">
+      <c r="J13" s="7"/>
+      <c r="K13" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="6" t="s">
         <v>82</v>
       </c>
       <c r="M13" s="4"/>
@@ -2225,29 +2322,29 @@
       <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="7"/>
+      <c r="K14" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="6" t="s">
         <v>88</v>
       </c>
       <c r="M14" s="4"/>
@@ -2265,29 +2362,29 @@
       <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="H15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="3" t="s">
+      <c r="J15" s="7"/>
+      <c r="K15" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="6" t="s">
         <v>94</v>
       </c>
       <c r="M15" s="4"/>
@@ -2305,29 +2402,29 @@
       <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="H16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="3" t="s">
+      <c r="J16" s="7"/>
+      <c r="K16" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="6" t="s">
         <v>100</v>
       </c>
       <c r="M16" s="4"/>
@@ -2345,29 +2442,29 @@
       <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="3" t="s">
+      <c r="H17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="3" t="s">
+      <c r="J17" s="7"/>
+      <c r="K17" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="6" t="s">
         <v>106</v>
       </c>
       <c r="M17" s="4"/>
@@ -2385,29 +2482,29 @@
       <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="H18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="3" t="s">
+      <c r="J18" s="7"/>
+      <c r="K18" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="6" t="s">
         <v>112</v>
       </c>
       <c r="M18" s="4"/>
@@ -2425,29 +2522,29 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="3" t="s">
+      <c r="H19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="3" t="s">
+      <c r="J19" s="7"/>
+      <c r="K19" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="6" t="s">
         <v>118</v>
       </c>
       <c r="M19" s="4"/>
@@ -2465,29 +2562,29 @@
       <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="3" t="s">
+      <c r="H20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3" t="s">
+      <c r="J20" s="7"/>
+      <c r="K20" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="6" t="s">
         <v>124</v>
       </c>
       <c r="M20" s="4"/>
@@ -2505,29 +2602,29 @@
       <c r="C21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="3" t="s">
+      <c r="H21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="3" t="s">
+      <c r="J21" s="7"/>
+      <c r="K21" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="6" t="s">
         <v>130</v>
       </c>
       <c r="M21" s="4"/>
@@ -2545,29 +2642,29 @@
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="H22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="3" t="s">
+      <c r="J22" s="7"/>
+      <c r="K22" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="6" t="s">
         <v>136</v>
       </c>
       <c r="M22" s="4"/>
@@ -2585,29 +2682,29 @@
       <c r="C23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="3" t="s">
+      <c r="H23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="3" t="s">
+      <c r="J23" s="7"/>
+      <c r="K23" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="6" t="s">
         <v>142</v>
       </c>
       <c r="M23" s="4"/>
@@ -2625,29 +2722,29 @@
       <c r="C24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="3" t="s">
+      <c r="H24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="3" t="s">
+      <c r="J24" s="7"/>
+      <c r="K24" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="6" t="s">
         <v>148</v>
       </c>
       <c r="M24" s="4"/>
@@ -2665,29 +2762,29 @@
       <c r="C25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="3" t="s">
+      <c r="H25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="3" t="s">
+      <c r="J25" s="7"/>
+      <c r="K25" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="6" t="s">
         <v>154</v>
       </c>
       <c r="M25" s="4"/>
@@ -2705,29 +2802,29 @@
       <c r="C26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="3" t="s">
+      <c r="H26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="3" t="s">
+      <c r="J26" s="7"/>
+      <c r="K26" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="6" t="s">
         <v>161</v>
       </c>
       <c r="M26" s="4"/>
@@ -2745,29 +2842,29 @@
       <c r="C27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="3" t="s">
+      <c r="H27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3" t="s">
+      <c r="J27" s="6"/>
+      <c r="K27" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="6" t="s">
         <v>167</v>
       </c>
       <c r="M27" s="4"/>
@@ -2785,29 +2882,29 @@
       <c r="C28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="3" t="s">
+      <c r="H28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="3" t="s">
+      <c r="J28" s="7"/>
+      <c r="K28" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="6" t="s">
         <v>174</v>
       </c>
       <c r="M28" s="4"/>
@@ -2825,29 +2922,29 @@
       <c r="C29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="7"/>
+      <c r="K29" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="6" t="s">
         <v>178</v>
       </c>
       <c r="M29" s="4"/>
@@ -2865,29 +2962,29 @@
       <c r="C30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="3" t="s">
+      <c r="H30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="3" t="s">
+      <c r="J30" s="7"/>
+      <c r="K30" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="6" t="s">
         <v>184</v>
       </c>
       <c r="M30" s="4"/>
@@ -2905,29 +3002,29 @@
       <c r="C31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="3" t="s">
+      <c r="H31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="4"/>
-      <c r="K31" s="3" t="s">
+      <c r="J31" s="7"/>
+      <c r="K31" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="6" t="s">
         <v>190</v>
       </c>
       <c r="M31" s="4"/>
@@ -2945,31 +3042,31 @@
       <c r="C32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="3" t="s">
+      <c r="H32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="6" t="s">
         <v>197</v>
       </c>
       <c r="M32" s="4"/>
@@ -2987,29 +3084,29 @@
       <c r="C33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="3" t="s">
+      <c r="H33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="3" t="s">
+      <c r="J33" s="7"/>
+      <c r="K33" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="L33" s="6" t="s">
         <v>203</v>
       </c>
       <c r="M33" s="4"/>
@@ -3027,29 +3124,29 @@
       <c r="C34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="3" t="s">
+      <c r="H34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="4"/>
-      <c r="K34" s="3" t="s">
+      <c r="J34" s="7"/>
+      <c r="K34" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="L34" s="6" t="s">
         <v>207</v>
       </c>
       <c r="M34" s="4"/>
@@ -3067,29 +3164,29 @@
       <c r="C35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="3" t="s">
+      <c r="H35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="J35" s="4"/>
-      <c r="K35" s="3" t="s">
+      <c r="J35" s="7"/>
+      <c r="K35" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="6" t="s">
         <v>213</v>
       </c>
       <c r="M35" s="4"/>
@@ -3107,29 +3204,29 @@
       <c r="C36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="3" t="s">
+      <c r="H36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J36" s="4"/>
-      <c r="K36" s="3" t="s">
+      <c r="J36" s="7"/>
+      <c r="K36" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="L36" s="6" t="s">
         <v>219</v>
       </c>
       <c r="M36" s="4"/>
@@ -3147,29 +3244,29 @@
       <c r="C37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="3" t="s">
+      <c r="H37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J37" s="4"/>
-      <c r="K37" s="3" t="s">
+      <c r="J37" s="7"/>
+      <c r="K37" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="6" t="s">
         <v>225</v>
       </c>
       <c r="M37" s="4"/>
@@ -3187,29 +3284,29 @@
       <c r="C38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" s="3" t="s">
+      <c r="H38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J38" s="4"/>
-      <c r="K38" s="3" t="s">
+      <c r="J38" s="7"/>
+      <c r="K38" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="6" t="s">
         <v>231</v>
       </c>
       <c r="M38" s="4"/>
@@ -3225,29 +3322,29 @@
         <v>40</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" s="3" t="s">
+      <c r="H39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J39" s="4"/>
-      <c r="K39" s="3" t="s">
+      <c r="J39" s="7"/>
+      <c r="K39" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="L39" s="6" t="s">
         <v>235</v>
       </c>
       <c r="M39" s="4"/>
@@ -3265,28 +3362,30 @@
       <c r="C40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="3" t="s">
+      <c r="H40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="3" t="s">
+      <c r="J40" s="7"/>
+      <c r="K40" s="6" t="s">
         <v>239</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -3303,30 +3402,30 @@
       <c r="C41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="F41" s="3" t="s">
+      <c r="E41" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="F41" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I41" s="3" t="s">
+      <c r="G41" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J41" s="4"/>
-      <c r="K41" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="L41" s="3" t="s">
+      <c r="J41" s="7"/>
+      <c r="K41" s="6" t="s">
         <v>244</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -3343,30 +3442,30 @@
       <c r="C42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="F42" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" s="3" t="s">
+      <c r="G42" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="L42" s="3" t="s">
+      <c r="J42" s="6"/>
+      <c r="K42" s="6" t="s">
         <v>248</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -3383,32 +3482,32 @@
       <c r="C43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="D43" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="E43" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="F43" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I43" s="3" t="s">
+      <c r="G43" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J43" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="K43" s="3" t="s">
+      <c r="J43" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="K43" s="6" t="s">
         <v>255</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -3425,32 +3524,30 @@
       <c r="C44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="D44" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" s="3" t="s">
+      <c r="G44" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="J44" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>33</v>
+      <c r="J44" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="K44" s="6"/>
+      <c r="L44" s="10" t="s">
+        <v>259</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
@@ -3467,27 +3564,27 @@
       <c r="C45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="D45" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" s="3" t="s">
+      <c r="F45" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
@@ -3503,34 +3600,36 @@
       <c r="C46" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E46" s="3" t="s">
+      <c r="D46" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" s="3" t="s">
+      <c r="F46" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J46" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="L46" s="3" t="s">
+      <c r="J46" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="M46" s="4"/>
+      <c r="K46" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
@@ -3545,34 +3644,36 @@
       <c r="C47" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" s="3" t="s">
+      <c r="D47" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="J47" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="M47" s="4"/>
+      <c r="J47" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
@@ -3582,37 +3683,37 @@
         <v>45482.94777834491</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" s="3" t="s">
+      <c r="D48" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J48" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>277</v>
+      <c r="J48" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>281</v>
       </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
@@ -3624,39 +3725,41 @@
         <v>45482.95580094907</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" s="3" t="s">
+      <c r="D49" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J49" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="M49" s="4"/>
+      <c r="J49" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
@@ -3671,32 +3774,34 @@
       <c r="C50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E50" s="3" t="s">
+      <c r="D50" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" s="3" t="s">
+      <c r="F50" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="J50" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="K50" s="4"/>
-      <c r="L50" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="M50" s="4"/>
+      <c r="J50" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="K50" s="12"/>
+      <c r="L50" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
@@ -3711,30 +3816,30 @@
       <c r="C51" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E51" s="3" t="s">
+      <c r="D51" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" s="3" t="s">
+      <c r="F51" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J51" s="4"/>
-      <c r="K51" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>292</v>
+      <c r="J51" s="7"/>
+      <c r="K51" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
@@ -3751,32 +3856,34 @@
       <c r="C52" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" s="3" t="s">
+      <c r="D52" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="K52" s="4"/>
-      <c r="L52" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="M52" s="4"/>
+      <c r="J52" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="K52" s="12"/>
+      <c r="L52" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
@@ -3786,39 +3893,41 @@
         <v>45483.14124835648</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" s="3" t="s">
+      <c r="D53" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J53" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="M53" s="4"/>
+      <c r="J53" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>305</v>
+      </c>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
@@ -3833,32 +3942,34 @@
       <c r="C54" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="D54" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" s="3" t="s">
+      <c r="F54" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="J54" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="K54" s="4"/>
-      <c r="L54" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="M54" s="4"/>
+      <c r="J54" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="K54" s="12"/>
+      <c r="L54" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
@@ -3868,35 +3979,35 @@
         <v>45483.15944966435</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" s="3" t="s">
+      <c r="D55" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="J55" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="K55" s="4"/>
-      <c r="L55" s="3" t="s">
-        <v>307</v>
+      <c r="J55" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="K55" s="7"/>
+      <c r="L55" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
@@ -3913,32 +4024,32 @@
       <c r="C56" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E56" s="3" t="s">
+      <c r="D56" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" s="3" t="s">
+      <c r="F56" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J56" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>312</v>
+      <c r="J56" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
@@ -3955,32 +4066,32 @@
       <c r="C57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E57" s="3" t="s">
+      <c r="D57" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I57" s="3" t="s">
+      <c r="F57" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J57" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>317</v>
+      <c r="J57" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
@@ -3992,37 +4103,37 @@
         <v>45483.66248461806</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I58" s="3" t="s">
+      <c r="D58" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J58" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>324</v>
+      <c r="J58" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
@@ -4039,32 +4150,32 @@
       <c r="C59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="D59" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I59" s="3" t="s">
+      <c r="F59" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J59" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>329</v>
+      <c r="J59" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>334</v>
       </c>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
@@ -4081,30 +4192,30 @@
       <c r="C60" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E60" s="3" t="s">
+      <c r="D60" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I60" s="3" t="s">
+      <c r="F60" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="J60" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3" t="s">
-        <v>333</v>
+      <c r="J60" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6" t="s">
+        <v>338</v>
       </c>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
@@ -4121,30 +4232,30 @@
       <c r="C61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I61" s="3" t="s">
+      <c r="D61" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="J61" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="K61" s="4"/>
-      <c r="L61" s="3" t="s">
-        <v>338</v>
+      <c r="J61" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="K61" s="7"/>
+      <c r="L61" s="6" t="s">
+        <v>343</v>
       </c>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
@@ -4161,30 +4272,30 @@
       <c r="C62" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E62" s="3" t="s">
+      <c r="D62" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I62" s="3" t="s">
+      <c r="F62" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="J62" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3" t="s">
-        <v>342</v>
+      <c r="J62" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6" t="s">
+        <v>347</v>
       </c>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
@@ -4201,32 +4312,32 @@
       <c r="C63" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E63" s="3" t="s">
+      <c r="D63" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" s="3" t="s">
+      <c r="F63" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J63" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>347</v>
+      <c r="J63" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>352</v>
       </c>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
@@ -4243,32 +4354,32 @@
       <c r="C64" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="D64" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" s="3" t="s">
+      <c r="F64" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J64" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>352</v>
+      <c r="J64" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>357</v>
       </c>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
@@ -4285,30 +4396,30 @@
       <c r="C65" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E65" s="3" t="s">
+      <c r="D65" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I65" s="3" t="s">
+      <c r="F65" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="J65" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="K65" s="4"/>
-      <c r="L65" s="3" t="s">
-        <v>356</v>
+      <c r="J65" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="K65" s="7"/>
+      <c r="L65" s="6" t="s">
+        <v>361</v>
       </c>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
@@ -4325,29 +4436,29 @@
       <c r="C66" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E66" s="3" t="s">
+      <c r="D66" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E66" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I66" s="3" t="s">
+      <c r="F66" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="J66" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
+      <c r="J66" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
@@ -4363,30 +4474,30 @@
       <c r="C67" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I67" s="3" t="s">
+      <c r="D67" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="J67" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="K67" s="4"/>
-      <c r="L67" s="3" t="s">
-        <v>364</v>
+      <c r="J67" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="K67" s="7"/>
+      <c r="L67" s="6" t="s">
+        <v>369</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
@@ -4403,30 +4514,30 @@
       <c r="C68" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E68" s="3" t="s">
+      <c r="D68" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I68" s="3" t="s">
+      <c r="F68" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>368</v>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>373</v>
       </c>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
@@ -4441,32 +4552,32 @@
         <v>149</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E69" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I69" s="3" t="s">
+      <c r="F69" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="J69" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="K69" s="4"/>
-      <c r="L69" s="3" t="s">
-        <v>373</v>
+      <c r="J69" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="K69" s="7"/>
+      <c r="L69" s="6" t="s">
+        <v>378</v>
       </c>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
@@ -4478,37 +4589,37 @@
         <v>45481.94270072917</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I70" s="3" t="s">
+      <c r="D70" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J70" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>33</v>
+      <c r="J70" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>386</v>
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
@@ -4525,30 +4636,30 @@
       <c r="C71" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I71" s="3" t="s">
+      <c r="D71" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J71" s="4"/>
-      <c r="K71" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>385</v>
+      <c r="J71" s="7"/>
+      <c r="K71" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>391</v>
       </c>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
@@ -4565,30 +4676,30 @@
       <c r="C72" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="D72" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I72" s="3" t="s">
+      <c r="F72" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J72" s="4"/>
-      <c r="K72" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>389</v>
+      <c r="J72" s="7"/>
+      <c r="K72" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>395</v>
       </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
@@ -4600,35 +4711,35 @@
         <v>45483.65972041667</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I73" s="3" t="s">
+      <c r="D73" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>395</v>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>401</v>
       </c>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
@@ -4645,30 +4756,30 @@
       <c r="C74" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="E74" s="3" t="s">
+      <c r="D74" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I74" s="3" t="s">
+      <c r="F74" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="J74" s="4"/>
-      <c r="K74" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>399</v>
+      <c r="J74" s="7"/>
+      <c r="K74" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>405</v>
       </c>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
@@ -4676,141 +4787,191 @@
       <c r="P74" s="4"/>
     </row>
     <row r="75">
-      <c r="A75" s="9">
+      <c r="A75" s="17">
         <v>45484.02054478009</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="10" t="s">
+      <c r="B75" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E75" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="F75" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="H75" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I75" s="10" t="s">
+      <c r="E75" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="J75" s="7"/>
+      <c r="K75" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="M75" s="4"/>
     </row>
     <row r="76">
-      <c r="A76" s="9">
+      <c r="A76" s="17">
         <v>45484.06275363426</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C76" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="E76" s="10" t="s">
+      <c r="C76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F76" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="H76" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I76" s="10" t="s">
+      <c r="F76" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J76" s="12" t="s">
-        <v>404</v>
-      </c>
+      <c r="J76" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="M76" s="4"/>
     </row>
     <row r="77">
-      <c r="A77" s="9">
+      <c r="A77" s="17">
         <v>45484.07147298611</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="10" t="s">
+      <c r="B77" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E77" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="H77" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I77" s="10" t="s">
+      <c r="E77" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="J77" s="4"/>
+      <c r="K77" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="M77" s="4"/>
     </row>
     <row r="78">
-      <c r="A78" s="9">
+      <c r="A78" s="17">
         <v>45484.07277572917</v>
       </c>
-      <c r="B78" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="10" t="s">
+      <c r="B78" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="H78" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I78" s="10" t="s">
+      <c r="E78" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="J78" s="4"/>
+      <c r="K78" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M78" s="4"/>
     </row>
     <row r="79">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
+      <c r="A79" s="17">
+        <v>45484.345385810186</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G79" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J79" s="19" t="s">
+        <v>427</v>
+      </c>
       <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
+      <c r="L79" s="3" t="s">
+        <v>428</v>
+      </c>
       <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
     </row>
     <row r="80">
       <c r="A80" s="4"/>
@@ -6594,13 +6755,31 @@
       <c r="O178" s="4"/>
       <c r="P178" s="4"/>
     </row>
+    <row r="179">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
+      <c r="I179" s="4"/>
+      <c r="J179" s="4"/>
+      <c r="K179" s="4"/>
+      <c r="L179" s="4"/>
+      <c r="M179" s="4"/>
+      <c r="N179" s="4"/>
+      <c r="O179" s="4"/>
+      <c r="P179" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$B$1:$J$78"/>
+  <autoFilter ref="$B$1:$J$79"/>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D1">
       <formula1>"분야"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D78">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D79">
       <formula1>"브랜딩,그래픽,UXUI,영상"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6632,8 +6811,9 @@
     <hyperlink r:id="rId25" ref="J69"/>
     <hyperlink r:id="rId26" ref="J70"/>
     <hyperlink r:id="rId27" ref="J76"/>
+    <hyperlink r:id="rId28" ref="J79"/>
   </hyperlinks>
-  <drawing r:id="rId28"/>
+  <drawing r:id="rId29"/>
 </worksheet>
 </file>
 
@@ -6658,16 +6838,16 @@
         <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>186</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
@@ -6675,8 +6855,8 @@
       <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>413</v>
+      <c r="J1" s="19" t="s">
+        <v>431</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -6690,22 +6870,22 @@
         <v>45482.8288325</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>18</v>
@@ -6713,8 +6893,8 @@
       <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>415</v>
+      <c r="J2" s="19" t="s">
+        <v>433</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -6743,7 +6923,7 @@
         <v>187</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>18</v>
@@ -6753,7 +6933,7 @@
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="3" t="s">
-        <v>189</v>
+        <v>435</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -6775,13 +6955,13 @@
         <v>169</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>193</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>18</v>
@@ -6791,7 +6971,7 @@
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="3" t="s">
-        <v>196</v>
+        <v>438</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -6800,46 +6980,46 @@
       <c r="P4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="13">
+      <c r="A5" s="20">
         <v>45483.67178862268</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="C5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="14" t="s">
+      <c r="F5" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>421</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
+      <c r="J5" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
     </row>
   </sheetData>
   <dataValidations>

--- a/public/data/project_list.xlsx
+++ b/public/data/project_list.xlsx
@@ -7,14 +7,14 @@
     <sheet state="visible" name="시트1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'설문지 응답 시트1'!$B$1:$J$79</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'설문지 응답 시트1'!$B$1:$J$83</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="456">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>그래픽_12지신 이야기_썸네일</t>
+  </si>
+  <si>
+    <t>다 잘나오는데 중복이에요</t>
   </si>
   <si>
     <t>gaeun1021@gmail.com</t>
@@ -1108,10 +1111,6 @@
     <t>추억쪽지</t>
   </si>
   <si>
-    <t>우리의 기억은 시간이 지날수록 잊히지만 그럼에도 잊히지 않는 어떤 과거에 대한 기억과 그리움, 감정 등이 각자 있을 것이다. 과거에 내가 좋아했고 추억하는 기억들을 공유하고 이러한 것들을 향수를 일으키는 요소를 통해 시청자들이 각자 어떤 과거를 떠올리는지 생각해볼 수 있는 
-기회를 만들고자 한다. 닌텐도 게임 &amp;lt;놀러와요 동물의 숲&amp;gt;BGM과 환경 음과 어린 시절에만 할 수 있는 것들, 현재에는 사라지거나 희소해진 것 등 이러한 요소들을 꼬리물기 형식으로 보여준다.</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/embed/4GMf3cH-Glw?si=NRXJfNJj6aKu-fuU</t>
   </si>
   <si>
@@ -1371,6 +1370,49 @@
   </si>
   <si>
     <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Bacha+Coffee+Brand+Identity_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF+%E1%84%8B%E1%85%B5%E1%84%86%E1%85%B5%E1%84%8C%E1%85%B5</t>
+  </si>
+  <si>
+    <t>최희예</t>
+  </si>
+  <si>
+    <t>호텔 고요 Hotel GOYO</t>
+  </si>
+  <si>
+    <t>호텔 고요는 한국 불교를 컨셉으로 한 부티크 호텔 브랜드이다. 복잡한 일상에서 벗어나 휴식이 필요한 이들에게 쉼을 통해 진정한 나를 깨닫는 시간을 선사하고자 한다. 
+여러 사람의 염원이 담긴 사찰 속 돌탑을 그래픽 모티브로 하여 불교적 특성을 담아 평온하면서 고즈넉한 브랜드 아이덴티티를 보여준다.</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%92%E1%85%A9%E1%84%90%E1%85%A6%E1%86%AF+%E1%84%80%E1%85%A9%E1%84%8B%E1%85%AD_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%92%E1%85%A9%E1%84%90%E1%85%A6%E1%86%AF+%E1%84%80%E1%85%A9%E1%84%8B%E1%85%AD_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>유상아 이서연</t>
+  </si>
+  <si>
+    <t>Ballah!</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_Ballah_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_Ballah_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>유상아 정의연 최희예</t>
+  </si>
+  <si>
+    <t>REFIT</t>
+  </si>
+  <si>
+    <t>맞춤형 의류 리폼 서비스 ‘REFIT‘은 각자의 개성을 중요시하는 시대의 흐름에 따라 맞춤형 의류 리폼 서비스를 제공하여 사용자들에게 새로운 패션 경험을 선사한다. 해당 서비스에서는 가지고 있는 옷을 서비스가 제공하는 포맷대로 리폼할 수도, 사용자의 니즈에 맞게 맞춤형으로 리폼할 수도 있다. ‘REFIT’은 사용자들이 의류를 버리지 않고 업사이클링 할 수 있도록 도와, 최종적으로 의류 폐기물을 절감하는데 기여할 수 있을 것이라고 기대한다.</t>
+  </si>
+  <si>
+    <t>UXUI_REFIT_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>UXUI_REFIT_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>Carly Rae Jepsen - I Really Like You (2024 MV)</t>
@@ -1420,7 +1462,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1449,10 +1491,6 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -1462,18 +1500,12 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
-        <bgColor rgb="FFCFE2F3"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1488,7 +1520,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1513,52 +1545,40 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf quotePrefix="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1842,29 +1862,29 @@
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M2" s="4"/>
@@ -1882,29 +1902,29 @@
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="M3" s="4"/>
@@ -1922,29 +1942,29 @@
       <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="6" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M4" s="4"/>
@@ -1962,29 +1982,29 @@
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="6" t="s">
+      <c r="J5" s="4"/>
+      <c r="K5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="4"/>
@@ -2027,7 +2047,9 @@
       <c r="L6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="4"/>
+      <c r="M6" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -2037,35 +2059,35 @@
         <v>45482.93456662037</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="G7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="6" t="s">
+      <c r="J7" s="4"/>
+      <c r="K7" s="3" t="s">
         <v>51</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -2092,7 +2114,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>18</v>
@@ -2107,7 +2129,9 @@
       <c r="L8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="M8" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -2117,35 +2141,35 @@
         <v>45482.94918239584</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="F9" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="G9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="6" t="s">
+      <c r="J9" s="4"/>
+      <c r="K9" s="3" t="s">
         <v>58</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -2157,35 +2181,35 @@
         <v>45482.951767604165</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="G10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="6" t="s">
+      <c r="J10" s="4"/>
+      <c r="K10" s="3" t="s">
         <v>64</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -2197,35 +2221,35 @@
         <v>45482.96532185185</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="G11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="6" t="s">
+      <c r="J11" s="4"/>
+      <c r="K11" s="3" t="s">
         <v>70</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -2237,35 +2261,35 @@
         <v>45482.96540894676</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="6" t="s">
+      <c r="G12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="6" t="s">
+      <c r="J12" s="4"/>
+      <c r="K12" s="3" t="s">
         <v>76</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -2277,35 +2301,35 @@
         <v>45482.98076421296</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="F13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="6" t="s">
+      <c r="G13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L13" s="6" t="s">
+      <c r="J13" s="4"/>
+      <c r="K13" s="3" t="s">
         <v>82</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -2317,35 +2341,35 @@
         <v>45483.09886990741</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="F14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="G14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" s="6" t="s">
+      <c r="J14" s="4"/>
+      <c r="K14" s="3" t="s">
         <v>88</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -2357,35 +2381,35 @@
         <v>45483.29734204861</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="F15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="G15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="L15" s="6" t="s">
+      <c r="J15" s="4"/>
+      <c r="K15" s="3" t="s">
         <v>94</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -2397,35 +2421,35 @@
         <v>45483.38515827546</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="F16" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="G16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="L16" s="6" t="s">
+      <c r="J16" s="4"/>
+      <c r="K16" s="3" t="s">
         <v>100</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -2437,35 +2461,35 @@
         <v>45483.41871167824</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="F17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="6" t="s">
+      <c r="G17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="L17" s="6" t="s">
+      <c r="J17" s="4"/>
+      <c r="K17" s="3" t="s">
         <v>106</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -2477,35 +2501,35 @@
         <v>45483.64825532408</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="E18" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="F18" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="6" t="s">
+      <c r="G18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="L18" s="6" t="s">
+      <c r="J18" s="4"/>
+      <c r="K18" s="3" t="s">
         <v>112</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -2517,35 +2541,35 @@
         <v>45483.66850667824</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="E19" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="F19" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="6" t="s">
+      <c r="G19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="L19" s="6" t="s">
+      <c r="J19" s="4"/>
+      <c r="K19" s="3" t="s">
         <v>118</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -2557,35 +2581,35 @@
         <v>45483.68916679398</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="E20" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="F20" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="6" t="s">
+      <c r="G20" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="L20" s="6" t="s">
+      <c r="J20" s="4"/>
+      <c r="K20" s="3" t="s">
         <v>124</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -2597,35 +2621,35 @@
         <v>45483.698849953704</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="E21" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="F21" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="6" t="s">
+      <c r="G21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L21" s="6" t="s">
+      <c r="J21" s="4"/>
+      <c r="K21" s="3" t="s">
         <v>130</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -2637,35 +2661,35 @@
         <v>45483.703790914355</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="E22" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="F22" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="6" t="s">
+      <c r="G22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="L22" s="6" t="s">
+      <c r="J22" s="4"/>
+      <c r="K22" s="3" t="s">
         <v>136</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -2677,35 +2701,35 @@
         <v>45483.735019837965</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="6" t="s">
+      <c r="E23" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="F23" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="6" t="s">
+      <c r="G23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="L23" s="6" t="s">
+      <c r="J23" s="4"/>
+      <c r="K23" s="3" t="s">
         <v>142</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -2717,35 +2741,35 @@
         <v>45483.79103490741</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="E24" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="F24" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="6" t="s">
+      <c r="G24" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="L24" s="6" t="s">
+      <c r="J24" s="4"/>
+      <c r="K24" s="3" t="s">
         <v>148</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -2757,35 +2781,35 @@
         <v>45483.90874677083</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="E25" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="F25" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="6" t="s">
+      <c r="G25" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="L25" s="6" t="s">
+      <c r="J25" s="4"/>
+      <c r="K25" s="3" t="s">
         <v>154</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -2797,35 +2821,35 @@
         <v>45483.920652939814</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="E26" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="F26" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="6" t="s">
+      <c r="G26" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="6" t="s">
+      <c r="H26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="J26" s="4"/>
+      <c r="K26" s="3" t="s">
         <v>161</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -2837,35 +2861,35 @@
         <v>45483.93423116898</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F27" s="6" t="s">
+      <c r="E27" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="F27" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="6" t="s">
+      <c r="G27" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="L27" s="6" t="s">
+      <c r="J27" s="3"/>
+      <c r="K27" s="3" t="s">
         <v>167</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -2877,35 +2901,35 @@
         <v>45482.473479374996</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E28" s="6" t="s">
+      <c r="D28" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="E28" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="F28" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="6" t="s">
+      <c r="G28" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="L28" s="6" t="s">
+      <c r="J28" s="4"/>
+      <c r="K28" s="3" t="s">
         <v>174</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -2917,35 +2941,35 @@
         <v>45482.97205684028</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="D29" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="6" t="s">
+      <c r="G29" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="6" t="s">
+      <c r="J29" s="4"/>
+      <c r="K29" s="3" t="s">
         <v>178</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -2957,35 +2981,35 @@
         <v>45482.98327019676</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="D30" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="F30" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="6" t="s">
+      <c r="G30" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="7"/>
-      <c r="K30" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="L30" s="6" t="s">
+      <c r="J30" s="4"/>
+      <c r="K30" s="3" t="s">
         <v>184</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -2997,35 +3021,35 @@
         <v>45482.98677101852</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F31" s="6" t="s">
+      <c r="D31" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="F31" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="6" t="s">
+      <c r="G31" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="L31" s="6" t="s">
+      <c r="J31" s="4"/>
+      <c r="K31" s="3" t="s">
         <v>190</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -3037,37 +3061,37 @@
         <v>45482.99329047454</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="F32" s="6" t="s">
+      <c r="D32" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="F32" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>159</v>
+      <c r="G32" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="K32" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="K32" s="3" t="s">
         <v>197</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -3079,35 +3103,35 @@
         <v>45483.06046545139</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="F33" s="6" t="s">
+      <c r="D33" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="F33" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="H33" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="6" t="s">
+      <c r="G33" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="L33" s="6" t="s">
+      <c r="J33" s="4"/>
+      <c r="K33" s="3" t="s">
         <v>203</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -3119,35 +3143,35 @@
         <v>45483.09800518518</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G34" s="6" t="s">
+      <c r="D34" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="6" t="s">
+      <c r="G34" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="L34" s="6" t="s">
+      <c r="J34" s="4"/>
+      <c r="K34" s="3" t="s">
         <v>207</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -3159,35 +3183,35 @@
         <v>45483.66984074074</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="F35" s="6" t="s">
+      <c r="D35" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="F35" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="H35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="J35" s="7"/>
-      <c r="K35" s="6" t="s">
+      <c r="G35" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="L35" s="6" t="s">
+      <c r="H35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="3" t="s">
         <v>213</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -3199,35 +3223,35 @@
         <v>45483.702257083336</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="F36" s="6" t="s">
+      <c r="D36" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="F36" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="6" t="s">
+      <c r="G36" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J36" s="7"/>
-      <c r="K36" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="L36" s="6" t="s">
+      <c r="J36" s="4"/>
+      <c r="K36" s="3" t="s">
         <v>219</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -3239,35 +3263,35 @@
         <v>45483.705789189815</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F37" s="6" t="s">
+      <c r="D37" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="F37" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="6" t="s">
+      <c r="G37" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="L37" s="6" t="s">
+      <c r="J37" s="4"/>
+      <c r="K37" s="3" t="s">
         <v>225</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -3279,35 +3303,35 @@
         <v>45483.70796046296</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="F38" s="6" t="s">
+      <c r="D38" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="F38" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" s="6" t="s">
+      <c r="G38" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J38" s="7"/>
-      <c r="K38" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="L38" s="6" t="s">
+      <c r="J38" s="4"/>
+      <c r="K38" s="3" t="s">
         <v>231</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -3322,30 +3346,30 @@
         <v>40</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E39" s="6" t="s">
+      <c r="D39" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="G39" s="6" t="s">
+      <c r="F39" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="H39" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" s="6" t="s">
+      <c r="G39" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J39" s="7"/>
-      <c r="K39" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="L39" s="6" t="s">
+      <c r="J39" s="4"/>
+      <c r="K39" s="3" t="s">
         <v>235</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -3357,35 +3381,35 @@
         <v>45483.915772673616</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="F40" s="6" t="s">
+      <c r="D40" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="F40" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="6" t="s">
+      <c r="G40" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J40" s="7"/>
-      <c r="K40" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="L40" s="6" t="s">
+      <c r="J40" s="4"/>
+      <c r="K40" s="3" t="s">
         <v>240</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -3397,35 +3421,35 @@
         <v>45483.91921710648</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="F41" s="6" t="s">
+      <c r="D41" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="F41" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I41" s="6" t="s">
+      <c r="G41" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J41" s="7"/>
-      <c r="K41" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="L41" s="6" t="s">
+      <c r="J41" s="4"/>
+      <c r="K41" s="3" t="s">
         <v>245</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -3437,35 +3461,35 @@
         <v>45483.95687274306</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="G42" s="6" t="s">
+      <c r="D42" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="H42" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" s="6" t="s">
+      <c r="G42" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="L42" s="6" t="s">
+      <c r="J42" s="3"/>
+      <c r="K42" s="3" t="s">
         <v>249</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -3482,32 +3506,32 @@
       <c r="C43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E43" s="6" t="s">
+      <c r="D43" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="E43" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="F43" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="H43" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I43" s="6" t="s">
+      <c r="G43" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="K43" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="L43" s="6" t="s">
+      <c r="K43" s="3" t="s">
         <v>256</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -3524,30 +3548,30 @@
       <c r="C44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E44" s="6" t="s">
+      <c r="D44" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G44" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>159</v>
+      <c r="G44" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="K44" s="6"/>
+        <v>259</v>
+      </c>
+      <c r="K44" s="3"/>
       <c r="L44" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
@@ -3564,27 +3588,27 @@
       <c r="C45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="E45" s="11" t="s">
+      <c r="D45" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F45" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="G45" s="11" t="s">
+      <c r="F45" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="H45" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" s="11" t="s">
+      <c r="G45" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
@@ -3595,40 +3619,40 @@
         <v>45482.90850524306</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="G46" s="11" t="s">
+      <c r="D46" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="H46" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" s="11" t="s">
+      <c r="G46" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J46" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="K46" s="11" t="s">
+      <c r="J46" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="L46" s="11" t="s">
+      <c r="K46" s="6" t="s">
         <v>266</v>
       </c>
+      <c r="L46" s="6" t="s">
+        <v>267</v>
+      </c>
       <c r="M46" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
@@ -3639,40 +3663,40 @@
         <v>45482.94517395833</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="F47" s="11" t="s">
+      <c r="D47" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="F47" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="H47" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="J47" s="14" t="s">
+      <c r="G47" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="K47" s="11" t="s">
+      <c r="H47" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="J47" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="L47" s="11" t="s">
+      <c r="K47" s="6" t="s">
         <v>273</v>
       </c>
+      <c r="L47" s="6" t="s">
+        <v>274</v>
+      </c>
       <c r="M47" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
@@ -3683,37 +3707,37 @@
         <v>45482.94777834491</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="F48" s="6" t="s">
+      <c r="D48" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="F48" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="H48" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" s="6" t="s">
+      <c r="G48" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="K48" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="L48" s="6" t="s">
+      <c r="K48" s="3" t="s">
         <v>281</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
@@ -3725,40 +3749,40 @@
         <v>45482.95580094907</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="F49" s="11" t="s">
+      <c r="D49" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="F49" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="H49" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" s="11" t="s">
+      <c r="G49" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J49" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="K49" s="11" t="s">
+      <c r="J49" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="L49" s="11" t="s">
+      <c r="K49" s="6" t="s">
         <v>288</v>
       </c>
+      <c r="L49" s="6" t="s">
+        <v>289</v>
+      </c>
       <c r="M49" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
@@ -3769,38 +3793,38 @@
         <v>45482.983186655096</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="G50" s="11" t="s">
+      <c r="D50" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="H50" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="J50" s="14" t="s">
+      <c r="G50" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="K50" s="12"/>
-      <c r="L50" s="11" t="s">
+      <c r="H50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="J50" s="12" t="s">
         <v>292</v>
       </c>
+      <c r="K50" s="7"/>
+      <c r="L50" s="6" t="s">
+        <v>293</v>
+      </c>
       <c r="M50" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
@@ -3811,35 +3835,35 @@
         <v>45482.9905725</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="G51" s="6" t="s">
+      <c r="D51" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="H51" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" s="6" t="s">
+      <c r="G51" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J51" s="7"/>
-      <c r="K51" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="L51" s="6" t="s">
+      <c r="J51" s="4"/>
+      <c r="K51" s="3" t="s">
         <v>296</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
@@ -3851,38 +3875,38 @@
         <v>45482.998770949074</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="F52" s="11" t="s">
+      <c r="D52" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="G52" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" s="11" t="s">
+      <c r="F52" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="K52" s="12"/>
-      <c r="L52" s="11" t="s">
-        <v>273</v>
+      <c r="J52" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="K52" s="7"/>
+      <c r="L52" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -3893,40 +3917,40 @@
         <v>45483.14124835648</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="G53" s="11" t="s">
+      <c r="D53" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="H53" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" s="11" t="s">
+      <c r="F53" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J53" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="K53" s="11" t="s">
+      <c r="J53" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="L53" s="11" t="s">
+      <c r="K53" s="6" t="s">
         <v>304</v>
       </c>
+      <c r="L53" s="6" t="s">
+        <v>305</v>
+      </c>
       <c r="M53" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
@@ -3937,38 +3961,38 @@
         <v>45483.153701435185</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="G54" s="11" t="s">
+      <c r="D54" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="H54" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="J54" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="K54" s="12"/>
-      <c r="L54" s="11" t="s">
-        <v>292</v>
+      <c r="G54" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K54" s="7"/>
+      <c r="L54" s="6" t="s">
+        <v>293</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
@@ -3979,35 +4003,35 @@
         <v>45483.15944966435</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="F55" s="6" t="s">
+      <c r="D55" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="F55" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="H55" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>159</v>
+      <c r="G55" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="K55" s="7"/>
-      <c r="L55" s="6" t="s">
         <v>312</v>
+      </c>
+      <c r="K55" s="4"/>
+      <c r="L55" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
@@ -4019,37 +4043,37 @@
         <v>45483.36342819444</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="G56" s="6" t="s">
+      <c r="D56" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="H56" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" s="6" t="s">
+      <c r="G56" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="K56" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="L56" s="6" t="s">
+      <c r="K56" s="3" t="s">
         <v>317</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
@@ -4061,37 +4085,37 @@
         <v>45483.64586524306</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="G57" s="6" t="s">
+      <c r="D57" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="H57" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I57" s="6" t="s">
+      <c r="G57" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J57" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="K57" s="6" t="s">
+      <c r="J57" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="L57" s="6" t="s">
+      <c r="K57" s="3" t="s">
         <v>322</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
@@ -4103,37 +4127,37 @@
         <v>45483.66248461806</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="F58" s="6" t="s">
+      <c r="D58" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="F58" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="H58" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I58" s="6" t="s">
+      <c r="G58" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="K58" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="L58" s="6" t="s">
+      <c r="K58" s="3" t="s">
         <v>329</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
@@ -4145,37 +4169,37 @@
         <v>45483.66513658565</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="G59" s="6" t="s">
+      <c r="D59" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="H59" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I59" s="6" t="s">
+      <c r="G59" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="K59" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="L59" s="6" t="s">
+      <c r="K59" s="3" t="s">
         <v>334</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
@@ -4187,35 +4211,35 @@
         <v>45483.66527428241</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="G60" s="6" t="s">
+      <c r="D60" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="H60" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>159</v>
+      <c r="G60" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6" t="s">
         <v>338</v>
+      </c>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
@@ -4227,35 +4251,35 @@
         <v>45483.68189813657</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="F61" s="6" t="s">
+      <c r="D61" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="F61" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="H61" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>159</v>
+      <c r="G61" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="K61" s="7"/>
-      <c r="L61" s="6" t="s">
         <v>343</v>
+      </c>
+      <c r="K61" s="4"/>
+      <c r="L61" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
@@ -4267,34 +4291,34 @@
         <v>45483.6884422338</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="G62" s="6" t="s">
+      <c r="D62" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="H62" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="J62" s="16" t="s">
+      <c r="G62" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J62" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6" t="s">
+      <c r="K62" s="3"/>
+      <c r="L62" s="3" t="s">
         <v>347</v>
       </c>
       <c r="M62" s="4"/>
@@ -4307,36 +4331,36 @@
         <v>45483.69236240741</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F63" s="6" t="s">
+      <c r="D63" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="G63" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="H63" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" s="6" t="s">
+      <c r="H63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J63" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="K63" s="6" t="s">
+      <c r="K63" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="L63" s="6" t="s">
+      <c r="L63" s="3" t="s">
         <v>352</v>
       </c>
       <c r="M63" s="4"/>
@@ -4349,36 +4373,36 @@
         <v>45483.697355729164</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F64" s="6" t="s">
+      <c r="D64" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G64" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="H64" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" s="6" t="s">
+      <c r="H64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J64" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="K64" s="6" t="s">
+      <c r="K64" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="L64" s="6" t="s">
+      <c r="L64" s="3" t="s">
         <v>357</v>
       </c>
       <c r="M64" s="4"/>
@@ -4391,34 +4415,34 @@
         <v>45483.69962803241</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F65" s="6" t="s">
+      <c r="D65" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G65" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="H65" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>159</v>
+      <c r="H65" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="J65" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="K65" s="7"/>
-      <c r="L65" s="6" t="s">
+      <c r="K65" s="4"/>
+      <c r="L65" s="3" t="s">
         <v>361</v>
       </c>
       <c r="M65" s="4"/>
@@ -4431,72 +4455,72 @@
         <v>45483.70411417824</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F66" s="11" t="s">
+      <c r="D66" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F66" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="G66" s="11" t="s">
+      <c r="G66" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="H66" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="J66" s="14" t="s">
+      <c r="H66" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="J66" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
     </row>
-    <row r="67">
+    <row r="67" ht="27.0" customHeight="1">
       <c r="A67" s="5">
         <v>45483.710486157404</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E67" s="6" t="s">
+      <c r="D67" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="F67" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G67" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="H67" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>159</v>
+      <c r="H67" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="J67" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="K67" s="7"/>
-      <c r="L67" s="6" t="s">
+      <c r="K67" s="4"/>
+      <c r="L67" s="3" t="s">
         <v>369</v>
       </c>
       <c r="M67" s="4"/>
@@ -4509,34 +4533,34 @@
         <v>45483.720720474535</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F68" s="6" t="s">
+      <c r="D68" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G68" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="H68" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I68" s="6" t="s">
+      <c r="H68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6" t="s">
+      <c r="J68" s="3"/>
+      <c r="K68" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="L68" s="6" t="s">
+      <c r="L68" s="3" t="s">
         <v>373</v>
       </c>
       <c r="M68" s="4"/>
@@ -4549,34 +4573,34 @@
         <v>45483.9014703125</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F69" s="6" t="s">
+      <c r="D69" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="G69" s="6" t="s">
+      <c r="G69" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="H69" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>159</v>
+      <c r="H69" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="J69" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="K69" s="7"/>
-      <c r="L69" s="6" t="s">
+      <c r="K69" s="4"/>
+      <c r="L69" s="3" t="s">
         <v>378</v>
       </c>
       <c r="M69" s="4"/>
@@ -4594,31 +4618,31 @@
       <c r="C70" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="F70" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="G70" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="H70" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I70" s="6" t="s">
+      <c r="H70" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J70" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="K70" s="6" t="s">
+      <c r="K70" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="L70" s="6" t="s">
+      <c r="L70" s="3" t="s">
         <v>386</v>
       </c>
       <c r="M70" s="4"/>
@@ -4631,34 +4655,34 @@
         <v>45482.49447282407</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="F71" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="G71" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="H71" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I71" s="6" t="s">
+      <c r="H71" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J71" s="7"/>
-      <c r="K71" s="6" t="s">
+      <c r="J71" s="4"/>
+      <c r="K71" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="L71" s="6" t="s">
+      <c r="L71" s="3" t="s">
         <v>391</v>
       </c>
       <c r="M71" s="4"/>
@@ -4671,34 +4695,34 @@
         <v>45483.41264692129</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="E72" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F72" s="6" t="s">
+      <c r="E72" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="G72" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="H72" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I72" s="6" t="s">
+      <c r="H72" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J72" s="7"/>
-      <c r="K72" s="6" t="s">
+      <c r="J72" s="4"/>
+      <c r="K72" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="L72" s="6" t="s">
+      <c r="L72" s="3" t="s">
         <v>395</v>
       </c>
       <c r="M72" s="4"/>
@@ -4716,29 +4740,29 @@
       <c r="C73" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="F73" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="G73" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="H73" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I73" s="6" t="s">
+      <c r="H73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6" t="s">
+      <c r="J73" s="3"/>
+      <c r="K73" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="L73" s="6" t="s">
+      <c r="L73" s="3" t="s">
         <v>401</v>
       </c>
       <c r="M73" s="4"/>
@@ -4751,34 +4775,34 @@
         <v>45483.7318767824</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="E74" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F74" s="6" t="s">
+      <c r="E74" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G74" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="H74" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="J74" s="7"/>
-      <c r="K74" s="6" t="s">
+      <c r="H74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J74" s="4"/>
+      <c r="K74" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="L74" s="6" t="s">
+      <c r="L74" s="3" t="s">
         <v>405</v>
       </c>
       <c r="M74" s="4"/>
@@ -4787,83 +4811,83 @@
       <c r="P74" s="4"/>
     </row>
     <row r="75">
-      <c r="A75" s="17">
+      <c r="A75" s="15">
         <v>45484.02054478009</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F75" s="6" t="s">
+      <c r="D75" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="G75" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="H75" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I75" s="6" t="s">
+      <c r="H75" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J75" s="7"/>
-      <c r="K75" s="6" t="s">
+      <c r="J75" s="4"/>
+      <c r="K75" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="L75" s="6" t="s">
+      <c r="L75" s="3" t="s">
         <v>409</v>
       </c>
       <c r="M75" s="4"/>
     </row>
     <row r="76">
-      <c r="A76" s="17">
+      <c r="A76" s="15">
         <v>45484.06275363426</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F76" s="6" t="s">
+      <c r="D76" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G76" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="H76" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I76" s="6" t="s">
+      <c r="H76" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J76" s="16" t="s">
+      <c r="J76" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="K76" s="6" t="s">
+      <c r="K76" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="L76" s="6" t="s">
+      <c r="L76" s="3" t="s">
         <v>414</v>
       </c>
       <c r="M76" s="4"/>
     </row>
     <row r="77">
-      <c r="A77" s="17">
+      <c r="A77" s="15">
         <v>45484.07147298611</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -4873,7 +4897,7 @@
         <v>13</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>416</v>
@@ -4900,7 +4924,7 @@
       <c r="M77" s="4"/>
     </row>
     <row r="78">
-      <c r="A78" s="17">
+      <c r="A78" s="15">
         <v>45484.07277572917</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -4937,7 +4961,7 @@
       <c r="M78" s="4"/>
     </row>
     <row r="79">
-      <c r="A79" s="17">
+      <c r="A79" s="15">
         <v>45484.345385810186</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -4947,7 +4971,7 @@
         <v>13</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>381</v>
@@ -4955,16 +4979,16 @@
       <c r="F79" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="G79" s="18" t="s">
+      <c r="G79" s="8" t="s">
         <v>426</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="J79" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J79" s="9" t="s">
         <v>427</v>
       </c>
       <c r="K79" s="4"/>
@@ -4977,15 +5001,27 @@
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
+      <c r="D80" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>431</v>
+      </c>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
+      <c r="K80" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>433</v>
+      </c>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
@@ -4995,15 +5031,25 @@
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
+      <c r="D81" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>435</v>
+      </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
+      <c r="K81" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>437</v>
+      </c>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
@@ -5013,15 +5059,27 @@
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
+      <c r="D82" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>440</v>
+      </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
+      <c r="K82" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>442</v>
+      </c>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
@@ -5031,7 +5089,7 @@
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
+      <c r="D83" s="3"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -6774,12 +6832,12 @@
       <c r="P179" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="$B$1:$J$79"/>
+  <autoFilter ref="$B$1:$J$83"/>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D1">
       <formula1>"분야"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D79">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D82">
       <formula1>"브랜딩,그래픽,UXUI,영상"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6832,22 +6890,22 @@
         <v>45482.79511872685</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
@@ -6855,8 +6913,8 @@
       <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="19" t="s">
-        <v>431</v>
+      <c r="J1" s="9" t="s">
+        <v>445</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -6870,22 +6928,22 @@
         <v>45482.8288325</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>18</v>
@@ -6893,8 +6951,8 @@
       <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="19" t="s">
-        <v>433</v>
+      <c r="J2" s="9" t="s">
+        <v>447</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -6908,22 +6966,22 @@
         <v>45482.97025172454</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>18</v>
@@ -6933,7 +6991,7 @@
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="3" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -6946,22 +7004,22 @@
         <v>45482.98098891204</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>18</v>
@@ -6971,7 +7029,7 @@
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="3" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -6980,46 +7038,46 @@
       <c r="P4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="20">
+      <c r="A5" s="16">
         <v>45483.67178862268</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="E5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="21" t="s">
+      <c r="C5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="22" t="s">
-        <v>441</v>
-      </c>
-      <c r="K5" s="21" t="s">
+      <c r="J5" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="K5" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
     </row>
   </sheetData>
   <dataValidations>

--- a/public/data/project_list.xlsx
+++ b/public/data/project_list.xlsx
@@ -6,15 +6,13 @@
     <sheet state="visible" name="설문지 응답 시트1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="시트1" sheetId="2" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'설문지 응답 시트1'!$B$1:$J$83</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="457">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -179,13 +177,6 @@
   </si>
   <si>
     <t>그래픽_OrnaFrame_썸네일</t>
-  </si>
-  <si>
-    <t>아이들에게 낯설고 어렵게 느껴질 수 있는 12지신.
-간혹 자신의 띠를 상징하는 동물이 예쁘지 않다는 이유로 싫어하거나,
-띠의 개념에 대해 전혀 모르는 아이들이 있다.
-그런 아이들을 위해 동물들의 성격과 설화를 바탕으로 12지신에 대해 쉽고 
-재미있게 풀어낸 동화책이다.</t>
   </si>
   <si>
     <t>ny990108@gmail.com</t>
@@ -839,6 +830,9 @@
     <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%83%E1%85%A9%E1%86%A8%E1%84%85%E1%85%B5%E1%86%B8%E1%84%91%E1%85%B3%E1%84%85%E1%85%A9%E1%84%8C%E1%85%A6%E1%86%A8%E1%84%90%E1%85%B3%E1%84%86%E1%85%AE%E1%84%8C%E1%85%AE%E1%84%90%E1%85%A2%E1%86%A8%E1%84%8C%E1%85%A199_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF_</t>
   </si>
   <si>
+    <t>UXUI</t>
+  </si>
+  <si>
     <t>숨바꼭질 (AR 동화)</t>
   </si>
   <si>
@@ -847,13 +841,23 @@
 </t>
   </si>
   <si>
+    <t>UXUI_숨바꼭질_디테일</t>
+  </si>
+  <si>
+    <t>UXUI_%E1%84%89%E1%85%AE%E1%86%B7%E1%84%87%E1%85%A1%E1%84%81%E1%85%A9%E1%86%A8%E1%84%8C%E1%85%B5%E1%86%AF_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>분야가 잘못 반영돼 있어서 체크가 안 된 것 같아요 ㅜㅜ 옆에 이미지 파일명 다시 기재해 두었습니다!</t>
+  </si>
+  <si>
     <t>반짝이는 워터멜론' 오프닝 타이틀</t>
   </si>
   <si>
     <t>드라마 '반짝이는 워터멜론'은 주인공이 과거로 돌아가서 어린 시절의 부모님을 만나 함께 청춘을 보내며 가족에 대한 사랑과 소중함에 대한 이야기를 그린다. 본 영상은 18세의 아들이 타임슬립을 통해 자신과 동갑인 아버지를 만나 함께 하는 이야기를 담았으며 청춘의 향기를 표현하고자 했다. 색연필로 채색한 듯한 아트워크로 밝고 따듯한 느낌을 나타냈고 드라마 속 주인공들의 감정적인 결합을 강조하여 동화 같은 감성을 전달하고자 했다.</t>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/_LRZ5-z6myA?si=YvdfTWp--36ZX09h</t>
+    <t xml:space="preserve">https://www.youtube.com/embed/_LRZ5-z6myA?si=xxagqadRBoogyUde
+</t>
   </si>
   <si>
     <t>영상_반짝이는 워터멜론 오프팅 타이틀_디테일</t>
@@ -865,19 +869,70 @@
     <t>영상 안나옴</t>
   </si>
   <si>
+    <t>dlfp6736@hanmail.net</t>
+  </si>
+  <si>
+    <t>이레</t>
+  </si>
+  <si>
+    <t>드라마 '소년심판' 타이틀 시퀀스</t>
+  </si>
+  <si>
+    <t>드라마 '소년심판' 타이틀 시퀀스이다. 드라마의 처음과 끝인 '백성우'의 범죄로 시작하여 다시 법정에 선 모습을 보여준다. 이것은 드라마에서 전달하는 메시지인 '법으로 제대로 처벌 받지 못한 소년범은 다시 범죄를 저지른다'라는 내용을 담고 있다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/MEns05yu39I?si=AHPdjBt1UqXfSrlF</t>
+  </si>
+  <si>
+    <t>영상_소년심판_디테일</t>
+  </si>
+  <si>
+    <t>영상_소년심판_썸네일</t>
+  </si>
+  <si>
+    <t>kkmin99@naver.com</t>
+  </si>
+  <si>
+    <t>김겸민</t>
+  </si>
+  <si>
+    <t>남겨진 날</t>
+  </si>
+  <si>
+    <t>어린 시절, 언제나 함께 여서 행복했지만 시간이 흐르고 남겨진 날들 뿐인  강아지의 시선을 담았다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/-4773fk2BuU?si=3s0zpL1tMNT9qByJ</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%82%E1%85%A1%E1%86%B7%E1%84%80%E1%85%A7%E1%84%8C%E1%85%B5%E1%86%AB+%E1%84%82%E1%85%A1%E1%86%AF_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>영상_남겨진 날_썸네일</t>
+  </si>
+  <si>
+    <t>Human Life</t>
+  </si>
+  <si>
+    <t>인공지능이 발달됨에 따라 인간의 직업이 Ai로 대체되는 것을 걱정하게 되었다. 현재 인공지능의 발전을 막을 수 있는 방법은 없고 그저 보고만 있을 수밖에 없는 것이 현실이다. Human Life는 극 상류층 일부를 제외한 인간의 대부분이 고도로 발달된 인공지능에 의해 일자리가 대체되어 개인이 사회와 단절된 미래를 그린 그래픽 노블이다.</t>
+  </si>
+  <si>
+    <t>영상_Human Life_디테일</t>
+  </si>
+  <si>
+    <t>영상_Human Life_썸네일</t>
+  </si>
+  <si>
     <t>김수진</t>
   </si>
   <si>
     <t>카지노-Title Sequence</t>
   </si>
   <si>
-    <t xml:space="preserve"> ‘붉은 꽃’과 싸움 흔적을 통해 ‘권력이나 부귀영화는 오래가지 못한다’는 의미와 인물의 허무한 감정을 3D 공간을 구현해 보여준다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/L14_gfHzenY?si=oCXrLfLn5NjWlFkD</t>
-  </si>
-  <si>
-    <t>영상_카지노 Title Sequence_디테일</t>
+    <t>3D 공간을 구현해 상징적 요소인‘붉은 꽃’과 싸움 흔적을 통해 인간의 욕망이 초래하는 허무한 결과를 보여줘 ‘권력이나 부귀영화는 오래가지 못한다’는 의미를 나타내는 타이틀 시퀀스이다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/EaGNSwbz3Ek?si=YgmIHR5LbJD3xMK_</t>
   </si>
   <si>
     <t>영상_카지노_Title Sequence_썸네일</t>
@@ -886,83 +941,10 @@
     <t>중복</t>
   </si>
   <si>
-    <t>dlfp6736@hanmail.net</t>
-  </si>
-  <si>
-    <t>이레</t>
-  </si>
-  <si>
-    <t>드라마 '소년심판' 타이틀 시퀀스</t>
-  </si>
-  <si>
-    <t>드라마 '소년심판' 타이틀 시퀀스이다. 드라마의 처음과 끝인 '백성우'의 범죄로 시작하여 다시 법정에 선 모습을 보여준다. 이것은 드라마에서 전달하는 메시지인 '법으로 제대로 처벌 받지 못한 소년범은 다시 범죄를 저지른다'라는 내용을 담고 있다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/MEns05yu39I?si=AHPdjBt1UqXfSrlF</t>
-  </si>
-  <si>
-    <t>영상_소년심판_디테일</t>
-  </si>
-  <si>
-    <t>영상_소년심판_썸네일</t>
-  </si>
-  <si>
-    <t>kkmin99@naver.com</t>
-  </si>
-  <si>
-    <t>김겸민</t>
-  </si>
-  <si>
-    <t>남겨진 날</t>
-  </si>
-  <si>
-    <t>어린 시절, 언제나 함께 여서 행복했지만 시간이 흐르고 남겨진 날들 뿐인  강아지의 시선을 담았다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/QY_1h1KZ6oc?si=opu2XleSlgig99Os</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%82%E1%85%A1%E1%86%B7%E1%84%80%E1%85%A7%E1%84%8C%E1%85%B5%E1%86%AB+%E1%84%82%E1%85%A1%E1%86%AF_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>영상_남겨진 날_썸네일</t>
-  </si>
-  <si>
-    <t>가와사키 브랜드 필름</t>
-  </si>
-  <si>
-    <t>현존하는 이륜차 브랜드 중 가장 진취적인 바이크를 만드는 가와사키의 감성을 담은 브랜드 필름이다.
-단지 이동 수단이 아닌, 레저로서의 진정한 바이크를 즐길 수 있는 시간이 되길 바란다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/amPpWxNLngc?si=MPUw6f_5qZF2rGDm</t>
-  </si>
-  <si>
-    <t>영상_가와사키 브랜드 필름_썸네일</t>
-  </si>
-  <si>
-    <t>Human Life</t>
-  </si>
-  <si>
-    <t>인공지능이 발달됨에 따라 인간의 직업이 Ai로 대체되는 것을 걱정하게 되었다. 현재 인공지능의 발전을 막을 수 있는 방법은 없고 그저 보고만 있을 수밖에 없는 것이 현실이다. Human Life는 극 상류층 일부를 제외한 인간의 대부분이 고도로 발달된 인공지능에 의해 일자리가 대체되어 개인이 사회와 단절된 미래를 그린 그래픽 노블이다.</t>
-  </si>
-  <si>
-    <t>영상_Human Life_디테일</t>
-  </si>
-  <si>
-    <t>영상_Human Life_썸네일</t>
-  </si>
-  <si>
-    <t>3D 공간을 구현해 상징적 요소인‘붉은 꽃’과 싸움 흔적을 통해 인간의 욕망이 초래하는 허무한 결과를 보여줘 ‘권력이나 부귀영화는 오래가지 못한다’는 의미를 나타내는 타이틀 시퀀스이다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/EaGNSwbz3Ek?si=YgmIHR5LbJD3xMK_</t>
-  </si>
-  <si>
     <t>je0323235179@gmail.com</t>
   </si>
   <si>
-    <t>이지은 2020111557</t>
+    <t>사이코지만 괜찮아 Title Sequence</t>
   </si>
   <si>
     <t>사람은 사람의 외면 때문에 상처 입고 또 사람의 온기로 치유 받는다. 결핍과 상처투성이인 주인공들이 서로의 온기로 치유되고 성장하는 과정을 바라보며 부디 당신이 위안받을 수 있기를.
@@ -982,7 +964,17 @@
     <t>이름 및 작품명이 잘못된 것 같아요 영상 및 이미지는 잘나와욤</t>
   </si>
   <si>
+    <t>가와사키 브랜드 필름</t>
+  </si>
+  <si>
+    <t>현존하는 이륜차 브랜드 중 가장 진취적인 바이크를 만드는 가와사키의 감성을 담은 브랜드 필름이다.
+단지 이동 수단이 아닌, 레저로서의 진정한 바이크를 즐길 수 있는 시간이 되길 바란다.</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/embed/D8QqHn7yqjU?si=LwoqJ0C2uKaJSVs0</t>
+  </si>
+  <si>
+    <t>영상_가와사키 브랜드 필름_썸네일</t>
   </si>
   <si>
     <t>younjisoo00@gmail.com</t>
@@ -1168,6 +1160,12 @@
     <t>https://www.youtube.com/embed/xa_Nh6_weZM?si=WpMSvaDi-9K5sCa6</t>
   </si>
   <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Lost+and+Found_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>이미지 업로드 후 파일명 기재해 두었습니다!</t>
+  </si>
+  <si>
     <t>원종혜, 정자호</t>
   </si>
   <si>
@@ -1212,9 +1210,6 @@
   </si>
   <si>
     <t>kathleen141731@gmail.com</t>
-  </si>
-  <si>
-    <t>UXUI</t>
   </si>
   <si>
     <t>우민하</t>
@@ -1293,6 +1288,9 @@
   </si>
   <si>
     <t>UXUI_BOWLINER_썸네일</t>
+  </si>
+  <si>
+    <t>이지은 2020111557</t>
   </si>
   <si>
     <t>ADIAN</t>
@@ -1462,7 +1460,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1487,10 +1485,6 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -1500,7 +1494,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1513,6 +1507,12 @@
         <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -1520,7 +1520,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1539,12 +1539,6 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1554,31 +1548,43 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2022,29 +2028,29 @@
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="H6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="6" t="s">
+      <c r="J6" s="4"/>
+      <c r="K6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="3" t="s">
         <v>45</v>
       </c>
       <c r="M6" s="3" t="s">
@@ -2096,52 +2102,50 @@
     </row>
     <row r="8">
       <c r="A8" s="5">
-        <v>45482.94469480324</v>
+        <v>45482.94918239584</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>42</v>
+      <c r="E8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="5">
-        <v>45482.94918239584</v>
+        <v>45482.951767604165</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
@@ -2150,13 +2154,13 @@
         <v>14</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>18</v>
@@ -2166,10 +2170,10 @@
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -2178,10 +2182,10 @@
     </row>
     <row r="10">
       <c r="A10" s="5">
-        <v>45482.951767604165</v>
+        <v>45482.96532185185</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
@@ -2190,13 +2194,13 @@
         <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>18</v>
@@ -2206,10 +2210,10 @@
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -2218,10 +2222,10 @@
     </row>
     <row r="11">
       <c r="A11" s="5">
-        <v>45482.96532185185</v>
+        <v>45482.96540894676</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -2230,13 +2234,13 @@
         <v>14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>18</v>
@@ -2246,10 +2250,10 @@
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -2258,10 +2262,10 @@
     </row>
     <row r="12">
       <c r="A12" s="5">
-        <v>45482.96540894676</v>
+        <v>45482.98076421296</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
@@ -2270,13 +2274,13 @@
         <v>14</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>18</v>
@@ -2286,10 +2290,10 @@
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -2298,10 +2302,10 @@
     </row>
     <row r="13">
       <c r="A13" s="5">
-        <v>45482.98076421296</v>
+        <v>45483.09886990741</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>13</v>
@@ -2310,13 +2314,13 @@
         <v>14</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>18</v>
@@ -2326,10 +2330,10 @@
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -2338,10 +2342,10 @@
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <v>45483.09886990741</v>
+        <v>45483.29734204861</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>13</v>
@@ -2350,13 +2354,13 @@
         <v>14</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>18</v>
@@ -2366,10 +2370,10 @@
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -2378,10 +2382,10 @@
     </row>
     <row r="15">
       <c r="A15" s="5">
-        <v>45483.29734204861</v>
+        <v>45483.38515827546</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -2390,13 +2394,13 @@
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>18</v>
@@ -2406,10 +2410,10 @@
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -2418,10 +2422,10 @@
     </row>
     <row r="16">
       <c r="A16" s="5">
-        <v>45483.38515827546</v>
+        <v>45483.41871167824</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>13</v>
@@ -2430,13 +2434,13 @@
         <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>18</v>
@@ -2446,10 +2450,10 @@
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -2458,10 +2462,10 @@
     </row>
     <row r="17">
       <c r="A17" s="5">
-        <v>45483.41871167824</v>
+        <v>45483.64825532408</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>13</v>
@@ -2470,13 +2474,13 @@
         <v>14</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>18</v>
@@ -2486,10 +2490,10 @@
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -2498,10 +2502,10 @@
     </row>
     <row r="18">
       <c r="A18" s="5">
-        <v>45483.64825532408</v>
+        <v>45483.66850667824</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>13</v>
@@ -2510,13 +2514,13 @@
         <v>14</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>18</v>
@@ -2526,10 +2530,10 @@
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -2538,10 +2542,10 @@
     </row>
     <row r="19">
       <c r="A19" s="5">
-        <v>45483.66850667824</v>
+        <v>45483.68916679398</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -2550,13 +2554,13 @@
         <v>14</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>18</v>
@@ -2566,10 +2570,10 @@
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -2578,10 +2582,10 @@
     </row>
     <row r="20">
       <c r="A20" s="5">
-        <v>45483.68916679398</v>
+        <v>45483.698849953704</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>13</v>
@@ -2590,13 +2594,13 @@
         <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>18</v>
@@ -2606,10 +2610,10 @@
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -2618,10 +2622,10 @@
     </row>
     <row r="21">
       <c r="A21" s="5">
-        <v>45483.698849953704</v>
+        <v>45483.703790914355</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>13</v>
@@ -2630,13 +2634,13 @@
         <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>18</v>
@@ -2646,10 +2650,10 @@
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -2658,10 +2662,10 @@
     </row>
     <row r="22">
       <c r="A22" s="5">
-        <v>45483.703790914355</v>
+        <v>45483.735019837965</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>13</v>
@@ -2670,13 +2674,13 @@
         <v>14</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>18</v>
@@ -2686,10 +2690,10 @@
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -2698,10 +2702,10 @@
     </row>
     <row r="23">
       <c r="A23" s="5">
-        <v>45483.735019837965</v>
+        <v>45483.79103490741</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>13</v>
@@ -2710,13 +2714,13 @@
         <v>14</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>18</v>
@@ -2726,10 +2730,10 @@
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -2738,10 +2742,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5">
-        <v>45483.79103490741</v>
+        <v>45483.90874677083</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>13</v>
@@ -2750,13 +2754,13 @@
         <v>14</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>18</v>
@@ -2766,10 +2770,10 @@
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -2778,10 +2782,10 @@
     </row>
     <row r="25">
       <c r="A25" s="5">
-        <v>45483.90874677083</v>
+        <v>45483.920652939814</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>13</v>
@@ -2790,26 +2794,26 @@
         <v>14</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -2818,10 +2822,10 @@
     </row>
     <row r="26">
       <c r="A26" s="5">
-        <v>45483.920652939814</v>
+        <v>45483.93423116898</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>13</v>
@@ -2830,26 +2834,26 @@
         <v>14</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="J26" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -2858,25 +2862,25 @@
     </row>
     <row r="27">
       <c r="A27" s="5">
-        <v>45483.93423116898</v>
+        <v>45482.473479374996</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>18</v>
@@ -2884,12 +2888,12 @@
       <c r="I27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="3"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -2898,25 +2902,25 @@
     </row>
     <row r="28">
       <c r="A28" s="5">
-        <v>45482.473479374996</v>
+        <v>45482.97205684028</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>18</v>
@@ -2926,10 +2930,10 @@
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -2938,25 +2942,25 @@
     </row>
     <row r="29">
       <c r="A29" s="5">
-        <v>45482.97205684028</v>
+        <v>45482.98327019676</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>18</v>
@@ -2966,10 +2970,10 @@
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -2978,25 +2982,25 @@
     </row>
     <row r="30">
       <c r="A30" s="5">
-        <v>45482.98327019676</v>
+        <v>45482.98677101852</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>18</v>
@@ -3006,10 +3010,10 @@
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -3018,38 +3022,40 @@
     </row>
     <row r="31">
       <c r="A31" s="5">
-        <v>45482.98677101852</v>
+        <v>45482.99329047454</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="4"/>
+        <v>159</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>195</v>
+      </c>
       <c r="K31" s="3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -3058,40 +3064,38 @@
     </row>
     <row r="32">
       <c r="A32" s="5">
-        <v>45482.99329047454</v>
+        <v>45483.06046545139</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>196</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J32" s="4"/>
       <c r="K32" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -3100,25 +3104,25 @@
     </row>
     <row r="33">
       <c r="A33" s="5">
-        <v>45483.06046545139</v>
+        <v>45483.09800518518</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>199</v>
+        <v>83</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>200</v>
+        <v>84</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>18</v>
@@ -3128,10 +3132,10 @@
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -3140,38 +3144,38 @@
     </row>
     <row r="34">
       <c r="A34" s="5">
-        <v>45483.09800518518</v>
+        <v>45483.66984074074</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="3" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -3180,38 +3184,38 @@
     </row>
     <row r="35">
       <c r="A35" s="5">
-        <v>45483.66984074074</v>
+        <v>45483.702257083336</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -3220,25 +3224,25 @@
     </row>
     <row r="36">
       <c r="A36" s="5">
-        <v>45483.702257083336</v>
+        <v>45483.705789189815</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>18</v>
@@ -3248,10 +3252,10 @@
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -3260,25 +3264,25 @@
     </row>
     <row r="37">
       <c r="A37" s="5">
-        <v>45483.705789189815</v>
+        <v>45483.70796046296</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>18</v>
@@ -3288,10 +3292,10 @@
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -3300,25 +3304,23 @@
     </row>
     <row r="38">
       <c r="A38" s="5">
-        <v>45483.70796046296</v>
+        <v>45483.81360550926</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C38" s="4"/>
       <c r="D38" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>18</v>
@@ -3328,10 +3330,10 @@
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -3340,23 +3342,25 @@
     </row>
     <row r="39">
       <c r="A39" s="5">
-        <v>45483.81360550926</v>
+        <v>45483.915772673616</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D39" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>18</v>
@@ -3366,10 +3370,10 @@
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -3378,25 +3382,25 @@
     </row>
     <row r="40">
       <c r="A40" s="5">
-        <v>45483.915772673616</v>
+        <v>45483.91921710648</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>18</v>
@@ -3406,10 +3410,10 @@
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -3418,25 +3422,25 @@
     </row>
     <row r="41">
       <c r="A41" s="5">
-        <v>45483.91921710648</v>
+        <v>45483.95687274306</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>242</v>
+        <v>163</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>18</v>
@@ -3444,12 +3448,12 @@
       <c r="I41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J41" s="4"/>
+      <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -3458,25 +3462,25 @@
     </row>
     <row r="42">
       <c r="A42" s="5">
-        <v>45483.95687274306</v>
+        <v>45477.59296954861</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>164</v>
+        <v>251</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>18</v>
@@ -3484,12 +3488,14 @@
       <c r="I42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J42" s="3"/>
+      <c r="J42" s="7" t="s">
+        <v>254</v>
+      </c>
       <c r="K42" s="3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -3498,40 +3504,38 @@
     </row>
     <row r="43">
       <c r="A43" s="5">
-        <v>45477.59296954861</v>
+        <v>45482.27508898148</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>252</v>
+        <v>29</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>253</v>
+        <v>30</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>257</v>
+        <v>159</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K43" s="3"/>
+      <c r="L43" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -3539,190 +3543,198 @@
       <c r="P43" s="4"/>
     </row>
     <row r="44">
-      <c r="A44" s="5">
-        <v>45482.27508898148</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="K44" s="3"/>
+      <c r="A44" s="9">
+        <v>45482.62867666667</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="11"/>
+      <c r="K44" s="10" t="s">
+        <v>263</v>
+      </c>
       <c r="L44" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
+        <v>264</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
     </row>
     <row r="45">
       <c r="A45" s="5">
-        <v>45482.62867666667</v>
+        <v>45482.90850524306</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>35</v>
+      <c r="D45" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
+      <c r="J45" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="N45" s="13"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
     </row>
     <row r="46">
       <c r="A46" s="5">
-        <v>45482.90850524306</v>
+        <v>45482.94777834491</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>54</v>
+        <v>272</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" s="6" t="s">
+      <c r="D46" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J46" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>268</v>
-      </c>
+      <c r="J46" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
     </row>
     <row r="47">
       <c r="A47" s="5">
-        <v>45482.94517395833</v>
+        <v>45482.95580094907</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>221</v>
+        <v>279</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="G47" s="6" t="s">
+      <c r="D47" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="M47" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="H47" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="N47" s="4"/>
+      <c r="N47" s="13"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
     </row>
     <row r="48">
       <c r="A48" s="5">
-        <v>45482.94777834491</v>
+        <v>45482.9905725</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>276</v>
+        <v>179</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>277</v>
+        <v>180</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>18</v>
@@ -3730,14 +3742,12 @@
       <c r="I48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J48" s="9" t="s">
-        <v>280</v>
-      </c>
+      <c r="J48" s="4"/>
       <c r="K48" s="3" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
@@ -3746,292 +3756,292 @@
     </row>
     <row r="49">
       <c r="A49" s="5">
-        <v>45482.95580094907</v>
+        <v>45482.998770949074</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>283</v>
+        <v>220</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" s="6" t="s">
+      <c r="D49" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J49" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>289</v>
+      <c r="J49" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K49" s="4"/>
+      <c r="L49" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="N49" s="4"/>
+        <v>295</v>
+      </c>
+      <c r="N49" s="3"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
     </row>
     <row r="50">
       <c r="A50" s="5">
-        <v>45482.983186655096</v>
+        <v>45483.14124835648</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>160</v>
+      <c r="D50" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="K50" s="7"/>
-      <c r="L50" s="6" t="s">
-        <v>293</v>
+        <v>299</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="N50" s="4"/>
+        <v>302</v>
+      </c>
+      <c r="N50" s="3"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
     </row>
     <row r="51">
       <c r="A51" s="5">
-        <v>45482.9905725</v>
+        <v>45483.153701435185</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="G51" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K51" s="4"/>
+      <c r="L51" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="M51" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J51" s="4"/>
-      <c r="K51" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
+      <c r="N51" s="3"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
     </row>
     <row r="52">
       <c r="A52" s="5">
-        <v>45482.998770949074</v>
+        <v>45483.15944966435</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>221</v>
+        <v>307</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J52" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="K52" s="7"/>
-      <c r="L52" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>275</v>
-      </c>
+      <c r="D52" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K52" s="4"/>
+      <c r="L52" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
     </row>
     <row r="53">
       <c r="A53" s="5">
-        <v>45483.14124835648</v>
+        <v>45483.36342819444</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" s="6" t="s">
+      <c r="D53" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J53" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="L53" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>306</v>
-      </c>
+      <c r="J53" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
     </row>
     <row r="54">
       <c r="A54" s="5">
-        <v>45483.153701435185</v>
+        <v>45483.64586524306</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>160</v>
+      <c r="D54" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="K54" s="7"/>
-      <c r="L54" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>275</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
     </row>
     <row r="55">
       <c r="A55" s="5">
-        <v>45483.15944966435</v>
+        <v>45483.66248461806</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="K55" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>328</v>
+      </c>
       <c r="L55" s="3" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
@@ -4040,25 +4050,25 @@
     </row>
     <row r="56">
       <c r="A56" s="5">
-        <v>45483.36342819444</v>
+        <v>45483.66513658565</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>97</v>
+        <v>209</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>18</v>
@@ -4066,14 +4076,14 @@
       <c r="I56" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J56" s="9" t="s">
-        <v>316</v>
+      <c r="J56" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
@@ -4082,40 +4092,38 @@
     </row>
     <row r="57">
       <c r="A57" s="5">
-        <v>45483.64586524306</v>
+        <v>45483.66527428241</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J57" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>322</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K57" s="3"/>
       <c r="L57" s="3" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
@@ -4124,40 +4132,38 @@
     </row>
     <row r="58">
       <c r="A58" s="5">
-        <v>45483.66248461806</v>
+        <v>45483.68189813657</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>324</v>
+        <v>198</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J58" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>329</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K58" s="4"/>
       <c r="L58" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
@@ -4166,40 +4172,38 @@
     </row>
     <row r="59">
       <c r="A59" s="5">
-        <v>45483.66513658565</v>
+        <v>45483.6884422338</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>209</v>
+        <v>125</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J59" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>334</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="K59" s="3"/>
       <c r="L59" s="3" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
@@ -4208,38 +4212,40 @@
     </row>
     <row r="60">
       <c r="A60" s="5">
-        <v>45483.66527428241</v>
+        <v>45483.69236240741</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="J60" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="K60" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>350</v>
+      </c>
       <c r="L60" s="3" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
@@ -4248,38 +4254,40 @@
     </row>
     <row r="61">
       <c r="A61" s="5">
-        <v>45483.68189813657</v>
+        <v>45483.697355729164</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>340</v>
+        <v>186</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="J61" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="K61" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>355</v>
+      </c>
       <c r="L61" s="3" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
@@ -4288,38 +4296,38 @@
     </row>
     <row r="62">
       <c r="A62" s="5">
-        <v>45483.6884422338</v>
+        <v>45483.69962803241</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="J62" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="K62" s="3"/>
+        <v>159</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K62" s="4"/>
       <c r="L62" s="3" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
@@ -4328,82 +4336,80 @@
     </row>
     <row r="63">
       <c r="A63" s="5">
-        <v>45483.69236240741</v>
+        <v>45483.70411417824</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J63" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="M63" s="4"/>
+      <c r="D63" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="J63" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="K63" s="16"/>
+      <c r="L63" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>365</v>
+      </c>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
     </row>
-    <row r="64">
+    <row r="64" ht="27.0" customHeight="1">
       <c r="A64" s="5">
-        <v>45483.697355729164</v>
+        <v>45483.710486157404</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>187</v>
+        <v>366</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>356</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K64" s="4"/>
       <c r="L64" s="3" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
@@ -4412,38 +4418,38 @@
     </row>
     <row r="65">
       <c r="A65" s="5">
-        <v>45483.69962803241</v>
+        <v>45483.720720474535</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="J65" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="K65" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3" t="s">
+        <v>373</v>
+      </c>
       <c r="L65" s="3" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
@@ -4452,76 +4458,80 @@
     </row>
     <row r="66">
       <c r="A66" s="5">
-        <v>45483.70411417824</v>
+        <v>45483.9014703125</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="J66" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
+        <v>375</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K66" s="4"/>
+      <c r="L66" s="3" t="s">
+        <v>379</v>
+      </c>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
     </row>
-    <row r="67" ht="27.0" customHeight="1">
+    <row r="67">
       <c r="A67" s="5">
-        <v>45483.710486157404</v>
+        <v>45481.94270072917</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>215</v>
+        <v>380</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="J67" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="K67" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>385</v>
+      </c>
       <c r="L67" s="3" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
@@ -4530,25 +4540,25 @@
     </row>
     <row r="68">
       <c r="A68" s="5">
-        <v>45483.720720474535</v>
+        <v>45482.49447282407</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>133</v>
+        <v>387</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>18</v>
@@ -4556,12 +4566,12 @@
       <c r="I68" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J68" s="3"/>
+      <c r="J68" s="4"/>
       <c r="K68" s="3" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
@@ -4570,38 +4580,38 @@
     </row>
     <row r="69">
       <c r="A69" s="5">
-        <v>45483.9014703125</v>
+        <v>45483.41264692129</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>374</v>
+        <v>13</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="J69" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="K69" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="J69" s="4"/>
+      <c r="K69" s="3" t="s">
+        <v>394</v>
+      </c>
       <c r="L69" s="3" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
@@ -4610,25 +4620,25 @@
     </row>
     <row r="70">
       <c r="A70" s="5">
-        <v>45481.94270072917</v>
+        <v>45483.65972041667</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>18</v>
@@ -4636,14 +4646,12 @@
       <c r="I70" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J70" s="9" t="s">
-        <v>384</v>
-      </c>
+      <c r="J70" s="3"/>
       <c r="K70" s="3" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
@@ -4652,38 +4660,38 @@
     </row>
     <row r="71">
       <c r="A71" s="5">
-        <v>45482.49447282407</v>
+        <v>45483.7318767824</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>387</v>
+        <v>138</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="J71" s="4"/>
       <c r="K71" s="3" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
@@ -4691,26 +4699,26 @@
       <c r="P71" s="4"/>
     </row>
     <row r="72">
-      <c r="A72" s="5">
-        <v>45483.41264692129</v>
+      <c r="A72" s="17">
+        <v>45484.02054478009</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>102</v>
+        <v>296</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>380</v>
+        <v>169</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>103</v>
+        <v>406</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>18</v>
@@ -4720,37 +4728,34 @@
       </c>
       <c r="J72" s="4"/>
       <c r="K72" s="3" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
     </row>
     <row r="73">
-      <c r="A73" s="5">
-        <v>45483.65972041667</v>
+      <c r="A73" s="17">
+        <v>45484.06275363426</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>396</v>
+        <v>65</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>397</v>
+        <v>66</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>18</v>
@@ -4758,79 +4763,75 @@
       <c r="I73" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J73" s="3"/>
+      <c r="J73" s="12" t="s">
+        <v>413</v>
+      </c>
       <c r="K73" s="3" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
     </row>
     <row r="74">
-      <c r="A74" s="5">
-        <v>45483.7318767824</v>
+      <c r="A74" s="17">
+        <v>45484.07147298611</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>138</v>
+        <v>416</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>380</v>
+        <v>169</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>139</v>
+        <v>417</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="3" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
     </row>
     <row r="75">
-      <c r="A75" s="15">
-        <v>45484.02054478009</v>
+      <c r="A75" s="17">
+        <v>45484.07277572917</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>300</v>
+        <v>416</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>301</v>
+        <v>417</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>18</v>
@@ -4840,188 +4841,151 @@
       </c>
       <c r="J75" s="4"/>
       <c r="K75" s="3" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="M75" s="4"/>
     </row>
     <row r="76">
-      <c r="A76" s="15">
-        <v>45484.06275363426</v>
+      <c r="A76" s="17">
+        <v>45484.345385810186</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>66</v>
+        <v>380</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>67</v>
+        <v>381</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>411</v>
+        <v>426</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>427</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J76" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>413</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K76" s="4"/>
       <c r="L76" s="3" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="M76" s="4"/>
     </row>
     <row r="77">
-      <c r="A77" s="15">
-        <v>45484.07147298611</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
       <c r="D77" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="3" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
     </row>
     <row r="78">
-      <c r="A78" s="15">
-        <v>45484.07277572917</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
       <c r="D78" s="3" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="3" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
     </row>
     <row r="79">
-      <c r="A79" s="15">
-        <v>45484.345385810186</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
       <c r="D79" s="3" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>381</v>
+        <v>439</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="J79" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="K79" s="4"/>
+        <v>440</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="3" t="s">
+        <v>442</v>
+      </c>
       <c r="L79" s="3" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
     </row>
     <row r="80">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
-      <c r="D80" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>431</v>
-      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>433</v>
-      </c>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
@@ -5031,25 +4995,15 @@
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
-      <c r="D81" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>435</v>
-      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>437</v>
-      </c>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
@@ -5059,27 +5013,15 @@
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>440</v>
-      </c>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>442</v>
-      </c>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
@@ -5089,7 +5031,7 @@
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
-      <c r="D83" s="3"/>
+      <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -6777,101 +6719,44 @@
       <c r="O176" s="4"/>
       <c r="P176" s="4"/>
     </row>
-    <row r="177">
-      <c r="A177" s="4"/>
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="4"/>
-      <c r="F177" s="4"/>
-      <c r="G177" s="4"/>
-      <c r="H177" s="4"/>
-      <c r="I177" s="4"/>
-      <c r="J177" s="4"/>
-      <c r="K177" s="4"/>
-      <c r="L177" s="4"/>
-      <c r="M177" s="4"/>
-      <c r="N177" s="4"/>
-      <c r="O177" s="4"/>
-      <c r="P177" s="4"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="4"/>
-      <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
-      <c r="F178" s="4"/>
-      <c r="G178" s="4"/>
-      <c r="H178" s="4"/>
-      <c r="I178" s="4"/>
-      <c r="J178" s="4"/>
-      <c r="K178" s="4"/>
-      <c r="L178" s="4"/>
-      <c r="M178" s="4"/>
-      <c r="N178" s="4"/>
-      <c r="O178" s="4"/>
-      <c r="P178" s="4"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="4"/>
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="4"/>
-      <c r="F179" s="4"/>
-      <c r="G179" s="4"/>
-      <c r="H179" s="4"/>
-      <c r="I179" s="4"/>
-      <c r="J179" s="4"/>
-      <c r="K179" s="4"/>
-      <c r="L179" s="4"/>
-      <c r="M179" s="4"/>
-      <c r="N179" s="4"/>
-      <c r="O179" s="4"/>
-      <c r="P179" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="$B$1:$J$83"/>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D1">
       <formula1>"분야"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D82">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D79">
       <formula1>"브랜딩,그래픽,UXUI,영상"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="J32"/>
-    <hyperlink r:id="rId2" ref="J43"/>
-    <hyperlink r:id="rId3" ref="J44"/>
-    <hyperlink r:id="rId4" ref="J46"/>
-    <hyperlink r:id="rId5" ref="J47"/>
-    <hyperlink r:id="rId6" ref="J48"/>
+    <hyperlink r:id="rId1" ref="J31"/>
+    <hyperlink r:id="rId2" ref="J42"/>
+    <hyperlink r:id="rId3" ref="J43"/>
+    <hyperlink r:id="rId4" ref="J45"/>
+    <hyperlink r:id="rId5" ref="J46"/>
+    <hyperlink r:id="rId6" ref="J47"/>
     <hyperlink r:id="rId7" ref="J49"/>
     <hyperlink r:id="rId8" ref="J50"/>
-    <hyperlink r:id="rId9" ref="J52"/>
-    <hyperlink r:id="rId10" ref="J53"/>
-    <hyperlink r:id="rId11" ref="J54"/>
-    <hyperlink r:id="rId12" ref="J55"/>
-    <hyperlink r:id="rId13" ref="J56"/>
-    <hyperlink r:id="rId14" ref="J57"/>
-    <hyperlink r:id="rId15" ref="J58"/>
-    <hyperlink r:id="rId16" ref="J59"/>
-    <hyperlink r:id="rId17" ref="J60"/>
-    <hyperlink r:id="rId18" ref="J61"/>
-    <hyperlink r:id="rId19" ref="J62"/>
-    <hyperlink r:id="rId20" ref="J63"/>
-    <hyperlink r:id="rId21" ref="J64"/>
-    <hyperlink r:id="rId22" ref="J65"/>
+    <hyperlink r:id="rId9" ref="J51"/>
+    <hyperlink r:id="rId10" ref="J52"/>
+    <hyperlink r:id="rId11" ref="J53"/>
+    <hyperlink r:id="rId12" ref="J54"/>
+    <hyperlink r:id="rId13" ref="J55"/>
+    <hyperlink r:id="rId14" ref="J56"/>
+    <hyperlink r:id="rId15" ref="J57"/>
+    <hyperlink r:id="rId16" ref="J58"/>
+    <hyperlink r:id="rId17" ref="J59"/>
+    <hyperlink r:id="rId18" ref="J60"/>
+    <hyperlink r:id="rId19" ref="J61"/>
+    <hyperlink r:id="rId20" ref="J62"/>
+    <hyperlink r:id="rId21" ref="J63"/>
+    <hyperlink r:id="rId22" ref="J64"/>
     <hyperlink r:id="rId23" ref="J66"/>
     <hyperlink r:id="rId24" ref="J67"/>
-    <hyperlink r:id="rId25" ref="J69"/>
-    <hyperlink r:id="rId26" ref="J70"/>
-    <hyperlink r:id="rId27" ref="J76"/>
-    <hyperlink r:id="rId28" ref="J79"/>
+    <hyperlink r:id="rId25" ref="J73"/>
+    <hyperlink r:id="rId26" ref="J76"/>
   </hyperlinks>
-  <drawing r:id="rId29"/>
+  <drawing r:id="rId27"/>
 </worksheet>
 </file>
 
@@ -6890,22 +6775,22 @@
         <v>45482.79511872685</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
@@ -6913,8 +6798,8 @@
       <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>445</v>
+      <c r="J1" s="7" t="s">
+        <v>446</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -6928,22 +6813,22 @@
         <v>45482.8288325</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>326</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>18</v>
@@ -6951,8 +6836,8 @@
       <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>447</v>
+      <c r="J2" s="7" t="s">
+        <v>448</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -6966,22 +6851,22 @@
         <v>45482.97025172454</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>18</v>
@@ -6991,7 +6876,7 @@
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -7004,22 +6889,22 @@
         <v>45482.98098891204</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>18</v>
@@ -7029,7 +6914,7 @@
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -7038,46 +6923,46 @@
       <c r="P4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="16">
+      <c r="A5" s="18">
         <v>45483.67178862268</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>453</v>
-      </c>
-      <c r="G5" s="17" t="s">
+      <c r="F5" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="17" t="s">
+      <c r="G5" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="L5" s="17" t="s">
+      <c r="J5" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="K5" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
+      <c r="L5" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
     </row>
   </sheetData>
   <dataValidations>

--- a/public/data/project_list.xlsx
+++ b/public/data/project_list.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="465">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -157,9 +157,6 @@
     <t>그래픽_12지신 이야기_썸네일</t>
   </si>
   <si>
-    <t>다 잘나오는데 중복이에요</t>
-  </si>
-  <si>
     <t>gaeun1021@gmail.com</t>
   </si>
   <si>
@@ -212,7 +209,7 @@
     <t>그래픽_줄서기_디테일</t>
   </si>
   <si>
-    <t>그래픽_줄서기_썸네일</t>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%8C%E1%85%AE%E1%86%AF%E1%84%89%E1%85%A5%E1%84%80%E1%85%B5_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF_%E1%84%89%E1%85%AE%E1%84%8C%E1%85%A5%E1%86%BC</t>
   </si>
   <si>
     <t>qksqlcquf@naver.com</t>
@@ -756,19 +753,19 @@
     <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%89%E1%85%AE%E1%84%83%E1%85%A5%E1%84%87%E1%85%AE%E1%86%AB(SOOTHEBOON)_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
-    <t>김다현 / 김보민</t>
+    <t>김다현 김보민</t>
   </si>
   <si>
     <t>녹진</t>
   </si>
   <si>
-    <t xml:space="preserve"> 녹진은 한국의 식재료를 사용해 이탈리아 전통 방식으로 만든 페스토를 선보이는 브랜드이다.</t>
-  </si>
-  <si>
-    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%82%E1%85%A9%E1%86%A8%E1%84%8C%E1%85%B5%E1%86%AB_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%82%E1%85%A9%E1%86%A8%E1%84%8C%E1%85%B5%E1%86%AB_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+    <t>녹진은 한국의 식재료를 사용해 이탈리아 전통 방식으로 만든 페스토를 선보이는 브랜드이다.</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%82%E1%85%A9%E1%86%A8%E1%84%8C%E1%85%B5%E1%86%AB_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF_%E1%84%89%E1%85%AE%E1%84%8C%E1%85%A5%E1%86%BC</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%82%E1%85%A9%E1%86%A8%E1%84%8C%E1%85%B5%E1%86%AB_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF_%E1%84%89%E1%85%AE%E1%84%8C%E1%85%A5%E1%86%BC</t>
   </si>
   <si>
     <t>한고은, 최하영</t>
@@ -841,13 +838,10 @@
 </t>
   </si>
   <si>
-    <t>UXUI_숨바꼭질_디테일</t>
+    <t>UXUI_%E1%84%89%E1%85%AE%E1%86%B7%E1%84%87%E1%85%A1%E1%84%81%E1%85%A9%E1%86%A8%E1%84%8C%E1%85%B5%E1%86%AF_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>UXUI_%E1%84%89%E1%85%AE%E1%86%B7%E1%84%87%E1%85%A1%E1%84%81%E1%85%A9%E1%86%A8%E1%84%8C%E1%85%B5%E1%86%AF_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>분야가 잘못 반영돼 있어서 체크가 안 된 것 같아요 ㅜㅜ 옆에 이미지 파일명 다시 기재해 두었습니다!</t>
   </si>
   <si>
     <t>반짝이는 워터멜론' 오프닝 타이틀</t>
@@ -866,9 +860,6 @@
     <t>영상_반짝이는 워터멜론 오프닝 타이틀_썸네일</t>
   </si>
   <si>
-    <t>영상 안나옴</t>
-  </si>
-  <si>
     <t>dlfp6736@hanmail.net</t>
   </si>
   <si>
@@ -936,9 +927,6 @@
   </si>
   <si>
     <t>영상_카지노_Title Sequence_썸네일</t>
-  </si>
-  <si>
-    <t>중복</t>
   </si>
   <si>
     <t>je0323235179@gmail.com</t>
@@ -959,9 +947,6 @@
   </si>
   <si>
     <t>영상_사이코지만 괜찮아_썸네일</t>
-  </si>
-  <si>
-    <t>이름 및 작품명이 잘못된 것 같아요 영상 및 이미지는 잘나와욤</t>
   </si>
   <si>
     <t>가와사키 브랜드 필름</t>
@@ -1163,9 +1148,6 @@
     <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Lost+and+Found_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
-    <t>이미지 업로드 후 파일명 기재해 두었습니다!</t>
-  </si>
-  <si>
     <t>원종혜, 정자호</t>
   </si>
   <si>
@@ -1284,13 +1266,10 @@
     <t>BOWLINER은 프리미엄 볼링장 연합 이용자들을 위한 어플리케이션이다. 볼링장 이용 전 이용 현황 점검 및 예약부터, 방문 중 실시간 자세 분석과 Ai 볼링 코치, 방문 후 볼링 커뮤니티 활동 지원까지- 볼링장에서 경험할 수 있는 최적의 환경을 조성하고 서비스를 제공한다. 주변 볼러들을 탐색하여 번개를 개최하거나 동아리에 가입하면서도, 혼자서 볼링을 연습하면서도, 누구나 더 즐겁게, 더 향상된 실력으로 볼링을 즐길 수 있도록.</t>
   </si>
   <si>
-    <t>UXUI_BOWLINER_디테일</t>
+    <t>UXUI_BOWLINER_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>UXUI_BOWLINER_썸네일</t>
-  </si>
-  <si>
-    <t>이지은 2020111557</t>
   </si>
   <si>
     <t>ADIAN</t>
@@ -1370,6 +1349,18 @@
     <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Bacha+Coffee+Brand+Identity_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF+%E1%84%8B%E1%85%B5%E1%84%86%E1%85%B5%E1%84%8C%E1%85%B5</t>
   </si>
   <si>
+    <t>TYPELIGHT</t>
+  </si>
+  <si>
+    <t>연등은 오래전부터 우리의 소원을 담아왔다. 첫 번째 TYPELIGHT 프로젝트로 우리가 잊지 말아야 할 '대한민국 임시헌장'의 내용을 재구성하였다.</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_TYPELIGHT_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_TYPELIGHT_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
     <t>최희예</t>
   </si>
   <si>
@@ -1392,7 +1383,10 @@
     <t>Ballah!</t>
   </si>
   <si>
-    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_Ballah_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+    <t>Ballah!'는 한국어 단어 '바르다'에서 시작된 브랜드로, '버터를 바르는' 행위를 상징한다. 'Ballah!'는 김치, 들깨, 대파, 오디 등 한국의 다양한 식재료를 활용해 색다른 버터를 제공한다. 각 버터는 그 고유의 맛에 따라 밥, 파스타, 빵, 크래커 등과 함께 즐길 수 있으며, 이를 통한 식탁 위에서의 새로운 경험을 많은 이들과 나누고자 한다.</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_Ballah_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF_%E1%84%89%E1%85%AE%E1%84%8C%E1%85%A5%E1%86%BC</t>
   </si>
   <si>
     <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_Ballah_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
@@ -1411,6 +1405,36 @@
   </si>
   <si>
     <t>UXUI_REFIT_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>이서연</t>
+  </si>
+  <si>
+    <t>History Cantabile</t>
+  </si>
+  <si>
+    <t>조표, 각각의 음과 박자를 가진 음표, 반복 기호, 연주 기법을 제시하는 텍스트 등 구성 요소들이 오선지에 켜켜이 쌓여 악보가 되고, 음악이 된다. 이처럼 어떤 나라의 역사도 사건이 일어나고, 그걸 근간으로 둔 어떤 체계가 자리잡고, 다시 그것들을 근간으로 삼아 켜켜이 쌓여간다. 한국의 근간이 되었거나 근간이 될지도 모르는 지난 몇 개의 사건들을 악보의 구성요소를 켜켜이 쌓아 ‘노래하듯이‘ 제시한다. 우리는 어떤 노래를 부르고 있나.</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_History+Cantabile_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_History+Cantabile_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>최하영</t>
+  </si>
+  <si>
+    <t>Diaspora</t>
+  </si>
+  <si>
+    <t>원래 자신이 있던 고향을 떠나 타 지역에서 이동과 정착을 반복하는 디아스포라의 향수를 잘 뭉쳐지지만 외부의 자극에 의해 바로 흩어지고 터져버리는 거품에 빗대어 한국의 전통 민화인 산수화, 문자도, 미인도를 통해 그래픽화를 진행했다.</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_Diaspora_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_Diaspora_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>Carly Rae Jepsen - I Really Like You (2024 MV)</t>
@@ -1481,8 +1505,8 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
@@ -1494,24 +1518,12 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1520,7 +1532,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1548,32 +1560,17 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
@@ -2053,9 +2050,7 @@
       <c r="L6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="M6" s="3"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -2065,7 +2060,7 @@
         <v>45482.93456662037</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -2074,13 +2069,13 @@
         <v>14</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>18</v>
@@ -2090,10 +2085,10 @@
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -2105,7 +2100,7 @@
         <v>45482.94918239584</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
@@ -2114,13 +2109,13 @@
         <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>18</v>
@@ -2130,10 +2125,10 @@
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -2145,7 +2140,7 @@
         <v>45482.951767604165</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
@@ -2154,13 +2149,13 @@
         <v>14</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>18</v>
@@ -2170,10 +2165,10 @@
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -2185,7 +2180,7 @@
         <v>45482.96532185185</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
@@ -2194,13 +2189,13 @@
         <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>18</v>
@@ -2210,10 +2205,10 @@
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -2225,7 +2220,7 @@
         <v>45482.96540894676</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -2234,13 +2229,13 @@
         <v>14</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>18</v>
@@ -2250,10 +2245,10 @@
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -2265,7 +2260,7 @@
         <v>45482.98076421296</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
@@ -2274,13 +2269,13 @@
         <v>14</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>18</v>
@@ -2290,10 +2285,10 @@
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -2305,7 +2300,7 @@
         <v>45483.09886990741</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>13</v>
@@ -2314,13 +2309,13 @@
         <v>14</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>18</v>
@@ -2330,10 +2325,10 @@
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -2345,7 +2340,7 @@
         <v>45483.29734204861</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>13</v>
@@ -2354,13 +2349,13 @@
         <v>14</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>18</v>
@@ -2370,10 +2365,10 @@
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -2385,7 +2380,7 @@
         <v>45483.38515827546</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -2394,13 +2389,13 @@
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>18</v>
@@ -2410,10 +2405,10 @@
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -2425,7 +2420,7 @@
         <v>45483.41871167824</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>13</v>
@@ -2434,13 +2429,13 @@
         <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>18</v>
@@ -2450,10 +2445,10 @@
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -2465,7 +2460,7 @@
         <v>45483.64825532408</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>13</v>
@@ -2474,13 +2469,13 @@
         <v>14</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>18</v>
@@ -2490,10 +2485,10 @@
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -2505,7 +2500,7 @@
         <v>45483.66850667824</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>13</v>
@@ -2514,13 +2509,13 @@
         <v>14</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>18</v>
@@ -2530,10 +2525,10 @@
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -2545,7 +2540,7 @@
         <v>45483.68916679398</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -2554,13 +2549,13 @@
         <v>14</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>18</v>
@@ -2570,10 +2565,10 @@
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -2585,7 +2580,7 @@
         <v>45483.698849953704</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>13</v>
@@ -2594,13 +2589,13 @@
         <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>18</v>
@@ -2610,10 +2605,10 @@
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -2625,7 +2620,7 @@
         <v>45483.703790914355</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>13</v>
@@ -2634,13 +2629,13 @@
         <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>18</v>
@@ -2650,10 +2645,10 @@
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -2665,7 +2660,7 @@
         <v>45483.735019837965</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>13</v>
@@ -2674,13 +2669,13 @@
         <v>14</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>18</v>
@@ -2690,10 +2685,10 @@
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -2705,7 +2700,7 @@
         <v>45483.79103490741</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>13</v>
@@ -2714,13 +2709,13 @@
         <v>14</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>18</v>
@@ -2730,10 +2725,10 @@
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -2745,7 +2740,7 @@
         <v>45483.90874677083</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>13</v>
@@ -2754,13 +2749,13 @@
         <v>14</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>18</v>
@@ -2770,10 +2765,10 @@
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -2785,7 +2780,7 @@
         <v>45483.920652939814</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>13</v>
@@ -2794,26 +2789,26 @@
         <v>14</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L25" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -2825,7 +2820,7 @@
         <v>45483.93423116898</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>13</v>
@@ -2834,13 +2829,13 @@
         <v>14</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>18</v>
@@ -2850,10 +2845,10 @@
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -2865,22 +2860,22 @@
         <v>45482.473479374996</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>18</v>
@@ -2890,10 +2885,10 @@
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -2905,22 +2900,22 @@
         <v>45482.97205684028</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="F28" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>18</v>
@@ -2930,10 +2925,10 @@
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="L28" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -2945,22 +2940,22 @@
         <v>45482.98327019676</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>18</v>
@@ -2970,10 +2965,10 @@
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -2985,22 +2980,22 @@
         <v>45482.98677101852</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>18</v>
@@ -3010,10 +3005,10 @@
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="L30" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -3025,37 +3020,37 @@
         <v>45482.99329047454</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -3067,22 +3062,22 @@
         <v>45483.06046545139</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>18</v>
@@ -3092,10 +3087,10 @@
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -3107,22 +3102,22 @@
         <v>45483.09800518518</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="F33" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>18</v>
@@ -3132,10 +3127,10 @@
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L33" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -3147,35 +3142,35 @@
         <v>45483.66984074074</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="H34" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L34" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -3187,22 +3182,22 @@
         <v>45483.702257083336</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>18</v>
@@ -3212,10 +3207,10 @@
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="L35" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -3227,22 +3222,22 @@
         <v>45483.705789189815</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>18</v>
@@ -3252,10 +3247,10 @@
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="L36" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -3267,22 +3262,22 @@
         <v>45483.70796046296</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>18</v>
@@ -3292,10 +3287,10 @@
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L37" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -3311,16 +3306,16 @@
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F38" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>18</v>
@@ -3330,10 +3325,10 @@
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="L38" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -3345,22 +3340,22 @@
         <v>45483.915772673616</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>18</v>
@@ -3370,12 +3365,12 @@
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="L39" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="L39" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="M39" s="4"/>
+      <c r="M39" s="3"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
@@ -3385,22 +3380,22 @@
         <v>45483.91921710648</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E40" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>18</v>
@@ -3410,10 +3405,10 @@
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="L40" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -3425,22 +3420,22 @@
         <v>45483.95687274306</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="F41" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>18</v>
@@ -3450,10 +3445,10 @@
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="L41" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -3471,16 +3466,16 @@
         <v>13</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>18</v>
@@ -3489,13 +3484,13 @@
         <v>19</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -3513,7 +3508,7 @@
         <v>13</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>29</v>
@@ -3522,20 +3517,20 @@
         <v>30</v>
       </c>
       <c r="G43" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -3543,68 +3538,66 @@
       <c r="P43" s="4"/>
     </row>
     <row r="44">
-      <c r="A44" s="9">
+      <c r="A44" s="5">
         <v>45482.62867666667</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="10" t="s">
+      <c r="C44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" s="10" t="s">
+      <c r="G44" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="H44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="H44" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" s="11"/>
-      <c r="K44" s="10" t="s">
+      <c r="L44" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="L44" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="M44" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
     </row>
     <row r="45">
       <c r="A45" s="5">
         <v>45482.90850524306</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="F45" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>18</v>
@@ -3612,19 +3605,17 @@
       <c r="I45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J45" s="12" t="s">
+      <c r="J45" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="N45" s="13"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="10"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
     </row>
@@ -3633,22 +3624,22 @@
         <v>45482.94777834491</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>18</v>
@@ -3657,13 +3648,13 @@
         <v>19</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
@@ -3675,22 +3666,22 @@
         <v>45482.95580094907</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>18</v>
@@ -3698,19 +3689,17 @@
       <c r="I47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J47" s="12" t="s">
-        <v>283</v>
+      <c r="J47" s="9" t="s">
+        <v>280</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="N47" s="13"/>
+        <v>282</v>
+      </c>
+      <c r="M47" s="3"/>
+      <c r="N47" s="10"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
     </row>
@@ -3719,22 +3708,22 @@
         <v>45482.9905725</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="F48" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>18</v>
@@ -3744,10 +3733,10 @@
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
@@ -3759,22 +3748,22 @@
         <v>45482.998770949074</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>18</v>
@@ -3783,15 +3772,13 @@
         <v>19</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>295</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
@@ -3801,22 +3788,22 @@
         <v>45483.14124835648</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>18</v>
@@ -3824,18 +3811,16 @@
       <c r="I50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J50" s="12" t="s">
-        <v>299</v>
+      <c r="J50" s="9" t="s">
+        <v>295</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>302</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
@@ -3845,39 +3830,37 @@
         <v>45483.153701435185</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="F51" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>295</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
@@ -3887,35 +3870,35 @@
         <v>45483.15944966435</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
@@ -3927,22 +3910,22 @@
         <v>45483.36342819444</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="F53" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>18</v>
@@ -3951,13 +3934,13 @@
         <v>19</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
@@ -3969,22 +3952,22 @@
         <v>45483.64586524306</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="F54" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>18</v>
@@ -3992,14 +3975,14 @@
       <c r="I54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J54" s="12" t="s">
-        <v>320</v>
+      <c r="J54" s="9" t="s">
+        <v>315</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
@@ -4011,22 +3994,22 @@
         <v>45483.66248461806</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>18</v>
@@ -4035,13 +4018,13 @@
         <v>19</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
@@ -4053,22 +4036,22 @@
         <v>45483.66513658565</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="F56" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>18</v>
@@ -4077,13 +4060,13 @@
         <v>19</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
@@ -4095,35 +4078,35 @@
         <v>45483.66527428241</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="F57" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
@@ -4135,35 +4118,35 @@
         <v>45483.68189813657</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
@@ -4175,35 +4158,35 @@
         <v>45483.6884422338</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="F59" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="J59" s="12" t="s">
-        <v>345</v>
+        <v>158</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>340</v>
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
@@ -4215,22 +4198,22 @@
         <v>45483.69236240741</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="F60" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>18</v>
@@ -4239,13 +4222,13 @@
         <v>19</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
@@ -4257,22 +4240,22 @@
         <v>45483.697355729164</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="F61" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>18</v>
@@ -4281,13 +4264,13 @@
         <v>19</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
@@ -4299,35 +4282,35 @@
         <v>45483.69962803241</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="F62" s="3" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
@@ -4339,39 +4322,37 @@
         <v>45483.70411417824</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="G63" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="H63" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="J63" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="K63" s="16"/>
-      <c r="L63" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>365</v>
-      </c>
+      <c r="F63" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K63" s="4"/>
+      <c r="L63" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="M63" s="3"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
@@ -4381,35 +4362,35 @@
         <v>45483.710486157404</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
@@ -4421,22 +4402,22 @@
         <v>45483.720720474535</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="F65" s="3" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>18</v>
@@ -4446,10 +4427,10 @@
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
@@ -4461,35 +4442,35 @@
         <v>45483.9014703125</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="F66" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="K66" s="4"/>
       <c r="L66" s="3" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
@@ -4501,22 +4482,22 @@
         <v>45481.94270072917</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>18</v>
@@ -4525,13 +4506,13 @@
         <v>19</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
@@ -4543,22 +4524,22 @@
         <v>45482.49447282407</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>18</v>
@@ -4568,10 +4549,10 @@
       </c>
       <c r="J68" s="4"/>
       <c r="K68" s="3" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
@@ -4583,22 +4564,22 @@
         <v>45483.41264692129</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="F69" s="3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>18</v>
@@ -4608,10 +4589,10 @@
       </c>
       <c r="J69" s="4"/>
       <c r="K69" s="3" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
@@ -4623,22 +4604,22 @@
         <v>45483.65972041667</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>18</v>
@@ -4648,10 +4629,10 @@
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
@@ -4663,62 +4644,62 @@
         <v>45483.7318767824</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="F71" s="3" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J71" s="4"/>
       <c r="K71" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="M71" s="4"/>
+        <v>399</v>
+      </c>
+      <c r="M71" s="3"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
     </row>
     <row r="72">
-      <c r="A72" s="17">
+      <c r="A72" s="11">
         <v>45484.02054478009</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>406</v>
+        <v>149</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>18</v>
@@ -4728,34 +4709,34 @@
       </c>
       <c r="J72" s="4"/>
       <c r="K72" s="3" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="M72" s="4"/>
+        <v>403</v>
+      </c>
+      <c r="M72" s="3"/>
     </row>
     <row r="73">
-      <c r="A73" s="17">
+      <c r="A73" s="11">
         <v>45484.06275363426</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="F73" s="3" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>18</v>
@@ -4763,38 +4744,38 @@
       <c r="I73" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J73" s="12" t="s">
-        <v>413</v>
+      <c r="J73" s="9" t="s">
+        <v>406</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="M73" s="4"/>
     </row>
     <row r="74">
-      <c r="A74" s="17">
+      <c r="A74" s="11">
         <v>45484.07147298611</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>18</v>
@@ -4804,19 +4785,19 @@
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="3" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="M74" s="4"/>
     </row>
     <row r="75">
-      <c r="A75" s="17">
+      <c r="A75" s="11">
         <v>45484.07277572917</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>13</v>
@@ -4825,13 +4806,13 @@
         <v>14</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>18</v>
@@ -4841,74 +4822,84 @@
       </c>
       <c r="J75" s="4"/>
       <c r="K75" s="3" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="M75" s="4"/>
     </row>
     <row r="76">
-      <c r="A76" s="17">
+      <c r="A76" s="11">
         <v>45484.345385810186</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="K76" s="4"/>
       <c r="L76" s="3" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="M76" s="4"/>
     </row>
     <row r="77">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
+      <c r="A77" s="5">
+        <v>45484.77358869213</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D77" s="3" t="s">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>430</v>
+        <v>277</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
+        <v>424</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="J77" s="4"/>
       <c r="K77" s="3" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
@@ -4920,23 +4911,25 @@
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="G78" s="4"/>
+        <v>428</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>429</v>
+      </c>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="3" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
@@ -4948,27 +4941,27 @@
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="3" t="s">
-        <v>260</v>
+        <v>168</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>441</v>
+        <v>433</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>434</v>
       </c>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="3" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="M79" s="4"/>
+        <v>436</v>
+      </c>
+      <c r="M79" s="3"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
@@ -4977,15 +4970,27 @@
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
+      <c r="D80" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>439</v>
+      </c>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
+      <c r="K80" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>441</v>
+      </c>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
@@ -4995,15 +5000,27 @@
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
+      <c r="D81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>444</v>
+      </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
+      <c r="K81" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="L81" s="12" t="s">
+        <v>446</v>
+      </c>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
@@ -5013,15 +5030,27 @@
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
+      <c r="D82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>449</v>
+      </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
+      <c r="K82" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="L82" s="12" t="s">
+        <v>451</v>
+      </c>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
@@ -5038,8 +5067,8 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
@@ -6719,12 +6748,30 @@
       <c r="O176" s="4"/>
       <c r="P176" s="4"/>
     </row>
+    <row r="177">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="4"/>
+      <c r="M177" s="4"/>
+      <c r="N177" s="4"/>
+      <c r="O177" s="4"/>
+      <c r="P177" s="4"/>
+    </row>
   </sheetData>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D1">
       <formula1>"분야"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D79">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D82">
       <formula1>"브랜딩,그래픽,UXUI,영상"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6775,22 +6822,22 @@
         <v>45482.79511872685</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
@@ -6799,7 +6846,7 @@
         <v>19</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -6813,22 +6860,22 @@
         <v>45482.8288325</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>18</v>
@@ -6837,7 +6884,7 @@
         <v>19</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -6851,22 +6898,22 @@
         <v>45482.97025172454</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>18</v>
@@ -6876,7 +6923,7 @@
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="3" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -6889,22 +6936,22 @@
         <v>45482.98098891204</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>18</v>
@@ -6914,7 +6961,7 @@
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="3" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -6923,46 +6970,46 @@
       <c r="P4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="18">
+      <c r="A5" s="13">
         <v>45483.67178862268</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="19" t="s">
+      <c r="F5" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="J5" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
     </row>
   </sheetData>
   <dataValidations>

--- a/public/data/project_list.xlsx
+++ b/public/data/project_list.xlsx
@@ -50,89 +50,126 @@
     <t>썸네일</t>
   </si>
   <si>
-    <t>m20670ok@naver.com</t>
+    <t>dnaue0130@naver.com</t>
   </si>
   <si>
     <t>작품당 1개의 폼 제출 (팀 작업의 경우 대표자가 제출), 구글 드라이브 내 폴더에 이미지 제출 후 해당 폼 제출, 파일명 앞 분야의 경우 브랜딩 / 그래픽 / UXUI / 영상 으로 구분</t>
   </si>
   <si>
+    <t>영상</t>
+  </si>
+  <si>
+    <t>강다은</t>
+  </si>
+  <si>
+    <t>NO PAIN</t>
+  </si>
+  <si>
+    <t>"No Pain, No Fail 음악 없는 세상
+ No Cap, No Cry 이미 죽은 사람 아냐 사실"
+실리카겔의 곡 &lt;NO PAIN&gt;은 삶에는 고통이 따를 수밖에 없지만, 그럼에도 함께 모여 노래하며 살아가자는 메시지를 담고 있다.
+고통이 찾아와도 굴하지 않고 악기를 연주하는 캐릭터 밴드의 스토리를 통해 이러한 곡의 메시지를 표현했다.
+세 캐릭터가 처한 상황은 각각 버거운 삶의 무게(바위), 평안 속에 도사리는 불안(악어), 잠식하는 우울(비)을 상징한다.</t>
+  </si>
+  <si>
+    <t>구글 드라이브 내 썸네일 업로드를 완료하였습니다.</t>
+  </si>
+  <si>
+    <t>영상 분야로 디테일 이미지를 별도로 제출하지 않습니다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/_mvlaqbs_jY?si=xYu84BPxfglaumGA</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_NO+PAIN_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>브랜딩</t>
+  </si>
+  <si>
+    <t>강다은, 정의연</t>
+  </si>
+  <si>
+    <t>frup</t>
+  </si>
+  <si>
+    <t>frup은 과일껍질로 만든 팩&amp;스크럽 전문 브랜드이다. 풀무원의 주스 브랜드 아임리얼의 자매브랜드로, 아임리얼주스를 착즙한 후 발생한 과일껍질을 활용한다. 
+과육보다 좋은 성분을 가지고 있지만 사용되지 않는 껍질을 업사이클링하여, 성분 좋고 친환경적인 제품을 만드는 것을 목적으로 한다.</t>
+  </si>
+  <si>
+    <t>구글 드라이브 내 디테일 이미지 업로드를 완료하였습니다.</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_frup_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>브랜딩_frup_썸네일</t>
+  </si>
+  <si>
+    <t>wide1543@naver.com</t>
+  </si>
+  <si>
     <t>그래픽</t>
   </si>
   <si>
-    <t>서예지</t>
-  </si>
-  <si>
-    <t>minimalism</t>
-  </si>
-  <si>
-    <t>「minimalism」은 예술, 디자인, 건축 등 미니멀리즘이 활용된 다양한 분야를 폭넓게 담아낸 ‘미니멀리즘 개념북’이다. 이 책의 기획 의도는 단순함에서 우러나는 미를 추구한 수많은 예술가 및 디자이너의 작업을 소개함으로써, 독자에게 ‘less is more (적은 것이 많은 것이다)’라는 미니멀리즘의 미학을 전하는 것이다. ‘불필요한 요소들을 제거하고 대상의 본질만 남긴다’는 미니멀리즘의 이념을 디자인 컨셉으로 삼아, 정돈된 편집 방식과 군더더기 없는 고딕 계열 서체를 사용하여 제작하였다.</t>
-  </si>
-  <si>
-    <t>구글 드라이브 내 썸네일 업로드를 완료하였습니다.</t>
-  </si>
-  <si>
-    <t>구글 드라이브 내 디테일 이미지 업로드를 완료하였습니다.</t>
-  </si>
-  <si>
-    <t>그래픽_minimalism_디테일_수정본</t>
-  </si>
-  <si>
-    <t>그래픽_minimalism_썸네일</t>
-  </si>
-  <si>
-    <t>qkrcofls13@naver.com</t>
-  </si>
-  <si>
-    <t>박채린</t>
-  </si>
-  <si>
-    <t>겨울 지나 여름에게로</t>
-  </si>
-  <si>
-    <t>온전한 반쪽으로 존재하는 그녀의 세상이 어느 날 갑자기 찾아온 낯선 이의 흔적을 따라 점차 넓어져간다. 그녀는 기대와 설렘을 가지고 지금껏 살아온 세상을 벗어나 모험을 떠난다. 이 동화책은 진정한 사랑이란 무엇인가에 대한 정답을 찾으려 하지 않는다. 다만 그녀의 발걸음을 따라 그녀가 또 다른 반쪽의 세상을 모험하고자 하는 결심이 곧 사랑의 시작이었음을 내포하고 있다. 또한 이 모험적 서사 안에서 사랑이 지니는 설렘과 미지의 세계에 대한 두려움 그리고 용기를 독자들에게 전달하고자 한다.</t>
-  </si>
-  <si>
-    <t>그래픽_겨울 지나 여름에게로_디테일</t>
-  </si>
-  <si>
-    <t>그래픽_겨울 지나 여름에게로_썸네일</t>
-  </si>
-  <si>
-    <t>03chim08@naver.com</t>
-  </si>
-  <si>
-    <t>최혜빈</t>
-  </si>
-  <si>
-    <t>독립프로젝트:무주택자99</t>
-  </si>
-  <si>
-    <t>99년생 무주택 청년들의 독립을 준비하는 과정기를 담은 그래픽 프로젝트로 무주택 청년들이 느끼는 현실의 불안정함과 우울함, 그리고 독립생활의 이상적인 꿈과 희망이 공존하는 이야기. 독립과정의 다양한 모습을 기록하고 무주택자 청년들의 사회문제를 표현하고자 한 아카이빙 프로젝트이기도 하다.</t>
-  </si>
-  <si>
-    <t>그래픽_독립프로젝트무주택자99_디테일</t>
-  </si>
-  <si>
-    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%83%E1%85%A9%E1%86%A8%E1%84%85%E1%85%B5%E1%86%B8%E1%84%91%E1%85%B3%E1%84%85%E1%85%A9%E1%84%8C%E1%85%A6%E1%86%A8%E1%84%90%E1%85%B3%E1%84%86%E1%85%AE%E1%84%8C%E1%85%AE%E1%84%90%E1%85%A2%E1%86%A8%E1%84%8C%E1%85%A199_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>jayeom0727@gmail.com</t>
-  </si>
-  <si>
-    <t>이자염</t>
-  </si>
-  <si>
-    <t>숨바꼭질</t>
-  </si>
-  <si>
-    <t>우리는 모두 같은 사람이고 사랑받을 권리가 있다. 하지만 본인과 다른 모습, 생각, 행동, 그리고 (범죄) 피해 사실을 가지고 있어 이들을 사회적으로 배제 시키는 일들이 아직도 많이 남아 있다. 이들을 돕고 배려하지 않고 무시하기 바쁘다. 오늘날에도 이러한 문제가 우리도 모르는 사이에도 많이 일어나고 있다. 이러한 부분에 심각성을 인지하고 문제를 해결하고자 이 동화를 만들게 되었다. 더해 이는 보기 편한 200 X 200mm 사이즈에 크기와 양장 제본에 형태를 가졌고, 동화 중간중간에 열었다 닫았다 할 수 있는 재밌는 요소가 들어가 있다. 주인공인 탱이와 루리가 숨바꼭질을 하며 동화가 시작된다.
-주인공 탱이를 사회적으로 배제되는 사람들로 표현했고 흑인, 틱장애, 우울증, 적록 색약, 아동학대, ADHD와 같이 6명에 친구가 존재한다. 탱이의 단짝 친구인 루리는 우리 또는 나를 표현했다. 이 동화를 통해 이러한 문제들이 멈추고 이들에게 위로와 쉼터가 되기를 기대해 본다.</t>
-  </si>
-  <si>
-    <t>그래픽_숨바꼭질_디테일</t>
-  </si>
-  <si>
-    <t>그래픽_숨바꼭질_썸네일</t>
+    <t>강민주</t>
+  </si>
+  <si>
+    <t>의식 낚시_Consciousness Fishing</t>
+  </si>
+  <si>
+    <t>비대면 소통으로 인한 현대인들의 스트레스를 아이콘을 통하여 사람을 낚아낸다는 의식을 표현한 것이다.</t>
+  </si>
+  <si>
+    <t>그래픽_의식낚시_디테일</t>
+  </si>
+  <si>
+    <t>그래픽_의식낚시_썸네일</t>
+  </si>
+  <si>
+    <t>lost and found _ millennium parade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">내가 죽어도 나를 잊지 말라달라는 가사의 마음을 시스투스 꽃의 일생에 의인화하여 감정을 뮤직비디오를 통하여 표현한 것이다. </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/xa_Nh6_weZM?si=WpMSvaDi-9K5sCa6</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Lost+and+Found_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>ksiyeon2001@gmail.com</t>
+  </si>
+  <si>
+    <t>강시연</t>
+  </si>
+  <si>
+    <t>Scent of month</t>
+  </si>
+  <si>
+    <t>우리는 달이 바뀌며 시간이 지나고 있다는 것을 시각적으로 느낀다. 하지만 시각 만이 달의 변화와 흐름을 나타내고 있지는 않는다. 달마다 다른 온도와 기온, 풀의 냄새나 공기의 흐름 등 우리는 달의 변화를 다양한 방면에서 느끼고 있다. 이러한 추상적이고 복합적인 요소를 시각화하며 달력의 레이아웃을 디자인했다.</t>
+  </si>
+  <si>
+    <t>그래픽_scent of month_디테일</t>
+  </si>
+  <si>
+    <t>그래픽_scent of month_썸네일</t>
+  </si>
+  <si>
+    <t>Geometry of palace</t>
+  </si>
+  <si>
+    <t>한국의 궁은 복잡하고 화려함과 동시에 기하학적이다. 이러한 궁의 특징과 한국 전통적인 요소를 더해 좀 더 추상적이고 기하학적인 한국 궁에 대한 영상을 만들고자 했다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/kDpS2r0w8oA?si=RGcqzf3conRMxvgt</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_geometry+of+palace_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>영상_Geometry of palace_썸네일</t>
   </si>
   <si>
     <t>konggkdus@naver.com</t>
@@ -157,6 +194,19 @@
     <t>그래픽_12지신 이야기_썸네일</t>
   </si>
   <si>
+    <t>수더분 (SOOTHEBOON)</t>
+  </si>
+  <si>
+    <t>외모에 관심이 높아지는 사춘기 시기 소녀들에게 스킨케어와 멘탈케어 팁을 알려주는 브랜드.
+단순히 외모를 예쁘게 가꾸기 위함이 아닌 건강한 피부를 위한 스킨케어를 통해 피부 트러블, 마음에 있는 트러블까지 케어하며 진정한 내면의 아름다움을 가꾸게 해준다.</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%89%E1%85%AE%E1%84%83%E1%85%A5%E1%84%87%E1%85%AE%E1%86%AB(SOOTHEBOON)_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%89%E1%85%AE%E1%84%83%E1%85%A5%E1%84%87%E1%85%AE%E1%86%AB(SOOTHEBOON)_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
     <t>gaeun1021@gmail.com</t>
   </si>
   <si>
@@ -176,6 +226,51 @@
     <t>그래픽_OrnaFrame_썸네일</t>
   </si>
   <si>
+    <t>Nepenthes</t>
+  </si>
+  <si>
+    <t>괴식물이 지상을 뒤덮은 아포칼립스 세상 속에서 잃어버린 연인을 찾아 떠도는 주인공의 이야기를 담은 2D 애니메이션. 인간에게 환각을 보여주어 양분을 빼앗는 위험한 괴식물들 사이로 잃어버린 연인을 찾기 위해 헤매는 주인공의 이야기를 그려냈다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/XeSycNPNkJc?si=MBphJk_MTBp-nj_A</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Nepenthes_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>kkmin99@naver.com</t>
+  </si>
+  <si>
+    <t>김겸민</t>
+  </si>
+  <si>
+    <t>남겨진 날</t>
+  </si>
+  <si>
+    <t>어린 시절, 언제나 함께 여서 행복했지만 시간이 흐르고 남겨진 날들 뿐인  강아지의 시선을 담았다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/-4773fk2BuU?si=3s0zpL1tMNT9qByJ</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%82%E1%85%A1%E1%86%B7%E1%84%80%E1%85%A7%E1%84%8C%E1%85%B5%E1%86%AB+%E1%84%82%E1%85%A1%E1%86%AF_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>영상_남겨진 날_썸네일</t>
+  </si>
+  <si>
+    <t>TYPELIGHT</t>
+  </si>
+  <si>
+    <t>연등은 오래전부터 우리의 소원을 담아왔다. 첫 번째 TYPELIGHT 프로젝트로 우리가 잊지 말아야 할 '대한민국 임시헌장'의 내용을 재구성하였다.</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_TYPELIGHT_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_TYPELIGHT_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
     <t>ny990108@gmail.com</t>
   </si>
   <si>
@@ -194,9 +289,143 @@
     <t>그래픽_Emotion Traffic_썸네일</t>
   </si>
   <si>
+    <t>'반짝이는 워터멜론' 오프닝 타이틀</t>
+  </si>
+  <si>
+    <t>드라마 '반짝이는 워터멜론'은 주인공이 과거로 돌아가서 어린 시절의 부모님을 만나 함께 청춘을 보내며 가족에 대한 사랑과 소중함에 대한 이야기를 그린다. 본 영상은 18세의 아들이 타임슬립을 통해 자신과 동갑인 아버지를 만나 함께 하는 이야기를 담았으며 청춘의 향기를 표현하고자 했다. 색연필로 채색한 듯한 아트워크로 밝고 따듯한 느낌을 나타냈고 드라마 속 주인공들의 감정적인 결합을 강조하여 동화 같은 감성을 전달하고자 했다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/embed/_LRZ5-z6myA?si=xxagqadRBoogyUde
+</t>
+  </si>
+  <si>
+    <t>영상_반짝이는 워터멜론 오프팅 타이틀_디테일</t>
+  </si>
+  <si>
+    <t>영상_반짝이는 워터멜론 오프닝 타이틀_썸네일</t>
+  </si>
+  <si>
+    <t>kimna0101@naver.com</t>
+  </si>
+  <si>
+    <t>UXUI</t>
+  </si>
+  <si>
+    <t>김나영</t>
+  </si>
+  <si>
+    <t>yumlikethis</t>
+  </si>
+  <si>
+    <t>YumLikeThis는 사용자의 기분과 맛을 반영한 맞춤 메뉴 추천 애플리케이션이다.
+YumLikeThis는 사용자의 기분, 선호하는 맛, 식감 등을 분석하여 최적의 메뉴를 추천해 준다. 정교한 추천 알고리즘을 통해 사용자에게 맞춤형 메뉴 추천 서비스를 제공한다.
+또한, 추천된 메뉴를 제공하는 식당의 위치, 시간, 별점 등의 정보를 상세히 제공하여 손쉽게 예약하거나 포장 주문을 할 수 있도록 돕는다. YumLikeThis를 통해 사용자는 매일 새로운 미식 경험을 즐길 수 있다.</t>
+  </si>
+  <si>
+    <t>UXUI_yumlikethis_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>UXUI_yumlikethis_썸네일</t>
+  </si>
+  <si>
+    <t>dahyk71@gmail.com</t>
+  </si>
+  <si>
+    <t>김다현</t>
+  </si>
+  <si>
+    <t>표리문자表裏文字</t>
+  </si>
+  <si>
+    <t>거울의 반사되는 성질을 활용하여 겉과 속이 다른 이중성을 표현한 타이포그래피 작품이다. 겉으로 보이는 단순명료한 텍스트를 뒤집어 반사된 모습으로 보여줌으로써 내면과 외면의 서로 다른 모습을 나타내고자 하였다.</t>
+  </si>
+  <si>
+    <t>그래픽_표리문자_디테일</t>
+  </si>
+  <si>
+    <t>그래픽_표리문자_썸네일</t>
+  </si>
+  <si>
     <t>9omin9im@gmail.com</t>
   </si>
   <si>
+    <t>김다현 김보민</t>
+  </si>
+  <si>
+    <t>녹진</t>
+  </si>
+  <si>
+    <t>녹진은 한국의 식재료를 사용해 이탈리아 전통 방식으로 만든 페스토를 선보이는 브랜드이다.</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%82%E1%85%A9%E1%86%A8%E1%84%8C%E1%85%B5%E1%86%AB_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF_%E1%84%89%E1%85%AE%E1%84%8C%E1%85%A5%E1%86%BC</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%82%E1%85%A9%E1%86%A8%E1%84%8C%E1%85%B5%E1%86%AB_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF_%E1%84%89%E1%85%AE%E1%84%8C%E1%85%A5%E1%86%BC</t>
+  </si>
+  <si>
+    <t>eunwoul5509@naver.com</t>
+  </si>
+  <si>
+    <t>김민솔</t>
+  </si>
+  <si>
+    <t>생각하는 공간: 사유(思惟)의 사유(私有)지</t>
+  </si>
+  <si>
+    <t>개개인의 사색의 장소를 종이를 이용한 팝업북으로 나타내는 프로젝트이다.
+사람은 매일 생각을 한다. 그 장소는 개인의 나이, 성격, 생활 패턴, 생활 반경에 따라 욕실이 될 수도 있고, 서재가 될 수도 있고, 침대 위나 책상 앞, 캔버스 앞 또는 TV 앞이 될 수도 있다. 이처럼 생각하는 공간이란 개인의 가장 사생활적인 부분이며, 그의 성향을 유추할 수 있는 가장 내밀하고 개인적인 장소라고 할 수 있다. 우리는 모두 각자만의 공간이 필요하다. 생각에 잠긴 우리들의 일상 속 한 페이지를 팝업북을 통해 입체적으로 나타낸다.</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%89%E1%85%A2%E1%86%BC%E1%84%80%E1%85%A1%E1%86%A8%E1%84%92%E1%85%A1%E1%84%82%E1%85%B3%E1%86%AB_%E1%84%80%E1%85%A9%E1%86%BC%E1%84%80%E1%85%A1%E1%86%AB_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%89%E1%85%A2%E1%86%BC%E1%84%80%E1%85%A1%E1%86%A8%E1%84%92%E1%85%A1%E1%84%82%E1%85%B3%E1%86%AB%E1%84%80%E1%85%A9%E1%86%BC%E1%84%80%E1%85%A1%E1%86%AB_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>한국 패션의 변천사</t>
+  </si>
+  <si>
+    <t>1950년대부터 2020년대까지 한국의 패션 변천사를 디지털 잡지 형식으로 보여 주는 프로젝트이다.
+한 시대의 유행이란 단지 옷에 관한 것이 아니라 당대의 시대정서, 사회 현상 등을 반영하는 중요한 흔적이다. 1950년대부터 2020년대까지 10년 단위로 한국 패션의 변화를 분석하여 세대 간의 이해를 돕는다.</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%92%E1%85%A1%E1%86%AB%E1%84%80%E1%85%AE%E1%86%A8%E1%84%91%E1%85%A2%E1%84%89%E1%85%A7%E1%86%AB%E1%84%8B%E1%85%B4%E1%84%87%E1%85%A7%E1%86%AB%E1%84%8E%E1%85%A5%E1%86%AB%E1%84%89%E1%85%A1_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%92%E1%85%A1%E1%86%AB%E1%84%80%E1%85%AE%E1%86%A8%E1%84%91%E1%85%A2%E1%84%89%E1%85%A7%E1%86%AB%E1%84%8B%E1%85%B4%E1%84%87%E1%85%A7%E1%86%AB%E1%84%8E%E1%85%A5%E1%86%AB%E1%84%89%E1%85%A1_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>mzmzkim@naver.com</t>
+  </si>
+  <si>
+    <t>김민지</t>
+  </si>
+  <si>
+    <t>분신술doppelganger</t>
+  </si>
+  <si>
+    <t>우리를 알게모르게 둘러싼 복제현상들은 마치 분신술 같다. 제임스별에서 온 복제의 귀재 '카피정'도 놀란 이 지구의 다양한 분신술을 재미있게 탐험하는 시간을 가져보았다.</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%87%E1%85%AE%E1%86%AB%E1%84%89%E1%85%B5%E1%86%AB%E1%84%89%E1%85%AE%E1%86%AFdoppelganger_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%87%E1%85%AE%E1%86%AB%E1%84%89%E1%85%B5%E1%86%AB%E1%84%89%E1%85%AE%E1%86%AFdoppelganger_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">다이노심포니 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">다이노심포니는 유·아동을 대상으로 한 음악교육놀이 브랜드로 유·아동 아이들이 아기공룡음악대 친구들과 함께 클래식으로 놀면서 클래식과 친해지도록 도와준다. </t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%83%E1%85%A1%E1%84%8B%E1%85%B5%E1%84%82%E1%85%A9%E1%84%89%E1%85%B5%E1%86%B7%E1%84%91%E1%85%A9%E1%84%82%E1%85%B5_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%83%E1%85%A1%E1%84%8B%E1%85%B5%E1%84%82%E1%85%A9%E1%84%89%E1%85%B5%E1%86%B7%E1%84%91%E1%85%A9%E1%84%82%E1%85%B5__%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
     <t>김보민</t>
   </si>
   <si>
@@ -210,6 +439,187 @@
   </si>
   <si>
     <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%8C%E1%85%AE%E1%86%AF%E1%84%89%E1%85%A5%E1%84%80%E1%85%B5_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF_%E1%84%89%E1%85%AE%E1%84%8C%E1%85%A5%E1%86%BC</t>
+  </si>
+  <si>
+    <t>cowls042@naver.com</t>
+  </si>
+  <si>
+    <t>김수진</t>
+  </si>
+  <si>
+    <t>카지노-Title Sequence</t>
+  </si>
+  <si>
+    <t>3D 공간을 구현해 상징적 요소인‘붉은 꽃’과 싸움 흔적을 통해 인간의 욕망이 초래하는 허무한 결과를 보여줘 ‘권력이나 부귀영화는 오래가지 못한다’는 의미를 나타내는 타이틀 시퀀스이다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/EaGNSwbz3Ek?si=YgmIHR5LbJD3xMK_</t>
+  </si>
+  <si>
+    <t>영상_카지노_Title Sequence_썸네일</t>
+  </si>
+  <si>
+    <t>김수진, 윤지수</t>
+  </si>
+  <si>
+    <t>두랑두랑</t>
+  </si>
+  <si>
+    <t>콩 캐릭터를 통해 아이들에게 흥미를 주어 식습관 개선을 도와준다. 메인 상품은 '콩버거, 완두콩 스낵, 파인애플 비타민 주스'이며, 그 외에 패키지 상자, 캐릭터 키링, 스티커, 모션 애니메이션 등을 기획하여 아이들이 즐겁고 건강하게 간식을 먹을 수 있도록 만든 브랜드이다.</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%83%E1%85%AE%E1%84%85%E1%85%A1%E1%86%BC%E1%84%83%E1%85%AE%E1%84%85%E1%85%A1%E1%86%BC_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>브랜딩_두랑두랑_썸네일</t>
+  </si>
+  <si>
+    <t>kyw208@naver.com</t>
+  </si>
+  <si>
+    <t>김예원</t>
+  </si>
+  <si>
+    <t>BLEACHING</t>
+  </si>
+  <si>
+    <t>이 프로젝트의 주요 키워드인 'BLEACHING'은 산호초 백화현상’을 뜻하는 영어 단어 ’Coral Bleaching’에서 가져왔다. ‘Bleach’는 원래 ‘표백하다’라는 뜻인데, 산호초가 죽어가며 하얗게 변해가는 현상에 ‘표백되었다’는 표현을 쓴 것이다. 이 프로젝트는 사람들의 환경 보호에 대한 희미한 무관심 속에서 점점 잊혀 원래 모습이 바래져가는 산호초의 이야기에서 시작했다. 그리고 ‘해조류가 사라지고 흰색의 석회 조류가 달라붙어 암반 지역이 흰색으로 변하는 것’을 뜻하는 '백화'의 의미를 '하얗게 잊히고 바래지고 희미해지는 것'으로 확장하고, 새롭게 정의한 ‘백화’의 의미를 다양한 관점에 이입시켜 3종의 책으로 시각화했다. 각각의 책은 산호초의 백화, 기억의 백화, 기다림의 백화에 대한 이야기를 담고 있고, 인화한 사진을 표백제로 표백시켰을 때 나타나는 현상을 포착한 이미지를 주요 그래픽 소스로 활용했다.</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_BLEACHING_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_BLEACHING_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>PUFF, the Homeless</t>
+  </si>
+  <si>
+    <t>&lt;PUFF, the Homeless&gt;는 산호초 백화현상으로 인해 황폐화된 산호초 동네를 배경으로 한 단편 3D 애니메이션이다. 환경 오염으로 인한 캐릭터들의 설정과 유머러스한 대사로 관객인 인간에게 풍자적 메세지를 던진다.
+계속되는 지구 온난화로 인한 해수 온도 상승과 해양 쓰레기들 때문에 백화되어가고 있는 산호초 '코', 백화현상으로 인해 집을 잃은 청복어 '퍼프', 호두크기의 작은 산호초 '월넛', '월넛'의 엉덩이에 구멍을 뚫어 살고 있는 땅콩벌레 '피넛', 이렇게 4마리의 해양생물이 등장한다.
+인스타그램 인플루언서가 되고 싶은 산호초 '코'는 하얗게 변해버린 자신의 머리를 염색하는 릴스를 찍어 인스타에 올린다. 이 영상은 백화 현상 때문에 집이 없어져서 화가 난 청복어 '퍼프'가 평소처럼 릴스 영상을 찍고 있는 '코'의 카메라 앞으로 난입하면서 일어난 비하인드를 보여준다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/USehYHb4eCs?si=1Dah3Rmfx2kHf66i</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_PUFF%2C+the+Homeless_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_PUFF%2C+the+Homeless_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>is458518@gmail.com</t>
+  </si>
+  <si>
+    <t>김채린</t>
+  </si>
+  <si>
+    <t>구강케어 브랜드 4분의1</t>
+  </si>
+  <si>
+    <t>생태계를 지키고 구강건강도 지키는 구강케어 브랜드 "4분의1"이다. 생태계 교란종인 가시상추는 충치와 치주염 예방 효능을 가지고 있어 기능성 치약 개발에 활용될 수 있다. 이를 통해 구강건강과 생태계 교란종 개체 수 조절의 두 마리 토끼를 동시에 잡을 수 있다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/EQgB3YfuJJQ?si=m69bRcRuB3JckN6r</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_4%E1%84%87%E1%85%AE%E1%86%AB%E1%84%8B%E1%85%B41_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>브랜딩_4분의1_썸네일</t>
+  </si>
+  <si>
+    <t>doobog@naver.com</t>
+  </si>
+  <si>
+    <t>문지예</t>
+  </si>
+  <si>
+    <t>mizmas</t>
+  </si>
+  <si>
+    <t>미즈마스는 여성 친화적인 섹슈얼 웰니스 브랜드로 '태초의 즐거움'이라는 슬로건을 가지고 여성의 성욕이 사람들에게 자연스럽게 받아들여지는 것을 목표로 한다.
+성에 대한 왜곡된 시선으로 만들어졌거나 부담스러움을 느끼게 하는 기존의 성인 용품 패키지와 반대로 자연으로부터 영감을 받은 색감과 여성의 자연스러운 움직임을 담은 일러스트를 사용하여 건강한 성욕을 표현했다.
+21세기인 지금까지도 존재하는 여성의 성욕을 터부시하는 문화를 개선하는 것을 노력하며 여성의 건강하고 다양한 성적 경험을 이야기하고자 한다.</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_mizmas_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>브랜딩_mizmas_썸네일</t>
+  </si>
+  <si>
+    <t>Human Life</t>
+  </si>
+  <si>
+    <t>인공지능이 발달됨에 따라 인간의 직업이 Ai로 대체되는 것을 걱정하게 되었다. 현재 인공지능의 발전을 막을 수 있는 방법은 없고 그저 보고만 있을 수밖에 없는 것이 현실이다. Human Life는 극 상류층 일부를 제외한 인간의 대부분이 고도로 발달된 인공지능에 의해 일자리가 대체되어 개인이 사회와 단절된 미래를 그린 그래픽 노블이다.</t>
+  </si>
+  <si>
+    <t>영상_Human Life_디테일</t>
+  </si>
+  <si>
+    <t>영상_Human Life_썸네일</t>
+  </si>
+  <si>
+    <t>jeonglily@naver.com</t>
+  </si>
+  <si>
+    <t>박다희, 정승연</t>
+  </si>
+  <si>
+    <t>Trip with you</t>
+  </si>
+  <si>
+    <t>‘Trip with you’는 어디에 있든 자신감있는 모습으로 빛날 수 있도록 돕는다는 메시지를 담은 화장품 브랜드 '페리페라'의 프로모션 영상이다. 매일의 모든 순간을 어떤 상황에서도 특별하게 만들어준다는 의미를 담아, 일상을 함께하는 파트너를 여행가방으로 나타내었다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/WtKYjDRgOfM?si=I2ZGGep8jAWme6m3</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Trip+with+you_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Trip+with+you_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>qkrcofls13@naver.com</t>
+  </si>
+  <si>
+    <t>박채린</t>
+  </si>
+  <si>
+    <t>겨울 지나 여름에게로</t>
+  </si>
+  <si>
+    <t>온전한 반쪽으로 존재하는 그녀의 세상이 어느 날 갑자기 찾아온 낯선 이의 흔적을 따라 점차 넓어져간다. 그녀는 기대와 설렘을 가지고 지금껏 살아온 세상을 벗어나 모험을 떠난다. 이 동화책은 진정한 사랑이란 무엇인가에 대한 정답을 찾으려 하지 않는다. 다만 그녀의 발걸음을 따라 그녀가 또 다른 반쪽의 세상을 모험하고자 하는 결심이 곧 사랑의 시작이었음을 내포하고 있다. 또한 이 모험적 서사 안에서 사랑이 지니는 설렘과 미지의 세계에 대한 두려움 그리고 용기를 독자들에게 전달하고자 한다.</t>
+  </si>
+  <si>
+    <t>그래픽_겨울 지나 여름에게로_디테일</t>
+  </si>
+  <si>
+    <t>그래픽_겨울 지나 여름에게로_썸네일</t>
+  </si>
+  <si>
+    <t>m20670ok@naver.com</t>
+  </si>
+  <si>
+    <t>박채린, 서예지</t>
+  </si>
+  <si>
+    <t>Pale Blue Dot</t>
+  </si>
+  <si>
+    <t>천문학자 칼 세이건은 지구를 ‘창백한 푸른 점’으로 표현하였다. 이처럼 인간에게는 너무나 거대하게 느껴지는 지구도 멀리 떨어져서 보면 작은 점에 불과하다. 갓 사회를 마주할 청년들에게도 지금의 자신이 처한 상황, 불안한 감정이 너무나 크게 다가오곤 한다. 우리는 이 뮤직비디오를 통하여 청년들에게 ‘지금의 괴로운 시기는 찰나이며, 우주라는 거대한 무대에서 보면 우리의 문제도 아주 작은 먼지와 같다.‘는 메시지를 담아냄으로써 공감과 위로를 전하고자 한다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/FtLj8Qxd1m8?si=k8wxQ14G4l7K_MSg</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Pale+Blue+Dot_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Pale+Blue+Dot_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>qksqlcquf@naver.com</t>
@@ -231,6 +641,24 @@
     <t>그래픽_대비의 초상_썸네일</t>
   </si>
   <si>
+    <t>틱 틱 붐!</t>
+  </si>
+  <si>
+    <t>이거 설마... 시한폭탄 아니야?
+틱 틱 낯선 소리를 내는 장난감이 새로 들어온다.
+소리의 정체에 대해 추측하던 장난감들은 그 소리가 시한폭탄의 소리일 것이라 의심하는 지경에 이른다.
+과연 장난감들은 낯선 것을 어떻게 그들만의 방식으로 받아들일까?</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/UZRBmiJCQeg?si=tS74VrmTPufgytk5</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_TicTicBoom_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF-01-01</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_ticticboom_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF-01</t>
+  </si>
+  <si>
     <t>20ybae@naver.com</t>
   </si>
   <si>
@@ -249,76 +677,304 @@
     <t>그래픽_GO WELL_썸네일</t>
   </si>
   <si>
-    <t>hdh02y35@gmail.com</t>
-  </si>
-  <si>
-    <t>홍다희</t>
-  </si>
-  <si>
-    <t>타입모터스</t>
-  </si>
-  <si>
-    <t>이미지 생성형 AI로 다양한 콘셉트의 바이크를 생성하고, 이를 그래픽으로써 텍스트와 함께 배치시켜 AI를 디자인에 접목시키기 위한 시각적 표현 방법에 대해 실험해보고자 한 작품이다. 각 바이크들에게 성능을 배분해 카드와 계급을 한 눈에 알아볼 수 있는 인포메이션 포스터를 제작했다.</t>
-  </si>
-  <si>
-    <t>그래픽_타입모터스_디테일</t>
-  </si>
-  <si>
-    <t>그래픽_타입모터스_썸네일</t>
-  </si>
-  <si>
-    <t>chaerin9892@naver.com</t>
-  </si>
-  <si>
-    <t>이채린</t>
-  </si>
-  <si>
-    <t>맛타입</t>
-  </si>
-  <si>
-    <t>친근한 일러스트와 글자를 통해 한식을 소개하고 다양한 연령대가 한식을 즐길 수 있는 프로젝트 이다.</t>
-  </si>
-  <si>
-    <t>그래픽_맛타입_디테일</t>
-  </si>
-  <si>
-    <t>그래픽_맛타입_썸네일</t>
-  </si>
-  <si>
-    <t>dahyk71@gmail.com</t>
-  </si>
-  <si>
-    <t>김다현</t>
-  </si>
-  <si>
-    <t>표리문자表裏文字</t>
-  </si>
-  <si>
-    <t>거울의 반사되는 성질을 활용하여 겉과 속이 다른 이중성을 표현한 타이포그래피 작품이다. 겉으로 보이는 단순명료한 텍스트를 뒤집어 반사된 모습으로 보여줌으로써 내면과 외면의 서로 다른 모습을 나타내고자 하였다.</t>
-  </si>
-  <si>
-    <t>그래픽_표리문자_디테일</t>
-  </si>
-  <si>
-    <t>그래픽_표리문자_썸네일</t>
-  </si>
-  <si>
-    <t>kyw208@naver.com</t>
-  </si>
-  <si>
-    <t>김예원</t>
-  </si>
-  <si>
-    <t>BLEACHING</t>
-  </si>
-  <si>
-    <t>이 프로젝트의 주요 키워드인 'BLEACHING'은 산호초 백화현상’을 뜻하는 영어 단어 ’Coral Bleaching’에서 가져왔다. ‘Bleach’는 원래 ‘표백하다’라는 뜻인데, 산호초가 죽어가며 하얗게 변해가는 현상에 ‘표백되었다’는 표현을 쓴 것이다. 이 프로젝트는 사람들의 환경 보호에 대한 희미한 무관심 속에서 점점 잊혀 원래 모습이 바래져가는 산호초의 이야기에서 시작했다. 그리고 ‘해조류가 사라지고 흰색의 석회 조류가 달라붙어 암반 지역이 흰색으로 변하는 것’을 뜻하는 '백화'의 의미를 '하얗게 잊히고 바래지고 희미해지는 것'으로 확장하고, 새롭게 정의한 ‘백화’의 의미를 다양한 관점에 이입시켜 3종의 책으로 시각화했다. 각각의 책은 산호초의 백화, 기억의 백화, 기다림의 백화에 대한 이야기를 담고 있고, 인화한 사진을 표백제로 표백시켰을 때 나타나는 현상을 포착한 이미지를 주요 그래픽 소스로 활용했다.</t>
-  </si>
-  <si>
-    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_BLEACHING_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_BLEACHING_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+    <t>MONTHLY STUDIO</t>
+  </si>
+  <si>
+    <t>다양한 관점이 요구되며 살아가는 세상에서 바라보는 전통은 어떠한지 고민하고
+독창성과 복고풍의 매력을 결합하여, 독특한 레트로 감성을 불어넣어 젊은 세대와 디지털 아트를 즐기는 사람들에게 새로운 매력을 선사한다. 그리고 디지털 시대의 연결성을 강조하며, 전통적인 화투 게임을 현대적인 플랫폼으로 끌어들여 신선한 경험을 제공하고자하는 브랜드이다.</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_MONTHLY+STUDIO_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>브랜딩_MONTHLY STUDIO_썸네일</t>
+  </si>
+  <si>
+    <t>서예지</t>
+  </si>
+  <si>
+    <t>minimalism</t>
+  </si>
+  <si>
+    <t>「minimalism」은 예술, 디자인, 건축 등 미니멀리즘이 활용된 다양한 분야를 폭넓게 담아낸 ‘미니멀리즘 개념북’이다. 이 책의 기획 의도는 단순함에서 우러나는 미를 추구한 수많은 예술가 및 디자이너의 작업을 소개함으로써, 독자에게 ‘less is more (적은 것이 많은 것이다)’라는 미니멀리즘의 미학을 전하는 것이다. ‘불필요한 요소들을 제거하고 대상의 본질만 남긴다’는 미니멀리즘의 이념을 디자인 컨셉으로 삼아, 정돈된 편집 방식과 군더더기 없는 고딕 계열 서체를 사용하여 제작하였다.</t>
+  </si>
+  <si>
+    <t>그래픽_minimalism_디테일_수정본</t>
+  </si>
+  <si>
+    <t>그래픽_minimalism_썸네일</t>
+  </si>
+  <si>
+    <t>kathleen141731@gmail.com</t>
+  </si>
+  <si>
+    <t>우민하</t>
+  </si>
+  <si>
+    <t>마음미술관</t>
+  </si>
+  <si>
+    <t>전시 관람을 통해 치유적인 경험을 유도하는 애플리케이션이다. 명상의 방법으로 그림 명상을 제안한다. 미술치료 분야에서 미술을 감상하는 것만으로도 치유적인 효과가 있다고 연구되었다. 전시를 가이드에 따라 관람하고, 그 경험을 이미지와 텍스트로 기록하는 것이 치유적인 효과의 원리이다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/tP0k-02XaFk?si=u85391Z9YNZBXU_H</t>
+  </si>
+  <si>
+    <t>UXUI_마음미술관_디테일</t>
+  </si>
+  <si>
+    <t>UXUI_마음미술관_썸네일</t>
+  </si>
+  <si>
+    <t>Bacha Coffee Brand Identity</t>
+  </si>
+  <si>
+    <t>바샤커피' 브랜드 아이덴티티를 2D 모션그래픽으로 표현한 영상이다.
+'바샤커피'는 싱가포르 프리미엄 커피 브랜드로 이국적이고 고급스러운 분위기가 특징이다. 바샤커피의 이국적인 분위기는 모로코 마라케시의 화려한 색감과 패턴을 모티브로 디자인되었다. 그래서 매장에 방문했을 때, 마치 다른 세계에 와 있는 듯한 경험을 하게 된다. 또한 매장에 방문하면 다양한 원두 선택지와 서비스도 경험할 수 있다.
+이러한 모로코 마라케시에서 모티브 된 비주얼과 매장 경험이 바샤커피의 브랜드 아이덴티티이다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/CJ7W1BuRMlM?si=OXvgWYnkfnLh8PXE</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Bacha+Coffee+Brand+Identity_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF+%E1%84%8B%E1%85%B5%E1%84%86%E1%85%B5%E1%84%8C%E1%85%B5</t>
+  </si>
+  <si>
+    <t>wonjh0325@naver.com</t>
+  </si>
+  <si>
+    <t>원종혜</t>
+  </si>
+  <si>
+    <t>COOKIMOND</t>
+  </si>
+  <si>
+    <t>쿠키몬드는 밀가루 대신 아몬드 가루를 사용해 만든 글루텐프리 쿠키 브랜드이다. 
+'쿠키'와 '아몬드'의 합성어로, 아몬드로 만든 쿠키를 의미한다. 
+전통 방식으로 재배한 고급 아몬드를 사용하여, 정성스럽게 만든 쿠키의 풍부한 맛과 향을 즐길 수 있다.</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_COOKIMOND_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>브랜딩_COOKIMOND_썸네일</t>
+  </si>
+  <si>
+    <t>원종혜, 정자호</t>
+  </si>
+  <si>
+    <t>공부하는 중입니다만</t>
+  </si>
+  <si>
+    <t>내일 당장 시험을 앞둔 승식이가 부랴부랴 공부를 시작한다..</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/sOyk4LM7xXw?si=ZuEK3V7kt8umrkKd</t>
+  </si>
+  <si>
+    <t>영상_공부하는 중 입니다만_썸네일</t>
+  </si>
+  <si>
+    <t>유상아 이서연</t>
+  </si>
+  <si>
+    <t>Ballah!</t>
+  </si>
+  <si>
+    <t>Ballah!'는 한국어 단어 '바르다'에서 시작된 브랜드로, '버터를 바르는' 행위를 상징한다. 'Ballah!'는 김치, 들깨, 대파, 오디 등 한국의 다양한 식재료를 활용해 색다른 버터를 제공한다. 각 버터는 그 고유의 맛에 따라 밥, 파스타, 빵, 크래커 등과 함께 즐길 수 있으며, 이를 통한 식탁 위에서의 새로운 경험을 많은 이들과 나누고자 한다.</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_Ballah_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF_%E1%84%89%E1%85%AE%E1%84%8C%E1%85%A5%E1%86%BC</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_Ballah_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>유상아 정의연 최희예</t>
+  </si>
+  <si>
+    <t>REFIT</t>
+  </si>
+  <si>
+    <t>맞춤형 의류 리폼 서비스 ‘REFIT‘은 각자의 개성을 중요시하는 시대의 흐름에 따라 맞춤형 의류 리폼 서비스를 제공하여 사용자들에게 새로운 패션 경험을 선사한다. 해당 서비스에서는 가지고 있는 옷을 서비스가 제공하는 포맷대로 리폼할 수도, 사용자의 니즈에 맞게 맞춤형으로 리폼할 수도 있다. ‘REFIT’은 사용자들이 의류를 버리지 않고 업사이클링 할 수 있도록 도와, 최종적으로 의류 폐기물을 절감하는데 기여할 수 있을 것이라고 기대한다.</t>
+  </si>
+  <si>
+    <t>UXUI_REFIT_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>UXUI_REFIT_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>younjisoo00@gmail.com</t>
+  </si>
+  <si>
+    <t>윤지수</t>
+  </si>
+  <si>
+    <t>Save the earth</t>
+  </si>
+  <si>
+    <t>이 작품은 플라스틱 사용의 위험성을 시각적으로 극대화해 보여주는 게임 형태의 영상물로 제작됐다. 이 작품은 총 세 개의 라운드로 나누어져 있으며, 각 라운드는 플라스틱 오염의 심각성과 그 결과를 단계적으로 보여준다.
+작품의 첫 번째 라운드는 자연 풍경 속에서 시작된다. 플레이어는 마우스 커서를 이용해 쉽게 눈에 띄는 플라스틱 쓰레기들을 찾는다. 플라스틱 병과 같은 일상에서 흔히 볼 수 있는 쓰레기들을 클릭하여 점수를 얻고, 쓰레기 수거함에 불을 전부 키며 첫 번째 라운드는 마무리된다. 이 과정은 우리가 무심코 버리는 플라스틱 쓰레기의 문제를 인식하게 만든다.
+두 번째 라운드는 보다 정교하게 배경 속에 숨겨진 플라스틱 쓰레기를 찾는 과정이다. 모든 쓰레기를 주운 후에도 쓰레기 수거함에 한 개의 불이 비어있어 당황한 플레이어의 커서가 보인다. 플레이어는 배경을 이곳저곳 클릭하다가 과일을 클릭하게 되고 과일에서 미세 플라스틱이 검출된다. 이를 통해 우리가 먹는 음식에도 미세 플라스틱이 포함될 수 있다는 사실을 전달한다.
+세 번째 라운드는 이전 라운드의 경험을 바탕으로 음식 속에 숨겨진 미세 플라스틱을 찾는 과정이다. 플레이어는 다양한 음식을 클릭하며 미세 플라스틱을 검출해낸다. 모든 음식을 클릭한 후에도 여전히 쓰레기 수거함에 한 개의 불이 켜지지 않는다. 마지막으로 플레이어는 화면 속 사람을 클릭하게 되고, 이로써 플라스틱 오염이 결국 인간에게까지 영향을 미친다는 메시지를 전달한다.
+작품은 무심코 버려진 플라스틱 쓰레기들이 식물과 동물을 거쳐 결국 인간에게 돌아온다는 사실을 시청자에게 인식시키며 플라스틱 사용을 줄이고 재활용에 동참해야 한다는 메시지를 전달한다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/oW4KkWGKHFo?si=PbdZRh8a6i7Q_QtT</t>
+  </si>
+  <si>
+    <t>영상_Save the earth_썸네일</t>
+  </si>
+  <si>
+    <t>yoonheesun1097@gmail.com</t>
+  </si>
+  <si>
+    <t>윤희선</t>
+  </si>
+  <si>
+    <t>typing duel</t>
+  </si>
+  <si>
+    <t>살면서 한 번씩 누군가와 싸워본 적이 있을 것이다. 시대가 바뀌며 대면 싸움보단
+온라인에서 싸우는 일이 많아졌고 키보드 배틀과 키보드워리어라는 단어가 생겨났다.
+해서 게임, 직장, 학교 등 살면서 일어나는 다양한 키보드 배틀을 그래픽적으로 해석해
+표현한 그래픽 포스터이다.</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_typing+duel_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_typing+duel</t>
+  </si>
+  <si>
+    <t>Fairy Tale</t>
+  </si>
+  <si>
+    <t>꿈을 찾아 이루고 싶은 아이의 꿈을 향해 떠나면서 생기는 이야기로 여정을 하며 만나는 사람과의 우정을 그린 뮤직비디오이다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ewprERxLWTc?si=PUCFF2sAu2rQ1288</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_fairy+tale</t>
+  </si>
+  <si>
+    <t>akuak0627@naver.com</t>
+  </si>
+  <si>
+    <t>이 레, 임해서</t>
+  </si>
+  <si>
+    <t>루나리움</t>
+  </si>
+  <si>
+    <t>루나리움은 현대인들이 자신의 감정을 보다 체계적으로 이해하고 관리할 수 있도록 돕는 유용한 어플리케이션이다. 감정 관리에 중점을 둔 루나리움은 사용자가 자신의 감정을 간편하게 기록하고 분석할 수 있는 다양한 기능을 제공한다. 매일의 감정을 선택하고 메모를 추가할 수 있으며, 루니와의 대화를 통해 감정 변화를 시각적으로 분석하고 피드백도 받을 수 있어 사용자가 꾸준히 감정을 기록하도록 도와준다. 직관적이고 감성적인 디자인 요소는 사용자 경험을 극대화하며, AI 친구 루니는 사용자 맞춤형 대화를 이어나가며 마음을 편안하게 해준다.</t>
+  </si>
+  <si>
+    <t>UXUI_%E1%84%85%E1%85%AE%E1%84%82%E1%85%A1%E1%84%85%E1%85%B5%E1%84%8B%E1%85%AE%E1%86%B7_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>UXUI_루나리움_썸네일</t>
+  </si>
+  <si>
+    <t>dlfp6736@hanmail.net</t>
+  </si>
+  <si>
+    <t>이레</t>
+  </si>
+  <si>
+    <t>드라마 '소년심판' 타이틀 시퀀스</t>
+  </si>
+  <si>
+    <t>드라마 '소년심판' 타이틀 시퀀스이다. 드라마의 처음과 끝인 '백성우'의 범죄로 시작하여 다시 법정에 선 모습을 보여준다. 이것은 드라마에서 전달하는 메시지인 '법으로 제대로 처벌 받지 못한 소년범은 다시 범죄를 저지른다'라는 내용을 담고 있다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/MEns05yu39I?si=AHPdjBt1UqXfSrlF</t>
+  </si>
+  <si>
+    <t>영상_소년심판_디테일</t>
+  </si>
+  <si>
+    <t>영상_소년심판_썸네일</t>
+  </si>
+  <si>
+    <t>이서연</t>
+  </si>
+  <si>
+    <t>History Cantabile</t>
+  </si>
+  <si>
+    <t>조표, 각각의 음과 박자를 가진 음표, 반복 기호, 연주 기법을 제시하는 텍스트 등 구성 요소들이 오선지에 켜켜이 쌓여 악보가 되고, 음악이 된다. 이처럼 어떤 나라의 역사도 사건이 일어나고, 그걸 근간으로 둔 어떤 체계가 자리잡고, 다시 그것들을 근간으로 삼아 켜켜이 쌓여간다. 한국의 근간이 되었거나 근간이 될지도 모르는 지난 몇 개의 사건들을 악보의 구성요소를 켜켜이 쌓아 ‘노래하듯이‘ 제시한다. 우리는 어떤 노래를 부르고 있나.</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_History+Cantabile_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_History+Cantabile_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>ytojin52@naver.com</t>
+  </si>
+  <si>
+    <t>이유진</t>
+  </si>
+  <si>
+    <t>Vertigul</t>
+  </si>
+  <si>
+    <t>Vertigul은 영문 세로 쓰기를 위해 개발된 폰트 패밀리 3종이다. Vertigul은 Vertical + Hangul의 합성어로, 세로 쓰기 된 한글과 병행하여 영문을 표기하였을 때에도, 사람들이 어색함을 느끼지 않고 영어를 자연스럽게 세로로 읽고 쓸 수 있는 폰트가 되길 바라는 마음을 담았다. Original, Sans-serif, Pixelized 3종의 패밀리로 원하는 어떤 영문이든 세로로 읽고 써 보세요!</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_VERTIGUL_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>그래픽_VERTIGUL_썸네일</t>
+  </si>
+  <si>
+    <t>BOWLINER</t>
+  </si>
+  <si>
+    <t>BOWLINER은 프리미엄 볼링장 연합 이용자들을 위한 어플리케이션이다. 볼링장 이용 전 이용 현황 점검 및 예약부터, 방문 중 실시간 자세 분석과 Ai 볼링 코치, 방문 후 볼링 커뮤니티 활동 지원까지- 볼링장에서 경험할 수 있는 최적의 환경을 조성하고 서비스를 제공한다. 주변 볼러들을 탐색하여 번개를 개최하거나 동아리에 가입하면서도, 혼자서 볼링을 연습하면서도, 누구나 더 즐겁게, 더 향상된 실력으로 볼링을 즐길 수 있도록.</t>
+  </si>
+  <si>
+    <t>UXUI_BOWLINER_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>UXUI_BOWLINER_썸네일</t>
+  </si>
+  <si>
+    <t>jayeom0727@gmail.com</t>
+  </si>
+  <si>
+    <t>이자염</t>
+  </si>
+  <si>
+    <t>숨바꼭질</t>
+  </si>
+  <si>
+    <t>우리는 모두 같은 사람이고 사랑받을 권리가 있다. 하지만 본인과 다른 모습, 생각, 행동, 그리고 (범죄) 피해 사실을 가지고 있어 이들을 사회적으로 배제 시키는 일들이 아직도 많이 남아 있다. 이들을 돕고 배려하지 않고 무시하기 바쁘다. 오늘날에도 이러한 문제가 우리도 모르는 사이에도 많이 일어나고 있다. 이러한 부분에 심각성을 인지하고 문제를 해결하고자 이 동화를 만들게 되었다. 더해 이는 보기 편한 200 X 200mm 사이즈에 크기와 양장 제본에 형태를 가졌고, 동화 중간중간에 열었다 닫았다 할 수 있는 재밌는 요소가 들어가 있다. 주인공인 탱이와 루리가 숨바꼭질을 하며 동화가 시작된다.
+주인공 탱이를 사회적으로 배제되는 사람들로 표현했고 흑인, 틱장애, 우울증, 적록 색약, 아동학대, ADHD와 같이 6명에 친구가 존재한다. 탱이의 단짝 친구인 루리는 우리 또는 나를 표현했다. 이 동화를 통해 이러한 문제들이 멈추고 이들에게 위로와 쉼터가 되기를 기대해 본다.</t>
+  </si>
+  <si>
+    <t>그래픽_숨바꼭질_디테일</t>
+  </si>
+  <si>
+    <t>그래픽_숨바꼭질_썸네일</t>
+  </si>
+  <si>
+    <t>숨바꼭질 (AR 동화)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">우리는 모두 같은 사람이고 사랑받을 권리가 있다. 하지만 본인과 다른 모습, 생각, 행동, 그리고 (범죄) 피해 사실을 가지고 있어 이들을 사회적으로 배제 시키는 일들이 아직도 많이 남아 있다. 이들을 돕고 배려하지 않고 무시하기 바쁘다. 오늘날에도 이러한 문제가 우리도 모르는 사이에도 많이 일어나고 있다. 이러한 부분에 심각성을 인지하고 문제를 해결하고자 이 동화를 만들게 되었다. 더해 이는 보기 편한 200 X 200mm 사이즈에 크기와 양장 제본에 형태를 가졌고, 동화 중간중간에 열었다 닫았다 할 수 있는 재밌는 요소가 들어가 있다.
+더해, 동화 우측 하단에 QR 코드를 탑재해 '숨바꼭질-AR 버전'으로도 즐길 수 있다. 이 동화를 통해 이러한 문제들이 멈추고 이들에게 위로와 쉼터가 되기를 기대해 본다.
+</t>
+  </si>
+  <si>
+    <t>UXUI_%E1%84%89%E1%85%AE%E1%86%B7%E1%84%87%E1%85%A1%E1%84%81%E1%85%A9%E1%86%A8%E1%84%8C%E1%85%B5%E1%86%AF_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>UXUI_%E1%84%89%E1%85%AE%E1%86%B7%E1%84%87%E1%85%A1%E1%84%81%E1%85%A9%E1%86%A8%E1%84%8C%E1%85%B5%E1%86%AF_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>wjddusdlrj12@naver.com</t>
@@ -338,6 +994,162 @@
   </si>
   <si>
     <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_Sports+biomechanics_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>COSMO</t>
+  </si>
+  <si>
+    <t>&lt;COSMO&gt;는 서브컬처 IP 의상을 일상복으로 손쉽게 찾는 가상 피팅을 활용한 패션 플랫폼이다. 
+간편하게 이미지로 원하는 컨셉과 자신의 패션 스타일이 합쳐진 스타일링을 찾고 가상 피팅을 통해 원하는 추구미를 실현시킬 수 있도록 서포트 해준다.</t>
+  </si>
+  <si>
+    <t>UXUI_COSMO_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>UXUI_COSMO_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>2garden34@gmail.com</t>
+  </si>
+  <si>
+    <t>이정원</t>
+  </si>
+  <si>
+    <t>SCALE</t>
+  </si>
+  <si>
+    <t>SCALE 프로젝트는 마트료시카를 모티브로 하여 크기가 크거나 작아도 각자의 쓰임이 있고 의미가 있다는 것을 보여주고자 한다. 
+마트료시카란 인형 안에 그보다 더 작은 인형, 또 그 안에 더 작은 인형들이 들어있는 러시아의 전통인형이다. 마트료시카는 인형의 크기가 큰 것에서부터 작아질수록 그려진 그림의 디테일이 섬세하게 유지되는 특징이 있고 마트료시카의 이러한 특징을 
+모티브로 하였다. 
+우리의 주변에는 인형옷, 어린이옷, 빅사이즈 옷처럼 같은 기능을 하면서 크기에 따라 쓰임이 달라지는 것들이 있으며 큰 것에는 큰 것대로, 작은 것에는 작은 것대로 각자의 역할이 있다는 것을 표현하고자 한다. 그리고 이러한 요소들을 찾아 아카이빙 하여 크기에 따른 쓰임의 변화와 의미를 인포그래픽의 형태로 보여준다.</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_SCALE_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_SCALE_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>추억쪽지</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/4GMf3cH-Glw?si=NRXJfNJj6aKu-fuU</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%8E%E1%85%AE%E1%84%8B%E1%85%A5%E1%86%A8%E1%84%8D%E1%85%A9%E1%86%A8%E1%84%8C%E1%85%B5_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>katie50883@gmail.com</t>
+  </si>
+  <si>
+    <t>이지은</t>
+  </si>
+  <si>
+    <t>sticker</t>
+  </si>
+  <si>
+    <t>유연하게 변화하며 존재하는 스티커에 재미를 느껴, 기존 스티커를 변형하는 시각 실험을 진행했다.</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_sticker_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>그래픽_sticker_썸네일</t>
+  </si>
+  <si>
+    <t>je0323235179@gmail.com</t>
+  </si>
+  <si>
+    <t>사이코지만 괜찮아 Title Sequence</t>
+  </si>
+  <si>
+    <t>사람은 사람의 외면 때문에 상처 입고 또 사람의 온기로 치유 받는다. 결핍과 상처투성이인 주인공들이 서로의 온기로 치유되고 성장하는 과정을 바라보며 부디 당신이 위안받을 수 있기를.
+‘당신은 당신으로 충분히 괜찮습니다.’
+드라마 ‘사이코지만 괜찮아’의 타이틀 시퀀스. 3명의 주인공들이 가진 내면의 상처와 그들이 만들어 갈 이야기를 상징적 소재로 표현하였다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ulFDk7mPimY?si=hB4uofzKiH0Gpt4v</t>
+  </si>
+  <si>
+    <t>영상_사이코지만 괜찮아_디테일</t>
+  </si>
+  <si>
+    <t>영상_사이코지만 괜찮아_썸네일</t>
+  </si>
+  <si>
+    <t>작품당 1개의 폼 제출 (팀 작업의 경우 대표자가 제출)</t>
+  </si>
+  <si>
+    <t>Let's Dance!</t>
+  </si>
+  <si>
+    <t>유라-춤 뮤직비디오이다. 고민과 괴로운 마음을 날려버리고, 하고 싶은 것을 하자는 내용을 담았다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ag6KEV53qgc?si=Ys4tbUGiMUUy3ZlU</t>
+  </si>
+  <si>
+    <t>영상_Lets Dance!_썸네일</t>
+  </si>
+  <si>
+    <t>ADIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADIAN은 호신용품을 패션 악세사리로 승화시킨 여성 호신용품 패션 브랜드이다.
+지혜와 전쟁의 여신 아테나의 이미지를 결합하여 두려움이 아닌 지혜와 용기있는 여성으로서 준비한다는 메세지를 담고 있다. 또한 기존의 투박한 이미지의 호신용품을 스타일리시한 패션 아이템으로 재해석하여 일상 속에서도 안전과 패션을 모두 즐길 수 있게끔 한다. 
+이러한 하이브리드 브랜드 ADIAN은 호신용품 브랜드 뿐만 아니라 나아가 여성의 용기와 성장을 지지한다.
+</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_ADIAN_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_ADIAN_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>chaerin9892@naver.com</t>
+  </si>
+  <si>
+    <t>이채린</t>
+  </si>
+  <si>
+    <t>맛타입</t>
+  </si>
+  <si>
+    <t>친근한 일러스트와 글자를 통해 한식을 소개하고 다양한 연령대가 한식을 즐길 수 있는 프로젝트 이다.</t>
+  </si>
+  <si>
+    <t>그래픽_맛타입_디테일</t>
+  </si>
+  <si>
+    <t>그래픽_맛타입_썸네일</t>
+  </si>
+  <si>
+    <t>출출나잇</t>
+  </si>
+  <si>
+    <t>출출나잇은 대체육으로 만든 건강한 야식 프로젝트이다. 친근한 캐릭터로 따듯한 심야식당 컨셉의 야식 브랜드이다.</t>
+  </si>
+  <si>
+    <t>브랜딩_출출나잇_디테일</t>
+  </si>
+  <si>
+    <t>브랜딩_출출나잇_썸네일</t>
+  </si>
+  <si>
+    <t>임해서</t>
+  </si>
+  <si>
+    <t>파블스</t>
+  </si>
+  <si>
+    <t>파블스는 식용 곤충을 이용한 대체식품을 통해 영양가 있는 식품을 제공하고, 환경 보호에 기여하고자 하는 브랜드이다. 귀여운 캐릭터와 디자인을 통해 소비자들에게 친숙하게 다가가며, 다양한 맛과 포장의 제품을 제공한다. 파블스의 주요 캐릭터인 파비(귀뚜라미), 풍이(장수애), 고니(고소애)는 각기 다른 영양소의 장점을 대표한다. 또한, 파블스의 카카오톡 이모티콘을 통해 소비자들이 캐릭터와 더욱 친밀감을 느낄 수 있도록 하였다.</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%91%E1%85%A1%E1%84%87%E1%85%B3%E1%86%AF%E1%84%89%E1%85%B3_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>브랜딩_파블스_썸네일</t>
   </si>
   <si>
     <t>xxsianxx2000xxx@gmail.com</t>
@@ -362,358 +1174,19 @@
     <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%92%E1%85%A1%E1%86%AB%E1%84%80%E1%85%B3%E1%86%AF%E1%84%86%E1%85%A6%E1%84%90%E1%85%A1%E1%86%AF%E1%84%80%E1%85%B3%E1%86%AF%E1%84%8C%E1%85%A1%E1%84%8B%E1%85%A7%E1%86%AB%E1%84%80%E1%85%AE_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
-    <t>wide1543@naver.com</t>
-  </si>
-  <si>
-    <t>강민주</t>
-  </si>
-  <si>
-    <t>의식 낚시_Consciousness Fishing</t>
-  </si>
-  <si>
-    <t>비대면 소통으로 인한 현대인들의 스트레스를 아이콘을 통하여 사람을 낚아낸다는 의식을 표현한 것이다.</t>
-  </si>
-  <si>
-    <t>그래픽_의식낚시_디테일</t>
-  </si>
-  <si>
-    <t>그래픽_의식낚시_썸네일</t>
-  </si>
-  <si>
-    <t>ksiyeon2001@gmail.com</t>
-  </si>
-  <si>
-    <t>강시연</t>
-  </si>
-  <si>
-    <t>Scent of month</t>
-  </si>
-  <si>
-    <t>우리는 달이 바뀌며 시간이 지나고 있다는 것을 시각적으로 느낀다. 하지만 시각 만이 달의 변화와 흐름을 나타내고 있지는 않는다. 달마다 다른 온도와 기온, 풀의 냄새나 공기의 흐름 등 우리는 달의 변화를 다양한 방면에서 느끼고 있다. 이러한 추상적이고 복합적인 요소를 시각화하며 달력의 레이아웃을 디자인했다.</t>
-  </si>
-  <si>
-    <t>그래픽_scent of month_디테일</t>
-  </si>
-  <si>
-    <t>그래픽_scent of month_썸네일</t>
-  </si>
-  <si>
-    <t>2garden34@gmail.com</t>
-  </si>
-  <si>
-    <t>이정원</t>
-  </si>
-  <si>
-    <t>SCALE</t>
-  </si>
-  <si>
-    <t>SCALE 프로젝트는 마트료시카를 모티브로 하여 크기가 크거나 작아도 각자의 쓰임이 있고 의미가 있다는 것을 보여주고자 한다. 
-마트료시카란 인형 안에 그보다 더 작은 인형, 또 그 안에 더 작은 인형들이 들어있는 러시아의 전통인형이다. 마트료시카는 인형의 크기가 큰 것에서부터 작아질수록 그려진 그림의 디테일이 섬세하게 유지되는 특징이 있고 마트료시카의 이러한 특징을 
-모티브로 하였다. 
-우리의 주변에는 인형옷, 어린이옷, 빅사이즈 옷처럼 같은 기능을 하면서 크기에 따라 쓰임이 달라지는 것들이 있으며 큰 것에는 큰 것대로, 작은 것에는 작은 것대로 각자의 역할이 있다는 것을 표현하고자 한다. 그리고 이러한 요소들을 찾아 아카이빙 하여 크기에 따른 쓰임의 변화와 의미를 인포그래픽의 형태로 보여준다.</t>
-  </si>
-  <si>
-    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_SCALE_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_SCALE_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>eunwoul5509@naver.com</t>
-  </si>
-  <si>
-    <t>김민솔</t>
-  </si>
-  <si>
-    <t>생각하는 공간: 사유(思惟)의 사유(私有)지</t>
-  </si>
-  <si>
-    <t>개개인의 사색의 장소를 종이를 이용한 팝업북으로 나타내는 프로젝트이다.
-사람은 매일 생각을 한다. 그 장소는 개인의 나이, 성격, 생활 패턴, 생활 반경에 따라 욕실이 될 수도 있고, 서재가 될 수도 있고, 침대 위나 책상 앞, 캔버스 앞 또는 TV 앞이 될 수도 있다. 이처럼 생각하는 공간이란 개인의 가장 사생활적인 부분이며, 그의 성향을 유추할 수 있는 가장 내밀하고 개인적인 장소라고 할 수 있다. 우리는 모두 각자만의 공간이 필요하다. 생각에 잠긴 우리들의 일상 속 한 페이지를 팝업북을 통해 입체적으로 나타낸다.</t>
-  </si>
-  <si>
-    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%89%E1%85%A2%E1%86%BC%E1%84%80%E1%85%A1%E1%86%A8%E1%84%92%E1%85%A1%E1%84%82%E1%85%B3%E1%86%AB_%E1%84%80%E1%85%A9%E1%86%BC%E1%84%80%E1%85%A1%E1%86%AB_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%89%E1%85%A2%E1%86%BC%E1%84%80%E1%85%A1%E1%86%A8%E1%84%92%E1%85%A1%E1%84%82%E1%85%B3%E1%86%AB%E1%84%80%E1%85%A9%E1%86%BC%E1%84%80%E1%85%A1%E1%86%AB_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>ytojin52@naver.com</t>
-  </si>
-  <si>
-    <t>이유진</t>
-  </si>
-  <si>
-    <t>Vertigul</t>
-  </si>
-  <si>
-    <t>Vertigul은 영문 세로 쓰기를 위해 개발된 폰트 패밀리 3종이다. Vertigul은 Vertical + Hangul의 합성어로, 세로 쓰기 된 한글과 병행하여 영문을 표기하였을 때에도, 사람들이 어색함을 느끼지 않고 영어를 자연스럽게 세로로 읽고 쓸 수 있는 폰트가 되길 바라는 마음을 담았다. Original, Sans-serif, Pixelized 3종의 패밀리로 원하는 어떤 영문이든 세로로 읽고 써 보세요!</t>
-  </si>
-  <si>
-    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_VERTIGUL_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>그래픽_VERTIGUL_썸네일</t>
-  </si>
-  <si>
-    <t>yoonheesun1097@gmail.com</t>
-  </si>
-  <si>
-    <t>윤희선</t>
-  </si>
-  <si>
-    <t>typing duel</t>
-  </si>
-  <si>
-    <t>살면서 한 번씩 누군가와 싸워본 적이 있을 것이다. 시대가 바뀌며 대면 싸움보단
-온라인에서 싸우는 일이 많아졌고 키보드 배틀과 키보드워리어라는 단어가 생겨났다.
-해서 게임, 직장, 학교 등 살면서 일어나는 다양한 키보드 배틀을 그래픽적으로 해석해
-표현한 그래픽 포스터이다.</t>
-  </si>
-  <si>
-    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_typing+duel_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_typing+duel</t>
-  </si>
-  <si>
-    <t>katie50883@gmail.com</t>
-  </si>
-  <si>
-    <t>이지은</t>
-  </si>
-  <si>
-    <t>sticker</t>
-  </si>
-  <si>
-    <t>유연하게 변화하며 존재하는 스티커에 재미를 느껴, 기존 스티커를 변형하는 시각 실험을 진행했다.</t>
-  </si>
-  <si>
-    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_sticker_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>그래픽_sticker_썸네일</t>
-  </si>
-  <si>
-    <t>hanqomi@gmail.com</t>
-  </si>
-  <si>
-    <t>한고은</t>
-  </si>
-  <si>
-    <t>물의 형에서 자로의 변조</t>
-  </si>
-  <si>
-    <t>물의 형에서 자로의 변조는 물의 자유롭고 유동적인 형태에서 우연히 발견된 글자들을 재구성하고 활용하여 물을 설명하는 다양한 단어를 시각화하는 프로젝트이다. 직접 촬영하여 발견한 글자들은 물의 흐름, 파도, 물방울 등 다양한 상태와 움직임 속에서 포착한 것으로 이러한 물의 자연스러운 표정 속에서 찾아낸
-글자들을 새롭게 조합하고 재구성하는 작업을 통해 다양한 포스터로 제작되었다.이 과정을 통해 물의 우연한 모습과 그 속에 담긴 이야기를 시각적으로 전달하고자 한다.</t>
-  </si>
-  <si>
-    <t>영상 분야로 디테일 이미지를 별도로 제출하지 않습니다.</t>
-  </si>
-  <si>
-    <t>그래픽_물의 형에서 자로의 변조_디테일</t>
-  </si>
-  <si>
-    <t>그래픽_물의 형에서 자로의 변조_썸네일</t>
-  </si>
-  <si>
-    <t>mzmzkim@naver.com</t>
-  </si>
-  <si>
-    <t>김민지</t>
-  </si>
-  <si>
-    <t>분신술doppelganger</t>
-  </si>
-  <si>
-    <t>우리를 알게모르게 둘러싼 복제현상들은 마치 분신술 같다. 제임스별에서 온 복제의 귀재 '카피정'도 놀란 이 지구의 다양한 분신술을 재미있게 탐험하는 시간을 가져보았다.</t>
-  </si>
-  <si>
-    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%87%E1%85%AE%E1%86%AB%E1%84%89%E1%85%B5%E1%86%AB%E1%84%89%E1%85%AE%E1%86%AFdoppelganger_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%87%E1%85%AE%E1%86%AB%E1%84%89%E1%85%B5%E1%86%AB%E1%84%89%E1%85%AE%E1%86%AFdoppelganger_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>akuak0627@naver.com</t>
-  </si>
-  <si>
-    <t>브랜딩</t>
-  </si>
-  <si>
-    <t>임해서</t>
-  </si>
-  <si>
-    <t>파블스</t>
-  </si>
-  <si>
-    <t>파블스는 식용 곤충을 이용한 대체식품을 통해 영양가 있는 식품을 제공하고, 환경 보호에 기여하고자 하는 브랜드이다. 귀여운 캐릭터와 디자인을 통해 소비자들에게 친숙하게 다가가며, 다양한 맛과 포장의 제품을 제공한다. 파블스의 주요 캐릭터인 파비(귀뚜라미), 풍이(장수애), 고니(고소애)는 각기 다른 영양소의 장점을 대표한다. 또한, 파블스의 카카오톡 이모티콘을 통해 소비자들이 캐릭터와 더욱 친밀감을 느낄 수 있도록 하였다.</t>
-  </si>
-  <si>
-    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%91%E1%85%A1%E1%84%87%E1%85%B3%E1%86%AF%E1%84%89%E1%85%B3_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>브랜딩_파블스_썸네일</t>
-  </si>
-  <si>
-    <t>MONTHLY STUDIO</t>
-  </si>
-  <si>
-    <t>다양한 관점이 요구되며 살아가는 세상에서 바라보는 전통은 어떠한지 고민하고
-독창성과 복고풍의 매력을 결합하여, 독특한 레트로 감성을 불어넣어 젊은 세대와 디지털 아트를 즐기는 사람들에게 새로운 매력을 선사한다. 그리고 디지털 시대의 연결성을 강조하며, 전통적인 화투 게임을 현대적인 플랫폼으로 끌어들여 신선한 경험을 제공하고자하는 브랜드이다.</t>
-  </si>
-  <si>
-    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_MONTHLY+STUDIO_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>브랜딩_MONTHLY STUDIO_썸네일</t>
-  </si>
-  <si>
-    <t>doobog@naver.com</t>
-  </si>
-  <si>
-    <t>문지예</t>
-  </si>
-  <si>
-    <t>mizmas</t>
-  </si>
-  <si>
-    <t>미즈마스는 여성 친화적인 섹슈얼 웰니스 브랜드로 '태초의 즐거움'이라는 슬로건을 가지고 여성의 성욕이 사람들에게 자연스럽게 받아들여지는 것을 목표로 한다.
-성에 대한 왜곡된 시선으로 만들어졌거나 부담스러움을 느끼게 하는 기존의 성인 용품 패키지와 반대로 자연으로부터 영감을 받은 색감과 여성의 자연스러운 움직임을 담은 일러스트를 사용하여 건강한 성욕을 표현했다.
-21세기인 지금까지도 존재하는 여성의 성욕을 터부시하는 문화를 개선하는 것을 노력하며 여성의 건강하고 다양한 성적 경험을 이야기하고자 한다.</t>
-  </si>
-  <si>
-    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_mizmas_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>브랜딩_mizmas_썸네일</t>
-  </si>
-  <si>
-    <t>jinideepsea@gmail.com</t>
-  </si>
-  <si>
-    <t>최지수</t>
-  </si>
-  <si>
-    <t>mini(mail)ism</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 어쩐지 클릭하기조차 두려운 정리되지 않은 메일함. 쌓여있는 메일은 약 4g, 대용량 메일은 약 50g까지 이산화탄소를 끊임없이 만들어낸다. 미니메일리즘은 '매일 메일 정리하는 라이프'라는 슬로건과 함께 사용자의 전반적인 생활 안에 녹아들어 규칙적인 습관 형성을 돕는다. 메일을 정리해 생산적이고 정돈된 삶을 즐기며, 탄소 발자국을 줄이고, 결국 미니멀한 삶을 추구하자는 메시지의 라이프 스타일 브랜드이다.</t>
-  </si>
-  <si>
-    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_mini(mail)ism_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>브랜딩_mini(mail)ism_썸네일</t>
-  </si>
-  <si>
-    <t>is458518@gmail.com</t>
-  </si>
-  <si>
-    <t>김채린</t>
-  </si>
-  <si>
-    <t>구강케어 브랜드 4분의1</t>
-  </si>
-  <si>
-    <t>생태계를 지키고 구강건강도 지키는 구강케어 브랜드 "4분의1"이다. 생태계 교란종인 가시상추는 충치와 치주염 예방 효능을 가지고 있어 기능성 치약 개발에 활용될 수 있다. 이를 통해 구강건강과 생태계 교란종 개체 수 조절의 두 마리 토끼를 동시에 잡을 수 있다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/EQgB3YfuJJQ?si=m69bRcRuB3JckN6r</t>
-  </si>
-  <si>
-    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_4%E1%84%87%E1%85%AE%E1%86%AB%E1%84%8B%E1%85%B41_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>브랜딩_4분의1_썸네일</t>
-  </si>
-  <si>
-    <t>dnaue0130@naver.com</t>
-  </si>
-  <si>
-    <t>강다은, 정의연</t>
-  </si>
-  <si>
-    <t>frup</t>
-  </si>
-  <si>
-    <t>frup은 과일껍질로 만든 팩&amp;스크럽 전문 브랜드이다. 풀무원의 주스 브랜드 아임리얼의 자매브랜드로, 아임리얼주스를 착즙한 후 발생한 과일껍질을 활용한다. 
-과육보다 좋은 성분을 가지고 있지만 사용되지 않는 껍질을 업사이클링하여, 성분 좋고 친환경적인 제품을 만드는 것을 목적으로 한다.</t>
-  </si>
-  <si>
-    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_frup_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>브랜딩_frup_썸네일</t>
-  </si>
-  <si>
-    <t>출출나잇</t>
-  </si>
-  <si>
-    <t>출출나잇은 대체육으로 만든 건강한 야식 프로젝트이다. 친근한 캐릭터로 따듯한 심야식당 컨셉의 야식 브랜드이다.</t>
-  </si>
-  <si>
-    <t>브랜딩_출출나잇_디테일</t>
-  </si>
-  <si>
-    <t>브랜딩_출출나잇_썸네일</t>
-  </si>
-  <si>
-    <t>swu.yujin@gmail.com</t>
-  </si>
-  <si>
-    <t>홍유진</t>
-  </si>
-  <si>
-    <t>앙베리</t>
-  </si>
-  <si>
-    <t>경주 농부가 직접 키우고 만든 수제 팥타르트 전문점 앙베리. 
-시그니처 메뉴는 팥앙금 위에 각각 블루베리, 딸기, 체리, 샤인머스캣 네 가지 과일이 올라간 팥앙금 타르트이다. 앙베리는 소인국을 컨셉으로 한 패키지 디자인과 함께 투박하지만 직접 기르고 만든 건강하고 정성 가득한 팥타르트를 선보인다.</t>
-  </si>
-  <si>
-    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%8B%E1%85%A1%E1%86%BC%E1%84%87%E1%85%A6%E1%84%85%E1%85%B5_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>브랜딩_앙베리_썸네일</t>
-  </si>
-  <si>
-    <t>wonjh0325@naver.com</t>
-  </si>
-  <si>
-    <t>원종혜</t>
-  </si>
-  <si>
-    <t>COOKIMOND</t>
-  </si>
-  <si>
-    <t>쿠키몬드는 밀가루 대신 아몬드 가루를 사용해 만든 글루텐프리 쿠키 브랜드이다. 
-'쿠키'와 '아몬드'의 합성어로, 아몬드로 만든 쿠키를 의미한다. 
-전통 방식으로 재배한 고급 아몬드를 사용하여, 정성스럽게 만든 쿠키의 풍부한 맛과 향을 즐길 수 있다.</t>
-  </si>
-  <si>
-    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_COOKIMOND_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>브랜딩_COOKIMOND_썸네일</t>
-  </si>
-  <si>
-    <t>cowls042@naver.com</t>
-  </si>
-  <si>
-    <t>김수진, 윤지수</t>
-  </si>
-  <si>
-    <t>두랑두랑</t>
-  </si>
-  <si>
-    <t>콩 캐릭터를 통해 아이들에게 흥미를 주어 식습관 개선을 도와준다. 메인 상품은 '콩버거, 완두콩 스낵, 파인애플 비타민 주스'이며, 그 외에 패키지 상자, 캐릭터 키링, 스티커, 모션 애니메이션 등을 기획하여 아이들이 즐겁고 건강하게 간식을 먹을 수 있도록 만든 브랜드이다.</t>
-  </si>
-  <si>
-    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%83%E1%85%AE%E1%84%85%E1%85%A1%E1%86%BC%E1%84%83%E1%85%AE%E1%84%85%E1%85%A1%E1%86%BC_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>브랜딩_두랑두랑_썸네일</t>
+    <t>빛이 세상의 모든 틈을 메운다</t>
+  </si>
+  <si>
+    <t>닭장 같은 공동주택, 각종 상업시설, 빡빡한 사람들의 틈바구니 사이에서 노을빛이 침투하는 묘한 순간을 담는다. 해질녘,빛이 그려내는 환상적인 순간을 함께 하는 인간군상을 영상에 담아 혼자인 동시에 함께이기도 한 도시의 생활을 표현했다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/MoDFdaTK1qI?si=3CGDl1MmGKKfuby4</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%87%E1%85%B5%E1%86%BE%E1%84%8B%E1%85%B5+%E1%84%89%E1%85%A6%E1%84%89%E1%85%A1%E1%86%BC%E1%84%8B%E1%85%B4+%E1%84%86%E1%85%A9%E1%84%83%E1%85%B3%E1%86%AB+%E1%84%90%E1%85%B3%E1%86%B7%E1%84%8B%E1%85%B3%E1%86%AF+%E1%84%86%E1%85%A6%E1%84%8B%E1%85%AE%E1%86%AB%E1%84%83%E1%85%A1_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%87%E1%85%B5%E1%86%BE%E1%84%8B%E1%85%B5%E1%84%89%E1%85%A6%E1%84%89%E1%85%A1%E1%86%BC%E1%84%8B%E1%85%B4%E1%84%86%E1%85%A9%E1%84%83%E1%85%B3%E1%86%AB%E1%84%90%E1%85%B3%E1%86%B7%E1%84%8B%E1%85%B3%E1%86%AF%E1%84%86%E1%85%A6%E1%84%8B%E1%85%AE%E1%86%AB%E1%84%83%E1%85%A1_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>jahoda0501@gmail.com</t>
@@ -740,32 +1213,144 @@
     <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%92%E1%85%A5%E1%84%86%E1%85%A5%E1%84%91%E1%85%B5%E1%84%8F%E1%85%A5_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
-    <t>수더분 (SOOTHEBOON)</t>
-  </si>
-  <si>
-    <t>외모에 관심이 높아지는 사춘기 시기 소녀들에게 스킨케어와 멘탈케어 팁을 알려주는 브랜드.
-단순히 외모를 예쁘게 가꾸기 위함이 아닌 건강한 피부를 위한 스킨케어를 통해 피부 트러블, 마음에 있는 트러블까지 케어하며 진정한 내면의 아름다움을 가꾸게 해준다.</t>
-  </si>
-  <si>
-    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%89%E1%85%AE%E1%84%83%E1%85%A5%E1%84%87%E1%85%AE%E1%86%AB(SOOTHEBOON)_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%89%E1%85%AE%E1%84%83%E1%85%A5%E1%84%87%E1%85%AE%E1%86%AB(SOOTHEBOON)_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>김다현 김보민</t>
-  </si>
-  <si>
-    <t>녹진</t>
-  </si>
-  <si>
-    <t>녹진은 한국의 식재료를 사용해 이탈리아 전통 방식으로 만든 페스토를 선보이는 브랜드이다.</t>
-  </si>
-  <si>
-    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%82%E1%85%A9%E1%86%A8%E1%84%8C%E1%85%B5%E1%86%AB_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF_%E1%84%89%E1%85%AE%E1%84%8C%E1%85%A5%E1%86%BC</t>
-  </si>
-  <si>
-    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%82%E1%85%A9%E1%86%A8%E1%84%8C%E1%85%B5%E1%86%AB_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF_%E1%84%89%E1%85%AE%E1%84%8C%E1%85%A5%E1%86%BC</t>
+    <t>joyunsuh020406@naver.com</t>
+  </si>
+  <si>
+    <t>조윤서</t>
+  </si>
+  <si>
+    <t>RETRO VIBE COLLECTION</t>
+  </si>
+  <si>
+    <t>20대 초반 여성을 타깃으로 한 1970년대 미국 레트로를 새롭고 신선하게 재해석한 패션 잡화 브랜드이다.</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_RETRO+VIBE+COLLECTION_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_RETRO+VIBE+COLLECTION+_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>Card Post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">엽서의 다양한 요소를 활용한 콜라주 타이포그래피로, 한국 엽서의 유래와 역사를 알린다. </t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_CARD+POST_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_CARD+POST_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>jinideepsea@gmail.com</t>
+  </si>
+  <si>
+    <t>최지수</t>
+  </si>
+  <si>
+    <t>mini(mail)ism</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 어쩐지 클릭하기조차 두려운 정리되지 않은 메일함. 쌓여있는 메일은 약 4g, 대용량 메일은 약 50g까지 이산화탄소를 끊임없이 만들어낸다. 미니메일리즘은 '매일 메일 정리하는 라이프'라는 슬로건과 함께 사용자의 전반적인 생활 안에 녹아들어 규칙적인 습관 형성을 돕는다. 메일을 정리해 생산적이고 정돈된 삶을 즐기며, 탄소 발자국을 줄이고, 결국 미니멀한 삶을 추구하자는 메시지의 라이프 스타일 브랜드이다.</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_mini(mail)ism_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>브랜딩_mini(mail)ism_썸네일</t>
+  </si>
+  <si>
+    <t>Carly Rae Jepsen - I Really Like You (2024)</t>
+  </si>
+  <si>
+    <t>짝사랑의 순수하고 열정적인 모습에 초점을 맞춘 뮤직비디오로, 주인공의 다양한 자아들이 각기 다른 모습으로 고백을 향해 달려나가는 스토리를 통해 대중의 공감을 이끌고 추억하게 한다.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ycBxLaivWYk?si=FrkKB4nBxBvpwzpJ</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_I+Really+Like+You+MV_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_I+Really+Like+You+MV_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>최하영</t>
+  </si>
+  <si>
+    <t>Diaspora</t>
+  </si>
+  <si>
+    <t>원래 자신이 있던 고향을 떠나 타 지역에서 이동과 정착을 반복하는 디아스포라의 향수를 잘 뭉쳐지지만 외부의 자극에 의해 바로 흩어지고 터져버리는 거품에 빗대어 한국의 전통 민화인 산수화, 문자도, 미인도를 통해 그래픽화를 진행했다.</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_Diaspora_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_Diaspora_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>03chim08@naver.com</t>
+  </si>
+  <si>
+    <t>최혜빈</t>
+  </si>
+  <si>
+    <t>독립프로젝트:무주택자99</t>
+  </si>
+  <si>
+    <t>99년생 무주택 청년들의 독립을 준비하는 과정기를 담은 그래픽 프로젝트로 무주택 청년들이 느끼는 현실의 불안정함과 우울함, 그리고 독립생활의 이상적인 꿈과 희망이 공존하는 이야기. 독립과정의 다양한 모습을 기록하고 무주택자 청년들의 사회문제를 표현하고자 한 아카이빙 프로젝트이기도 하다.</t>
+  </si>
+  <si>
+    <t>그래픽_독립프로젝트무주택자99_디테일</t>
+  </si>
+  <si>
+    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%83%E1%85%A9%E1%86%A8%E1%84%85%E1%85%B5%E1%86%B8%E1%84%91%E1%85%B3%E1%84%85%E1%85%A9%E1%84%8C%E1%85%A6%E1%86%A8%E1%84%90%E1%85%B3%E1%84%86%E1%85%AE%E1%84%8C%E1%85%AE%E1%84%90%E1%85%A2%E1%86%A8%E1%84%8C%E1%85%A199_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99년생 무주택 청년들의 독립을 준비하는 과정기를 담은 프로젝로 무주택 청년들이 느끼는 현실의 우울함과 불안정함이 존재하지만 비슷한 시기의 독립과정에서 모두 한 번쯤은 겪을만한 문제들을 함께 공감하고 위로하며 외로운 독립생활을 극복해나가자는 의지를 담아낸 프로젝트이다. </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/SKbhbOkFI9s?si=0roXrHY77zmLgFJm</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%83%E1%85%A9%E1%86%A8%E1%84%85%E1%85%B5%E1%86%B8%E1%84%91%E1%85%B3%E1%84%85%E1%85%A9%E1%84%8C%E1%85%A6%E1%86%A8%E1%84%90%E1%85%B3%E1%84%86%E1%85%AE%E1%84%8C%E1%85%AE%E1%84%90%E1%85%A2%E1%86%A8%E1%84%8C%E1%85%A199_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF_</t>
+  </si>
+  <si>
+    <t>최희예</t>
+  </si>
+  <si>
+    <t>호텔 고요 Hotel GOYO</t>
+  </si>
+  <si>
+    <t>호텔 고요는 한국 불교를 컨셉으로 한 부티크 호텔 브랜드이다. 복잡한 일상에서 벗어나 휴식이 필요한 이들에게 쉼을 통해 진정한 나를 깨닫는 시간을 선사하고자 한다. 
+여러 사람의 염원이 담긴 사찰 속 돌탑을 그래픽 모티브로 하여 불교적 특성을 담아 평온하면서 고즈넉한 브랜드 아이덴티티를 보여준다.</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%92%E1%85%A9%E1%84%90%E1%85%A6%E1%86%AF+%E1%84%80%E1%85%A9%E1%84%8B%E1%85%AD_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%92%E1%85%A9%E1%84%90%E1%85%A6%E1%86%AF+%E1%84%80%E1%85%A9%E1%84%8B%E1%85%AD_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>hanqomi@gmail.com</t>
+  </si>
+  <si>
+    <t>한고은</t>
+  </si>
+  <si>
+    <t>물의 형에서 자로의 변조</t>
+  </si>
+  <si>
+    <t>물의 형에서 자로의 변조는 물의 자유롭고 유동적인 형태에서 우연히 발견된 글자들을 재구성하고 활용하여 물을 설명하는 다양한 단어를 시각화하는 프로젝트이다. 직접 촬영하여 발견한 글자들은 물의 흐름, 파도, 물방울 등 다양한 상태와 움직임 속에서 포착한 것으로 이러한 물의 자연스러운 표정 속에서 찾아낸
+글자들을 새롭게 조합하고 재구성하는 작업을 통해 다양한 포스터로 제작되었다.이 과정을 통해 물의 우연한 모습과 그 속에 담긴 이야기를 시각적으로 전달하고자 한다.</t>
+  </si>
+  <si>
+    <t>그래픽_물의 형에서 자로의 변조_디테일</t>
+  </si>
+  <si>
+    <t>그래픽_물의 형에서 자로의 변조_썸네일</t>
   </si>
   <si>
     <t>한고은, 최하영</t>
@@ -785,168 +1370,22 @@
     <t>브랜딩_포에_썸네일</t>
   </si>
   <si>
-    <t xml:space="preserve">다이노심포니 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">다이노심포니는 유·아동을 대상으로 한 음악교육놀이 브랜드로 유·아동 아이들이 아기공룡음악대 친구들과 함께 클래식으로 놀면서 클래식과 친해지도록 도와준다. </t>
-  </si>
-  <si>
-    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%83%E1%85%A1%E1%84%8B%E1%85%B5%E1%84%82%E1%85%A9%E1%84%89%E1%85%B5%E1%86%B7%E1%84%91%E1%85%A9%E1%84%82%E1%85%B5_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%83%E1%85%A1%E1%84%8B%E1%85%B5%E1%84%82%E1%85%A9%E1%84%89%E1%85%B5%E1%86%B7%E1%84%91%E1%85%A9%E1%84%82%E1%85%B5__%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>영상</t>
-  </si>
-  <si>
-    <t>박채린, 서예지</t>
-  </si>
-  <si>
-    <t>Pale Blue Dot</t>
-  </si>
-  <si>
-    <t>천문학자 칼 세이건은 지구를 ‘창백한 푸른 점’으로 표현하였다. 이처럼 인간에게는 너무나 거대하게 느껴지는 지구도 멀리 떨어져서 보면 작은 점에 불과하다. 갓 사회를 마주할 청년들에게도 지금의 자신이 처한 상황, 불안한 감정이 너무나 크게 다가오곤 한다. 우리는 이 뮤직비디오를 통하여 청년들에게 ‘지금의 괴로운 시기는 찰나이며, 우주라는 거대한 무대에서 보면 우리의 문제도 아주 작은 먼지와 같다.‘는 메시지를 담아냄으로써 공감과 위로를 전하고자 한다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/FtLj8Qxd1m8?si=k8wxQ14G4l7K_MSg</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Pale+Blue+Dot_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Pale+Blue+Dot_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99년생 무주택 청년들의 독립을 준비하는 과정기를 담은 프로젝로 무주택 청년들이 느끼는 현실의 우울함과 불안정함이 존재하지만 비슷한 시기의 독립과정에서 모두 한 번쯤은 겪을만한 문제들을 함께 공감하고 위로하며 외로운 독립생활을 극복해나가자는 의지를 담아낸 프로젝트이다. </t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/SKbhbOkFI9s?si=0roXrHY77zmLgFJm</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%83%E1%85%A9%E1%86%A8%E1%84%85%E1%85%B5%E1%86%B8%E1%84%91%E1%85%B3%E1%84%85%E1%85%A9%E1%84%8C%E1%85%A6%E1%86%A8%E1%84%90%E1%85%B3%E1%84%86%E1%85%AE%E1%84%8C%E1%85%AE%E1%84%90%E1%85%A2%E1%86%A8%E1%84%8C%E1%85%A199_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF_</t>
-  </si>
-  <si>
-    <t>UXUI</t>
-  </si>
-  <si>
-    <t>숨바꼭질 (AR 동화)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">우리는 모두 같은 사람이고 사랑받을 권리가 있다. 하지만 본인과 다른 모습, 생각, 행동, 그리고 (범죄) 피해 사실을 가지고 있어 이들을 사회적으로 배제 시키는 일들이 아직도 많이 남아 있다. 이들을 돕고 배려하지 않고 무시하기 바쁘다. 오늘날에도 이러한 문제가 우리도 모르는 사이에도 많이 일어나고 있다. 이러한 부분에 심각성을 인지하고 문제를 해결하고자 이 동화를 만들게 되었다. 더해 이는 보기 편한 200 X 200mm 사이즈에 크기와 양장 제본에 형태를 가졌고, 동화 중간중간에 열었다 닫았다 할 수 있는 재밌는 요소가 들어가 있다.
-더해, 동화 우측 하단에 QR 코드를 탑재해 '숨바꼭질-AR 버전'으로도 즐길 수 있다. 이 동화를 통해 이러한 문제들이 멈추고 이들에게 위로와 쉼터가 되기를 기대해 본다.
-</t>
-  </si>
-  <si>
-    <t>UXUI_%E1%84%89%E1%85%AE%E1%86%B7%E1%84%87%E1%85%A1%E1%84%81%E1%85%A9%E1%86%A8%E1%84%8C%E1%85%B5%E1%86%AF_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>UXUI_%E1%84%89%E1%85%AE%E1%86%B7%E1%84%87%E1%85%A1%E1%84%81%E1%85%A9%E1%86%A8%E1%84%8C%E1%85%B5%E1%86%AF_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>반짝이는 워터멜론' 오프닝 타이틀</t>
-  </si>
-  <si>
-    <t>드라마 '반짝이는 워터멜론'은 주인공이 과거로 돌아가서 어린 시절의 부모님을 만나 함께 청춘을 보내며 가족에 대한 사랑과 소중함에 대한 이야기를 그린다. 본 영상은 18세의 아들이 타임슬립을 통해 자신과 동갑인 아버지를 만나 함께 하는 이야기를 담았으며 청춘의 향기를 표현하고자 했다. 색연필로 채색한 듯한 아트워크로 밝고 따듯한 느낌을 나타냈고 드라마 속 주인공들의 감정적인 결합을 강조하여 동화 같은 감성을 전달하고자 했다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/embed/_LRZ5-z6myA?si=xxagqadRBoogyUde
-</t>
-  </si>
-  <si>
-    <t>영상_반짝이는 워터멜론 오프팅 타이틀_디테일</t>
-  </si>
-  <si>
-    <t>영상_반짝이는 워터멜론 오프닝 타이틀_썸네일</t>
-  </si>
-  <si>
-    <t>dlfp6736@hanmail.net</t>
-  </si>
-  <si>
-    <t>이레</t>
-  </si>
-  <si>
-    <t>드라마 '소년심판' 타이틀 시퀀스</t>
-  </si>
-  <si>
-    <t>드라마 '소년심판' 타이틀 시퀀스이다. 드라마의 처음과 끝인 '백성우'의 범죄로 시작하여 다시 법정에 선 모습을 보여준다. 이것은 드라마에서 전달하는 메시지인 '법으로 제대로 처벌 받지 못한 소년범은 다시 범죄를 저지른다'라는 내용을 담고 있다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/MEns05yu39I?si=AHPdjBt1UqXfSrlF</t>
-  </si>
-  <si>
-    <t>영상_소년심판_디테일</t>
-  </si>
-  <si>
-    <t>영상_소년심판_썸네일</t>
-  </si>
-  <si>
-    <t>kkmin99@naver.com</t>
-  </si>
-  <si>
-    <t>김겸민</t>
-  </si>
-  <si>
-    <t>남겨진 날</t>
-  </si>
-  <si>
-    <t>어린 시절, 언제나 함께 여서 행복했지만 시간이 흐르고 남겨진 날들 뿐인  강아지의 시선을 담았다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/-4773fk2BuU?si=3s0zpL1tMNT9qByJ</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%82%E1%85%A1%E1%86%B7%E1%84%80%E1%85%A7%E1%84%8C%E1%85%B5%E1%86%AB+%E1%84%82%E1%85%A1%E1%86%AF_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>영상_남겨진 날_썸네일</t>
-  </si>
-  <si>
-    <t>Human Life</t>
-  </si>
-  <si>
-    <t>인공지능이 발달됨에 따라 인간의 직업이 Ai로 대체되는 것을 걱정하게 되었다. 현재 인공지능의 발전을 막을 수 있는 방법은 없고 그저 보고만 있을 수밖에 없는 것이 현실이다. Human Life는 극 상류층 일부를 제외한 인간의 대부분이 고도로 발달된 인공지능에 의해 일자리가 대체되어 개인이 사회와 단절된 미래를 그린 그래픽 노블이다.</t>
-  </si>
-  <si>
-    <t>영상_Human Life_디테일</t>
-  </si>
-  <si>
-    <t>영상_Human Life_썸네일</t>
-  </si>
-  <si>
-    <t>김수진</t>
-  </si>
-  <si>
-    <t>카지노-Title Sequence</t>
-  </si>
-  <si>
-    <t>3D 공간을 구현해 상징적 요소인‘붉은 꽃’과 싸움 흔적을 통해 인간의 욕망이 초래하는 허무한 결과를 보여줘 ‘권력이나 부귀영화는 오래가지 못한다’는 의미를 나타내는 타이틀 시퀀스이다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/EaGNSwbz3Ek?si=YgmIHR5LbJD3xMK_</t>
-  </si>
-  <si>
-    <t>영상_카지노_Title Sequence_썸네일</t>
-  </si>
-  <si>
-    <t>je0323235179@gmail.com</t>
-  </si>
-  <si>
-    <t>사이코지만 괜찮아 Title Sequence</t>
-  </si>
-  <si>
-    <t>사람은 사람의 외면 때문에 상처 입고 또 사람의 온기로 치유 받는다. 결핍과 상처투성이인 주인공들이 서로의 온기로 치유되고 성장하는 과정을 바라보며 부디 당신이 위안받을 수 있기를.
-‘당신은 당신으로 충분히 괜찮습니다.’
-드라마 ‘사이코지만 괜찮아’의 타이틀 시퀀스. 3명의 주인공들이 가진 내면의 상처와 그들이 만들어 갈 이야기를 상징적 소재로 표현하였다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/ulFDk7mPimY?si=hB4uofzKiH0Gpt4v</t>
-  </si>
-  <si>
-    <t>영상_사이코지만 괜찮아_디테일</t>
-  </si>
-  <si>
-    <t>영상_사이코지만 괜찮아_썸네일</t>
+    <t>hdh02y35@gmail.com</t>
+  </si>
+  <si>
+    <t>홍다희</t>
+  </si>
+  <si>
+    <t>타입모터스</t>
+  </si>
+  <si>
+    <t>이미지 생성형 AI로 다양한 콘셉트의 바이크를 생성하고, 이를 그래픽으로써 텍스트와 함께 배치시켜 AI를 디자인에 접목시키기 위한 시각적 표현 방법에 대해 실험해보고자 한 작품이다. 각 바이크들에게 성능을 배분해 카드와 계급을 한 눈에 알아볼 수 있는 인포메이션 포스터를 제작했다.</t>
+  </si>
+  <si>
+    <t>그래픽_타입모터스_디테일</t>
+  </si>
+  <si>
+    <t>그래픽_타입모터스_썸네일</t>
   </si>
   <si>
     <t>가와사키 브랜드 필름</t>
@@ -962,79 +1401,23 @@
     <t>영상_가와사키 브랜드 필름_썸네일</t>
   </si>
   <si>
-    <t>younjisoo00@gmail.com</t>
-  </si>
-  <si>
-    <t>윤지수</t>
-  </si>
-  <si>
-    <t>Save the earth</t>
-  </si>
-  <si>
-    <t>이 작품은 플라스틱 사용의 위험성을 시각적으로 극대화해 보여주는 게임 형태의 영상물로 제작됐다. 이 작품은 총 세 개의 라운드로 나누어져 있으며, 각 라운드는 플라스틱 오염의 심각성과 그 결과를 단계적으로 보여준다.
-작품의 첫 번째 라운드는 자연 풍경 속에서 시작된다. 플레이어는 마우스 커서를 이용해 쉽게 눈에 띄는 플라스틱 쓰레기들을 찾는다. 플라스틱 병과 같은 일상에서 흔히 볼 수 있는 쓰레기들을 클릭하여 점수를 얻고, 쓰레기 수거함에 불을 전부 키며 첫 번째 라운드는 마무리된다. 이 과정은 우리가 무심코 버리는 플라스틱 쓰레기의 문제를 인식하게 만든다.
-두 번째 라운드는 보다 정교하게 배경 속에 숨겨진 플라스틱 쓰레기를 찾는 과정이다. 모든 쓰레기를 주운 후에도 쓰레기 수거함에 한 개의 불이 비어있어 당황한 플레이어의 커서가 보인다. 플레이어는 배경을 이곳저곳 클릭하다가 과일을 클릭하게 되고 과일에서 미세 플라스틱이 검출된다. 이를 통해 우리가 먹는 음식에도 미세 플라스틱이 포함될 수 있다는 사실을 전달한다.
-세 번째 라운드는 이전 라운드의 경험을 바탕으로 음식 속에 숨겨진 미세 플라스틱을 찾는 과정이다. 플레이어는 다양한 음식을 클릭하며 미세 플라스틱을 검출해낸다. 모든 음식을 클릭한 후에도 여전히 쓰레기 수거함에 한 개의 불이 켜지지 않는다. 마지막으로 플레이어는 화면 속 사람을 클릭하게 되고, 이로써 플라스틱 오염이 결국 인간에게까지 영향을 미친다는 메시지를 전달한다.
-작품은 무심코 버려진 플라스틱 쓰레기들이 식물과 동물을 거쳐 결국 인간에게 돌아온다는 사실을 시청자에게 인식시키며 플라스틱 사용을 줄이고 재활용에 동참해야 한다는 메시지를 전달한다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/oW4KkWGKHFo?si=PbdZRh8a6i7Q_QtT</t>
-  </si>
-  <si>
-    <t>영상_Save the earth_썸네일</t>
-  </si>
-  <si>
-    <t>PUFF, the Homeless</t>
-  </si>
-  <si>
-    <t>&lt;PUFF, the Homeless&gt;는 산호초 백화현상으로 인해 황폐화된 산호초 동네를 배경으로 한 단편 3D 애니메이션이다. 환경 오염으로 인한 캐릭터들의 설정과 유머러스한 대사로 관객인 인간에게 풍자적 메세지를 던진다.
-계속되는 지구 온난화로 인한 해수 온도 상승과 해양 쓰레기들 때문에 백화되어가고 있는 산호초 '코', 백화현상으로 인해 집을 잃은 청복어 '퍼프', 호두크기의 작은 산호초 '월넛', '월넛'의 엉덩이에 구멍을 뚫어 살고 있는 땅콩벌레 '피넛', 이렇게 4마리의 해양생물이 등장한다.
-인스타그램 인플루언서가 되고 싶은 산호초 '코'는 하얗게 변해버린 자신의 머리를 염색하는 릴스를 찍어 인스타에 올린다. 이 영상은 백화 현상 때문에 집이 없어져서 화가 난 청복어 '퍼프'가 평소처럼 릴스 영상을 찍고 있는 '코'의 카메라 앞으로 난입하면서 일어난 비하인드를 보여준다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/USehYHb4eCs?si=1Dah3Rmfx2kHf66i</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_PUFF%2C+the+Homeless_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_PUFF%2C+the+Homeless_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>빛이 세상의 모든 틈을 메운다</t>
-  </si>
-  <si>
-    <t>닭장 같은 공동주택, 각종 상업시설, 빡빡한 사람들의 틈바구니 사이에서 노을빛이 침투하는 묘한 순간을 담는다. 해질녘,빛이 그려내는 환상적인 순간을 함께 하는 인간군상을 영상에 담아 혼자인 동시에 함께이기도 한 도시의 생활을 표현했다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/MoDFdaTK1qI?si=3CGDl1MmGKKfuby4</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%87%E1%85%B5%E1%86%BE%E1%84%8B%E1%85%B5+%E1%84%89%E1%85%A6%E1%84%89%E1%85%A1%E1%86%BC%E1%84%8B%E1%85%B4+%E1%84%86%E1%85%A9%E1%84%83%E1%85%B3%E1%86%AB+%E1%84%90%E1%85%B3%E1%86%B7%E1%84%8B%E1%85%B3%E1%86%AF+%E1%84%86%E1%85%A6%E1%84%8B%E1%85%AE%E1%86%AB%E1%84%83%E1%85%A1_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%87%E1%85%B5%E1%86%BE%E1%84%8B%E1%85%B5%E1%84%89%E1%85%A6%E1%84%89%E1%85%A1%E1%86%BC%E1%84%8B%E1%85%B4%E1%84%86%E1%85%A9%E1%84%83%E1%85%B3%E1%86%AB%E1%84%90%E1%85%B3%E1%86%B7%E1%84%8B%E1%85%B3%E1%86%AF%E1%84%86%E1%85%A6%E1%84%8B%E1%85%AE%E1%86%AB%E1%84%83%E1%85%A1_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>jeonglily@naver.com</t>
-  </si>
-  <si>
-    <t>박다희, 정승연</t>
-  </si>
-  <si>
-    <t>Trip with you</t>
-  </si>
-  <si>
-    <t>‘Trip with you’는 어디에 있든 자신감있는 모습으로 빛날 수 있도록 돕는다는 메시지를 담은 화장품 브랜드 '페리페라'의 프로모션 영상이다. 매일의 모든 순간을 어떤 상황에서도 특별하게 만들어준다는 의미를 담아, 일상을 함께하는 파트너를 여행가방으로 나타내었다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/WtKYjDRgOfM?si=I2ZGGep8jAWme6m3</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Trip+with+you_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Trip+with+you_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+    <t>swu.yujin@gmail.com</t>
+  </si>
+  <si>
+    <t>홍유진</t>
+  </si>
+  <si>
+    <t>앙베리</t>
+  </si>
+  <si>
+    <t>경주 농부가 직접 키우고 만든 수제 팥타르트 전문점 앙베리. 
+시그니처 메뉴는 팥앙금 위에 각각 블루베리, 딸기, 체리, 샤인머스캣 네 가지 과일이 올라간 팥앙금 타르트이다. 앙베리는 소인국을 컨셉으로 한 패키지 디자인과 함께 투박하지만 직접 기르고 만든 건강하고 정성 가득한 팥타르트를 선보인다.</t>
+  </si>
+  <si>
+    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%8B%E1%85%A1%E1%86%BC%E1%84%87%E1%85%A6%E1%84%85%E1%85%B5_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
+  </si>
+  <si>
+    <t>브랜딩_앙베리_썸네일</t>
   </si>
   <si>
     <t>Telephobia</t>
@@ -1052,389 +1435,6 @@
   </si>
   <si>
     <t>영상_Telephobia_썸네일</t>
-  </si>
-  <si>
-    <t>Fairy Tale</t>
-  </si>
-  <si>
-    <t>꿈을 찾아 이루고 싶은 아이의 꿈을 향해 떠나면서 생기는 이야기로 여정을 하며 만나는 사람과의 우정을 그린 뮤직비디오이다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/ewprERxLWTc?si=PUCFF2sAu2rQ1288</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_fairy+tale</t>
-  </si>
-  <si>
-    <t>강다은</t>
-  </si>
-  <si>
-    <t>NO PAIN</t>
-  </si>
-  <si>
-    <t>"No Pain, No Fail 음악 없는 세상
- No Cap, No Cry 이미 죽은 사람 아냐 사실"
-실리카겔의 곡 &lt;NO PAIN&gt;은 삶에는 고통이 따를 수밖에 없지만, 그럼에도 함께 모여 노래하며 살아가자는 메시지를 담고 있다.
-고통이 찾아와도 굴하지 않고 악기를 연주하는 캐릭터 밴드의 스토리를 통해 이러한 곡의 메시지를 표현했다.
-세 캐릭터가 처한 상황은 각각 버거운 삶의 무게(바위), 평안 속에 도사리는 불안(악어), 잠식하는 우울(비)을 상징한다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/_mvlaqbs_jY?si=xYu84BPxfglaumGA</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_NO+PAIN_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>추억쪽지</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/4GMf3cH-Glw?si=NRXJfNJj6aKu-fuU</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%8E%E1%85%AE%E1%84%8B%E1%85%A5%E1%86%A8%E1%84%8D%E1%85%A9%E1%86%A8%E1%84%8C%E1%85%B5_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>Geometry of palace</t>
-  </si>
-  <si>
-    <t>한국의 궁은 복잡하고 화려함과 동시에 기하학적이다. 이러한 궁의 특징과 한국 전통적인 요소를 더해 좀 더 추상적이고 기하학적인 한국 궁에 대한 영상을 만들고자 했다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/kDpS2r0w8oA?si=RGcqzf3conRMxvgt</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_geometry+of+palace_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>영상_Geometry of palace_썸네일</t>
-  </si>
-  <si>
-    <t>Carly Rae Jepsen - I Really Like You (2024)</t>
-  </si>
-  <si>
-    <t>짝사랑의 순수하고 열정적인 모습에 초점을 맞춘 뮤직비디오로, 주인공의 다양한 자아들이 각기 다른 모습으로 고백을 향해 달려나가는 스토리를 통해 대중의 공감을 이끌고 추억하게 한다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/ycBxLaivWYk?si=FrkKB4nBxBvpwzpJ</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_I+Really+Like+You+MV_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_I+Really+Like+You+MV_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>Nepenthes</t>
-  </si>
-  <si>
-    <t>괴식물이 지상을 뒤덮은 아포칼립스 세상 속에서 잃어버린 연인을 찾아 떠도는 주인공의 이야기를 담은 2D 애니메이션. 인간에게 환각을 보여주어 양분을 빼앗는 위험한 괴식물들 사이로 잃어버린 연인을 찾기 위해 헤매는 주인공의 이야기를 그려냈다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/XeSycNPNkJc?si=MBphJk_MTBp-nj_A</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Nepenthes_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>lost and found _ millennium parade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">내가 죽어도 나를 잊지 말라달라는 가사의 마음을 시스투스 꽃의 일생에 의인화하여 감정을 뮤직비디오를 통하여 표현한 것이다. </t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/xa_Nh6_weZM?si=WpMSvaDi-9K5sCa6</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Lost+and+Found_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>원종혜, 정자호</t>
-  </si>
-  <si>
-    <t>공부하는 중입니다만</t>
-  </si>
-  <si>
-    <t>내일 당장 시험을 앞둔 승식이가 부랴부랴 공부를 시작한다..</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/sOyk4LM7xXw?si=ZuEK3V7kt8umrkKd</t>
-  </si>
-  <si>
-    <t>영상_공부하는 중 입니다만_썸네일</t>
-  </si>
-  <si>
-    <t>한국 패션의 변천사</t>
-  </si>
-  <si>
-    <t>1950년대부터 2020년대까지 한국의 패션 변천사를 디지털 잡지 형식으로 보여 주는 프로젝트이다.
-한 시대의 유행이란 단지 옷에 관한 것이 아니라 당대의 시대정서, 사회 현상 등을 반영하는 중요한 흔적이다. 1950년대부터 2020년대까지 10년 단위로 한국 패션의 변화를 분석하여 세대 간의 이해를 돕는다.</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%92%E1%85%A1%E1%86%AB%E1%84%80%E1%85%AE%E1%86%A8%E1%84%91%E1%85%A2%E1%84%89%E1%85%A7%E1%86%AB%E1%84%8B%E1%85%B4%E1%84%87%E1%85%A7%E1%86%AB%E1%84%8E%E1%85%A5%E1%86%AB%E1%84%89%E1%85%A1_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%92%E1%85%A1%E1%86%AB%E1%84%80%E1%85%AE%E1%86%A8%E1%84%91%E1%85%A2%E1%84%89%E1%85%A7%E1%86%AB%E1%84%8B%E1%85%B4%E1%84%87%E1%85%A7%E1%86%AB%E1%84%8E%E1%85%A5%E1%86%AB%E1%84%89%E1%85%A1_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>작품당 1개의 폼 제출 (팀 작업의 경우 대표자가 제출)</t>
-  </si>
-  <si>
-    <t>Let's Dance!</t>
-  </si>
-  <si>
-    <t>유라-춤 뮤직비디오이다. 고민과 괴로운 마음을 날려버리고, 하고 싶은 것을 하자는 내용을 담았다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/ag6KEV53qgc?si=Ys4tbUGiMUUy3ZlU</t>
-  </si>
-  <si>
-    <t>영상_Lets Dance!_썸네일</t>
-  </si>
-  <si>
-    <t>kathleen141731@gmail.com</t>
-  </si>
-  <si>
-    <t>우민하</t>
-  </si>
-  <si>
-    <t>마음미술관</t>
-  </si>
-  <si>
-    <t>전시 관람을 통해 치유적인 경험을 유도하는 애플리케이션이다. 명상의 방법으로 그림 명상을 제안한다. 미술치료 분야에서 미술을 감상하는 것만으로도 치유적인 효과가 있다고 연구되었다. 전시를 가이드에 따라 관람하고, 그 경험을 이미지와 텍스트로 기록하는 것이 치유적인 효과의 원리이다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/tP0k-02XaFk?si=u85391Z9YNZBXU_H</t>
-  </si>
-  <si>
-    <t>UXUI_마음미술관_디테일</t>
-  </si>
-  <si>
-    <t>UXUI_마음미술관_썸네일</t>
-  </si>
-  <si>
-    <t>이 레, 임해서</t>
-  </si>
-  <si>
-    <t>루나리움</t>
-  </si>
-  <si>
-    <t>루나리움은 현대인들이 자신의 감정을 보다 체계적으로 이해하고 관리할 수 있도록 돕는 유용한 어플리케이션이다. 감정 관리에 중점을 둔 루나리움은 사용자가 자신의 감정을 간편하게 기록하고 분석할 수 있는 다양한 기능을 제공한다. 매일의 감정을 선택하고 메모를 추가할 수 있으며, 루니와의 대화를 통해 감정 변화를 시각적으로 분석하고 피드백도 받을 수 있어 사용자가 꾸준히 감정을 기록하도록 도와준다. 직관적이고 감성적인 디자인 요소는 사용자 경험을 극대화하며, AI 친구 루니는 사용자 맞춤형 대화를 이어나가며 마음을 편안하게 해준다.</t>
-  </si>
-  <si>
-    <t>UXUI_%E1%84%85%E1%85%AE%E1%84%82%E1%85%A1%E1%84%85%E1%85%B5%E1%84%8B%E1%85%AE%E1%86%B7_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>UXUI_루나리움_썸네일</t>
-  </si>
-  <si>
-    <t>COSMO</t>
-  </si>
-  <si>
-    <t>&lt;COSMO&gt;는 서브컬처 IP 의상을 일상복으로 손쉽게 찾는 가상 피팅을 활용한 패션 플랫폼이다. 
-간편하게 이미지로 원하는 컨셉과 자신의 패션 스타일이 합쳐진 스타일링을 찾고 가상 피팅을 통해 원하는 추구미를 실현시킬 수 있도록 서포트 해준다.</t>
-  </si>
-  <si>
-    <t>UXUI_COSMO_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>UXUI_COSMO_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>kimna0101@naver.com</t>
-  </si>
-  <si>
-    <t>김나영</t>
-  </si>
-  <si>
-    <t>yumlikethis</t>
-  </si>
-  <si>
-    <t>YumLikeThis는 사용자의 기분과 맛을 반영한 맞춤 메뉴 추천 애플리케이션이다.
-YumLikeThis는 사용자의 기분, 선호하는 맛, 식감 등을 분석하여 최적의 메뉴를 추천해 준다. 정교한 추천 알고리즘을 통해 사용자에게 맞춤형 메뉴 추천 서비스를 제공한다.
-또한, 추천된 메뉴를 제공하는 식당의 위치, 시간, 별점 등의 정보를 상세히 제공하여 손쉽게 예약하거나 포장 주문을 할 수 있도록 돕는다. YumLikeThis를 통해 사용자는 매일 새로운 미식 경험을 즐길 수 있다.</t>
-  </si>
-  <si>
-    <t>UXUI_yumlikethis_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>UXUI_yumlikethis_썸네일</t>
-  </si>
-  <si>
-    <t>BOWLINER</t>
-  </si>
-  <si>
-    <t>BOWLINER은 프리미엄 볼링장 연합 이용자들을 위한 어플리케이션이다. 볼링장 이용 전 이용 현황 점검 및 예약부터, 방문 중 실시간 자세 분석과 Ai 볼링 코치, 방문 후 볼링 커뮤니티 활동 지원까지- 볼링장에서 경험할 수 있는 최적의 환경을 조성하고 서비스를 제공한다. 주변 볼러들을 탐색하여 번개를 개최하거나 동아리에 가입하면서도, 혼자서 볼링을 연습하면서도, 누구나 더 즐겁게, 더 향상된 실력으로 볼링을 즐길 수 있도록.</t>
-  </si>
-  <si>
-    <t>UXUI_BOWLINER_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>UXUI_BOWLINER_썸네일</t>
-  </si>
-  <si>
-    <t>ADIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADIAN은 호신용품을 패션 악세사리로 승화시킨 여성 호신용품 패션 브랜드이다.
-지혜와 전쟁의 여신 아테나의 이미지를 결합하여 두려움이 아닌 지혜와 용기있는 여성으로서 준비한다는 메세지를 담고 있다. 또한 기존의 투박한 이미지의 호신용품을 스타일리시한 패션 아이템으로 재해석하여 일상 속에서도 안전과 패션을 모두 즐길 수 있게끔 한다. 
-이러한 하이브리드 브랜드 ADIAN은 호신용품 브랜드 뿐만 아니라 나아가 여성의 용기와 성장을 지지한다.
-</t>
-  </si>
-  <si>
-    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_ADIAN_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_ADIAN_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>틱 틱 붐!</t>
-  </si>
-  <si>
-    <t>이거 설마... 시한폭탄 아니야?
-틱 틱 낯선 소리를 내는 장난감이 새로 들어온다.
-소리의 정체에 대해 추측하던 장난감들은 그 소리가 시한폭탄의 소리일 것이라 의심하는 지경에 이른다.
-과연 장난감들은 낯선 것을 어떻게 그들만의 방식으로 받아들일까?</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/UZRBmiJCQeg?si=tS74VrmTPufgytk5</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_TicTicBoom_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF-01-01</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_ticticboom_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF-01</t>
-  </si>
-  <si>
-    <t>joyunsuh020406@naver.com</t>
-  </si>
-  <si>
-    <t>조윤서</t>
-  </si>
-  <si>
-    <t>RETRO VIBE COLLECTION</t>
-  </si>
-  <si>
-    <t>20대 초반 여성을 타깃으로 한 1970년대 미국 레트로를 새롭고 신선하게 재해석한 패션 잡화 브랜드이다.</t>
-  </si>
-  <si>
-    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_RETRO+VIBE+COLLECTION_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_RETRO+VIBE+COLLECTION+_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>Card Post</t>
-  </si>
-  <si>
-    <t xml:space="preserve">엽서의 다양한 요소를 활용한 콜라주 타이포그래피로, 한국 엽서의 유래와 역사를 알린다. </t>
-  </si>
-  <si>
-    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_CARD+POST_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_CARD+POST_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>Bacha Coffee Brand Identity</t>
-  </si>
-  <si>
-    <t>바샤커피' 브랜드 아이덴티티를 2D 모션그래픽으로 표현한 영상이다.
-'바샤커피'는 싱가포르 프리미엄 커피 브랜드로 이국적이고 고급스러운 분위기가 특징이다. 바샤커피의 이국적인 분위기는 모로코 마라케시의 화려한 색감과 패턴을 모티브로 디자인되었다. 그래서 매장에 방문했을 때, 마치 다른 세계에 와 있는 듯한 경험을 하게 된다. 또한 매장에 방문하면 다양한 원두 선택지와 서비스도 경험할 수 있다.
-이러한 모로코 마라케시에서 모티브 된 비주얼과 매장 경험이 바샤커피의 브랜드 아이덴티티이다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/CJ7W1BuRMlM?si=OXvgWYnkfnLh8PXE</t>
-  </si>
-  <si>
-    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_Bacha+Coffee+Brand+Identity_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF+%E1%84%8B%E1%85%B5%E1%84%86%E1%85%B5%E1%84%8C%E1%85%B5</t>
-  </si>
-  <si>
-    <t>TYPELIGHT</t>
-  </si>
-  <si>
-    <t>연등은 오래전부터 우리의 소원을 담아왔다. 첫 번째 TYPELIGHT 프로젝트로 우리가 잊지 말아야 할 '대한민국 임시헌장'의 내용을 재구성하였다.</t>
-  </si>
-  <si>
-    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_TYPELIGHT_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_TYPELIGHT_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>최희예</t>
-  </si>
-  <si>
-    <t>호텔 고요 Hotel GOYO</t>
-  </si>
-  <si>
-    <t>호텔 고요는 한국 불교를 컨셉으로 한 부티크 호텔 브랜드이다. 복잡한 일상에서 벗어나 휴식이 필요한 이들에게 쉼을 통해 진정한 나를 깨닫는 시간을 선사하고자 한다. 
-여러 사람의 염원이 담긴 사찰 속 돌탑을 그래픽 모티브로 하여 불교적 특성을 담아 평온하면서 고즈넉한 브랜드 아이덴티티를 보여준다.</t>
-  </si>
-  <si>
-    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%92%E1%85%A9%E1%84%90%E1%85%A6%E1%86%AF+%E1%84%80%E1%85%A9%E1%84%8B%E1%85%AD_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_%E1%84%92%E1%85%A9%E1%84%90%E1%85%A6%E1%86%AF+%E1%84%80%E1%85%A9%E1%84%8B%E1%85%AD_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>유상아 이서연</t>
-  </si>
-  <si>
-    <t>Ballah!</t>
-  </si>
-  <si>
-    <t>Ballah!'는 한국어 단어 '바르다'에서 시작된 브랜드로, '버터를 바르는' 행위를 상징한다. 'Ballah!'는 김치, 들깨, 대파, 오디 등 한국의 다양한 식재료를 활용해 색다른 버터를 제공한다. 각 버터는 그 고유의 맛에 따라 밥, 파스타, 빵, 크래커 등과 함께 즐길 수 있으며, 이를 통한 식탁 위에서의 새로운 경험을 많은 이들과 나누고자 한다.</t>
-  </si>
-  <si>
-    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_Ballah_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF_%E1%84%89%E1%85%AE%E1%84%8C%E1%85%A5%E1%86%BC</t>
-  </si>
-  <si>
-    <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_Ballah_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>유상아 정의연 최희예</t>
-  </si>
-  <si>
-    <t>REFIT</t>
-  </si>
-  <si>
-    <t>맞춤형 의류 리폼 서비스 ‘REFIT‘은 각자의 개성을 중요시하는 시대의 흐름에 따라 맞춤형 의류 리폼 서비스를 제공하여 사용자들에게 새로운 패션 경험을 선사한다. 해당 서비스에서는 가지고 있는 옷을 서비스가 제공하는 포맷대로 리폼할 수도, 사용자의 니즈에 맞게 맞춤형으로 리폼할 수도 있다. ‘REFIT’은 사용자들이 의류를 버리지 않고 업사이클링 할 수 있도록 도와, 최종적으로 의류 폐기물을 절감하는데 기여할 수 있을 것이라고 기대한다.</t>
-  </si>
-  <si>
-    <t>UXUI_REFIT_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>UXUI_REFIT_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>이서연</t>
-  </si>
-  <si>
-    <t>History Cantabile</t>
-  </si>
-  <si>
-    <t>조표, 각각의 음과 박자를 가진 음표, 반복 기호, 연주 기법을 제시하는 텍스트 등 구성 요소들이 오선지에 켜켜이 쌓여 악보가 되고, 음악이 된다. 이처럼 어떤 나라의 역사도 사건이 일어나고, 그걸 근간으로 둔 어떤 체계가 자리잡고, 다시 그것들을 근간으로 삼아 켜켜이 쌓여간다. 한국의 근간이 되었거나 근간이 될지도 모르는 지난 몇 개의 사건들을 악보의 구성요소를 켜켜이 쌓아 ‘노래하듯이‘ 제시한다. 우리는 어떤 노래를 부르고 있나.</t>
-  </si>
-  <si>
-    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_History+Cantabile_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_History+Cantabile_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>최하영</t>
-  </si>
-  <si>
-    <t>Diaspora</t>
-  </si>
-  <si>
-    <t>원래 자신이 있던 고향을 떠나 타 지역에서 이동과 정착을 반복하는 디아스포라의 향수를 잘 뭉쳐지지만 외부의 자극에 의해 바로 흩어지고 터져버리는 거품에 빗대어 한국의 전통 민화인 산수화, 문자도, 미인도를 통해 그래픽화를 진행했다.</t>
-  </si>
-  <si>
-    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_Diaspora_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
-  </si>
-  <si>
-    <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_Diaspora_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>Carly Rae Jepsen - I Really Like You (2024 MV)</t>
@@ -1551,14 +1551,8 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1566,11 +1560,17 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="2">
       <c r="A2" s="5">
-        <v>45478.70120766204</v>
+        <v>45483.68189813657</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -1883,10 +1883,10 @@
       <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="K2" s="4"/>
       <c r="L2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1897,16 +1897,16 @@
     </row>
     <row r="3">
       <c r="A3" s="5">
-        <v>45481.84283987268</v>
+        <v>45483.06046545139</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>23</v>
@@ -1921,14 +1921,14 @@
         <v>18</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -1937,38 +1937,38 @@
     </row>
     <row r="4">
       <c r="A4" s="5">
-        <v>45482.3449266088</v>
+        <v>45483.66850667824</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="5">
       <c r="A5" s="5">
-        <v>45482.62712614583</v>
+        <v>45483.70411417824</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>36</v>
@@ -2003,21 +2003,21 @@
       <c r="I5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="3" t="s">
+      <c r="J5" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="K5" s="4"/>
       <c r="L5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="4"/>
+      <c r="M5" s="3"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" s="5">
-        <v>45482.93384965278</v>
+        <v>45483.68916679398</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>40</v>
@@ -2026,7 +2026,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>41</v>
@@ -2041,7 +2041,7 @@
         <v>18</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="3" t="s">
@@ -2050,17 +2050,17 @@
       <c r="L6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="5">
-        <v>45482.93456662037</v>
+        <v>45483.69236240741</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -2069,26 +2069,28 @@
         <v>14</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -2097,78 +2099,76 @@
     </row>
     <row r="8">
       <c r="A8" s="5">
-        <v>45482.94918239584</v>
+        <v>45482.93384965278</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M8" s="4"/>
+      <c r="M8" s="3"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="5">
-        <v>45482.951767604165</v>
+        <v>45483.81360550926</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -2177,38 +2177,38 @@
     </row>
     <row r="10">
       <c r="A10" s="5">
-        <v>45482.96532185185</v>
+        <v>45482.93456662037</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="11">
       <c r="A11" s="5">
-        <v>45482.96540894676</v>
+        <v>45483.69962803241</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -2229,13 +2229,13 @@
         <v>14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>18</v>
@@ -2243,12 +2243,12 @@
       <c r="I11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="J11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="4"/>
       <c r="L11" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -2257,10 +2257,10 @@
     </row>
     <row r="12">
       <c r="A12" s="5">
-        <v>45482.98076421296</v>
+        <v>45482.95580094907</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
@@ -2269,66 +2269,68 @@
         <v>14</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="8"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
     <row r="13">
       <c r="A13" s="5">
-        <v>45483.09886990741</v>
+        <v>45484.77358869213</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -2337,38 +2339,38 @@
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <v>45483.29734204861</v>
+        <v>45482.94918239584</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -2377,10 +2379,10 @@
     </row>
     <row r="15">
       <c r="A15" s="5">
-        <v>45483.38515827546</v>
+        <v>45482.90850524306</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -2389,66 +2391,68 @@
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="K15" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="8"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" s="5">
-        <v>45483.41871167824</v>
+        <v>45483.65972041667</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -2457,38 +2461,38 @@
     </row>
     <row r="17">
       <c r="A17" s="5">
-        <v>45483.64825532408</v>
+        <v>45483.29734204861</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -2497,78 +2501,78 @@
     </row>
     <row r="18">
       <c r="A18" s="5">
-        <v>45483.66850667824</v>
+        <v>45483.915772673616</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="M18" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="M18" s="3"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
     </row>
     <row r="19">
       <c r="A19" s="5">
-        <v>45483.68916679398</v>
+        <v>45483.703790914355</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -2577,10 +2581,10 @@
     </row>
     <row r="20">
       <c r="A20" s="5">
-        <v>45483.698849953704</v>
+        <v>45483.720720474535</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>13</v>
@@ -2589,26 +2593,26 @@
         <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -2617,38 +2621,38 @@
     </row>
     <row r="21">
       <c r="A21" s="5">
-        <v>45483.703790914355</v>
+        <v>45483.93423116898</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -2657,38 +2661,38 @@
     </row>
     <row r="22">
       <c r="A22" s="5">
-        <v>45483.735019837965</v>
+        <v>45483.95687274306</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -2697,38 +2701,38 @@
     </row>
     <row r="23">
       <c r="A23" s="5">
-        <v>45483.79103490741</v>
+        <v>45482.951767604165</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -2737,10 +2741,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5">
-        <v>45483.90874677083</v>
+        <v>45482.998770949074</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>13</v>
@@ -2749,66 +2753,66 @@
         <v>14</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="3" t="s">
-        <v>152</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K24" s="4"/>
       <c r="L24" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
+        <v>142</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
     </row>
     <row r="25">
       <c r="A25" s="5">
-        <v>45483.920652939814</v>
+        <v>45483.705789189815</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="3" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -2817,38 +2821,38 @@
     </row>
     <row r="26">
       <c r="A26" s="5">
-        <v>45483.93423116898</v>
+        <v>45483.38515827546</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="J26" s="4"/>
       <c r="K26" s="3" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -2857,38 +2861,40 @@
     </row>
     <row r="27">
       <c r="A27" s="5">
-        <v>45482.473479374996</v>
+        <v>45483.36342819444</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="K27" s="3" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -2897,25 +2903,25 @@
     </row>
     <row r="28">
       <c r="A28" s="5">
-        <v>45482.97205684028</v>
+        <v>45482.99329047454</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>18</v>
@@ -2923,12 +2929,14 @@
       <c r="I28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="4"/>
+      <c r="J28" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="K28" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -2940,35 +2948,35 @@
         <v>45482.98327019676</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="G29" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -2977,38 +2985,38 @@
     </row>
     <row r="30">
       <c r="A30" s="5">
-        <v>45482.98677101852</v>
+        <v>45482.9905725</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="3" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -3017,40 +3025,40 @@
     </row>
     <row r="31">
       <c r="A31" s="5">
-        <v>45482.99329047454</v>
+        <v>45483.66248461806</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>194</v>
+        <v>26</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -3059,38 +3067,38 @@
     </row>
     <row r="32">
       <c r="A32" s="5">
-        <v>45483.06046545139</v>
+        <v>45481.84283987268</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="3" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -3099,38 +3107,40 @@
     </row>
     <row r="33">
       <c r="A33" s="5">
-        <v>45483.09800518518</v>
+        <v>45477.59296954861</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="K33" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -3139,38 +3149,38 @@
     </row>
     <row r="34">
       <c r="A34" s="5">
-        <v>45483.66984074074</v>
+        <v>45482.96532185185</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="3" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -3178,79 +3188,78 @@
       <c r="P34" s="4"/>
     </row>
     <row r="35">
-      <c r="A35" s="5">
-        <v>45483.702257083336</v>
+      <c r="A35" s="10">
+        <v>45484.06275363426</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>204</v>
+      </c>
       <c r="K35" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
     </row>
     <row r="36">
       <c r="A36" s="5">
-        <v>45483.705789189815</v>
+        <v>45482.96540894676</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="3" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -3259,38 +3268,38 @@
     </row>
     <row r="37">
       <c r="A37" s="5">
-        <v>45483.70796046296</v>
+        <v>45482.97205684028</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="3" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -3299,36 +3308,38 @@
     </row>
     <row r="38">
       <c r="A38" s="5">
-        <v>45483.81360550926</v>
+        <v>45478.70120766204</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="4"/>
+        <v>189</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D38" s="3" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -3337,65 +3348,67 @@
     </row>
     <row r="39">
       <c r="A39" s="5">
-        <v>45483.915772673616</v>
+        <v>45481.94270072917</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>58</v>
+        <v>222</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>226</v>
+      </c>
       <c r="K39" s="3" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="M39" s="3"/>
+        <v>228</v>
+      </c>
+      <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="5">
-        <v>45483.91921710648</v>
+      <c r="A40" s="10">
+        <v>45484.345385810186</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>242</v>
+        <v>229</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>230</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>18</v>
@@ -3403,52 +3416,49 @@
       <c r="I40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J40" s="4"/>
-      <c r="K40" s="3" t="s">
-        <v>243</v>
-      </c>
+      <c r="J40" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="K40" s="4"/>
       <c r="L40" s="3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
     </row>
     <row r="41">
       <c r="A41" s="5">
-        <v>45483.95687274306</v>
+        <v>45483.702257083336</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J41" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="J41" s="4"/>
       <c r="K41" s="3" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -3457,25 +3467,25 @@
     </row>
     <row r="42">
       <c r="A42" s="5">
-        <v>45477.59296954861</v>
+        <v>45483.710486157404</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>18</v>
@@ -3483,14 +3493,12 @@
       <c r="I42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J42" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>254</v>
-      </c>
+      <c r="J42" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="K42" s="4"/>
       <c r="L42" s="3" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -3498,106 +3506,86 @@
       <c r="P42" s="4"/>
     </row>
     <row r="43">
-      <c r="A43" s="5">
-        <v>45482.27508898148</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
       <c r="D43" s="3" t="s">
-        <v>249</v>
+        <v>22</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="M43" s="4"/>
+        <v>245</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M43" s="3"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
     </row>
     <row r="44">
-      <c r="A44" s="5">
-        <v>45482.62867666667</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="3" t="s">
-        <v>259</v>
+        <v>94</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>35</v>
+        <v>249</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="3" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
+        <v>253</v>
+      </c>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
     </row>
     <row r="45">
       <c r="A45" s="5">
-        <v>45482.90850524306</v>
+        <v>45483.15944966435</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>52</v>
+        <v>254</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>264</v>
+        <v>255</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>18</v>
@@ -3605,56 +3593,52 @@
       <c r="I45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J45" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>267</v>
-      </c>
+      <c r="J45" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="K45" s="4"/>
       <c r="L45" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="M45" s="3"/>
-      <c r="N45" s="10"/>
+        <v>259</v>
+      </c>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
     </row>
     <row r="46">
       <c r="A46" s="5">
-        <v>45482.94777834491</v>
+        <v>45483.79103490741</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>273</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J46" s="4"/>
       <c r="K46" s="3" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
@@ -3663,25 +3647,25 @@
     </row>
     <row r="47">
       <c r="A47" s="5">
-        <v>45482.95580094907</v>
+        <v>45483.66527428241</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>18</v>
@@ -3689,54 +3673,52 @@
       <c r="I47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J47" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>281</v>
-      </c>
+      <c r="J47" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="K47" s="3"/>
       <c r="L47" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="M47" s="3"/>
-      <c r="N47" s="10"/>
+        <v>269</v>
+      </c>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
     </row>
     <row r="48">
       <c r="A48" s="5">
-        <v>45482.9905725</v>
+        <v>45482.49447282407</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>178</v>
+        <v>270</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>249</v>
+        <v>94</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>179</v>
+        <v>271</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="3" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
@@ -3745,202 +3727,190 @@
     </row>
     <row r="49">
       <c r="A49" s="5">
-        <v>45482.998770949074</v>
+        <v>45482.94777834491</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>219</v>
+        <v>276</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="K49" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>281</v>
+      </c>
       <c r="L49" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
+        <v>282</v>
+      </c>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
     </row>
     <row r="50">
-      <c r="A50" s="5">
-        <v>45483.14124835648</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
       <c r="D50" s="3" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>149</v>
+        <v>283</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>295</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
       <c r="K50" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
+        <v>286</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
     </row>
     <row r="51">
       <c r="A51" s="5">
-        <v>45483.153701435185</v>
+        <v>45483.735019837965</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="K51" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="J51" s="4"/>
+      <c r="K51" s="3" t="s">
+        <v>292</v>
+      </c>
       <c r="L51" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
+        <v>293</v>
+      </c>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
     </row>
     <row r="52">
       <c r="A52" s="5">
-        <v>45483.15944966435</v>
+        <v>45483.7318767824</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>249</v>
+        <v>94</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="K52" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="J52" s="4"/>
+      <c r="K52" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="L52" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="M52" s="4"/>
+        <v>297</v>
+      </c>
+      <c r="M52" s="3"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
     </row>
     <row r="53">
       <c r="A53" s="5">
-        <v>45483.36342819444</v>
+        <v>45482.62712614583</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>94</v>
+        <v>298</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>95</v>
+        <v>299</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>310</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J53" s="4"/>
       <c r="K53" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
@@ -3949,82 +3919,78 @@
     </row>
     <row r="54">
       <c r="A54" s="5">
-        <v>45483.64586524306</v>
+        <v>45482.62867666667</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>106</v>
+        <v>298</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>249</v>
+        <v>94</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>107</v>
+        <v>299</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>315</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J54" s="4"/>
       <c r="K54" s="3" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
+        <v>307</v>
+      </c>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
     </row>
     <row r="55">
       <c r="A55" s="5">
-        <v>45483.66248461806</v>
+        <v>45483.41871167824</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>322</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J55" s="4"/>
       <c r="K55" s="3" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
@@ -4033,40 +3999,38 @@
     </row>
     <row r="56">
       <c r="A56" s="5">
-        <v>45483.66513658565</v>
+        <v>45483.41264692129</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>207</v>
+        <v>308</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>249</v>
+        <v>94</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>208</v>
+        <v>309</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>327</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J56" s="4"/>
       <c r="K56" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
@@ -4075,38 +4039,38 @@
     </row>
     <row r="57">
       <c r="A57" s="5">
-        <v>45483.66527428241</v>
+        <v>45483.698849953704</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>142</v>
+        <v>318</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="K57" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="J57" s="4"/>
+      <c r="K57" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="L57" s="3" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
@@ -4115,38 +4079,38 @@
     </row>
     <row r="58">
       <c r="A58" s="5">
-        <v>45483.68189813657</v>
+        <v>45483.6884422338</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>197</v>
+        <v>318</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="K58" s="4"/>
+        <v>325</v>
+      </c>
+      <c r="K58" s="3"/>
       <c r="L58" s="3" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
@@ -4155,38 +4119,38 @@
     </row>
     <row r="59">
       <c r="A59" s="5">
-        <v>45483.6884422338</v>
+        <v>45483.90874677083</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>124</v>
+        <v>327</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>125</v>
+        <v>328</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="J59" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="K59" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="J59" s="4"/>
+      <c r="K59" s="3" t="s">
+        <v>331</v>
+      </c>
       <c r="L59" s="3" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
@@ -4195,67 +4159,67 @@
     </row>
     <row r="60">
       <c r="A60" s="5">
-        <v>45483.69236240741</v>
+        <v>45483.14124835648</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>118</v>
+        <v>333</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>119</v>
+        <v>328</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
+        <v>338</v>
+      </c>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
     </row>
     <row r="61">
       <c r="A61" s="5">
-        <v>45483.697355729164</v>
+        <v>45483.9014703125</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>184</v>
+        <v>327</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>13</v>
+        <v>339</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>185</v>
+        <v>328</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>18</v>
@@ -4263,14 +4227,12 @@
       <c r="I61" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J61" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>350</v>
-      </c>
+      <c r="J61" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="K61" s="4"/>
       <c r="L61" s="3" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
@@ -4278,119 +4240,116 @@
       <c r="P61" s="4"/>
     </row>
     <row r="62">
-      <c r="A62" s="5">
-        <v>45483.69962803241</v>
+      <c r="A62" s="10">
+        <v>45484.02054478009</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>46</v>
+        <v>333</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>249</v>
+        <v>22</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>47</v>
+        <v>328</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="K62" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="J62" s="4"/>
+      <c r="K62" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="L62" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
+        <v>347</v>
+      </c>
+      <c r="M62" s="3"/>
     </row>
     <row r="63">
       <c r="A63" s="5">
-        <v>45483.70411417824</v>
+        <v>45483.09886990741</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>112</v>
+        <v>348</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>113</v>
+        <v>349</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="K63" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="J63" s="4"/>
+      <c r="K63" s="3" t="s">
+        <v>352</v>
+      </c>
       <c r="L63" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="M63" s="3"/>
+        <v>353</v>
+      </c>
+      <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
     </row>
     <row r="64" ht="27.0" customHeight="1">
       <c r="A64" s="5">
-        <v>45483.710486157404</v>
+        <v>45483.09800518518</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>213</v>
+        <v>348</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>249</v>
+        <v>22</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="K64" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="J64" s="4"/>
+      <c r="K64" s="3" t="s">
+        <v>356</v>
+      </c>
       <c r="L64" s="3" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
@@ -4399,38 +4358,38 @@
     </row>
     <row r="65">
       <c r="A65" s="5">
-        <v>45483.720720474535</v>
+        <v>45482.473479374996</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>249</v>
+        <v>22</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>131</v>
+        <v>358</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J65" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="J65" s="4"/>
       <c r="K65" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
@@ -4439,38 +4398,38 @@
     </row>
     <row r="66">
       <c r="A66" s="5">
-        <v>45483.9014703125</v>
+        <v>45483.64825532408</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>148</v>
+        <v>363</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>369</v>
+        <v>13</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>149</v>
+        <v>364</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="K66" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="J66" s="4"/>
+      <c r="K66" s="3" t="s">
+        <v>367</v>
+      </c>
       <c r="L66" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
@@ -4479,40 +4438,40 @@
     </row>
     <row r="67">
       <c r="A67" s="5">
-        <v>45481.94270072917</v>
+        <v>45483.64586524306</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
@@ -4521,38 +4480,38 @@
     </row>
     <row r="68">
       <c r="A68" s="5">
-        <v>45482.49447282407</v>
+        <v>45483.70796046296</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>167</v>
+        <v>374</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>259</v>
+        <v>22</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J68" s="4"/>
       <c r="K68" s="3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
@@ -4560,244 +4519,237 @@
       <c r="P68" s="4"/>
     </row>
     <row r="69">
-      <c r="A69" s="5">
-        <v>45483.41264692129</v>
+      <c r="A69" s="10">
+        <v>45484.07147298611</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>259</v>
+        <v>22</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>101</v>
+        <v>381</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J69" s="4"/>
       <c r="K69" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="M69" s="4"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="10">
+        <v>45484.07277572917</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J70" s="4"/>
+      <c r="K70" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="L69" s="3" t="s">
+      <c r="L70" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="5">
-        <v>45483.65972041667</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>395</v>
-      </c>
       <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
     </row>
     <row r="71">
       <c r="A71" s="5">
-        <v>45483.7318767824</v>
+        <v>45482.98677101852</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>136</v>
+        <v>390</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>259</v>
+        <v>22</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>137</v>
+        <v>391</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="J71" s="4"/>
       <c r="K71" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="M71" s="3"/>
+        <v>395</v>
+      </c>
+      <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
     </row>
     <row r="72">
-      <c r="A72" s="11">
-        <v>45484.02054478009</v>
+      <c r="A72" s="5">
+        <v>45483.697355729164</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>292</v>
+        <v>390</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>149</v>
+        <v>391</v>
       </c>
       <c r="F72" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="L72" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J72" s="4"/>
-      <c r="K72" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="L72" s="3" t="s">
+      <c r="G73" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="11">
-        <v>45484.06275363426</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F73" s="3" t="s">
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="L73" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="H73" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J73" s="9" t="s">
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="5">
+        <v>45482.3449266088</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="K73" s="3" t="s">
+      <c r="C74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="L73" s="3" t="s">
+      <c r="F74" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="M73" s="4"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="11">
-        <v>45484.07147298611</v>
-      </c>
-      <c r="B74" s="3" t="s">
+      <c r="G74" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>412</v>
-      </c>
       <c r="H74" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
     </row>
     <row r="75">
-      <c r="A75" s="11">
-        <v>45484.07277572917</v>
+      <c r="A75" s="5">
+        <v>45482.27508898148</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>13</v>
@@ -4806,13 +4758,13 @@
         <v>14</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>18</v>
@@ -4820,73 +4772,69 @@
       <c r="I75" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J75" s="4"/>
-      <c r="K75" s="3" t="s">
+      <c r="J75" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="K75" s="3"/>
+      <c r="L75" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="G76" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="L75" s="3" t="s">
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="M75" s="4"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="11">
-        <v>45484.345385810186</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="F76" s="3" t="s">
+      <c r="L76" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="G76" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="J76" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="K76" s="4"/>
-      <c r="L76" s="3" t="s">
-        <v>422</v>
-      </c>
       <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
     </row>
     <row r="77">
       <c r="A77" s="5">
-        <v>45484.77358869213</v>
+        <v>45483.920652939814</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>276</v>
+        <v>420</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>277</v>
+        <v>421</v>
       </c>
       <c r="F77" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>424</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>18</v>
@@ -4896,10 +4844,10 @@
       </c>
       <c r="J77" s="4"/>
       <c r="K77" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="L77" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>426</v>
       </c>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
@@ -4907,29 +4855,39 @@
       <c r="P77" s="4"/>
     </row>
     <row r="78">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
+      <c r="A78" s="5">
+        <v>45483.91921710648</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D78" s="3" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="E78" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="G78" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
+      <c r="H78" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="J78" s="4"/>
       <c r="K78" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="L78" s="3" t="s">
         <v>430</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>431</v>
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
@@ -4937,11 +4895,17 @@
       <c r="P78" s="4"/>
     </row>
     <row r="79">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
+      <c r="A79" s="5">
+        <v>45482.98076421296</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D79" s="3" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>432</v>
@@ -4949,11 +4913,15 @@
       <c r="F79" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="G79" s="6" t="s">
+      <c r="G79" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
+      <c r="H79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="J79" s="4"/>
       <c r="K79" s="3" t="s">
         <v>435</v>
@@ -4961,47 +4929,63 @@
       <c r="L79" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="M79" s="3"/>
+      <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
     </row>
     <row r="80">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
+      <c r="A80" s="5">
+        <v>45483.153701435185</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D80" s="3" t="s">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="E80" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="G80" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="H80" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J80" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="3" t="s">
+      <c r="K80" s="4"/>
+      <c r="L80" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="L80" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
     </row>
     <row r="81">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
+      <c r="A81" s="5">
+        <v>45483.66984074074</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D81" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>442</v>
@@ -5012,13 +4996,17 @@
       <c r="G81" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
+      <c r="H81" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="J81" s="4"/>
       <c r="K81" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="L81" s="12" t="s">
+      <c r="L81" s="3" t="s">
         <v>446</v>
       </c>
       <c r="M81" s="4"/>
@@ -5027,28 +5015,40 @@
       <c r="P81" s="4"/>
     </row>
     <row r="82">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
+      <c r="A82" s="5">
+        <v>45483.66513658565</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D82" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E82" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="G82" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="H82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J82" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
       <c r="K82" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="L82" s="12" t="s">
+      <c r="L82" s="3" t="s">
         <v>451</v>
       </c>
       <c r="M82" s="4"/>
@@ -6776,32 +6776,32 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="J31"/>
-    <hyperlink r:id="rId2" ref="J42"/>
-    <hyperlink r:id="rId3" ref="J43"/>
-    <hyperlink r:id="rId4" ref="J45"/>
-    <hyperlink r:id="rId5" ref="J46"/>
-    <hyperlink r:id="rId6" ref="J47"/>
-    <hyperlink r:id="rId7" ref="J49"/>
-    <hyperlink r:id="rId8" ref="J50"/>
-    <hyperlink r:id="rId9" ref="J51"/>
-    <hyperlink r:id="rId10" ref="J52"/>
-    <hyperlink r:id="rId11" ref="J53"/>
-    <hyperlink r:id="rId12" ref="J54"/>
-    <hyperlink r:id="rId13" ref="J55"/>
-    <hyperlink r:id="rId14" ref="J56"/>
-    <hyperlink r:id="rId15" ref="J57"/>
-    <hyperlink r:id="rId16" ref="J58"/>
-    <hyperlink r:id="rId17" ref="J59"/>
-    <hyperlink r:id="rId18" ref="J60"/>
-    <hyperlink r:id="rId19" ref="J61"/>
-    <hyperlink r:id="rId20" ref="J62"/>
-    <hyperlink r:id="rId21" ref="J63"/>
-    <hyperlink r:id="rId22" ref="J64"/>
-    <hyperlink r:id="rId23" ref="J66"/>
-    <hyperlink r:id="rId24" ref="J67"/>
-    <hyperlink r:id="rId25" ref="J73"/>
-    <hyperlink r:id="rId26" ref="J76"/>
+    <hyperlink r:id="rId1" ref="J2"/>
+    <hyperlink r:id="rId2" ref="J5"/>
+    <hyperlink r:id="rId3" ref="J7"/>
+    <hyperlink r:id="rId4" ref="J11"/>
+    <hyperlink r:id="rId5" ref="J12"/>
+    <hyperlink r:id="rId6" ref="J15"/>
+    <hyperlink r:id="rId7" ref="J24"/>
+    <hyperlink r:id="rId8" ref="J27"/>
+    <hyperlink r:id="rId9" ref="J28"/>
+    <hyperlink r:id="rId10" ref="J31"/>
+    <hyperlink r:id="rId11" ref="J33"/>
+    <hyperlink r:id="rId12" ref="J35"/>
+    <hyperlink r:id="rId13" ref="J39"/>
+    <hyperlink r:id="rId14" ref="J40"/>
+    <hyperlink r:id="rId15" ref="J42"/>
+    <hyperlink r:id="rId16" ref="J45"/>
+    <hyperlink r:id="rId17" ref="J47"/>
+    <hyperlink r:id="rId18" ref="J49"/>
+    <hyperlink r:id="rId19" ref="J58"/>
+    <hyperlink r:id="rId20" ref="J60"/>
+    <hyperlink r:id="rId21" ref="J61"/>
+    <hyperlink r:id="rId22" ref="J67"/>
+    <hyperlink r:id="rId23" ref="J72"/>
+    <hyperlink r:id="rId24" ref="J75"/>
+    <hyperlink r:id="rId25" ref="J80"/>
+    <hyperlink r:id="rId26" ref="J82"/>
   </hyperlinks>
   <drawing r:id="rId27"/>
 </worksheet>
@@ -6822,16 +6822,16 @@
         <v>45482.79511872685</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>184</v>
+        <v>390</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>391</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>452</v>
@@ -6843,9 +6843,9 @@
         <v>18</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>454</v>
       </c>
       <c r="K1" s="4"/>
@@ -6860,19 +6860,19 @@
         <v>45482.8288325</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>318</v>
+        <v>176</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>319</v>
+        <v>177</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>320</v>
+        <v>178</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>455</v>
@@ -6881,9 +6881,9 @@
         <v>18</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>456</v>
       </c>
       <c r="K2" s="4"/>
@@ -6898,19 +6898,19 @@
         <v>45482.97025172454</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>184</v>
+        <v>390</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>185</v>
+        <v>391</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>186</v>
+        <v>392</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>457</v>
@@ -6919,7 +6919,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="3" t="s">
@@ -6936,19 +6936,19 @@
         <v>45482.98098891204</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>459</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>460</v>
@@ -6957,7 +6957,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="3" t="s">
@@ -6974,16 +6974,16 @@
         <v>45483.67178862268</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>462</v>
@@ -6995,16 +6995,16 @@
         <v>18</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>464</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>407</v>
+        <v>205</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>408</v>
+        <v>206</v>
       </c>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>

--- a/public/data/project_list.xlsx
+++ b/public/data/project_list.xlsx
@@ -6,13 +6,15 @@
     <sheet state="visible" name="설문지 응답 시트1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="시트1" sheetId="2" r:id="rId5"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'설문지 응답 시트1'!$A$1:$P$178</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="467">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -414,7 +416,7 @@
     <t>%E1%84%80%E1%85%B3%E1%84%85%E1%85%A2%E1%84%91%E1%85%B5%E1%86%A8_%E1%84%87%E1%85%AE%E1%86%AB%E1%84%89%E1%85%B5%E1%86%AB%E1%84%89%E1%85%AE%E1%86%AFdoppelganger_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
-    <t xml:space="preserve">다이노심포니 </t>
+    <t>다이노심포니</t>
   </si>
   <si>
     <t xml:space="preserve">다이노심포니는 유·아동을 대상으로 한 음악교육놀이 브랜드로 유·아동 아이들이 아기공룡음악대 친구들과 함께 클래식으로 놀면서 클래식과 친해지도록 도와준다. </t>
@@ -454,6 +456,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/embed/EaGNSwbz3Ek?si=YgmIHR5LbJD3xMK_</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_%E1%84%8F%E1%85%A1%E1%84%8C%E1%85%B5%E1%84%82%E1%85%A9+Title+Sequence_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>영상_카지노_Title Sequence_썸네일</t>
@@ -519,9 +524,6 @@
   </si>
   <si>
     <t>생태계를 지키고 구강건강도 지키는 구강케어 브랜드 "4분의1"이다. 생태계 교란종인 가시상추는 충치와 치주염 예방 효능을 가지고 있어 기능성 치약 개발에 활용될 수 있다. 이를 통해 구강건강과 생태계 교란종 개체 수 조절의 두 마리 토끼를 동시에 잡을 수 있다.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/EQgB3YfuJJQ?si=m69bRcRuB3JckN6r</t>
   </si>
   <si>
     <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_4%E1%84%87%E1%85%AE%E1%86%AB%E1%84%8B%E1%85%B41_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
@@ -781,7 +783,7 @@
     <t>Ballah!</t>
   </si>
   <si>
-    <t>Ballah!'는 한국어 단어 '바르다'에서 시작된 브랜드로, '버터를 바르는' 행위를 상징한다. 'Ballah!'는 김치, 들깨, 대파, 오디 등 한국의 다양한 식재료를 활용해 색다른 버터를 제공한다. 각 버터는 그 고유의 맛에 따라 밥, 파스타, 빵, 크래커 등과 함께 즐길 수 있으며, 이를 통한 식탁 위에서의 새로운 경험을 많은 이들과 나누고자 한다.</t>
+    <t>'Ballah!'는 한국어 단어 '바르다'에서 시작된 브랜드로, '버터를 바르는' 행위를 상징한다. 'Ballah!'는 김치, 들깨, 대파, 오디 등 한국의 다양한 식재료를 활용해 색다른 버터를 제공한다. 각 버터는 그 고유의 맛에 따라 밥, 파스타, 빵, 크래커 등과 함께 즐길 수 있으며, 이를 통한 식탁 위에서의 새로운 경험을 많은 이들과 나누고자 한다.</t>
   </si>
   <si>
     <t>%E1%84%87%E1%85%B3%E1%84%85%E1%85%A2%E1%86%AB%E1%84%83%E1%85%B5%E1%86%BC_Ballah_%E1%84%83%E1%85%B5%E1%84%90%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF_%E1%84%89%E1%85%AE%E1%84%8C%E1%85%A5%E1%86%BC</t>
@@ -1435,6 +1437,12 @@
   </si>
   <si>
     <t>영상_Telephobia_썸네일</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/EQgB3YfuJJQ?si=m69bRcRuB3JckN6r</t>
+  </si>
+  <si>
+    <t>%E1%84%8B%E1%85%A7%E1%86%BC%E1%84%89%E1%85%A1%E1%86%BC_4%E1%84%87%E1%85%AE%E1%86%AB%E1%84%8B%E1%85%B41_%E1%84%8A%E1%85%A5%E1%86%B7%E1%84%82%E1%85%A6%E1%84%8B%E1%85%B5%E1%86%AF</t>
   </si>
   <si>
     <t>Carly Rae Jepsen - I Really Like You (2024 MV)</t>
@@ -1484,7 +1492,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1505,6 +1513,15 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -1518,12 +1535,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1532,7 +1555,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1563,25 +1586,40 @@
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2740,44 +2778,46 @@
       <c r="P23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="5">
+      <c r="A24" s="10">
         <v>45482.998770949074</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="3" t="s">
+      <c r="H24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="3" t="s">
+      <c r="K24" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
+      <c r="L24" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
     </row>
     <row r="25">
       <c r="A25" s="5">
@@ -2793,13 +2833,13 @@
         <v>22</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>18</v>
@@ -2807,12 +2847,12 @@
       <c r="I25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J25" s="4"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -2824,7 +2864,7 @@
         <v>45483.38515827546</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>13</v>
@@ -2833,13 +2873,13 @@
         <v>30</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>18</v>
@@ -2849,10 +2889,10 @@
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -2864,7 +2904,7 @@
         <v>45483.36342819444</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>13</v>
@@ -2873,13 +2913,13 @@
         <v>14</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>18</v>
@@ -2888,13 +2928,13 @@
         <v>26</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -2902,46 +2942,44 @@
       <c r="P27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="5">
+      <c r="A28" s="10">
         <v>45482.99329047454</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="B28" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="E28" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="F28" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="3" t="s">
+      <c r="G28" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="K28" s="3" t="s">
+      <c r="J28" s="11"/>
+      <c r="K28" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
     </row>
     <row r="29">
       <c r="A29" s="5">
@@ -3188,7 +3226,7 @@
       <c r="P34" s="4"/>
     </row>
     <row r="35">
-      <c r="A35" s="10">
+      <c r="A35" s="15">
         <v>45484.06275363426</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -3389,7 +3427,7 @@
       <c r="P39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="10">
+      <c r="A40" s="15">
         <v>45484.345385810186</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -3789,7 +3827,7 @@
       <c r="K50" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="L50" s="11" t="s">
+      <c r="L50" s="16" t="s">
         <v>287</v>
       </c>
       <c r="M50" s="4"/>
@@ -4240,7 +4278,7 @@
       <c r="P61" s="4"/>
     </row>
     <row r="62">
-      <c r="A62" s="10">
+      <c r="A62" s="15">
         <v>45484.02054478009</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -4519,7 +4557,7 @@
       <c r="P68" s="4"/>
     </row>
     <row r="69">
-      <c r="A69" s="10">
+      <c r="A69" s="15">
         <v>45484.07147298611</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -4556,7 +4594,7 @@
       <c r="M69" s="4"/>
     </row>
     <row r="70">
-      <c r="A70" s="10">
+      <c r="A70" s="15">
         <v>45484.07277572917</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -4696,7 +4734,7 @@
       <c r="K73" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="L73" s="11" t="s">
+      <c r="L73" s="16" t="s">
         <v>405</v>
       </c>
       <c r="M73" s="4"/>
@@ -4776,7 +4814,7 @@
         <v>413</v>
       </c>
       <c r="K75" s="3"/>
-      <c r="L75" s="12" t="s">
+      <c r="L75" s="17" t="s">
         <v>414</v>
       </c>
       <c r="M75" s="4"/>
@@ -4974,7 +5012,7 @@
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
     </row>
-    <row r="81">
+    <row r="81" ht="172.5" customHeight="1">
       <c r="A81" s="5">
         <v>45483.66984074074</v>
       </c>
@@ -5057,24 +5095,36 @@
       <c r="P82" s="4"/>
     </row>
     <row r="83">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-    </row>
-    <row r="84">
+      <c r="A83" s="10"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="14"/>
+    </row>
+    <row r="84" hidden="1">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -5085,14 +5135,14 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
     </row>
-    <row r="85">
+    <row r="85" hidden="1">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -5110,7 +5160,7 @@
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
     </row>
-    <row r="86">
+    <row r="86" hidden="1">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -5128,7 +5178,7 @@
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
     </row>
-    <row r="87">
+    <row r="87" hidden="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -5146,7 +5196,7 @@
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
     </row>
-    <row r="88">
+    <row r="88" hidden="1">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -5164,7 +5214,7 @@
       <c r="O88" s="4"/>
       <c r="P88" s="4"/>
     </row>
-    <row r="89">
+    <row r="89" hidden="1">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -5182,7 +5232,7 @@
       <c r="O89" s="4"/>
       <c r="P89" s="4"/>
     </row>
-    <row r="90">
+    <row r="90" hidden="1">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -5200,7 +5250,7 @@
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
     </row>
-    <row r="91">
+    <row r="91" hidden="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -5218,7 +5268,7 @@
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
     </row>
-    <row r="92">
+    <row r="92" hidden="1">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -5236,7 +5286,7 @@
       <c r="O92" s="4"/>
       <c r="P92" s="4"/>
     </row>
-    <row r="93">
+    <row r="93" hidden="1">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -5254,7 +5304,7 @@
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
     </row>
-    <row r="94">
+    <row r="94" hidden="1">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -5272,7 +5322,7 @@
       <c r="O94" s="4"/>
       <c r="P94" s="4"/>
     </row>
-    <row r="95">
+    <row r="95" hidden="1">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -5290,7 +5340,7 @@
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
     </row>
-    <row r="96">
+    <row r="96" hidden="1">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -5308,7 +5358,7 @@
       <c r="O96" s="4"/>
       <c r="P96" s="4"/>
     </row>
-    <row r="97">
+    <row r="97" hidden="1">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -5326,7 +5376,7 @@
       <c r="O97" s="4"/>
       <c r="P97" s="4"/>
     </row>
-    <row r="98">
+    <row r="98" hidden="1">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -5344,7 +5394,7 @@
       <c r="O98" s="4"/>
       <c r="P98" s="4"/>
     </row>
-    <row r="99">
+    <row r="99" hidden="1">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -5362,7 +5412,7 @@
       <c r="O99" s="4"/>
       <c r="P99" s="4"/>
     </row>
-    <row r="100">
+    <row r="100" hidden="1">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -5380,7 +5430,7 @@
       <c r="O100" s="4"/>
       <c r="P100" s="4"/>
     </row>
-    <row r="101">
+    <row r="101" hidden="1">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -5398,7 +5448,7 @@
       <c r="O101" s="4"/>
       <c r="P101" s="4"/>
     </row>
-    <row r="102">
+    <row r="102" hidden="1">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -5416,7 +5466,7 @@
       <c r="O102" s="4"/>
       <c r="P102" s="4"/>
     </row>
-    <row r="103">
+    <row r="103" hidden="1">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -5434,7 +5484,7 @@
       <c r="O103" s="4"/>
       <c r="P103" s="4"/>
     </row>
-    <row r="104">
+    <row r="104" hidden="1">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -5452,7 +5502,7 @@
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
     </row>
-    <row r="105">
+    <row r="105" hidden="1">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -5470,7 +5520,7 @@
       <c r="O105" s="4"/>
       <c r="P105" s="4"/>
     </row>
-    <row r="106">
+    <row r="106" hidden="1">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -5488,7 +5538,7 @@
       <c r="O106" s="4"/>
       <c r="P106" s="4"/>
     </row>
-    <row r="107">
+    <row r="107" hidden="1">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -5506,7 +5556,7 @@
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
     </row>
-    <row r="108">
+    <row r="108" hidden="1">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -5524,7 +5574,7 @@
       <c r="O108" s="4"/>
       <c r="P108" s="4"/>
     </row>
-    <row r="109">
+    <row r="109" hidden="1">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -5542,7 +5592,7 @@
       <c r="O109" s="4"/>
       <c r="P109" s="4"/>
     </row>
-    <row r="110">
+    <row r="110" hidden="1">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -5560,7 +5610,7 @@
       <c r="O110" s="4"/>
       <c r="P110" s="4"/>
     </row>
-    <row r="111">
+    <row r="111" hidden="1">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -5578,7 +5628,7 @@
       <c r="O111" s="4"/>
       <c r="P111" s="4"/>
     </row>
-    <row r="112">
+    <row r="112" hidden="1">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -5596,7 +5646,7 @@
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
     </row>
-    <row r="113">
+    <row r="113" hidden="1">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -5614,7 +5664,7 @@
       <c r="O113" s="4"/>
       <c r="P113" s="4"/>
     </row>
-    <row r="114">
+    <row r="114" hidden="1">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -5632,7 +5682,7 @@
       <c r="O114" s="4"/>
       <c r="P114" s="4"/>
     </row>
-    <row r="115">
+    <row r="115" hidden="1">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -5650,7 +5700,7 @@
       <c r="O115" s="4"/>
       <c r="P115" s="4"/>
     </row>
-    <row r="116">
+    <row r="116" hidden="1">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -5668,7 +5718,7 @@
       <c r="O116" s="4"/>
       <c r="P116" s="4"/>
     </row>
-    <row r="117">
+    <row r="117" hidden="1">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -5686,7 +5736,7 @@
       <c r="O117" s="4"/>
       <c r="P117" s="4"/>
     </row>
-    <row r="118">
+    <row r="118" hidden="1">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -5704,7 +5754,7 @@
       <c r="O118" s="4"/>
       <c r="P118" s="4"/>
     </row>
-    <row r="119">
+    <row r="119" hidden="1">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -5722,7 +5772,7 @@
       <c r="O119" s="4"/>
       <c r="P119" s="4"/>
     </row>
-    <row r="120">
+    <row r="120" hidden="1">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -5740,7 +5790,7 @@
       <c r="O120" s="4"/>
       <c r="P120" s="4"/>
     </row>
-    <row r="121">
+    <row r="121" hidden="1">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -5758,7 +5808,7 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122">
+    <row r="122" hidden="1">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -5776,7 +5826,7 @@
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
     </row>
-    <row r="123">
+    <row r="123" hidden="1">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -5794,7 +5844,7 @@
       <c r="O123" s="4"/>
       <c r="P123" s="4"/>
     </row>
-    <row r="124">
+    <row r="124" hidden="1">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -5812,7 +5862,7 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
     </row>
-    <row r="125">
+    <row r="125" hidden="1">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -5830,7 +5880,7 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126">
+    <row r="126" hidden="1">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -5848,7 +5898,7 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
     </row>
-    <row r="127">
+    <row r="127" hidden="1">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -5866,7 +5916,7 @@
       <c r="O127" s="4"/>
       <c r="P127" s="4"/>
     </row>
-    <row r="128">
+    <row r="128" hidden="1">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -5884,7 +5934,7 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129">
+    <row r="129" hidden="1">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -5902,7 +5952,7 @@
       <c r="O129" s="4"/>
       <c r="P129" s="4"/>
     </row>
-    <row r="130">
+    <row r="130" hidden="1">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -5920,7 +5970,7 @@
       <c r="O130" s="4"/>
       <c r="P130" s="4"/>
     </row>
-    <row r="131">
+    <row r="131" hidden="1">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -5938,7 +5988,7 @@
       <c r="O131" s="4"/>
       <c r="P131" s="4"/>
     </row>
-    <row r="132">
+    <row r="132" hidden="1">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -5956,7 +6006,7 @@
       <c r="O132" s="4"/>
       <c r="P132" s="4"/>
     </row>
-    <row r="133">
+    <row r="133" hidden="1">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -5974,7 +6024,7 @@
       <c r="O133" s="4"/>
       <c r="P133" s="4"/>
     </row>
-    <row r="134">
+    <row r="134" hidden="1">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -5992,7 +6042,7 @@
       <c r="O134" s="4"/>
       <c r="P134" s="4"/>
     </row>
-    <row r="135">
+    <row r="135" hidden="1">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -6010,7 +6060,7 @@
       <c r="O135" s="4"/>
       <c r="P135" s="4"/>
     </row>
-    <row r="136">
+    <row r="136" hidden="1">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -6028,7 +6078,7 @@
       <c r="O136" s="4"/>
       <c r="P136" s="4"/>
     </row>
-    <row r="137">
+    <row r="137" hidden="1">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -6046,7 +6096,7 @@
       <c r="O137" s="4"/>
       <c r="P137" s="4"/>
     </row>
-    <row r="138">
+    <row r="138" hidden="1">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -6064,7 +6114,7 @@
       <c r="O138" s="4"/>
       <c r="P138" s="4"/>
     </row>
-    <row r="139">
+    <row r="139" hidden="1">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -6082,7 +6132,7 @@
       <c r="O139" s="4"/>
       <c r="P139" s="4"/>
     </row>
-    <row r="140">
+    <row r="140" hidden="1">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -6100,7 +6150,7 @@
       <c r="O140" s="4"/>
       <c r="P140" s="4"/>
     </row>
-    <row r="141">
+    <row r="141" hidden="1">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -6118,7 +6168,7 @@
       <c r="O141" s="4"/>
       <c r="P141" s="4"/>
     </row>
-    <row r="142">
+    <row r="142" hidden="1">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -6136,7 +6186,7 @@
       <c r="O142" s="4"/>
       <c r="P142" s="4"/>
     </row>
-    <row r="143">
+    <row r="143" hidden="1">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -6154,7 +6204,7 @@
       <c r="O143" s="4"/>
       <c r="P143" s="4"/>
     </row>
-    <row r="144">
+    <row r="144" hidden="1">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -6172,7 +6222,7 @@
       <c r="O144" s="4"/>
       <c r="P144" s="4"/>
     </row>
-    <row r="145">
+    <row r="145" hidden="1">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -6190,7 +6240,7 @@
       <c r="O145" s="4"/>
       <c r="P145" s="4"/>
     </row>
-    <row r="146">
+    <row r="146" hidden="1">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -6208,7 +6258,7 @@
       <c r="O146" s="4"/>
       <c r="P146" s="4"/>
     </row>
-    <row r="147">
+    <row r="147" hidden="1">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -6226,7 +6276,7 @@
       <c r="O147" s="4"/>
       <c r="P147" s="4"/>
     </row>
-    <row r="148">
+    <row r="148" hidden="1">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -6244,7 +6294,7 @@
       <c r="O148" s="4"/>
       <c r="P148" s="4"/>
     </row>
-    <row r="149">
+    <row r="149" hidden="1">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -6262,7 +6312,7 @@
       <c r="O149" s="4"/>
       <c r="P149" s="4"/>
     </row>
-    <row r="150">
+    <row r="150" hidden="1">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -6280,7 +6330,7 @@
       <c r="O150" s="4"/>
       <c r="P150" s="4"/>
     </row>
-    <row r="151">
+    <row r="151" hidden="1">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -6298,7 +6348,7 @@
       <c r="O151" s="4"/>
       <c r="P151" s="4"/>
     </row>
-    <row r="152">
+    <row r="152" hidden="1">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -6316,7 +6366,7 @@
       <c r="O152" s="4"/>
       <c r="P152" s="4"/>
     </row>
-    <row r="153">
+    <row r="153" hidden="1">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -6334,7 +6384,7 @@
       <c r="O153" s="4"/>
       <c r="P153" s="4"/>
     </row>
-    <row r="154">
+    <row r="154" hidden="1">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -6352,7 +6402,7 @@
       <c r="O154" s="4"/>
       <c r="P154" s="4"/>
     </row>
-    <row r="155">
+    <row r="155" hidden="1">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -6370,7 +6420,7 @@
       <c r="O155" s="4"/>
       <c r="P155" s="4"/>
     </row>
-    <row r="156">
+    <row r="156" hidden="1">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -6388,7 +6438,7 @@
       <c r="O156" s="4"/>
       <c r="P156" s="4"/>
     </row>
-    <row r="157">
+    <row r="157" hidden="1">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -6406,7 +6456,7 @@
       <c r="O157" s="4"/>
       <c r="P157" s="4"/>
     </row>
-    <row r="158">
+    <row r="158" hidden="1">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -6424,7 +6474,7 @@
       <c r="O158" s="4"/>
       <c r="P158" s="4"/>
     </row>
-    <row r="159">
+    <row r="159" hidden="1">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -6442,7 +6492,7 @@
       <c r="O159" s="4"/>
       <c r="P159" s="4"/>
     </row>
-    <row r="160">
+    <row r="160" hidden="1">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -6460,7 +6510,7 @@
       <c r="O160" s="4"/>
       <c r="P160" s="4"/>
     </row>
-    <row r="161">
+    <row r="161" hidden="1">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -6478,7 +6528,7 @@
       <c r="O161" s="4"/>
       <c r="P161" s="4"/>
     </row>
-    <row r="162">
+    <row r="162" hidden="1">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -6496,7 +6546,7 @@
       <c r="O162" s="4"/>
       <c r="P162" s="4"/>
     </row>
-    <row r="163">
+    <row r="163" hidden="1">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -6514,7 +6564,7 @@
       <c r="O163" s="4"/>
       <c r="P163" s="4"/>
     </row>
-    <row r="164">
+    <row r="164" hidden="1">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -6532,7 +6582,7 @@
       <c r="O164" s="4"/>
       <c r="P164" s="4"/>
     </row>
-    <row r="165">
+    <row r="165" hidden="1">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -6550,7 +6600,7 @@
       <c r="O165" s="4"/>
       <c r="P165" s="4"/>
     </row>
-    <row r="166">
+    <row r="166" hidden="1">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -6568,7 +6618,7 @@
       <c r="O166" s="4"/>
       <c r="P166" s="4"/>
     </row>
-    <row r="167">
+    <row r="167" hidden="1">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -6586,7 +6636,7 @@
       <c r="O167" s="4"/>
       <c r="P167" s="4"/>
     </row>
-    <row r="168">
+    <row r="168" hidden="1">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -6604,7 +6654,7 @@
       <c r="O168" s="4"/>
       <c r="P168" s="4"/>
     </row>
-    <row r="169">
+    <row r="169" hidden="1">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -6622,7 +6672,7 @@
       <c r="O169" s="4"/>
       <c r="P169" s="4"/>
     </row>
-    <row r="170">
+    <row r="170" hidden="1">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -6640,7 +6690,7 @@
       <c r="O170" s="4"/>
       <c r="P170" s="4"/>
     </row>
-    <row r="171">
+    <row r="171" hidden="1">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -6658,7 +6708,7 @@
       <c r="O171" s="4"/>
       <c r="P171" s="4"/>
     </row>
-    <row r="172">
+    <row r="172" hidden="1">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -6676,7 +6726,7 @@
       <c r="O172" s="4"/>
       <c r="P172" s="4"/>
     </row>
-    <row r="173">
+    <row r="173" hidden="1">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -6694,7 +6744,7 @@
       <c r="O173" s="4"/>
       <c r="P173" s="4"/>
     </row>
-    <row r="174">
+    <row r="174" hidden="1">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -6712,7 +6762,7 @@
       <c r="O174" s="4"/>
       <c r="P174" s="4"/>
     </row>
-    <row r="175">
+    <row r="175" hidden="1">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -6730,7 +6780,7 @@
       <c r="O175" s="4"/>
       <c r="P175" s="4"/>
     </row>
-    <row r="176">
+    <row r="176" hidden="1">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -6748,7 +6798,7 @@
       <c r="O176" s="4"/>
       <c r="P176" s="4"/>
     </row>
-    <row r="177">
+    <row r="177" hidden="1">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -6766,12 +6816,40 @@
       <c r="O177" s="4"/>
       <c r="P177" s="4"/>
     </row>
+    <row r="178" hidden="1">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="4"/>
+      <c r="M178" s="4"/>
+      <c r="N178" s="4"/>
+      <c r="O178" s="4"/>
+      <c r="P178" s="4"/>
+    </row>
   </sheetData>
+  <autoFilter ref="$A$1:$P$178">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="UXUI"/>
+        <filter val="영상"/>
+        <filter val="브랜딩"/>
+        <filter val="그래픽"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D1">
       <formula1>"분야"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D82">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D83">
       <formula1>"브랜딩,그래픽,UXUI,영상"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6784,24 +6862,24 @@
     <hyperlink r:id="rId6" ref="J15"/>
     <hyperlink r:id="rId7" ref="J24"/>
     <hyperlink r:id="rId8" ref="J27"/>
-    <hyperlink r:id="rId9" ref="J28"/>
-    <hyperlink r:id="rId10" ref="J31"/>
-    <hyperlink r:id="rId11" ref="J33"/>
-    <hyperlink r:id="rId12" ref="J35"/>
-    <hyperlink r:id="rId13" ref="J39"/>
-    <hyperlink r:id="rId14" ref="J40"/>
-    <hyperlink r:id="rId15" ref="J42"/>
-    <hyperlink r:id="rId16" ref="J45"/>
-    <hyperlink r:id="rId17" ref="J47"/>
-    <hyperlink r:id="rId18" ref="J49"/>
-    <hyperlink r:id="rId19" ref="J58"/>
-    <hyperlink r:id="rId20" ref="J60"/>
-    <hyperlink r:id="rId21" ref="J61"/>
-    <hyperlink r:id="rId22" ref="J67"/>
-    <hyperlink r:id="rId23" ref="J72"/>
-    <hyperlink r:id="rId24" ref="J75"/>
-    <hyperlink r:id="rId25" ref="J80"/>
-    <hyperlink r:id="rId26" ref="J82"/>
+    <hyperlink r:id="rId9" ref="J31"/>
+    <hyperlink r:id="rId10" ref="J33"/>
+    <hyperlink r:id="rId11" ref="J35"/>
+    <hyperlink r:id="rId12" ref="J39"/>
+    <hyperlink r:id="rId13" ref="J40"/>
+    <hyperlink r:id="rId14" ref="J42"/>
+    <hyperlink r:id="rId15" ref="J45"/>
+    <hyperlink r:id="rId16" ref="J47"/>
+    <hyperlink r:id="rId17" ref="J49"/>
+    <hyperlink r:id="rId18" ref="J58"/>
+    <hyperlink r:id="rId19" ref="J60"/>
+    <hyperlink r:id="rId20" ref="J61"/>
+    <hyperlink r:id="rId21" ref="J67"/>
+    <hyperlink r:id="rId22" ref="J72"/>
+    <hyperlink r:id="rId23" ref="J75"/>
+    <hyperlink r:id="rId24" ref="J80"/>
+    <hyperlink r:id="rId25" ref="J82"/>
+    <hyperlink r:id="rId26" ref="J83"/>
   </hyperlinks>
   <drawing r:id="rId27"/>
 </worksheet>
@@ -6834,10 +6912,10 @@
         <v>391</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
@@ -6846,7 +6924,7 @@
         <v>26</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -6875,7 +6953,7 @@
         <v>178</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>18</v>
@@ -6884,7 +6962,7 @@
         <v>26</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -6913,7 +6991,7 @@
         <v>392</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>18</v>
@@ -6923,7 +7001,7 @@
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="3" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -6936,7 +7014,7 @@
         <v>45482.98098891204</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>13</v>
@@ -6945,13 +7023,13 @@
         <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>18</v>
@@ -6961,7 +7039,7 @@
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="3" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -6970,46 +7048,46 @@
       <c r="P4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="13">
+      <c r="A5" s="18">
         <v>45483.67178862268</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="14" t="s">
+      <c r="F5" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="K5" s="14" t="s">
+      <c r="J5" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="K5" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
     </row>
   </sheetData>
   <dataValidations>
